--- a/students/sdr_club_2025.xlsx
+++ b/students/sdr_club_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF33FA3-5E9A-4DA5-84F1-2A125971B234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EEBE51-F26C-4D56-A23E-9EBB3DADA3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +289,14 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -350,11 +356,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -367,7 +382,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -380,6 +394,8 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -602,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M19" sqref="M19"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -626,22 +642,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="21">
         <v>45916</v>
       </c>
-      <c r="E1" s="22">
+      <c r="E1" s="21">
         <v>45923</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="23">
+        <v>45930</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -664,7 +682,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -677,30 +695,32 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -713,66 +733,70 @@
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -785,30 +809,32 @@
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -821,66 +847,70 @@
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -893,30 +923,32 @@
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -929,66 +961,70 @@
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1001,30 +1037,32 @@
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1037,30 +1075,32 @@
       <c r="E12" s="6">
         <v>0</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1073,102 +1113,108 @@
       <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="6">
         <v>1</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="6">
         <v>1</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1181,30 +1227,32 @@
       <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1217,66 +1265,70 @@
       <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="6">
         <v>1</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1289,30 +1341,32 @@
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1325,30 +1379,32 @@
       <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1361,30 +1417,32 @@
       <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1397,102 +1455,108 @@
       <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="6">
         <v>1</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="6">
         <v>1</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -1505,866 +1569,917 @@
       <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="6">
         <v>1</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="6">
         <v>1</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="6">
         <v>1</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="6">
         <v>1</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="6">
         <v>1</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
+      <c r="F31" s="18">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="6">
         <v>1</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="6">
         <v>1</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="12"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="6">
         <v>1</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="6">
         <v>1</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="12"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="6">
         <v>1</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="12"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="6">
         <v>1</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14"/>
+      <c r="F39" s="18">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="6">
         <v>1</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
+      <c r="F40" s="18">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="12"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="6">
         <v>1</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
+      <c r="F41" s="18">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="6">
         <v>1</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
+      <c r="F42" s="18">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="12"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="6">
         <v>1</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
+      <c r="F43" s="18">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="12"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="6">
         <v>1</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
+      <c r="F44" s="18">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="12"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="6">
         <v>1</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="14"/>
+      <c r="F45" s="18">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="12"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="6">
         <v>1</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="14"/>
+      <c r="F46" s="18">
+        <v>1</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="12"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="6">
         <v>1</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="14"/>
+      <c r="F47" s="18">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="12"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="6">
         <v>1</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
       </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="14"/>
+      <c r="F48" s="18">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
     </row>
     <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="6">
         <v>1</v>
       </c>
       <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="22">
         <v>1</v>
       </c>
       <c r="L49" s="1"/>
@@ -2374,3803 +2489,3803 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
     </row>
-    <row r="128" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
     </row>
-    <row r="129" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
     </row>
-    <row r="130" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
     </row>
-    <row r="141" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
     </row>
-    <row r="142" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
     </row>
-    <row r="144" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
     </row>
-    <row r="148" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
     </row>
-    <row r="155" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
     </row>
-    <row r="156" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
     </row>
-    <row r="157" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
     </row>
-    <row r="158" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
     </row>
-    <row r="159" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
     </row>
-    <row r="160" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
     </row>
-    <row r="161" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
     </row>
-    <row r="162" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
     </row>
-    <row r="163" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
     </row>
-    <row r="164" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
     </row>
-    <row r="165" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
     </row>
-    <row r="166" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
     </row>
-    <row r="167" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
     </row>
-    <row r="168" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
     </row>
-    <row r="169" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
     </row>
-    <row r="170" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
     </row>
-    <row r="171" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
     </row>
-    <row r="172" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
     </row>
-    <row r="173" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
     </row>
-    <row r="174" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
     </row>
-    <row r="175" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
     </row>
-    <row r="176" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
     </row>
-    <row r="177" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
     </row>
-    <row r="178" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
     </row>
-    <row r="179" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
     </row>
-    <row r="180" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
     </row>
-    <row r="181" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
     </row>
-    <row r="182" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
     </row>
-    <row r="183" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
     </row>
-    <row r="184" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
     </row>
-    <row r="185" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
     </row>
-    <row r="186" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
     </row>
-    <row r="187" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
     </row>
-    <row r="188" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
     </row>
-    <row r="189" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
     </row>
-    <row r="190" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
     </row>
-    <row r="191" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
     </row>
-    <row r="192" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
     </row>
-    <row r="193" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
     </row>
-    <row r="194" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
     </row>
-    <row r="195" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
     </row>
-    <row r="196" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
     </row>
-    <row r="197" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
     </row>
-    <row r="198" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
     </row>
-    <row r="199" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
     </row>
-    <row r="200" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
     </row>
-    <row r="201" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
     </row>
-    <row r="202" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
     </row>
-    <row r="203" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
     </row>
-    <row r="204" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
     </row>
-    <row r="205" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
     </row>
-    <row r="206" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
     </row>
-    <row r="207" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
     </row>
-    <row r="208" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
     </row>
-    <row r="209" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
     </row>
-    <row r="210" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
     </row>
-    <row r="211" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
     </row>
-    <row r="212" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
     </row>
-    <row r="213" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
     </row>
-    <row r="214" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
     </row>
-    <row r="215" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
     </row>
-    <row r="216" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
     </row>
-    <row r="217" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
     </row>
-    <row r="218" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
     </row>
-    <row r="219" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
     </row>
-    <row r="220" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
     </row>
-    <row r="221" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
     </row>
-    <row r="222" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
     </row>
-    <row r="223" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
     </row>
-    <row r="224" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
     </row>
-    <row r="225" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
     </row>
-    <row r="226" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
     </row>
-    <row r="227" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
     </row>
-    <row r="228" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
     </row>
-    <row r="229" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
     </row>
-    <row r="230" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
     </row>
-    <row r="231" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
     </row>
-    <row r="232" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
     </row>
-    <row r="233" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
     </row>
-    <row r="234" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
     </row>
-    <row r="235" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
     </row>
-    <row r="236" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
     </row>
-    <row r="237" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
     </row>
-    <row r="238" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
     </row>
-    <row r="239" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
     </row>
-    <row r="240" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
     </row>
-    <row r="241" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
     </row>
-    <row r="242" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
     </row>
-    <row r="243" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
     </row>
-    <row r="244" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
     </row>
-    <row r="245" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
     </row>
-    <row r="246" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
     </row>
-    <row r="247" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
     </row>
-    <row r="248" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
     </row>
-    <row r="249" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
     </row>
-    <row r="250" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
     </row>
-    <row r="251" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
     </row>
-    <row r="252" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
     </row>
-    <row r="253" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
     </row>
-    <row r="254" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
     </row>
-    <row r="255" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
     </row>
-    <row r="256" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
     </row>
-    <row r="257" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
     </row>
-    <row r="258" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L258" s="1"/>
       <c r="M258" s="1"/>
     </row>
-    <row r="259" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
     </row>
-    <row r="260" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L260" s="1"/>
       <c r="M260" s="1"/>
     </row>
-    <row r="261" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
     </row>
-    <row r="262" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
     </row>
-    <row r="263" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
     </row>
-    <row r="264" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
     </row>
-    <row r="265" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
     </row>
-    <row r="266" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L266" s="1"/>
       <c r="M266" s="1"/>
     </row>
-    <row r="267" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L267" s="1"/>
       <c r="M267" s="1"/>
     </row>
-    <row r="268" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L268" s="1"/>
       <c r="M268" s="1"/>
     </row>
-    <row r="269" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
     </row>
-    <row r="270" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
     </row>
-    <row r="271" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
     </row>
-    <row r="272" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
     </row>
-    <row r="273" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
     </row>
-    <row r="274" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
     </row>
-    <row r="275" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
     </row>
-    <row r="276" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L276" s="1"/>
       <c r="M276" s="1"/>
     </row>
-    <row r="277" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L277" s="1"/>
       <c r="M277" s="1"/>
     </row>
-    <row r="278" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L278" s="1"/>
       <c r="M278" s="1"/>
     </row>
-    <row r="279" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
     </row>
-    <row r="280" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L280" s="1"/>
       <c r="M280" s="1"/>
     </row>
-    <row r="281" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
     </row>
-    <row r="282" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
     </row>
-    <row r="283" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
     </row>
-    <row r="284" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
     </row>
-    <row r="285" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
     </row>
-    <row r="286" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L286" s="1"/>
       <c r="M286" s="1"/>
     </row>
-    <row r="287" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
     </row>
-    <row r="288" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L288" s="1"/>
       <c r="M288" s="1"/>
     </row>
-    <row r="289" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L289" s="1"/>
       <c r="M289" s="1"/>
     </row>
-    <row r="290" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
     </row>
-    <row r="291" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
     </row>
-    <row r="292" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
     </row>
-    <row r="293" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
     </row>
-    <row r="294" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L294" s="1"/>
       <c r="M294" s="1"/>
     </row>
-    <row r="295" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L295" s="1"/>
       <c r="M295" s="1"/>
     </row>
-    <row r="296" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L296" s="1"/>
       <c r="M296" s="1"/>
     </row>
-    <row r="297" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L297" s="1"/>
       <c r="M297" s="1"/>
     </row>
-    <row r="298" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L298" s="1"/>
       <c r="M298" s="1"/>
     </row>
-    <row r="299" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L299" s="1"/>
       <c r="M299" s="1"/>
     </row>
-    <row r="300" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
     </row>
-    <row r="301" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L301" s="1"/>
       <c r="M301" s="1"/>
     </row>
-    <row r="302" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L302" s="1"/>
       <c r="M302" s="1"/>
     </row>
-    <row r="303" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L303" s="1"/>
       <c r="M303" s="1"/>
     </row>
-    <row r="304" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L304" s="1"/>
       <c r="M304" s="1"/>
     </row>
-    <row r="305" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
     </row>
-    <row r="306" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L306" s="1"/>
       <c r="M306" s="1"/>
     </row>
-    <row r="307" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L307" s="1"/>
       <c r="M307" s="1"/>
     </row>
-    <row r="308" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L308" s="1"/>
       <c r="M308" s="1"/>
     </row>
-    <row r="309" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L309" s="1"/>
       <c r="M309" s="1"/>
     </row>
-    <row r="310" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
     </row>
-    <row r="311" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
     </row>
-    <row r="312" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L312" s="1"/>
       <c r="M312" s="1"/>
     </row>
-    <row r="313" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L313" s="1"/>
       <c r="M313" s="1"/>
     </row>
-    <row r="314" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L314" s="1"/>
       <c r="M314" s="1"/>
     </row>
-    <row r="315" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L315" s="1"/>
       <c r="M315" s="1"/>
     </row>
-    <row r="316" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L316" s="1"/>
       <c r="M316" s="1"/>
     </row>
-    <row r="317" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L317" s="1"/>
       <c r="M317" s="1"/>
     </row>
-    <row r="318" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L318" s="1"/>
       <c r="M318" s="1"/>
     </row>
-    <row r="319" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L319" s="1"/>
       <c r="M319" s="1"/>
     </row>
-    <row r="320" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L320" s="1"/>
       <c r="M320" s="1"/>
     </row>
-    <row r="321" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
     </row>
-    <row r="322" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
     </row>
-    <row r="323" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
     </row>
-    <row r="324" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L324" s="1"/>
       <c r="M324" s="1"/>
     </row>
-    <row r="325" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L325" s="1"/>
       <c r="M325" s="1"/>
     </row>
-    <row r="326" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L326" s="1"/>
       <c r="M326" s="1"/>
     </row>
-    <row r="327" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L327" s="1"/>
       <c r="M327" s="1"/>
     </row>
-    <row r="328" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L328" s="1"/>
       <c r="M328" s="1"/>
     </row>
-    <row r="329" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
     </row>
-    <row r="330" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L330" s="1"/>
       <c r="M330" s="1"/>
     </row>
-    <row r="331" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L331" s="1"/>
       <c r="M331" s="1"/>
     </row>
-    <row r="332" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L332" s="1"/>
       <c r="M332" s="1"/>
     </row>
-    <row r="333" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
     </row>
-    <row r="334" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L334" s="1"/>
       <c r="M334" s="1"/>
     </row>
-    <row r="335" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L335" s="1"/>
       <c r="M335" s="1"/>
     </row>
-    <row r="336" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L336" s="1"/>
       <c r="M336" s="1"/>
     </row>
-    <row r="337" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L337" s="1"/>
       <c r="M337" s="1"/>
     </row>
-    <row r="338" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L338" s="1"/>
       <c r="M338" s="1"/>
     </row>
-    <row r="339" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L339" s="1"/>
       <c r="M339" s="1"/>
     </row>
-    <row r="340" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L340" s="1"/>
       <c r="M340" s="1"/>
     </row>
-    <row r="341" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L341" s="1"/>
       <c r="M341" s="1"/>
     </row>
-    <row r="342" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L342" s="1"/>
       <c r="M342" s="1"/>
     </row>
-    <row r="343" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
     </row>
-    <row r="344" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L344" s="1"/>
       <c r="M344" s="1"/>
     </row>
-    <row r="345" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
     </row>
-    <row r="346" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L346" s="1"/>
       <c r="M346" s="1"/>
     </row>
-    <row r="347" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L347" s="1"/>
       <c r="M347" s="1"/>
     </row>
-    <row r="348" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L348" s="1"/>
       <c r="M348" s="1"/>
     </row>
-    <row r="349" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L349" s="1"/>
       <c r="M349" s="1"/>
     </row>
-    <row r="350" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L350" s="1"/>
       <c r="M350" s="1"/>
     </row>
-    <row r="351" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L351" s="1"/>
       <c r="M351" s="1"/>
     </row>
-    <row r="352" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L352" s="1"/>
       <c r="M352" s="1"/>
     </row>
-    <row r="353" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L353" s="1"/>
       <c r="M353" s="1"/>
     </row>
-    <row r="354" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L354" s="1"/>
       <c r="M354" s="1"/>
     </row>
-    <row r="355" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L355" s="1"/>
       <c r="M355" s="1"/>
     </row>
-    <row r="356" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L356" s="1"/>
       <c r="M356" s="1"/>
     </row>
-    <row r="357" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L357" s="1"/>
       <c r="M357" s="1"/>
     </row>
-    <row r="358" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L358" s="1"/>
       <c r="M358" s="1"/>
     </row>
-    <row r="359" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L359" s="1"/>
       <c r="M359" s="1"/>
     </row>
-    <row r="360" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L360" s="1"/>
       <c r="M360" s="1"/>
     </row>
-    <row r="361" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L361" s="1"/>
       <c r="M361" s="1"/>
     </row>
-    <row r="362" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L362" s="1"/>
       <c r="M362" s="1"/>
     </row>
-    <row r="363" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L363" s="1"/>
       <c r="M363" s="1"/>
     </row>
-    <row r="364" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L364" s="1"/>
       <c r="M364" s="1"/>
     </row>
-    <row r="365" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L365" s="1"/>
       <c r="M365" s="1"/>
     </row>
-    <row r="366" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L366" s="1"/>
       <c r="M366" s="1"/>
     </row>
-    <row r="367" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L367" s="1"/>
       <c r="M367" s="1"/>
     </row>
-    <row r="368" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L368" s="1"/>
       <c r="M368" s="1"/>
     </row>
-    <row r="369" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L369" s="1"/>
       <c r="M369" s="1"/>
     </row>
-    <row r="370" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L370" s="1"/>
       <c r="M370" s="1"/>
     </row>
-    <row r="371" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L371" s="1"/>
       <c r="M371" s="1"/>
     </row>
-    <row r="372" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L372" s="1"/>
       <c r="M372" s="1"/>
     </row>
-    <row r="373" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L373" s="1"/>
       <c r="M373" s="1"/>
     </row>
-    <row r="374" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L374" s="1"/>
       <c r="M374" s="1"/>
     </row>
-    <row r="375" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L375" s="1"/>
       <c r="M375" s="1"/>
     </row>
-    <row r="376" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L376" s="1"/>
       <c r="M376" s="1"/>
     </row>
-    <row r="377" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L377" s="1"/>
       <c r="M377" s="1"/>
     </row>
-    <row r="378" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L378" s="1"/>
       <c r="M378" s="1"/>
     </row>
-    <row r="379" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L379" s="1"/>
       <c r="M379" s="1"/>
     </row>
-    <row r="380" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L380" s="1"/>
       <c r="M380" s="1"/>
     </row>
-    <row r="381" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L381" s="1"/>
       <c r="M381" s="1"/>
     </row>
-    <row r="382" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L382" s="1"/>
       <c r="M382" s="1"/>
     </row>
-    <row r="383" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L383" s="1"/>
       <c r="M383" s="1"/>
     </row>
-    <row r="384" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L384" s="1"/>
       <c r="M384" s="1"/>
     </row>
-    <row r="385" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L385" s="1"/>
       <c r="M385" s="1"/>
     </row>
-    <row r="386" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L386" s="1"/>
       <c r="M386" s="1"/>
     </row>
-    <row r="387" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L387" s="1"/>
       <c r="M387" s="1"/>
     </row>
-    <row r="388" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L388" s="1"/>
       <c r="M388" s="1"/>
     </row>
-    <row r="389" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L389" s="1"/>
       <c r="M389" s="1"/>
     </row>
-    <row r="390" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L390" s="1"/>
       <c r="M390" s="1"/>
     </row>
-    <row r="391" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L391" s="1"/>
       <c r="M391" s="1"/>
     </row>
-    <row r="392" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L392" s="1"/>
       <c r="M392" s="1"/>
     </row>
-    <row r="393" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L393" s="1"/>
       <c r="M393" s="1"/>
     </row>
-    <row r="394" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L394" s="1"/>
       <c r="M394" s="1"/>
     </row>
-    <row r="395" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L395" s="1"/>
       <c r="M395" s="1"/>
     </row>
-    <row r="396" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L396" s="1"/>
       <c r="M396" s="1"/>
     </row>
-    <row r="397" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L397" s="1"/>
       <c r="M397" s="1"/>
     </row>
-    <row r="398" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L398" s="1"/>
       <c r="M398" s="1"/>
     </row>
-    <row r="399" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L399" s="1"/>
       <c r="M399" s="1"/>
     </row>
-    <row r="400" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L400" s="1"/>
       <c r="M400" s="1"/>
     </row>
-    <row r="401" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L401" s="1"/>
       <c r="M401" s="1"/>
     </row>
-    <row r="402" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L402" s="1"/>
       <c r="M402" s="1"/>
     </row>
-    <row r="403" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L403" s="1"/>
       <c r="M403" s="1"/>
     </row>
-    <row r="404" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L404" s="1"/>
       <c r="M404" s="1"/>
     </row>
-    <row r="405" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L405" s="1"/>
       <c r="M405" s="1"/>
     </row>
-    <row r="406" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L406" s="1"/>
       <c r="M406" s="1"/>
     </row>
-    <row r="407" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L407" s="1"/>
       <c r="M407" s="1"/>
     </row>
-    <row r="408" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L408" s="1"/>
       <c r="M408" s="1"/>
     </row>
-    <row r="409" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L409" s="1"/>
       <c r="M409" s="1"/>
     </row>
-    <row r="410" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L410" s="1"/>
       <c r="M410" s="1"/>
     </row>
-    <row r="411" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L411" s="1"/>
       <c r="M411" s="1"/>
     </row>
-    <row r="412" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L412" s="1"/>
       <c r="M412" s="1"/>
     </row>
-    <row r="413" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L413" s="1"/>
       <c r="M413" s="1"/>
     </row>
-    <row r="414" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L414" s="1"/>
       <c r="M414" s="1"/>
     </row>
-    <row r="415" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L415" s="1"/>
       <c r="M415" s="1"/>
     </row>
-    <row r="416" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L416" s="1"/>
       <c r="M416" s="1"/>
     </row>
-    <row r="417" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L417" s="1"/>
       <c r="M417" s="1"/>
     </row>
-    <row r="418" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L418" s="1"/>
       <c r="M418" s="1"/>
     </row>
-    <row r="419" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L419" s="1"/>
       <c r="M419" s="1"/>
     </row>
-    <row r="420" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L420" s="1"/>
       <c r="M420" s="1"/>
     </row>
-    <row r="421" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L421" s="1"/>
       <c r="M421" s="1"/>
     </row>
-    <row r="422" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L422" s="1"/>
       <c r="M422" s="1"/>
     </row>
-    <row r="423" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L423" s="1"/>
       <c r="M423" s="1"/>
     </row>
-    <row r="424" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L424" s="1"/>
       <c r="M424" s="1"/>
     </row>
-    <row r="425" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L425" s="1"/>
       <c r="M425" s="1"/>
     </row>
-    <row r="426" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L426" s="1"/>
       <c r="M426" s="1"/>
     </row>
-    <row r="427" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L427" s="1"/>
       <c r="M427" s="1"/>
     </row>
-    <row r="428" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L428" s="1"/>
       <c r="M428" s="1"/>
     </row>
-    <row r="429" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L429" s="1"/>
       <c r="M429" s="1"/>
     </row>
-    <row r="430" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L430" s="1"/>
       <c r="M430" s="1"/>
     </row>
-    <row r="431" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L431" s="1"/>
       <c r="M431" s="1"/>
     </row>
-    <row r="432" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L432" s="1"/>
       <c r="M432" s="1"/>
     </row>
-    <row r="433" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L433" s="1"/>
       <c r="M433" s="1"/>
     </row>
-    <row r="434" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="434" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L434" s="1"/>
       <c r="M434" s="1"/>
     </row>
-    <row r="435" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L435" s="1"/>
       <c r="M435" s="1"/>
     </row>
-    <row r="436" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L436" s="1"/>
       <c r="M436" s="1"/>
     </row>
-    <row r="437" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L437" s="1"/>
       <c r="M437" s="1"/>
     </row>
-    <row r="438" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L438" s="1"/>
       <c r="M438" s="1"/>
     </row>
-    <row r="439" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L439" s="1"/>
       <c r="M439" s="1"/>
     </row>
-    <row r="440" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L440" s="1"/>
       <c r="M440" s="1"/>
     </row>
-    <row r="441" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L441" s="1"/>
       <c r="M441" s="1"/>
     </row>
-    <row r="442" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L442" s="1"/>
       <c r="M442" s="1"/>
     </row>
-    <row r="443" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L443" s="1"/>
       <c r="M443" s="1"/>
     </row>
-    <row r="444" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L444" s="1"/>
       <c r="M444" s="1"/>
     </row>
-    <row r="445" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L445" s="1"/>
       <c r="M445" s="1"/>
     </row>
-    <row r="446" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L446" s="1"/>
       <c r="M446" s="1"/>
     </row>
-    <row r="447" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L447" s="1"/>
       <c r="M447" s="1"/>
     </row>
-    <row r="448" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L448" s="1"/>
       <c r="M448" s="1"/>
     </row>
-    <row r="449" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="449" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L449" s="1"/>
       <c r="M449" s="1"/>
     </row>
-    <row r="450" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="450" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L450" s="1"/>
       <c r="M450" s="1"/>
     </row>
-    <row r="451" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="451" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L451" s="1"/>
       <c r="M451" s="1"/>
     </row>
-    <row r="452" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="452" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L452" s="1"/>
       <c r="M452" s="1"/>
     </row>
-    <row r="453" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="453" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L453" s="1"/>
       <c r="M453" s="1"/>
     </row>
-    <row r="454" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="454" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L454" s="1"/>
       <c r="M454" s="1"/>
     </row>
-    <row r="455" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="455" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L455" s="1"/>
       <c r="M455" s="1"/>
     </row>
-    <row r="456" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="456" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L456" s="1"/>
       <c r="M456" s="1"/>
     </row>
-    <row r="457" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="457" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L457" s="1"/>
       <c r="M457" s="1"/>
     </row>
-    <row r="458" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="458" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L458" s="1"/>
       <c r="M458" s="1"/>
     </row>
-    <row r="459" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="459" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L459" s="1"/>
       <c r="M459" s="1"/>
     </row>
-    <row r="460" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="460" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L460" s="1"/>
       <c r="M460" s="1"/>
     </row>
-    <row r="461" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="461" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L461" s="1"/>
       <c r="M461" s="1"/>
     </row>
-    <row r="462" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="462" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L462" s="1"/>
       <c r="M462" s="1"/>
     </row>
-    <row r="463" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="463" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L463" s="1"/>
       <c r="M463" s="1"/>
     </row>
-    <row r="464" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="464" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L464" s="1"/>
       <c r="M464" s="1"/>
     </row>
-    <row r="465" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L465" s="1"/>
       <c r="M465" s="1"/>
     </row>
-    <row r="466" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L466" s="1"/>
       <c r="M466" s="1"/>
     </row>
-    <row r="467" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L467" s="1"/>
       <c r="M467" s="1"/>
     </row>
-    <row r="468" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L468" s="1"/>
       <c r="M468" s="1"/>
     </row>
-    <row r="469" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L469" s="1"/>
       <c r="M469" s="1"/>
     </row>
-    <row r="470" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L470" s="1"/>
       <c r="M470" s="1"/>
     </row>
-    <row r="471" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L471" s="1"/>
       <c r="M471" s="1"/>
     </row>
-    <row r="472" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="472" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L472" s="1"/>
       <c r="M472" s="1"/>
     </row>
-    <row r="473" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L473" s="1"/>
       <c r="M473" s="1"/>
     </row>
-    <row r="474" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L474" s="1"/>
       <c r="M474" s="1"/>
     </row>
-    <row r="475" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L475" s="1"/>
       <c r="M475" s="1"/>
     </row>
-    <row r="476" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="476" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L476" s="1"/>
       <c r="M476" s="1"/>
     </row>
-    <row r="477" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="477" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L477" s="1"/>
       <c r="M477" s="1"/>
     </row>
-    <row r="478" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="478" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L478" s="1"/>
       <c r="M478" s="1"/>
     </row>
-    <row r="479" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="479" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L479" s="1"/>
       <c r="M479" s="1"/>
     </row>
-    <row r="480" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="480" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L480" s="1"/>
       <c r="M480" s="1"/>
     </row>
-    <row r="481" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L481" s="1"/>
       <c r="M481" s="1"/>
     </row>
-    <row r="482" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="482" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L482" s="1"/>
       <c r="M482" s="1"/>
     </row>
-    <row r="483" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L483" s="1"/>
       <c r="M483" s="1"/>
     </row>
-    <row r="484" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="484" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L484" s="1"/>
       <c r="M484" s="1"/>
     </row>
-    <row r="485" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L485" s="1"/>
       <c r="M485" s="1"/>
     </row>
-    <row r="486" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L486" s="1"/>
       <c r="M486" s="1"/>
     </row>
-    <row r="487" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L487" s="1"/>
       <c r="M487" s="1"/>
     </row>
-    <row r="488" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="488" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L488" s="1"/>
       <c r="M488" s="1"/>
     </row>
-    <row r="489" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L489" s="1"/>
       <c r="M489" s="1"/>
     </row>
-    <row r="490" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L490" s="1"/>
       <c r="M490" s="1"/>
     </row>
-    <row r="491" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L491" s="1"/>
       <c r="M491" s="1"/>
     </row>
-    <row r="492" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L492" s="1"/>
       <c r="M492" s="1"/>
     </row>
-    <row r="493" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="493" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L493" s="1"/>
       <c r="M493" s="1"/>
     </row>
-    <row r="494" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L494" s="1"/>
       <c r="M494" s="1"/>
     </row>
-    <row r="495" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="495" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L495" s="1"/>
       <c r="M495" s="1"/>
     </row>
-    <row r="496" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L496" s="1"/>
       <c r="M496" s="1"/>
     </row>
-    <row r="497" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="497" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L497" s="1"/>
       <c r="M497" s="1"/>
     </row>
-    <row r="498" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="498" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L498" s="1"/>
       <c r="M498" s="1"/>
     </row>
-    <row r="499" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="499" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L499" s="1"/>
       <c r="M499" s="1"/>
     </row>
-    <row r="500" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L500" s="1"/>
       <c r="M500" s="1"/>
     </row>
-    <row r="501" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="501" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L501" s="1"/>
       <c r="M501" s="1"/>
     </row>
-    <row r="502" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="502" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L502" s="1"/>
       <c r="M502" s="1"/>
     </row>
-    <row r="503" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="503" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L503" s="1"/>
       <c r="M503" s="1"/>
     </row>
-    <row r="504" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="504" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L504" s="1"/>
       <c r="M504" s="1"/>
     </row>
-    <row r="505" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="505" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L505" s="1"/>
       <c r="M505" s="1"/>
     </row>
-    <row r="506" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="506" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L506" s="1"/>
       <c r="M506" s="1"/>
     </row>
-    <row r="507" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="507" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L507" s="1"/>
       <c r="M507" s="1"/>
     </row>
-    <row r="508" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="508" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L508" s="1"/>
       <c r="M508" s="1"/>
     </row>
-    <row r="509" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="509" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L509" s="1"/>
       <c r="M509" s="1"/>
     </row>
-    <row r="510" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="510" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L510" s="1"/>
       <c r="M510" s="1"/>
     </row>
-    <row r="511" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="511" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L511" s="1"/>
       <c r="M511" s="1"/>
     </row>
-    <row r="512" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="512" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L512" s="1"/>
       <c r="M512" s="1"/>
     </row>
-    <row r="513" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="513" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L513" s="1"/>
       <c r="M513" s="1"/>
     </row>
-    <row r="514" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="514" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L514" s="1"/>
       <c r="M514" s="1"/>
     </row>
-    <row r="515" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="515" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L515" s="1"/>
       <c r="M515" s="1"/>
     </row>
-    <row r="516" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="516" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L516" s="1"/>
       <c r="M516" s="1"/>
     </row>
-    <row r="517" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="517" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L517" s="1"/>
       <c r="M517" s="1"/>
     </row>
-    <row r="518" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="518" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L518" s="1"/>
       <c r="M518" s="1"/>
     </row>
-    <row r="519" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="519" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L519" s="1"/>
       <c r="M519" s="1"/>
     </row>
-    <row r="520" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="520" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L520" s="1"/>
       <c r="M520" s="1"/>
     </row>
-    <row r="521" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="521" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L521" s="1"/>
       <c r="M521" s="1"/>
     </row>
-    <row r="522" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="522" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L522" s="1"/>
       <c r="M522" s="1"/>
     </row>
-    <row r="523" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="523" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L523" s="1"/>
       <c r="M523" s="1"/>
     </row>
-    <row r="524" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="524" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L524" s="1"/>
       <c r="M524" s="1"/>
     </row>
-    <row r="525" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="525" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L525" s="1"/>
       <c r="M525" s="1"/>
     </row>
-    <row r="526" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="526" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L526" s="1"/>
       <c r="M526" s="1"/>
     </row>
-    <row r="527" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="527" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L527" s="1"/>
       <c r="M527" s="1"/>
     </row>
-    <row r="528" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="528" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L528" s="1"/>
       <c r="M528" s="1"/>
     </row>
-    <row r="529" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="529" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L529" s="1"/>
       <c r="M529" s="1"/>
     </row>
-    <row r="530" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="530" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L530" s="1"/>
       <c r="M530" s="1"/>
     </row>
-    <row r="531" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="531" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L531" s="1"/>
       <c r="M531" s="1"/>
     </row>
-    <row r="532" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="532" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L532" s="1"/>
       <c r="M532" s="1"/>
     </row>
-    <row r="533" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="533" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L533" s="1"/>
       <c r="M533" s="1"/>
     </row>
-    <row r="534" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="534" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L534" s="1"/>
       <c r="M534" s="1"/>
     </row>
-    <row r="535" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="535" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L535" s="1"/>
       <c r="M535" s="1"/>
     </row>
-    <row r="536" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="536" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L536" s="1"/>
       <c r="M536" s="1"/>
     </row>
-    <row r="537" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="537" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L537" s="1"/>
       <c r="M537" s="1"/>
     </row>
-    <row r="538" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="538" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L538" s="1"/>
       <c r="M538" s="1"/>
     </row>
-    <row r="539" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="539" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L539" s="1"/>
       <c r="M539" s="1"/>
     </row>
-    <row r="540" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="540" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L540" s="1"/>
       <c r="M540" s="1"/>
     </row>
-    <row r="541" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="541" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L541" s="1"/>
       <c r="M541" s="1"/>
     </row>
-    <row r="542" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="542" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L542" s="1"/>
       <c r="M542" s="1"/>
     </row>
-    <row r="543" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="543" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L543" s="1"/>
       <c r="M543" s="1"/>
     </row>
-    <row r="544" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="544" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L544" s="1"/>
       <c r="M544" s="1"/>
     </row>
-    <row r="545" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="545" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L545" s="1"/>
       <c r="M545" s="1"/>
     </row>
-    <row r="546" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="546" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L546" s="1"/>
       <c r="M546" s="1"/>
     </row>
-    <row r="547" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="547" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L547" s="1"/>
       <c r="M547" s="1"/>
     </row>
-    <row r="548" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="548" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L548" s="1"/>
       <c r="M548" s="1"/>
     </row>
-    <row r="549" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="549" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L549" s="1"/>
       <c r="M549" s="1"/>
     </row>
-    <row r="550" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="550" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L550" s="1"/>
       <c r="M550" s="1"/>
     </row>
-    <row r="551" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="551" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L551" s="1"/>
       <c r="M551" s="1"/>
     </row>
-    <row r="552" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="552" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L552" s="1"/>
       <c r="M552" s="1"/>
     </row>
-    <row r="553" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="553" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L553" s="1"/>
       <c r="M553" s="1"/>
     </row>
-    <row r="554" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="554" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L554" s="1"/>
       <c r="M554" s="1"/>
     </row>
-    <row r="555" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="555" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L555" s="1"/>
       <c r="M555" s="1"/>
     </row>
-    <row r="556" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="556" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L556" s="1"/>
       <c r="M556" s="1"/>
     </row>
-    <row r="557" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="557" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L557" s="1"/>
       <c r="M557" s="1"/>
     </row>
-    <row r="558" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="558" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L558" s="1"/>
       <c r="M558" s="1"/>
     </row>
-    <row r="559" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="559" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L559" s="1"/>
       <c r="M559" s="1"/>
     </row>
-    <row r="560" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="560" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L560" s="1"/>
       <c r="M560" s="1"/>
     </row>
-    <row r="561" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="561" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L561" s="1"/>
       <c r="M561" s="1"/>
     </row>
-    <row r="562" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="562" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L562" s="1"/>
       <c r="M562" s="1"/>
     </row>
-    <row r="563" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="563" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L563" s="1"/>
       <c r="M563" s="1"/>
     </row>
-    <row r="564" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="564" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L564" s="1"/>
       <c r="M564" s="1"/>
     </row>
-    <row r="565" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="565" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L565" s="1"/>
       <c r="M565" s="1"/>
     </row>
-    <row r="566" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="566" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L566" s="1"/>
       <c r="M566" s="1"/>
     </row>
-    <row r="567" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="567" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L567" s="1"/>
       <c r="M567" s="1"/>
     </row>
-    <row r="568" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="568" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L568" s="1"/>
       <c r="M568" s="1"/>
     </row>
-    <row r="569" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="569" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L569" s="1"/>
       <c r="M569" s="1"/>
     </row>
-    <row r="570" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="570" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L570" s="1"/>
       <c r="M570" s="1"/>
     </row>
-    <row r="571" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="571" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L571" s="1"/>
       <c r="M571" s="1"/>
     </row>
-    <row r="572" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="572" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L572" s="1"/>
       <c r="M572" s="1"/>
     </row>
-    <row r="573" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="573" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L573" s="1"/>
       <c r="M573" s="1"/>
     </row>
-    <row r="574" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="574" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L574" s="1"/>
       <c r="M574" s="1"/>
     </row>
-    <row r="575" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="575" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L575" s="1"/>
       <c r="M575" s="1"/>
     </row>
-    <row r="576" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="576" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L576" s="1"/>
       <c r="M576" s="1"/>
     </row>
-    <row r="577" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="577" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L577" s="1"/>
       <c r="M577" s="1"/>
     </row>
-    <row r="578" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="578" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L578" s="1"/>
       <c r="M578" s="1"/>
     </row>
-    <row r="579" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="579" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L579" s="1"/>
       <c r="M579" s="1"/>
     </row>
-    <row r="580" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="580" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L580" s="1"/>
       <c r="M580" s="1"/>
     </row>
-    <row r="581" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="581" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L581" s="1"/>
       <c r="M581" s="1"/>
     </row>
-    <row r="582" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="582" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L582" s="1"/>
       <c r="M582" s="1"/>
     </row>
-    <row r="583" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="583" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L583" s="1"/>
       <c r="M583" s="1"/>
     </row>
-    <row r="584" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="584" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L584" s="1"/>
       <c r="M584" s="1"/>
     </row>
-    <row r="585" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="585" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L585" s="1"/>
       <c r="M585" s="1"/>
     </row>
-    <row r="586" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="586" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L586" s="1"/>
       <c r="M586" s="1"/>
     </row>
-    <row r="587" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="587" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L587" s="1"/>
       <c r="M587" s="1"/>
     </row>
-    <row r="588" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="588" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L588" s="1"/>
       <c r="M588" s="1"/>
     </row>
-    <row r="589" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="589" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L589" s="1"/>
       <c r="M589" s="1"/>
     </row>
-    <row r="590" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="590" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L590" s="1"/>
       <c r="M590" s="1"/>
     </row>
-    <row r="591" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="591" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L591" s="1"/>
       <c r="M591" s="1"/>
     </row>
-    <row r="592" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="592" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L592" s="1"/>
       <c r="M592" s="1"/>
     </row>
-    <row r="593" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="593" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L593" s="1"/>
       <c r="M593" s="1"/>
     </row>
-    <row r="594" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="594" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L594" s="1"/>
       <c r="M594" s="1"/>
     </row>
-    <row r="595" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="595" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L595" s="1"/>
       <c r="M595" s="1"/>
     </row>
-    <row r="596" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="596" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L596" s="1"/>
       <c r="M596" s="1"/>
     </row>
-    <row r="597" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="597" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L597" s="1"/>
       <c r="M597" s="1"/>
     </row>
-    <row r="598" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="598" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L598" s="1"/>
       <c r="M598" s="1"/>
     </row>
-    <row r="599" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="599" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L599" s="1"/>
       <c r="M599" s="1"/>
     </row>
-    <row r="600" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="600" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L600" s="1"/>
       <c r="M600" s="1"/>
     </row>
-    <row r="601" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="601" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L601" s="1"/>
       <c r="M601" s="1"/>
     </row>
-    <row r="602" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="602" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L602" s="1"/>
       <c r="M602" s="1"/>
     </row>
-    <row r="603" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="603" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L603" s="1"/>
       <c r="M603" s="1"/>
     </row>
-    <row r="604" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="604" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L604" s="1"/>
       <c r="M604" s="1"/>
     </row>
-    <row r="605" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="605" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L605" s="1"/>
       <c r="M605" s="1"/>
     </row>
-    <row r="606" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="606" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L606" s="1"/>
       <c r="M606" s="1"/>
     </row>
-    <row r="607" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="607" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L607" s="1"/>
       <c r="M607" s="1"/>
     </row>
-    <row r="608" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="608" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L608" s="1"/>
       <c r="M608" s="1"/>
     </row>
-    <row r="609" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="609" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L609" s="1"/>
       <c r="M609" s="1"/>
     </row>
-    <row r="610" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="610" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L610" s="1"/>
       <c r="M610" s="1"/>
     </row>
-    <row r="611" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="611" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L611" s="1"/>
       <c r="M611" s="1"/>
     </row>
-    <row r="612" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="612" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L612" s="1"/>
       <c r="M612" s="1"/>
     </row>
-    <row r="613" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="613" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L613" s="1"/>
       <c r="M613" s="1"/>
     </row>
-    <row r="614" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="614" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L614" s="1"/>
       <c r="M614" s="1"/>
     </row>
-    <row r="615" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="615" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L615" s="1"/>
       <c r="M615" s="1"/>
     </row>
-    <row r="616" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="616" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L616" s="1"/>
       <c r="M616" s="1"/>
     </row>
-    <row r="617" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="617" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L617" s="1"/>
       <c r="M617" s="1"/>
     </row>
-    <row r="618" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="618" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L618" s="1"/>
       <c r="M618" s="1"/>
     </row>
-    <row r="619" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="619" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L619" s="1"/>
       <c r="M619" s="1"/>
     </row>
-    <row r="620" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="620" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L620" s="1"/>
       <c r="M620" s="1"/>
     </row>
-    <row r="621" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="621" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L621" s="1"/>
       <c r="M621" s="1"/>
     </row>
-    <row r="622" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="622" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L622" s="1"/>
       <c r="M622" s="1"/>
     </row>
-    <row r="623" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="623" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L623" s="1"/>
       <c r="M623" s="1"/>
     </row>
-    <row r="624" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="624" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L624" s="1"/>
       <c r="M624" s="1"/>
     </row>
-    <row r="625" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="625" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L625" s="1"/>
       <c r="M625" s="1"/>
     </row>
-    <row r="626" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="626" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L626" s="1"/>
       <c r="M626" s="1"/>
     </row>
-    <row r="627" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="627" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L627" s="1"/>
       <c r="M627" s="1"/>
     </row>
-    <row r="628" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="628" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L628" s="1"/>
       <c r="M628" s="1"/>
     </row>
-    <row r="629" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="629" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L629" s="1"/>
       <c r="M629" s="1"/>
     </row>
-    <row r="630" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="630" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L630" s="1"/>
       <c r="M630" s="1"/>
     </row>
-    <row r="631" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="631" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L631" s="1"/>
       <c r="M631" s="1"/>
     </row>
-    <row r="632" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="632" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L632" s="1"/>
       <c r="M632" s="1"/>
     </row>
-    <row r="633" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="633" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L633" s="1"/>
       <c r="M633" s="1"/>
     </row>
-    <row r="634" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="634" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L634" s="1"/>
       <c r="M634" s="1"/>
     </row>
-    <row r="635" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="635" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L635" s="1"/>
       <c r="M635" s="1"/>
     </row>
-    <row r="636" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="636" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L636" s="1"/>
       <c r="M636" s="1"/>
     </row>
-    <row r="637" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="637" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L637" s="1"/>
       <c r="M637" s="1"/>
     </row>
-    <row r="638" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="638" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L638" s="1"/>
       <c r="M638" s="1"/>
     </row>
-    <row r="639" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="639" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L639" s="1"/>
       <c r="M639" s="1"/>
     </row>
-    <row r="640" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="640" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L640" s="1"/>
       <c r="M640" s="1"/>
     </row>
-    <row r="641" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="641" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L641" s="1"/>
       <c r="M641" s="1"/>
     </row>
-    <row r="642" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="642" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L642" s="1"/>
       <c r="M642" s="1"/>
     </row>
-    <row r="643" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="643" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L643" s="1"/>
       <c r="M643" s="1"/>
     </row>
-    <row r="644" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="644" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L644" s="1"/>
       <c r="M644" s="1"/>
     </row>
-    <row r="645" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="645" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L645" s="1"/>
       <c r="M645" s="1"/>
     </row>
-    <row r="646" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="646" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L646" s="1"/>
       <c r="M646" s="1"/>
     </row>
-    <row r="647" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="647" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L647" s="1"/>
       <c r="M647" s="1"/>
     </row>
-    <row r="648" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="648" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L648" s="1"/>
       <c r="M648" s="1"/>
     </row>
-    <row r="649" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="649" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L649" s="1"/>
       <c r="M649" s="1"/>
     </row>
-    <row r="650" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="650" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L650" s="1"/>
       <c r="M650" s="1"/>
     </row>
-    <row r="651" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="651" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L651" s="1"/>
       <c r="M651" s="1"/>
     </row>
-    <row r="652" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="652" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L652" s="1"/>
       <c r="M652" s="1"/>
     </row>
-    <row r="653" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="653" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L653" s="1"/>
       <c r="M653" s="1"/>
     </row>
-    <row r="654" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="654" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L654" s="1"/>
       <c r="M654" s="1"/>
     </row>
-    <row r="655" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="655" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L655" s="1"/>
       <c r="M655" s="1"/>
     </row>
-    <row r="656" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="656" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L656" s="1"/>
       <c r="M656" s="1"/>
     </row>
-    <row r="657" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="657" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L657" s="1"/>
       <c r="M657" s="1"/>
     </row>
-    <row r="658" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="658" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L658" s="1"/>
       <c r="M658" s="1"/>
     </row>
-    <row r="659" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="659" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L659" s="1"/>
       <c r="M659" s="1"/>
     </row>
-    <row r="660" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="660" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L660" s="1"/>
       <c r="M660" s="1"/>
     </row>
-    <row r="661" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="661" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L661" s="1"/>
       <c r="M661" s="1"/>
     </row>
-    <row r="662" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="662" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L662" s="1"/>
       <c r="M662" s="1"/>
     </row>
-    <row r="663" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="663" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L663" s="1"/>
       <c r="M663" s="1"/>
     </row>
-    <row r="664" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="664" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L664" s="1"/>
       <c r="M664" s="1"/>
     </row>
-    <row r="665" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="665" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L665" s="1"/>
       <c r="M665" s="1"/>
     </row>
-    <row r="666" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="666" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L666" s="1"/>
       <c r="M666" s="1"/>
     </row>
-    <row r="667" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="667" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L667" s="1"/>
       <c r="M667" s="1"/>
     </row>
-    <row r="668" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="668" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L668" s="1"/>
       <c r="M668" s="1"/>
     </row>
-    <row r="669" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="669" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L669" s="1"/>
       <c r="M669" s="1"/>
     </row>
-    <row r="670" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="670" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L670" s="1"/>
       <c r="M670" s="1"/>
     </row>
-    <row r="671" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="671" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L671" s="1"/>
       <c r="M671" s="1"/>
     </row>
-    <row r="672" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="672" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L672" s="1"/>
       <c r="M672" s="1"/>
     </row>
-    <row r="673" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="673" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L673" s="1"/>
       <c r="M673" s="1"/>
     </row>
-    <row r="674" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="674" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L674" s="1"/>
       <c r="M674" s="1"/>
     </row>
-    <row r="675" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="675" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L675" s="1"/>
       <c r="M675" s="1"/>
     </row>
-    <row r="676" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="676" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L676" s="1"/>
       <c r="M676" s="1"/>
     </row>
-    <row r="677" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="677" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L677" s="1"/>
       <c r="M677" s="1"/>
     </row>
-    <row r="678" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="678" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L678" s="1"/>
       <c r="M678" s="1"/>
     </row>
-    <row r="679" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="679" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L679" s="1"/>
       <c r="M679" s="1"/>
     </row>
-    <row r="680" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="680" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L680" s="1"/>
       <c r="M680" s="1"/>
     </row>
-    <row r="681" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="681" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L681" s="1"/>
       <c r="M681" s="1"/>
     </row>
-    <row r="682" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="682" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L682" s="1"/>
       <c r="M682" s="1"/>
     </row>
-    <row r="683" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="683" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L683" s="1"/>
       <c r="M683" s="1"/>
     </row>
-    <row r="684" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="684" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L684" s="1"/>
       <c r="M684" s="1"/>
     </row>
-    <row r="685" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="685" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L685" s="1"/>
       <c r="M685" s="1"/>
     </row>
-    <row r="686" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="686" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L686" s="1"/>
       <c r="M686" s="1"/>
     </row>
-    <row r="687" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="687" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L687" s="1"/>
       <c r="M687" s="1"/>
     </row>
-    <row r="688" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="688" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L688" s="1"/>
       <c r="M688" s="1"/>
     </row>
-    <row r="689" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="689" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L689" s="1"/>
       <c r="M689" s="1"/>
     </row>
-    <row r="690" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="690" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L690" s="1"/>
       <c r="M690" s="1"/>
     </row>
-    <row r="691" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="691" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L691" s="1"/>
       <c r="M691" s="1"/>
     </row>
-    <row r="692" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="692" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L692" s="1"/>
       <c r="M692" s="1"/>
     </row>
-    <row r="693" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="693" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L693" s="1"/>
       <c r="M693" s="1"/>
     </row>
-    <row r="694" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="694" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L694" s="1"/>
       <c r="M694" s="1"/>
     </row>
-    <row r="695" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="695" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L695" s="1"/>
       <c r="M695" s="1"/>
     </row>
-    <row r="696" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="696" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L696" s="1"/>
       <c r="M696" s="1"/>
     </row>
-    <row r="697" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="697" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L697" s="1"/>
       <c r="M697" s="1"/>
     </row>
-    <row r="698" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="698" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L698" s="1"/>
       <c r="M698" s="1"/>
     </row>
-    <row r="699" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="699" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L699" s="1"/>
       <c r="M699" s="1"/>
     </row>
-    <row r="700" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="700" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L700" s="1"/>
       <c r="M700" s="1"/>
     </row>
-    <row r="701" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="701" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L701" s="1"/>
       <c r="M701" s="1"/>
     </row>
-    <row r="702" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="702" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L702" s="1"/>
       <c r="M702" s="1"/>
     </row>
-    <row r="703" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="703" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L703" s="1"/>
       <c r="M703" s="1"/>
     </row>
-    <row r="704" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="704" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L704" s="1"/>
       <c r="M704" s="1"/>
     </row>
-    <row r="705" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="705" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L705" s="1"/>
       <c r="M705" s="1"/>
     </row>
-    <row r="706" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="706" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L706" s="1"/>
       <c r="M706" s="1"/>
     </row>
-    <row r="707" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="707" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L707" s="1"/>
       <c r="M707" s="1"/>
     </row>
-    <row r="708" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="708" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L708" s="1"/>
       <c r="M708" s="1"/>
     </row>
-    <row r="709" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="709" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L709" s="1"/>
       <c r="M709" s="1"/>
     </row>
-    <row r="710" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="710" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L710" s="1"/>
       <c r="M710" s="1"/>
     </row>
-    <row r="711" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="711" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L711" s="1"/>
       <c r="M711" s="1"/>
     </row>
-    <row r="712" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="712" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L712" s="1"/>
       <c r="M712" s="1"/>
     </row>
-    <row r="713" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="713" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L713" s="1"/>
       <c r="M713" s="1"/>
     </row>
-    <row r="714" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="714" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L714" s="1"/>
       <c r="M714" s="1"/>
     </row>
-    <row r="715" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="715" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L715" s="1"/>
       <c r="M715" s="1"/>
     </row>
-    <row r="716" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="716" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L716" s="1"/>
       <c r="M716" s="1"/>
     </row>
-    <row r="717" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="717" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L717" s="1"/>
       <c r="M717" s="1"/>
     </row>
-    <row r="718" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="718" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L718" s="1"/>
       <c r="M718" s="1"/>
     </row>
-    <row r="719" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="719" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L719" s="1"/>
       <c r="M719" s="1"/>
     </row>
-    <row r="720" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="720" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L720" s="1"/>
       <c r="M720" s="1"/>
     </row>
-    <row r="721" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="721" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L721" s="1"/>
       <c r="M721" s="1"/>
     </row>
-    <row r="722" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="722" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L722" s="1"/>
       <c r="M722" s="1"/>
     </row>
-    <row r="723" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="723" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L723" s="1"/>
       <c r="M723" s="1"/>
     </row>
-    <row r="724" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="724" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L724" s="1"/>
       <c r="M724" s="1"/>
     </row>
-    <row r="725" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="725" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L725" s="1"/>
       <c r="M725" s="1"/>
     </row>
-    <row r="726" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="726" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L726" s="1"/>
       <c r="M726" s="1"/>
     </row>
-    <row r="727" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="727" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L727" s="1"/>
       <c r="M727" s="1"/>
     </row>
-    <row r="728" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="728" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L728" s="1"/>
       <c r="M728" s="1"/>
     </row>
-    <row r="729" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="729" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L729" s="1"/>
       <c r="M729" s="1"/>
     </row>
-    <row r="730" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="730" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L730" s="1"/>
       <c r="M730" s="1"/>
     </row>
-    <row r="731" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="731" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L731" s="1"/>
       <c r="M731" s="1"/>
     </row>
-    <row r="732" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="732" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L732" s="1"/>
       <c r="M732" s="1"/>
     </row>
-    <row r="733" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="733" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L733" s="1"/>
       <c r="M733" s="1"/>
     </row>
-    <row r="734" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="734" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L734" s="1"/>
       <c r="M734" s="1"/>
     </row>
-    <row r="735" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="735" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L735" s="1"/>
       <c r="M735" s="1"/>
     </row>
-    <row r="736" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="736" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L736" s="1"/>
       <c r="M736" s="1"/>
     </row>
-    <row r="737" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="737" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L737" s="1"/>
       <c r="M737" s="1"/>
     </row>
-    <row r="738" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="738" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L738" s="1"/>
       <c r="M738" s="1"/>
     </row>
-    <row r="739" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="739" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L739" s="1"/>
       <c r="M739" s="1"/>
     </row>
-    <row r="740" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="740" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L740" s="1"/>
       <c r="M740" s="1"/>
     </row>
-    <row r="741" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="741" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L741" s="1"/>
       <c r="M741" s="1"/>
     </row>
-    <row r="742" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="742" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L742" s="1"/>
       <c r="M742" s="1"/>
     </row>
-    <row r="743" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="743" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L743" s="1"/>
       <c r="M743" s="1"/>
     </row>
-    <row r="744" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="744" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L744" s="1"/>
       <c r="M744" s="1"/>
     </row>
-    <row r="745" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="745" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L745" s="1"/>
       <c r="M745" s="1"/>
     </row>
-    <row r="746" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="746" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L746" s="1"/>
       <c r="M746" s="1"/>
     </row>
-    <row r="747" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="747" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L747" s="1"/>
       <c r="M747" s="1"/>
     </row>
-    <row r="748" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="748" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L748" s="1"/>
       <c r="M748" s="1"/>
     </row>
-    <row r="749" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="749" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L749" s="1"/>
       <c r="M749" s="1"/>
     </row>
-    <row r="750" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="750" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L750" s="1"/>
       <c r="M750" s="1"/>
     </row>
-    <row r="751" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="751" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L751" s="1"/>
       <c r="M751" s="1"/>
     </row>
-    <row r="752" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="752" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L752" s="1"/>
       <c r="M752" s="1"/>
     </row>
-    <row r="753" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="753" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L753" s="1"/>
       <c r="M753" s="1"/>
     </row>
-    <row r="754" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="754" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L754" s="1"/>
       <c r="M754" s="1"/>
     </row>
-    <row r="755" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="755" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L755" s="1"/>
       <c r="M755" s="1"/>
     </row>
-    <row r="756" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="756" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L756" s="1"/>
       <c r="M756" s="1"/>
     </row>
-    <row r="757" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="757" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L757" s="1"/>
       <c r="M757" s="1"/>
     </row>
-    <row r="758" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="758" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L758" s="1"/>
       <c r="M758" s="1"/>
     </row>
-    <row r="759" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="759" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L759" s="1"/>
       <c r="M759" s="1"/>
     </row>
-    <row r="760" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="760" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L760" s="1"/>
       <c r="M760" s="1"/>
     </row>
-    <row r="761" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="761" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L761" s="1"/>
       <c r="M761" s="1"/>
     </row>
-    <row r="762" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="762" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L762" s="1"/>
       <c r="M762" s="1"/>
     </row>
-    <row r="763" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="763" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L763" s="1"/>
       <c r="M763" s="1"/>
     </row>
-    <row r="764" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="764" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L764" s="1"/>
       <c r="M764" s="1"/>
     </row>
-    <row r="765" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="765" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L765" s="1"/>
       <c r="M765" s="1"/>
     </row>
-    <row r="766" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="766" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L766" s="1"/>
       <c r="M766" s="1"/>
     </row>
-    <row r="767" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="767" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L767" s="1"/>
       <c r="M767" s="1"/>
     </row>
-    <row r="768" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="768" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L768" s="1"/>
       <c r="M768" s="1"/>
     </row>
-    <row r="769" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="769" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L769" s="1"/>
       <c r="M769" s="1"/>
     </row>
-    <row r="770" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="770" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L770" s="1"/>
       <c r="M770" s="1"/>
     </row>
-    <row r="771" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="771" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L771" s="1"/>
       <c r="M771" s="1"/>
     </row>
-    <row r="772" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="772" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L772" s="1"/>
       <c r="M772" s="1"/>
     </row>
-    <row r="773" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="773" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L773" s="1"/>
       <c r="M773" s="1"/>
     </row>
-    <row r="774" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="774" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L774" s="1"/>
       <c r="M774" s="1"/>
     </row>
-    <row r="775" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="775" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L775" s="1"/>
       <c r="M775" s="1"/>
     </row>
-    <row r="776" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="776" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L776" s="1"/>
       <c r="M776" s="1"/>
     </row>
-    <row r="777" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="777" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L777" s="1"/>
       <c r="M777" s="1"/>
     </row>
-    <row r="778" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="778" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L778" s="1"/>
       <c r="M778" s="1"/>
     </row>
-    <row r="779" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="779" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L779" s="1"/>
       <c r="M779" s="1"/>
     </row>
-    <row r="780" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="780" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L780" s="1"/>
       <c r="M780" s="1"/>
     </row>
-    <row r="781" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="781" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L781" s="1"/>
       <c r="M781" s="1"/>
     </row>
-    <row r="782" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="782" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L782" s="1"/>
       <c r="M782" s="1"/>
     </row>
-    <row r="783" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="783" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L783" s="1"/>
       <c r="M783" s="1"/>
     </row>
-    <row r="784" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="784" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L784" s="1"/>
       <c r="M784" s="1"/>
     </row>
-    <row r="785" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="785" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L785" s="1"/>
       <c r="M785" s="1"/>
     </row>
-    <row r="786" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="786" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L786" s="1"/>
       <c r="M786" s="1"/>
     </row>
-    <row r="787" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="787" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L787" s="1"/>
       <c r="M787" s="1"/>
     </row>
-    <row r="788" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="788" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L788" s="1"/>
       <c r="M788" s="1"/>
     </row>
-    <row r="789" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="789" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L789" s="1"/>
       <c r="M789" s="1"/>
     </row>
-    <row r="790" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="790" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L790" s="1"/>
       <c r="M790" s="1"/>
     </row>
-    <row r="791" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="791" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L791" s="1"/>
       <c r="M791" s="1"/>
     </row>
-    <row r="792" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="792" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L792" s="1"/>
       <c r="M792" s="1"/>
     </row>
-    <row r="793" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="793" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L793" s="1"/>
       <c r="M793" s="1"/>
     </row>
-    <row r="794" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="794" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L794" s="1"/>
       <c r="M794" s="1"/>
     </row>
-    <row r="795" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="795" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L795" s="1"/>
       <c r="M795" s="1"/>
     </row>
-    <row r="796" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="796" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L796" s="1"/>
       <c r="M796" s="1"/>
     </row>
-    <row r="797" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="797" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L797" s="1"/>
       <c r="M797" s="1"/>
     </row>
-    <row r="798" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="798" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L798" s="1"/>
       <c r="M798" s="1"/>
     </row>
-    <row r="799" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="799" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L799" s="1"/>
       <c r="M799" s="1"/>
     </row>
-    <row r="800" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="800" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L800" s="1"/>
       <c r="M800" s="1"/>
     </row>
-    <row r="801" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="801" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L801" s="1"/>
       <c r="M801" s="1"/>
     </row>
-    <row r="802" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="802" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L802" s="1"/>
       <c r="M802" s="1"/>
     </row>
-    <row r="803" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="803" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L803" s="1"/>
       <c r="M803" s="1"/>
     </row>
-    <row r="804" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="804" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L804" s="1"/>
       <c r="M804" s="1"/>
     </row>
-    <row r="805" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="805" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L805" s="1"/>
       <c r="M805" s="1"/>
     </row>
-    <row r="806" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="806" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L806" s="1"/>
       <c r="M806" s="1"/>
     </row>
-    <row r="807" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="807" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L807" s="1"/>
       <c r="M807" s="1"/>
     </row>
-    <row r="808" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="808" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L808" s="1"/>
       <c r="M808" s="1"/>
     </row>
-    <row r="809" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="809" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L809" s="1"/>
       <c r="M809" s="1"/>
     </row>
-    <row r="810" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="810" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L810" s="1"/>
       <c r="M810" s="1"/>
     </row>
-    <row r="811" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="811" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L811" s="1"/>
       <c r="M811" s="1"/>
     </row>
-    <row r="812" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="812" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L812" s="1"/>
       <c r="M812" s="1"/>
     </row>
-    <row r="813" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="813" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L813" s="1"/>
       <c r="M813" s="1"/>
     </row>
-    <row r="814" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="814" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L814" s="1"/>
       <c r="M814" s="1"/>
     </row>
-    <row r="815" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="815" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L815" s="1"/>
       <c r="M815" s="1"/>
     </row>
-    <row r="816" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="816" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L816" s="1"/>
       <c r="M816" s="1"/>
     </row>
-    <row r="817" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="817" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L817" s="1"/>
       <c r="M817" s="1"/>
     </row>
-    <row r="818" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="818" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L818" s="1"/>
       <c r="M818" s="1"/>
     </row>
-    <row r="819" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="819" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L819" s="1"/>
       <c r="M819" s="1"/>
     </row>
-    <row r="820" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="820" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L820" s="1"/>
       <c r="M820" s="1"/>
     </row>
-    <row r="821" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="821" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L821" s="1"/>
       <c r="M821" s="1"/>
     </row>
-    <row r="822" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="822" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L822" s="1"/>
       <c r="M822" s="1"/>
     </row>
-    <row r="823" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="823" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L823" s="1"/>
       <c r="M823" s="1"/>
     </row>
-    <row r="824" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="824" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L824" s="1"/>
       <c r="M824" s="1"/>
     </row>
-    <row r="825" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="825" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L825" s="1"/>
       <c r="M825" s="1"/>
     </row>
-    <row r="826" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="826" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L826" s="1"/>
       <c r="M826" s="1"/>
     </row>
-    <row r="827" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="827" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L827" s="1"/>
       <c r="M827" s="1"/>
     </row>
-    <row r="828" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="828" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L828" s="1"/>
       <c r="M828" s="1"/>
     </row>
-    <row r="829" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="829" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L829" s="1"/>
       <c r="M829" s="1"/>
     </row>
-    <row r="830" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="830" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L830" s="1"/>
       <c r="M830" s="1"/>
     </row>
-    <row r="831" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="831" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L831" s="1"/>
       <c r="M831" s="1"/>
     </row>
-    <row r="832" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="832" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L832" s="1"/>
       <c r="M832" s="1"/>
     </row>
-    <row r="833" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="833" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L833" s="1"/>
       <c r="M833" s="1"/>
     </row>
-    <row r="834" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="834" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L834" s="1"/>
       <c r="M834" s="1"/>
     </row>
-    <row r="835" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="835" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L835" s="1"/>
       <c r="M835" s="1"/>
     </row>
-    <row r="836" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="836" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L836" s="1"/>
       <c r="M836" s="1"/>
     </row>
-    <row r="837" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="837" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L837" s="1"/>
       <c r="M837" s="1"/>
     </row>
-    <row r="838" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="838" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L838" s="1"/>
       <c r="M838" s="1"/>
     </row>
-    <row r="839" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="839" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L839" s="1"/>
       <c r="M839" s="1"/>
     </row>
-    <row r="840" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="840" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L840" s="1"/>
       <c r="M840" s="1"/>
     </row>
-    <row r="841" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="841" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L841" s="1"/>
       <c r="M841" s="1"/>
     </row>
-    <row r="842" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="842" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L842" s="1"/>
       <c r="M842" s="1"/>
     </row>
-    <row r="843" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="843" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L843" s="1"/>
       <c r="M843" s="1"/>
     </row>
-    <row r="844" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="844" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L844" s="1"/>
       <c r="M844" s="1"/>
     </row>
-    <row r="845" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="845" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L845" s="1"/>
       <c r="M845" s="1"/>
     </row>
-    <row r="846" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="846" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L846" s="1"/>
       <c r="M846" s="1"/>
     </row>
-    <row r="847" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="847" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L847" s="1"/>
       <c r="M847" s="1"/>
     </row>
-    <row r="848" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="848" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L848" s="1"/>
       <c r="M848" s="1"/>
     </row>
-    <row r="849" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="849" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L849" s="1"/>
       <c r="M849" s="1"/>
     </row>
-    <row r="850" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="850" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L850" s="1"/>
       <c r="M850" s="1"/>
     </row>
-    <row r="851" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="851" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L851" s="1"/>
       <c r="M851" s="1"/>
     </row>
-    <row r="852" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="852" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L852" s="1"/>
       <c r="M852" s="1"/>
     </row>
-    <row r="853" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="853" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L853" s="1"/>
       <c r="M853" s="1"/>
     </row>
-    <row r="854" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="854" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L854" s="1"/>
       <c r="M854" s="1"/>
     </row>
-    <row r="855" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="855" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L855" s="1"/>
       <c r="M855" s="1"/>
     </row>
-    <row r="856" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="856" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L856" s="1"/>
       <c r="M856" s="1"/>
     </row>
-    <row r="857" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="857" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L857" s="1"/>
       <c r="M857" s="1"/>
     </row>
-    <row r="858" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="858" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L858" s="1"/>
       <c r="M858" s="1"/>
     </row>
-    <row r="859" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="859" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L859" s="1"/>
       <c r="M859" s="1"/>
     </row>
-    <row r="860" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="860" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L860" s="1"/>
       <c r="M860" s="1"/>
     </row>
-    <row r="861" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="861" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L861" s="1"/>
       <c r="M861" s="1"/>
     </row>
-    <row r="862" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="862" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L862" s="1"/>
       <c r="M862" s="1"/>
     </row>
-    <row r="863" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="863" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L863" s="1"/>
       <c r="M863" s="1"/>
     </row>
-    <row r="864" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="864" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L864" s="1"/>
       <c r="M864" s="1"/>
     </row>
-    <row r="865" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="865" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L865" s="1"/>
       <c r="M865" s="1"/>
     </row>
-    <row r="866" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="866" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L866" s="1"/>
       <c r="M866" s="1"/>
     </row>
-    <row r="867" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="867" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L867" s="1"/>
       <c r="M867" s="1"/>
     </row>
-    <row r="868" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="868" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L868" s="1"/>
       <c r="M868" s="1"/>
     </row>
-    <row r="869" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="869" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L869" s="1"/>
       <c r="M869" s="1"/>
     </row>
-    <row r="870" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="870" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L870" s="1"/>
       <c r="M870" s="1"/>
     </row>
-    <row r="871" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="871" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L871" s="1"/>
       <c r="M871" s="1"/>
     </row>
-    <row r="872" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="872" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L872" s="1"/>
       <c r="M872" s="1"/>
     </row>
-    <row r="873" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="873" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L873" s="1"/>
       <c r="M873" s="1"/>
     </row>
-    <row r="874" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="874" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L874" s="1"/>
       <c r="M874" s="1"/>
     </row>
-    <row r="875" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="875" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L875" s="1"/>
       <c r="M875" s="1"/>
     </row>
-    <row r="876" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="876" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L876" s="1"/>
       <c r="M876" s="1"/>
     </row>
-    <row r="877" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="877" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L877" s="1"/>
       <c r="M877" s="1"/>
     </row>
-    <row r="878" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="878" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L878" s="1"/>
       <c r="M878" s="1"/>
     </row>
-    <row r="879" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="879" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L879" s="1"/>
       <c r="M879" s="1"/>
     </row>
-    <row r="880" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="880" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L880" s="1"/>
       <c r="M880" s="1"/>
     </row>
-    <row r="881" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="881" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L881" s="1"/>
       <c r="M881" s="1"/>
     </row>
-    <row r="882" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="882" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L882" s="1"/>
       <c r="M882" s="1"/>
     </row>
-    <row r="883" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="883" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L883" s="1"/>
       <c r="M883" s="1"/>
     </row>
-    <row r="884" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="884" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L884" s="1"/>
       <c r="M884" s="1"/>
     </row>
-    <row r="885" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="885" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L885" s="1"/>
       <c r="M885" s="1"/>
     </row>
-    <row r="886" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="886" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L886" s="1"/>
       <c r="M886" s="1"/>
     </row>
-    <row r="887" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="887" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L887" s="1"/>
       <c r="M887" s="1"/>
     </row>
-    <row r="888" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="888" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L888" s="1"/>
       <c r="M888" s="1"/>
     </row>
-    <row r="889" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="889" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L889" s="1"/>
       <c r="M889" s="1"/>
     </row>
-    <row r="890" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="890" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L890" s="1"/>
       <c r="M890" s="1"/>
     </row>
-    <row r="891" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="891" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L891" s="1"/>
       <c r="M891" s="1"/>
     </row>
-    <row r="892" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="892" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L892" s="1"/>
       <c r="M892" s="1"/>
     </row>
-    <row r="893" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="893" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L893" s="1"/>
       <c r="M893" s="1"/>
     </row>
-    <row r="894" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="894" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L894" s="1"/>
       <c r="M894" s="1"/>
     </row>
-    <row r="895" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="895" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L895" s="1"/>
       <c r="M895" s="1"/>
     </row>
-    <row r="896" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="896" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L896" s="1"/>
       <c r="M896" s="1"/>
     </row>
-    <row r="897" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="897" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L897" s="1"/>
       <c r="M897" s="1"/>
     </row>
-    <row r="898" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="898" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L898" s="1"/>
       <c r="M898" s="1"/>
     </row>
-    <row r="899" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="899" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L899" s="1"/>
       <c r="M899" s="1"/>
     </row>
-    <row r="900" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="900" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L900" s="1"/>
       <c r="M900" s="1"/>
     </row>
-    <row r="901" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="901" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L901" s="1"/>
       <c r="M901" s="1"/>
     </row>
-    <row r="902" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="902" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L902" s="1"/>
       <c r="M902" s="1"/>
     </row>
-    <row r="903" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="903" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L903" s="1"/>
       <c r="M903" s="1"/>
     </row>
-    <row r="904" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="904" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L904" s="1"/>
       <c r="M904" s="1"/>
     </row>
-    <row r="905" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="905" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L905" s="1"/>
       <c r="M905" s="1"/>
     </row>
-    <row r="906" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="906" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L906" s="1"/>
       <c r="M906" s="1"/>
     </row>
-    <row r="907" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="907" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L907" s="1"/>
       <c r="M907" s="1"/>
     </row>
-    <row r="908" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="908" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L908" s="1"/>
       <c r="M908" s="1"/>
     </row>
-    <row r="909" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="909" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L909" s="1"/>
       <c r="M909" s="1"/>
     </row>
-    <row r="910" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="910" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L910" s="1"/>
       <c r="M910" s="1"/>
     </row>
-    <row r="911" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="911" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L911" s="1"/>
       <c r="M911" s="1"/>
     </row>
-    <row r="912" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="912" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L912" s="1"/>
       <c r="M912" s="1"/>
     </row>
-    <row r="913" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="913" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L913" s="1"/>
       <c r="M913" s="1"/>
     </row>
-    <row r="914" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="914" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L914" s="1"/>
       <c r="M914" s="1"/>
     </row>
-    <row r="915" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="915" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L915" s="1"/>
       <c r="M915" s="1"/>
     </row>
-    <row r="916" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="916" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L916" s="1"/>
       <c r="M916" s="1"/>
     </row>
-    <row r="917" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="917" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L917" s="1"/>
       <c r="M917" s="1"/>
     </row>
-    <row r="918" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="918" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L918" s="1"/>
       <c r="M918" s="1"/>
     </row>
-    <row r="919" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="919" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L919" s="1"/>
       <c r="M919" s="1"/>
     </row>
-    <row r="920" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="920" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L920" s="1"/>
       <c r="M920" s="1"/>
     </row>
-    <row r="921" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="921" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L921" s="1"/>
       <c r="M921" s="1"/>
     </row>
-    <row r="922" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="922" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L922" s="1"/>
       <c r="M922" s="1"/>
     </row>
-    <row r="923" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="923" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L923" s="1"/>
       <c r="M923" s="1"/>
     </row>
-    <row r="924" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="924" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L924" s="1"/>
       <c r="M924" s="1"/>
     </row>
-    <row r="925" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="925" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L925" s="1"/>
       <c r="M925" s="1"/>
     </row>
-    <row r="926" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="926" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L926" s="1"/>
       <c r="M926" s="1"/>
     </row>
-    <row r="927" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="927" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L927" s="1"/>
       <c r="M927" s="1"/>
     </row>
-    <row r="928" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="928" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L928" s="1"/>
       <c r="M928" s="1"/>
     </row>
-    <row r="929" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="929" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L929" s="1"/>
       <c r="M929" s="1"/>
     </row>
-    <row r="930" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="930" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L930" s="1"/>
       <c r="M930" s="1"/>
     </row>
-    <row r="931" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="931" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L931" s="1"/>
       <c r="M931" s="1"/>
     </row>
-    <row r="932" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="932" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L932" s="1"/>
       <c r="M932" s="1"/>
     </row>
-    <row r="933" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="933" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L933" s="1"/>
       <c r="M933" s="1"/>
     </row>
-    <row r="934" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="934" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L934" s="1"/>
       <c r="M934" s="1"/>
     </row>
-    <row r="935" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="935" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L935" s="1"/>
       <c r="M935" s="1"/>
     </row>
-    <row r="936" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="936" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L936" s="1"/>
       <c r="M936" s="1"/>
     </row>
-    <row r="937" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="937" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L937" s="1"/>
       <c r="M937" s="1"/>
     </row>
-    <row r="938" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="938" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L938" s="1"/>
       <c r="M938" s="1"/>
     </row>
-    <row r="939" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="939" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L939" s="1"/>
       <c r="M939" s="1"/>
     </row>
-    <row r="940" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="940" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L940" s="1"/>
       <c r="M940" s="1"/>
     </row>
-    <row r="941" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="941" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L941" s="1"/>
       <c r="M941" s="1"/>
     </row>
-    <row r="942" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="942" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L942" s="1"/>
       <c r="M942" s="1"/>
     </row>
-    <row r="943" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="943" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L943" s="1"/>
       <c r="M943" s="1"/>
     </row>
-    <row r="944" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="944" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L944" s="1"/>
       <c r="M944" s="1"/>
     </row>
-    <row r="945" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="945" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L945" s="1"/>
       <c r="M945" s="1"/>
     </row>
-    <row r="946" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="946" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L946" s="1"/>
       <c r="M946" s="1"/>
     </row>
-    <row r="947" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="947" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L947" s="1"/>
       <c r="M947" s="1"/>
     </row>
-    <row r="948" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="948" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L948" s="1"/>
       <c r="M948" s="1"/>
     </row>
-    <row r="949" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="949" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L949" s="1"/>
       <c r="M949" s="1"/>
     </row>
-    <row r="950" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="950" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L950" s="1"/>
       <c r="M950" s="1"/>
     </row>
-    <row r="951" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="951" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L951" s="1"/>
       <c r="M951" s="1"/>
     </row>
-    <row r="952" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="952" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L952" s="1"/>
       <c r="M952" s="1"/>
     </row>
-    <row r="953" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="953" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L953" s="1"/>
       <c r="M953" s="1"/>
     </row>
-    <row r="954" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="954" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L954" s="1"/>
       <c r="M954" s="1"/>
     </row>
-    <row r="955" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="955" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L955" s="1"/>
       <c r="M955" s="1"/>
     </row>
-    <row r="956" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="956" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L956" s="1"/>
       <c r="M956" s="1"/>
     </row>
-    <row r="957" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="957" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L957" s="1"/>
       <c r="M957" s="1"/>
     </row>
-    <row r="958" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="958" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L958" s="1"/>
       <c r="M958" s="1"/>
     </row>
-    <row r="959" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="959" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L959" s="1"/>
       <c r="M959" s="1"/>
     </row>
-    <row r="960" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="960" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L960" s="1"/>
       <c r="M960" s="1"/>
     </row>
-    <row r="961" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="961" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L961" s="1"/>
       <c r="M961" s="1"/>
     </row>
-    <row r="962" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="962" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L962" s="1"/>
       <c r="M962" s="1"/>
     </row>
-    <row r="963" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="963" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L963" s="1"/>
       <c r="M963" s="1"/>
     </row>
-    <row r="964" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="964" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L964" s="1"/>
       <c r="M964" s="1"/>
     </row>
-    <row r="965" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="965" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L965" s="1"/>
       <c r="M965" s="1"/>
     </row>
-    <row r="966" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="966" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L966" s="1"/>
       <c r="M966" s="1"/>
     </row>
-    <row r="967" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="967" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L967" s="1"/>
       <c r="M967" s="1"/>
     </row>
-    <row r="968" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="968" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L968" s="1"/>
       <c r="M968" s="1"/>
     </row>
-    <row r="969" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="969" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L969" s="1"/>
       <c r="M969" s="1"/>
     </row>
-    <row r="970" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="970" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L970" s="1"/>
       <c r="M970" s="1"/>
     </row>
-    <row r="971" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="971" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L971" s="1"/>
       <c r="M971" s="1"/>
     </row>
-    <row r="972" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="972" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L972" s="1"/>
       <c r="M972" s="1"/>
     </row>
-    <row r="973" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="973" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L973" s="1"/>
       <c r="M973" s="1"/>
     </row>
-    <row r="974" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="974" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L974" s="1"/>
       <c r="M974" s="1"/>
     </row>
-    <row r="975" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="975" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L975" s="1"/>
       <c r="M975" s="1"/>
     </row>
-    <row r="976" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="976" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L976" s="1"/>
       <c r="M976" s="1"/>
     </row>
-    <row r="977" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="977" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L977" s="1"/>
       <c r="M977" s="1"/>
     </row>
-    <row r="978" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="978" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L978" s="1"/>
       <c r="M978" s="1"/>
     </row>
-    <row r="979" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="979" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L979" s="1"/>
       <c r="M979" s="1"/>
     </row>
-    <row r="980" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="980" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L980" s="1"/>
       <c r="M980" s="1"/>
     </row>
-    <row r="981" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="981" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L981" s="1"/>
       <c r="M981" s="1"/>
     </row>
-    <row r="982" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="982" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L982" s="1"/>
       <c r="M982" s="1"/>
     </row>
-    <row r="983" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="983" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L983" s="1"/>
       <c r="M983" s="1"/>
     </row>
-    <row r="984" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="984" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L984" s="1"/>
       <c r="M984" s="1"/>
     </row>
-    <row r="985" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="985" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L985" s="1"/>
       <c r="M985" s="1"/>
     </row>
-    <row r="986" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="986" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L986" s="1"/>
       <c r="M986" s="1"/>
     </row>
-    <row r="987" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="987" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L987" s="1"/>
       <c r="M987" s="1"/>
     </row>
-    <row r="988" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="988" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L988" s="1"/>
       <c r="M988" s="1"/>
     </row>
-    <row r="989" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="989" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L989" s="1"/>
       <c r="M989" s="1"/>
     </row>
-    <row r="990" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="990" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L990" s="1"/>
       <c r="M990" s="1"/>
     </row>
-    <row r="991" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="991" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L991" s="1"/>
       <c r="M991" s="1"/>
     </row>
-    <row r="992" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="992" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L992" s="1"/>
       <c r="M992" s="1"/>
     </row>
-    <row r="993" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="993" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L993" s="1"/>
       <c r="M993" s="1"/>
     </row>
-    <row r="994" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="994" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L994" s="1"/>
       <c r="M994" s="1"/>
     </row>
-    <row r="995" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="995" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L995" s="1"/>
       <c r="M995" s="1"/>
     </row>
-    <row r="996" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="996" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L996" s="1"/>
       <c r="M996" s="1"/>
     </row>
-    <row r="997" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="997" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L997" s="1"/>
       <c r="M997" s="1"/>
     </row>
-    <row r="998" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="998" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L998" s="1"/>
       <c r="M998" s="1"/>
     </row>
-    <row r="999" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="999" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L999" s="1"/>
       <c r="M999" s="1"/>
     </row>
-    <row r="1000" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="1000" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L1000" s="1"/>
       <c r="M1000" s="1"/>
     </row>
@@ -6179,7 +6294,7 @@
     <sortCondition ref="A1:A1000"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="D2:Z48 D49:E49">
+  <conditionalFormatting sqref="D2:Z48 D49:F49">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="&quot;Присутствовал&quot;"/>
@@ -6189,7 +6304,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:Z48 D49:E49">
+  <conditionalFormatting sqref="D2:Z48 D49:F49">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/students/sdr_club_2025.xlsx
+++ b/students/sdr_club_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EEBE51-F26C-4D56-A23E-9EBB3DADA3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714978BA-0689-42F6-BED1-4891A0590D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -396,6 +396,7 @@
     <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -618,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -660,7 +661,9 @@
       <c r="F1" s="23">
         <v>45930</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="24">
+        <v>45937</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -698,7 +701,9 @@
       <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="18">
+        <v>1</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -736,7 +741,9 @@
       <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -774,7 +781,9 @@
       <c r="F4" s="18">
         <v>0</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -812,7 +821,9 @@
       <c r="F5" s="18">
         <v>0</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -850,7 +861,9 @@
       <c r="F6" s="18">
         <v>1</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -888,7 +901,9 @@
       <c r="F7" s="18">
         <v>1</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -926,7 +941,9 @@
       <c r="F8" s="18">
         <v>1</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -964,7 +981,9 @@
       <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -1002,7 +1021,9 @@
       <c r="F10" s="18">
         <v>1</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -1040,7 +1061,9 @@
       <c r="F11" s="18">
         <v>1</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -1078,7 +1101,9 @@
       <c r="F12" s="18">
         <v>0</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -1116,7 +1141,9 @@
       <c r="F13" s="18">
         <v>1</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -1154,7 +1181,9 @@
       <c r="F14" s="18">
         <v>0</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -1192,7 +1221,9 @@
       <c r="F15" s="18">
         <v>1</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -1230,7 +1261,9 @@
       <c r="F16" s="18">
         <v>1</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -1268,7 +1301,9 @@
       <c r="F17" s="18">
         <v>0</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1306,7 +1341,9 @@
       <c r="F18" s="18">
         <v>0</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -1344,7 +1381,9 @@
       <c r="F19" s="18">
         <v>1</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -1382,7 +1421,9 @@
       <c r="F20" s="18">
         <v>1</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -1420,7 +1461,9 @@
       <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -1458,7 +1501,9 @@
       <c r="F22" s="18">
         <v>1</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -1496,7 +1541,9 @@
       <c r="F23" s="18">
         <v>0</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -1534,7 +1581,9 @@
       <c r="F24" s="18">
         <v>0</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -1572,7 +1621,9 @@
       <c r="F25" s="18">
         <v>0</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -1610,7 +1661,9 @@
       <c r="F26" s="18">
         <v>1</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -1648,7 +1701,9 @@
       <c r="F27" s="18">
         <v>1</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
@@ -1686,7 +1741,9 @@
       <c r="F28" s="18">
         <v>1</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
@@ -1724,7 +1781,9 @@
       <c r="F29" s="18">
         <v>1</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -1762,7 +1821,9 @@
       <c r="F30" s="18">
         <v>1</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="18">
+        <v>1</v>
+      </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -1800,7 +1861,9 @@
       <c r="F31" s="18">
         <v>1</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -1838,7 +1901,9 @@
       <c r="F32" s="18">
         <v>1</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -1876,7 +1941,9 @@
       <c r="F33" s="18">
         <v>1</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="18">
+        <v>1</v>
+      </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -1914,7 +1981,9 @@
       <c r="F34" s="18">
         <v>1</v>
       </c>
-      <c r="G34" s="13"/>
+      <c r="G34" s="18">
+        <v>1</v>
+      </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -1952,7 +2021,9 @@
       <c r="F35" s="18">
         <v>1</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="G35" s="18">
+        <v>1</v>
+      </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -1990,7 +2061,9 @@
       <c r="F36" s="18">
         <v>0</v>
       </c>
-      <c r="G36" s="13"/>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -2028,7 +2101,9 @@
       <c r="F37" s="18">
         <v>1</v>
       </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -2066,7 +2141,9 @@
       <c r="F38" s="18">
         <v>1</v>
       </c>
-      <c r="G38" s="13"/>
+      <c r="G38" s="18">
+        <v>1</v>
+      </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -2104,7 +2181,9 @@
       <c r="F39" s="18">
         <v>1</v>
       </c>
-      <c r="G39" s="13"/>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -2142,7 +2221,9 @@
       <c r="F40" s="18">
         <v>1</v>
       </c>
-      <c r="G40" s="13"/>
+      <c r="G40" s="18">
+        <v>1</v>
+      </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -2180,7 +2261,9 @@
       <c r="F41" s="18">
         <v>1</v>
       </c>
-      <c r="G41" s="13"/>
+      <c r="G41" s="18">
+        <v>1</v>
+      </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -2218,7 +2301,9 @@
       <c r="F42" s="18">
         <v>0</v>
       </c>
-      <c r="G42" s="13"/>
+      <c r="G42" s="18">
+        <v>0</v>
+      </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -2256,7 +2341,9 @@
       <c r="F43" s="18">
         <v>1</v>
       </c>
-      <c r="G43" s="13"/>
+      <c r="G43" s="18">
+        <v>0</v>
+      </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
@@ -2294,7 +2381,9 @@
       <c r="F44" s="18">
         <v>0</v>
       </c>
-      <c r="G44" s="13"/>
+      <c r="G44" s="18">
+        <v>0</v>
+      </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -2332,7 +2421,9 @@
       <c r="F45" s="18">
         <v>1</v>
       </c>
-      <c r="G45" s="13"/>
+      <c r="G45" s="18">
+        <v>0</v>
+      </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
@@ -2370,7 +2461,9 @@
       <c r="F46" s="18">
         <v>1</v>
       </c>
-      <c r="G46" s="13"/>
+      <c r="G46" s="18">
+        <v>1</v>
+      </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
@@ -2408,7 +2501,9 @@
       <c r="F47" s="18">
         <v>1</v>
       </c>
-      <c r="G47" s="13"/>
+      <c r="G47" s="18">
+        <v>1</v>
+      </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -2446,7 +2541,9 @@
       <c r="F48" s="18">
         <v>0</v>
       </c>
-      <c r="G48" s="13"/>
+      <c r="G48" s="18">
+        <v>1</v>
+      </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -2467,7 +2564,7 @@
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
     </row>
-    <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>52</v>
       </c>
@@ -2482,66 +2579,86 @@
       <c r="F49" s="22">
         <v>1</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G49" s="18">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+    </row>
+    <row r="50" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
@@ -6294,7 +6411,7 @@
     <sortCondition ref="A1:A1000"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="D2:Z48 D49:F49">
+  <conditionalFormatting sqref="D2:Z2 H3:Z48 D3:G49">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="&quot;Присутствовал&quot;"/>
@@ -6304,7 +6421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:Z48 D49:F49">
+  <conditionalFormatting sqref="D2:Z2 H3:Z48 D3:G49">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -6315,7 +6432,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:Z48 D49:E49" xr:uid="{2BED188C-1251-4068-9952-87063711D3FC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:E49 D2:F48 H2:Z48 G2:G49" xr:uid="{2BED188C-1251-4068-9952-87063711D3FC}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/students/sdr_club_2025.xlsx
+++ b/students/sdr_club_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714978BA-0689-42F6-BED1-4891A0590D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD4D4B7-C8CA-42BB-A56C-0C762DD280D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -617,9 +617,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+      <selection pane="topRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -664,7 +664,9 @@
       <c r="G1" s="24">
         <v>45937</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="24">
+        <v>45944</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -704,7 +706,9 @@
       <c r="G2" s="18">
         <v>1</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="18">
+        <v>1</v>
+      </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
@@ -744,7 +748,9 @@
       <c r="G3" s="18">
         <v>0</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -784,7 +790,9 @@
       <c r="G4" s="18">
         <v>0</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -824,7 +832,9 @@
       <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -864,7 +874,9 @@
       <c r="G6" s="18">
         <v>1</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -904,7 +916,9 @@
       <c r="G7" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -944,7 +958,9 @@
       <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -984,7 +1000,9 @@
       <c r="G9" s="18">
         <v>1</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -1024,7 +1042,9 @@
       <c r="G10" s="18">
         <v>0</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -1064,7 +1084,9 @@
       <c r="G11" s="18">
         <v>0</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -1104,7 +1126,9 @@
       <c r="G12" s="18">
         <v>0</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -1144,7 +1168,9 @@
       <c r="G13" s="18">
         <v>1</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -1184,7 +1210,9 @@
       <c r="G14" s="18">
         <v>0</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -1224,7 +1252,9 @@
       <c r="G15" s="18">
         <v>1</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
@@ -1264,7 +1294,9 @@
       <c r="G16" s="18">
         <v>1</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -1299,12 +1331,14 @@
         <v>1</v>
       </c>
       <c r="F17" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="18">
         <v>1</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="18">
+        <v>1</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -1344,7 +1378,9 @@
       <c r="G18" s="18">
         <v>1</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="18">
+        <v>1</v>
+      </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -1384,7 +1420,9 @@
       <c r="G19" s="18">
         <v>1</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="18">
+        <v>1</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -1424,7 +1462,9 @@
       <c r="G20" s="18">
         <v>1</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="18">
+        <v>1</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -1464,7 +1504,9 @@
       <c r="G21" s="18">
         <v>1</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -1504,7 +1546,9 @@
       <c r="G22" s="18">
         <v>1</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -1544,7 +1588,9 @@
       <c r="G23" s="18">
         <v>1</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -1584,7 +1630,9 @@
       <c r="G24" s="18">
         <v>0</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -1624,7 +1672,9 @@
       <c r="G25" s="18">
         <v>1</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -1664,7 +1714,9 @@
       <c r="G26" s="18">
         <v>1</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="18">
+        <v>1</v>
+      </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -1704,7 +1756,9 @@
       <c r="G27" s="18">
         <v>1</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="18">
+        <v>1</v>
+      </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -1744,7 +1798,9 @@
       <c r="G28" s="18">
         <v>1</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="18">
+        <v>1</v>
+      </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -1784,7 +1840,9 @@
       <c r="G29" s="18">
         <v>1</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="18">
+        <v>1</v>
+      </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -1824,7 +1882,9 @@
       <c r="G30" s="18">
         <v>1</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="18">
+        <v>1</v>
+      </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -1864,7 +1924,9 @@
       <c r="G31" s="18">
         <v>1</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -1904,7 +1966,9 @@
       <c r="G32" s="18">
         <v>0</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="18">
+        <v>1</v>
+      </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -1944,7 +2008,9 @@
       <c r="G33" s="18">
         <v>1</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="18">
+        <v>1</v>
+      </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -1984,7 +2050,9 @@
       <c r="G34" s="18">
         <v>1</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="18">
+        <v>1</v>
+      </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -2024,7 +2092,9 @@
       <c r="G35" s="18">
         <v>1</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="18">
+        <v>1</v>
+      </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -2064,7 +2134,9 @@
       <c r="G36" s="18">
         <v>0</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="18">
+        <v>1</v>
+      </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
@@ -2104,7 +2176,9 @@
       <c r="G37" s="18">
         <v>0</v>
       </c>
-      <c r="H37" s="13"/>
+      <c r="H37" s="18">
+        <v>1</v>
+      </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -2144,7 +2218,9 @@
       <c r="G38" s="18">
         <v>1</v>
       </c>
-      <c r="H38" s="13"/>
+      <c r="H38" s="18">
+        <v>1</v>
+      </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -2184,7 +2260,9 @@
       <c r="G39" s="18">
         <v>0</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="18">
+        <v>1</v>
+      </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
@@ -2224,7 +2302,9 @@
       <c r="G40" s="18">
         <v>1</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="18">
+        <v>1</v>
+      </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
@@ -2264,7 +2344,9 @@
       <c r="G41" s="18">
         <v>1</v>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="18">
+        <v>1</v>
+      </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
@@ -2304,7 +2386,9 @@
       <c r="G42" s="18">
         <v>0</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="18">
+        <v>0</v>
+      </c>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -2344,7 +2428,9 @@
       <c r="G43" s="18">
         <v>0</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="18">
+        <v>1</v>
+      </c>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
@@ -2384,7 +2470,9 @@
       <c r="G44" s="18">
         <v>0</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="18">
+        <v>0</v>
+      </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
@@ -2424,7 +2512,9 @@
       <c r="G45" s="18">
         <v>0</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="18">
+        <v>1</v>
+      </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
@@ -2464,7 +2554,9 @@
       <c r="G46" s="18">
         <v>1</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="18">
+        <v>1</v>
+      </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
@@ -2504,7 +2596,9 @@
       <c r="G47" s="18">
         <v>1</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="18">
+        <v>1</v>
+      </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
@@ -2544,7 +2638,9 @@
       <c r="G48" s="18">
         <v>1</v>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="18">
+        <v>1</v>
+      </c>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -2582,7 +2678,9 @@
       <c r="G49" s="18">
         <v>1</v>
       </c>
-      <c r="H49" s="11"/>
+      <c r="H49" s="18">
+        <v>1</v>
+      </c>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -6411,7 +6509,7 @@
     <sortCondition ref="A1:A1000"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="D2:Z2 H3:Z48 D3:G49">
+  <conditionalFormatting sqref="D3:G49 H3:Z3 D2:Z2 I4:Z48 H4:H49">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="&quot;Присутствовал&quot;"/>
@@ -6421,7 +6519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:Z2 H3:Z48 D3:G49">
+  <conditionalFormatting sqref="D3:G49 H3:Z3 D2:Z2 I4:Z48 H4:H49">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -6432,7 +6530,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:E49 D2:F48 H2:Z48 G2:G49" xr:uid="{2BED188C-1251-4068-9952-87063711D3FC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:E49 D2:F48 I2:Z48 G2:H49" xr:uid="{2BED188C-1251-4068-9952-87063711D3FC}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/students/sdr_club_2025.xlsx
+++ b/students/sdr_club_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD4D4B7-C8CA-42BB-A56C-0C762DD280D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA8899E-8893-4A26-BCD3-DC254FBDA349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -397,6 +403,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -617,9 +624,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K33" sqref="K33"/>
+      <selection pane="topRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -667,7 +674,9 @@
       <c r="H1" s="24">
         <v>45944</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="25">
+        <v>45951</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
@@ -709,7 +718,9 @@
       <c r="H2" s="18">
         <v>1</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -751,7 +762,9 @@
       <c r="H3" s="18">
         <v>1</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -793,7 +806,9 @@
       <c r="H4" s="18">
         <v>0</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -835,7 +850,9 @@
       <c r="H5" s="18">
         <v>0</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -877,7 +894,9 @@
       <c r="H6" s="18">
         <v>1</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -919,7 +938,9 @@
       <c r="H7" s="18">
         <v>1</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -961,7 +982,9 @@
       <c r="H8" s="18">
         <v>1</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -1003,7 +1026,9 @@
       <c r="H9" s="18">
         <v>1</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -1045,7 +1070,9 @@
       <c r="H10" s="18">
         <v>1</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -1087,7 +1114,9 @@
       <c r="H11" s="18">
         <v>1</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -1129,7 +1158,9 @@
       <c r="H12" s="18">
         <v>0</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -1171,7 +1202,9 @@
       <c r="H13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -1213,7 +1246,9 @@
       <c r="H14" s="18">
         <v>0</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -1255,7 +1290,9 @@
       <c r="H15" s="18">
         <v>1</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -1297,7 +1334,9 @@
       <c r="H16" s="18">
         <v>1</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -1339,7 +1378,9 @@
       <c r="H17" s="18">
         <v>1</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -1381,7 +1422,9 @@
       <c r="H18" s="18">
         <v>1</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -1423,7 +1466,9 @@
       <c r="H19" s="18">
         <v>1</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -1465,7 +1510,9 @@
       <c r="H20" s="18">
         <v>1</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -1507,7 +1554,9 @@
       <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -1549,7 +1598,9 @@
       <c r="H22" s="18">
         <v>1</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -1591,7 +1642,9 @@
       <c r="H23" s="18">
         <v>1</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -1633,7 +1686,9 @@
       <c r="H24" s="18">
         <v>0</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -1675,7 +1730,9 @@
       <c r="H25" s="18">
         <v>0</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
@@ -1717,7 +1774,9 @@
       <c r="H26" s="18">
         <v>1</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -1759,7 +1818,9 @@
       <c r="H27" s="18">
         <v>1</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -1801,7 +1862,9 @@
       <c r="H28" s="18">
         <v>1</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="18">
+        <v>1</v>
+      </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -1843,7 +1906,9 @@
       <c r="H29" s="18">
         <v>1</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
@@ -1885,7 +1950,9 @@
       <c r="H30" s="18">
         <v>1</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="18">
+        <v>1</v>
+      </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
@@ -1927,7 +1994,9 @@
       <c r="H31" s="18">
         <v>1</v>
       </c>
-      <c r="I31" s="13"/>
+      <c r="I31" s="18">
+        <v>1</v>
+      </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -1969,7 +2038,9 @@
       <c r="H32" s="18">
         <v>1</v>
       </c>
-      <c r="I32" s="13"/>
+      <c r="I32" s="18">
+        <v>0</v>
+      </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -2011,7 +2082,9 @@
       <c r="H33" s="18">
         <v>1</v>
       </c>
-      <c r="I33" s="13"/>
+      <c r="I33" s="18">
+        <v>1</v>
+      </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -2053,7 +2126,9 @@
       <c r="H34" s="18">
         <v>1</v>
       </c>
-      <c r="I34" s="13"/>
+      <c r="I34" s="18">
+        <v>1</v>
+      </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
@@ -2095,7 +2170,9 @@
       <c r="H35" s="18">
         <v>1</v>
       </c>
-      <c r="I35" s="13"/>
+      <c r="I35" s="18">
+        <v>1</v>
+      </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
@@ -2137,7 +2214,9 @@
       <c r="H36" s="18">
         <v>1</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="18">
+        <v>1</v>
+      </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
@@ -2179,7 +2258,9 @@
       <c r="H37" s="18">
         <v>1</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="18">
+        <v>1</v>
+      </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
@@ -2221,7 +2302,9 @@
       <c r="H38" s="18">
         <v>1</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="18">
+        <v>0</v>
+      </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -2263,7 +2346,9 @@
       <c r="H39" s="18">
         <v>1</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="I39" s="18">
+        <v>1</v>
+      </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -2305,7 +2390,9 @@
       <c r="H40" s="18">
         <v>1</v>
       </c>
-      <c r="I40" s="13"/>
+      <c r="I40" s="18">
+        <v>0</v>
+      </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
@@ -2347,7 +2434,9 @@
       <c r="H41" s="18">
         <v>1</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="18">
+        <v>1</v>
+      </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
@@ -2389,7 +2478,9 @@
       <c r="H42" s="18">
         <v>0</v>
       </c>
-      <c r="I42" s="13"/>
+      <c r="I42" s="18">
+        <v>0</v>
+      </c>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
@@ -2431,7 +2522,9 @@
       <c r="H43" s="18">
         <v>1</v>
       </c>
-      <c r="I43" s="13"/>
+      <c r="I43" s="18">
+        <v>1</v>
+      </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
@@ -2473,7 +2566,9 @@
       <c r="H44" s="18">
         <v>0</v>
       </c>
-      <c r="I44" s="13"/>
+      <c r="I44" s="18">
+        <v>1</v>
+      </c>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
@@ -2515,7 +2610,9 @@
       <c r="H45" s="18">
         <v>1</v>
       </c>
-      <c r="I45" s="13"/>
+      <c r="I45" s="18">
+        <v>1</v>
+      </c>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
@@ -2557,7 +2654,9 @@
       <c r="H46" s="18">
         <v>1</v>
       </c>
-      <c r="I46" s="13"/>
+      <c r="I46" s="18">
+        <v>1</v>
+      </c>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
@@ -2599,7 +2698,9 @@
       <c r="H47" s="18">
         <v>1</v>
       </c>
-      <c r="I47" s="13"/>
+      <c r="I47" s="18">
+        <v>0</v>
+      </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
@@ -2641,7 +2742,9 @@
       <c r="H48" s="18">
         <v>1</v>
       </c>
-      <c r="I48" s="13"/>
+      <c r="I48" s="18">
+        <v>1</v>
+      </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
@@ -2681,7 +2784,9 @@
       <c r="H49" s="18">
         <v>1</v>
       </c>
-      <c r="I49" s="11"/>
+      <c r="I49" s="18">
+        <v>1</v>
+      </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="10"/>
@@ -6509,7 +6614,7 @@
     <sortCondition ref="A1:A1000"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="D3:G49 H3:Z3 D2:Z2 I4:Z48 H4:H49">
+  <conditionalFormatting sqref="D2:H49 I2:Z33 J34:Z48 I34:I49">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="&quot;Присутствовал&quot;"/>
@@ -6519,7 +6624,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:G49 H3:Z3 D2:Z2 I4:Z48 H4:H49">
+  <conditionalFormatting sqref="D2:H49 I2:Z33 J34:Z48 I34:I49">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -6530,7 +6635,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:E49 D2:F48 I2:Z48 G2:H49" xr:uid="{2BED188C-1251-4068-9952-87063711D3FC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:E49 D2:F48 J2:Z48 G2:I49" xr:uid="{2BED188C-1251-4068-9952-87063711D3FC}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/students/sdr_club_2025.xlsx
+++ b/students/sdr_club_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA8899E-8893-4A26-BCD3-DC254FBDA349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FBDDEA-E5E0-465D-8A81-A893B80F7FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Группа</t>
-  </si>
-  <si>
-    <t>Никнейм в ТГ</t>
   </si>
   <si>
     <t xml:space="preserve">АЛДАКИМОВ КИРИЛЛ ПАВЛОВИЧ   </t>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Шварев Егор</t>
+  </si>
+  <si>
+    <t>Github</t>
   </si>
 </sst>
 </file>
@@ -624,9 +624,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J22" sqref="J22"/>
+      <selection pane="topRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D1" s="21">
         <v>45916</v>
@@ -677,7 +677,9 @@
       <c r="I1" s="25">
         <v>45951</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="25">
+        <v>45958</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -697,10 +699,10 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6">
@@ -721,7 +723,9 @@
       <c r="I2" s="18">
         <v>0</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="18">
+        <v>1</v>
+      </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -741,10 +745,10 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6">
@@ -765,7 +769,9 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -785,10 +791,10 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="6">
@@ -809,7 +815,9 @@
       <c r="I4" s="18">
         <v>0</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -829,10 +837,10 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
@@ -853,7 +861,9 @@
       <c r="I5" s="18">
         <v>0</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -873,10 +883,10 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6">
@@ -897,7 +907,9 @@
       <c r="I6" s="18">
         <v>1</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -917,10 +929,10 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="6">
@@ -941,7 +953,9 @@
       <c r="I7" s="18">
         <v>1</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -961,10 +975,10 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
@@ -985,7 +999,9 @@
       <c r="I8" s="18">
         <v>0</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -1005,10 +1021,10 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6">
@@ -1029,7 +1045,9 @@
       <c r="I9" s="18">
         <v>1</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="18">
+        <v>1</v>
+      </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1049,10 +1067,10 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="6">
@@ -1073,7 +1091,9 @@
       <c r="I10" s="18">
         <v>1</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="18">
+        <v>1</v>
+      </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -1093,10 +1113,10 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
@@ -1117,7 +1137,9 @@
       <c r="I11" s="18">
         <v>1</v>
       </c>
-      <c r="J11" s="13"/>
+      <c r="J11" s="18">
+        <v>1</v>
+      </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -1137,10 +1159,10 @@
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6">
@@ -1161,7 +1183,9 @@
       <c r="I12" s="18">
         <v>0</v>
       </c>
-      <c r="J12" s="13"/>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -1181,10 +1205,10 @@
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6">
@@ -1205,7 +1229,9 @@
       <c r="I13" s="18">
         <v>1</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -1225,10 +1251,10 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="6">
@@ -1249,7 +1275,9 @@
       <c r="I14" s="18">
         <v>1</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -1269,10 +1297,10 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="6">
@@ -1293,7 +1321,9 @@
       <c r="I15" s="18">
         <v>1</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -1313,10 +1343,10 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6">
@@ -1337,7 +1367,9 @@
       <c r="I16" s="18">
         <v>0</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -1357,10 +1389,10 @@
     </row>
     <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
@@ -1381,7 +1413,9 @@
       <c r="I17" s="18">
         <v>0</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -1401,10 +1435,10 @@
     </row>
     <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="6">
@@ -1425,7 +1459,9 @@
       <c r="I18" s="18">
         <v>1</v>
       </c>
-      <c r="J18" s="13"/>
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -1445,10 +1481,10 @@
     </row>
     <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6">
@@ -1469,7 +1505,9 @@
       <c r="I19" s="18">
         <v>0</v>
       </c>
-      <c r="J19" s="13"/>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
@@ -1489,10 +1527,10 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6">
@@ -1513,7 +1551,9 @@
       <c r="I20" s="18">
         <v>0</v>
       </c>
-      <c r="J20" s="13"/>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -1533,10 +1573,10 @@
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6">
@@ -1557,7 +1597,9 @@
       <c r="I21" s="18">
         <v>1</v>
       </c>
-      <c r="J21" s="13"/>
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -1577,10 +1619,10 @@
     </row>
     <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6">
@@ -1601,7 +1643,9 @@
       <c r="I22" s="18">
         <v>1</v>
       </c>
-      <c r="J22" s="13"/>
+      <c r="J22" s="18">
+        <v>1</v>
+      </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -1621,10 +1665,10 @@
     </row>
     <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="6">
@@ -1645,7 +1689,9 @@
       <c r="I23" s="18">
         <v>1</v>
       </c>
-      <c r="J23" s="13"/>
+      <c r="J23" s="18">
+        <v>1</v>
+      </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -1665,10 +1711,10 @@
     </row>
     <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="6">
@@ -1689,7 +1735,9 @@
       <c r="I24" s="18">
         <v>0</v>
       </c>
-      <c r="J24" s="13"/>
+      <c r="J24" s="18">
+        <v>0</v>
+      </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
@@ -1709,10 +1757,10 @@
     </row>
     <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6">
@@ -1733,7 +1781,9 @@
       <c r="I25" s="18">
         <v>0</v>
       </c>
-      <c r="J25" s="13"/>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
@@ -1753,10 +1803,10 @@
     </row>
     <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="6">
@@ -1777,7 +1827,9 @@
       <c r="I26" s="18">
         <v>1</v>
       </c>
-      <c r="J26" s="13"/>
+      <c r="J26" s="18">
+        <v>1</v>
+      </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
@@ -1797,10 +1849,10 @@
     </row>
     <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="6">
@@ -1821,7 +1873,9 @@
       <c r="I27" s="18">
         <v>1</v>
       </c>
-      <c r="J27" s="13"/>
+      <c r="J27" s="18">
+        <v>1</v>
+      </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
@@ -1841,10 +1895,10 @@
     </row>
     <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="6">
@@ -1865,7 +1919,9 @@
       <c r="I28" s="18">
         <v>1</v>
       </c>
-      <c r="J28" s="13"/>
+      <c r="J28" s="18">
+        <v>1</v>
+      </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
@@ -1885,10 +1941,10 @@
     </row>
     <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="6">
@@ -1909,7 +1965,9 @@
       <c r="I29" s="18">
         <v>1</v>
       </c>
-      <c r="J29" s="13"/>
+      <c r="J29" s="18">
+        <v>1</v>
+      </c>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
@@ -1929,10 +1987,10 @@
     </row>
     <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="6">
@@ -1953,7 +2011,9 @@
       <c r="I30" s="18">
         <v>1</v>
       </c>
-      <c r="J30" s="13"/>
+      <c r="J30" s="18">
+        <v>1</v>
+      </c>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
@@ -1973,10 +2033,10 @@
     </row>
     <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="6">
@@ -1997,7 +2057,9 @@
       <c r="I31" s="18">
         <v>1</v>
       </c>
-      <c r="J31" s="13"/>
+      <c r="J31" s="18">
+        <v>1</v>
+      </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
@@ -2017,10 +2079,10 @@
     </row>
     <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="6">
@@ -2041,7 +2103,9 @@
       <c r="I32" s="18">
         <v>0</v>
       </c>
-      <c r="J32" s="13"/>
+      <c r="J32" s="18">
+        <v>0</v>
+      </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -2061,10 +2125,10 @@
     </row>
     <row r="33" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="6">
@@ -2085,7 +2149,9 @@
       <c r="I33" s="18">
         <v>1</v>
       </c>
-      <c r="J33" s="13"/>
+      <c r="J33" s="18">
+        <v>1</v>
+      </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -2105,10 +2171,10 @@
     </row>
     <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="6">
@@ -2129,7 +2195,9 @@
       <c r="I34" s="18">
         <v>1</v>
       </c>
-      <c r="J34" s="13"/>
+      <c r="J34" s="18">
+        <v>1</v>
+      </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -2149,10 +2217,10 @@
     </row>
     <row r="35" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="6">
@@ -2173,7 +2241,9 @@
       <c r="I35" s="18">
         <v>1</v>
       </c>
-      <c r="J35" s="13"/>
+      <c r="J35" s="18">
+        <v>1</v>
+      </c>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
@@ -2193,10 +2263,10 @@
     </row>
     <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="6">
@@ -2217,7 +2287,9 @@
       <c r="I36" s="18">
         <v>1</v>
       </c>
-      <c r="J36" s="13"/>
+      <c r="J36" s="18">
+        <v>1</v>
+      </c>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
@@ -2237,10 +2309,10 @@
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="6">
@@ -2261,7 +2333,9 @@
       <c r="I37" s="18">
         <v>1</v>
       </c>
-      <c r="J37" s="13"/>
+      <c r="J37" s="18">
+        <v>1</v>
+      </c>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
@@ -2281,10 +2355,10 @@
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="6">
@@ -2305,7 +2379,9 @@
       <c r="I38" s="18">
         <v>0</v>
       </c>
-      <c r="J38" s="13"/>
+      <c r="J38" s="18">
+        <v>1</v>
+      </c>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
@@ -2325,10 +2401,10 @@
     </row>
     <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="6">
@@ -2349,7 +2425,9 @@
       <c r="I39" s="18">
         <v>1</v>
       </c>
-      <c r="J39" s="13"/>
+      <c r="J39" s="18">
+        <v>1</v>
+      </c>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
@@ -2369,10 +2447,10 @@
     </row>
     <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="6">
@@ -2393,7 +2471,9 @@
       <c r="I40" s="18">
         <v>0</v>
       </c>
-      <c r="J40" s="13"/>
+      <c r="J40" s="18">
+        <v>0</v>
+      </c>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
@@ -2413,10 +2493,10 @@
     </row>
     <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="6">
@@ -2437,7 +2517,9 @@
       <c r="I41" s="18">
         <v>1</v>
       </c>
-      <c r="J41" s="13"/>
+      <c r="J41" s="18">
+        <v>1</v>
+      </c>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
@@ -2457,10 +2539,10 @@
     </row>
     <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="6">
@@ -2481,7 +2563,9 @@
       <c r="I42" s="18">
         <v>0</v>
       </c>
-      <c r="J42" s="13"/>
+      <c r="J42" s="18">
+        <v>0</v>
+      </c>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
@@ -2501,10 +2585,10 @@
     </row>
     <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="6">
@@ -2525,7 +2609,9 @@
       <c r="I43" s="18">
         <v>1</v>
       </c>
-      <c r="J43" s="13"/>
+      <c r="J43" s="18">
+        <v>1</v>
+      </c>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
@@ -2545,10 +2631,10 @@
     </row>
     <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="6">
@@ -2569,7 +2655,9 @@
       <c r="I44" s="18">
         <v>1</v>
       </c>
-      <c r="J44" s="13"/>
+      <c r="J44" s="18">
+        <v>1</v>
+      </c>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
@@ -2589,10 +2677,10 @@
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="6">
@@ -2613,7 +2701,9 @@
       <c r="I45" s="18">
         <v>1</v>
       </c>
-      <c r="J45" s="13"/>
+      <c r="J45" s="18">
+        <v>1</v>
+      </c>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
@@ -2633,10 +2723,10 @@
     </row>
     <row r="46" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="6">
@@ -2657,7 +2747,9 @@
       <c r="I46" s="18">
         <v>1</v>
       </c>
-      <c r="J46" s="13"/>
+      <c r="J46" s="18">
+        <v>1</v>
+      </c>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
@@ -2677,10 +2769,10 @@
     </row>
     <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="6">
@@ -2701,7 +2793,9 @@
       <c r="I47" s="18">
         <v>0</v>
       </c>
-      <c r="J47" s="13"/>
+      <c r="J47" s="18">
+        <v>0</v>
+      </c>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
@@ -2721,10 +2815,10 @@
     </row>
     <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="6">
@@ -2745,7 +2839,9 @@
       <c r="I48" s="18">
         <v>1</v>
       </c>
-      <c r="J48" s="13"/>
+      <c r="J48" s="18">
+        <v>1</v>
+      </c>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
@@ -2765,7 +2861,7 @@
     </row>
     <row r="49" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2787,7 +2883,9 @@
       <c r="I49" s="18">
         <v>1</v>
       </c>
-      <c r="J49" s="11"/>
+      <c r="J49" s="18">
+        <v>1</v>
+      </c>
       <c r="K49" s="11"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -6614,7 +6712,7 @@
     <sortCondition ref="A1:A1000"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="D2:H49 I2:Z33 J34:Z48 I34:I49">
+  <conditionalFormatting sqref="K2:Z48 D2:J49">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="&quot;Присутствовал&quot;"/>
@@ -6624,7 +6722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:H49 I2:Z33 J34:Z48 I34:I49">
+  <conditionalFormatting sqref="K2:Z48 D2:J49">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -6635,7 +6733,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:E49 D2:F48 J2:Z48 G2:I49" xr:uid="{2BED188C-1251-4068-9952-87063711D3FC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:E49 D2:F48 G2:J49 K2:Z48" xr:uid="{2BED188C-1251-4068-9952-87063711D3FC}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/students/sdr_club_2025.xlsx
+++ b/students/sdr_club_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FBDDEA-E5E0-465D-8A81-A893B80F7FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325CCBF8-0117-4B65-A27B-2DF75A5B515D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>ФИО</t>
   </si>
@@ -180,6 +180,9 @@
   <si>
     <t>Github</t>
   </si>
+  <si>
+    <t>КР</t>
+  </si>
 </sst>
 </file>
 
@@ -264,7 +267,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -404,6 +413,12 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -624,9 +639,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -642,7 +657,7 @@
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="28" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
@@ -680,8 +695,12 @@
       <c r="J1" s="25">
         <v>45958</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
+      <c r="K1" s="24">
+        <v>45972</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="M1" s="3"/>
       <c r="N1" s="4"/>
       <c r="O1" s="2"/>
@@ -727,7 +746,9 @@
         <v>1</v>
       </c>
       <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="L2" s="26">
+        <v>0</v>
+      </c>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
@@ -773,7 +794,9 @@
         <v>1</v>
       </c>
       <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -819,7 +842,9 @@
         <v>0</v>
       </c>
       <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="L4" s="26">
+        <v>0</v>
+      </c>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -865,7 +890,9 @@
         <v>0</v>
       </c>
       <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="L5" s="26">
+        <v>0</v>
+      </c>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -911,7 +938,9 @@
         <v>1</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="L6" s="26">
+        <v>3</v>
+      </c>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -957,7 +986,9 @@
         <v>1</v>
       </c>
       <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="L7" s="26">
+        <v>7</v>
+      </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -1003,7 +1034,9 @@
         <v>0</v>
       </c>
       <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="L8" s="26">
+        <v>1</v>
+      </c>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
@@ -1049,7 +1082,9 @@
         <v>1</v>
       </c>
       <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="L9" s="26">
+        <v>7</v>
+      </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
@@ -1095,7 +1130,9 @@
         <v>1</v>
       </c>
       <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="L10" s="26">
+        <v>2</v>
+      </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -1141,7 +1178,9 @@
         <v>1</v>
       </c>
       <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="L11" s="26">
+        <v>2</v>
+      </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -1187,7 +1226,9 @@
         <v>0</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="L12" s="26">
+        <v>0</v>
+      </c>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -1233,7 +1274,9 @@
         <v>1</v>
       </c>
       <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="L13" s="26">
+        <v>2</v>
+      </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -1279,7 +1322,9 @@
         <v>1</v>
       </c>
       <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="L14" s="26">
+        <v>1</v>
+      </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -1325,7 +1370,9 @@
         <v>1</v>
       </c>
       <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="L15" s="26">
+        <v>5</v>
+      </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -1371,7 +1418,9 @@
         <v>0</v>
       </c>
       <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="L16" s="26">
+        <v>1</v>
+      </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -1417,7 +1466,9 @@
         <v>0</v>
       </c>
       <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="L17" s="26">
+        <v>5</v>
+      </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -1463,7 +1514,9 @@
         <v>1</v>
       </c>
       <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="L18" s="26">
+        <v>0</v>
+      </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -1509,7 +1562,9 @@
         <v>0</v>
       </c>
       <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="L19" s="26">
+        <v>3</v>
+      </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -1555,7 +1610,9 @@
         <v>0</v>
       </c>
       <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="L20" s="26">
+        <v>2</v>
+      </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -1601,7 +1658,9 @@
         <v>1</v>
       </c>
       <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="L21" s="26">
+        <v>3</v>
+      </c>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -1647,7 +1706,9 @@
         <v>1</v>
       </c>
       <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="L22" s="26">
+        <v>0</v>
+      </c>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -1693,7 +1754,9 @@
         <v>1</v>
       </c>
       <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="L23" s="26">
+        <v>0</v>
+      </c>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -1739,7 +1802,9 @@
         <v>0</v>
       </c>
       <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="L24" s="26">
+        <v>0</v>
+      </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -1785,7 +1850,9 @@
         <v>0</v>
       </c>
       <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="L25" s="26">
+        <v>0</v>
+      </c>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -1831,7 +1898,9 @@
         <v>1</v>
       </c>
       <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="L26" s="26">
+        <v>5</v>
+      </c>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -1877,7 +1946,9 @@
         <v>1</v>
       </c>
       <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="L27" s="26">
+        <v>7</v>
+      </c>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -1923,7 +1994,9 @@
         <v>1</v>
       </c>
       <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+      <c r="L28" s="26">
+        <v>4</v>
+      </c>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -1969,7 +2042,9 @@
         <v>1</v>
       </c>
       <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
+      <c r="L29" s="26">
+        <v>4</v>
+      </c>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -2015,7 +2090,9 @@
         <v>1</v>
       </c>
       <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="L30" s="26">
+        <v>4</v>
+      </c>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -2061,7 +2138,9 @@
         <v>1</v>
       </c>
       <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="L31" s="26">
+        <v>0</v>
+      </c>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -2107,7 +2186,9 @@
         <v>0</v>
       </c>
       <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="L32" s="26">
+        <v>4</v>
+      </c>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
@@ -2153,7 +2234,9 @@
         <v>1</v>
       </c>
       <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
+      <c r="L33" s="26">
+        <v>5</v>
+      </c>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -2199,7 +2282,9 @@
         <v>1</v>
       </c>
       <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+      <c r="L34" s="26">
+        <v>4</v>
+      </c>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
@@ -2245,7 +2330,9 @@
         <v>1</v>
       </c>
       <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="L35" s="26">
+        <v>5</v>
+      </c>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
@@ -2291,7 +2378,9 @@
         <v>1</v>
       </c>
       <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
+      <c r="L36" s="26">
+        <v>4</v>
+      </c>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
@@ -2337,7 +2426,9 @@
         <v>1</v>
       </c>
       <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
+      <c r="L37" s="26">
+        <v>3</v>
+      </c>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
@@ -2383,7 +2474,9 @@
         <v>1</v>
       </c>
       <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
+      <c r="L38" s="26">
+        <v>4</v>
+      </c>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
@@ -2429,7 +2522,9 @@
         <v>1</v>
       </c>
       <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
+      <c r="L39" s="26">
+        <v>2</v>
+      </c>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
@@ -2475,7 +2570,9 @@
         <v>0</v>
       </c>
       <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
+      <c r="L40" s="26">
+        <v>1</v>
+      </c>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
@@ -2521,7 +2618,9 @@
         <v>1</v>
       </c>
       <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
+      <c r="L41" s="26">
+        <v>0</v>
+      </c>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
@@ -2567,7 +2666,9 @@
         <v>0</v>
       </c>
       <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
+      <c r="L42" s="26">
+        <v>0</v>
+      </c>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
@@ -2613,7 +2714,9 @@
         <v>1</v>
       </c>
       <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
+      <c r="L43" s="26">
+        <v>2</v>
+      </c>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
@@ -2659,7 +2762,9 @@
         <v>1</v>
       </c>
       <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
+      <c r="L44" s="26">
+        <v>1</v>
+      </c>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
@@ -2705,7 +2810,9 @@
         <v>1</v>
       </c>
       <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
+      <c r="L45" s="26">
+        <v>1</v>
+      </c>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
@@ -2751,7 +2858,9 @@
         <v>1</v>
       </c>
       <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
+      <c r="L46" s="26">
+        <v>1</v>
+      </c>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
@@ -2797,7 +2906,9 @@
         <v>0</v>
       </c>
       <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
+      <c r="L47" s="26">
+        <v>6</v>
+      </c>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
@@ -2843,7 +2954,9 @@
         <v>1</v>
       </c>
       <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
+      <c r="L48" s="26">
+        <v>0</v>
+      </c>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
@@ -2887,7 +3000,9 @@
         <v>1</v>
       </c>
       <c r="K49" s="11"/>
-      <c r="L49" s="10"/>
+      <c r="L49" s="26">
+        <v>2</v>
+      </c>
       <c r="M49" s="10"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
@@ -2904,3807 +3019,3807 @@
       <c r="Z49" s="11"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L50" s="1"/>
+      <c r="L50" s="27"/>
       <c r="M50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L51" s="1"/>
+      <c r="L51" s="27"/>
       <c r="M51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L52" s="1"/>
+      <c r="L52" s="27"/>
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L53" s="1"/>
+      <c r="L53" s="27"/>
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L54" s="1"/>
+      <c r="L54" s="27"/>
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L55" s="1"/>
+      <c r="L55" s="27"/>
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L56" s="1"/>
+      <c r="L56" s="27"/>
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L57" s="1"/>
+      <c r="L57" s="27"/>
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L58" s="1"/>
+      <c r="L58" s="27"/>
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L59" s="1"/>
+      <c r="L59" s="27"/>
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L60" s="1"/>
+      <c r="L60" s="27"/>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L61" s="1"/>
+      <c r="L61" s="27"/>
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L62" s="1"/>
+      <c r="L62" s="27"/>
       <c r="M62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L63" s="1"/>
+      <c r="L63" s="27"/>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L64" s="1"/>
+      <c r="L64" s="27"/>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L65" s="1"/>
+      <c r="L65" s="27"/>
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L66" s="1"/>
+      <c r="L66" s="27"/>
       <c r="M66" s="1"/>
     </row>
     <row r="67" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L67" s="1"/>
+      <c r="L67" s="27"/>
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L68" s="1"/>
+      <c r="L68" s="27"/>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L69" s="1"/>
+      <c r="L69" s="27"/>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L70" s="1"/>
+      <c r="L70" s="27"/>
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L71" s="1"/>
+      <c r="L71" s="27"/>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L72" s="1"/>
+      <c r="L72" s="27"/>
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L73" s="1"/>
+      <c r="L73" s="27"/>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L74" s="1"/>
+      <c r="L74" s="27"/>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L75" s="1"/>
+      <c r="L75" s="27"/>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L76" s="1"/>
+      <c r="L76" s="27"/>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L77" s="1"/>
+      <c r="L77" s="27"/>
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L78" s="1"/>
+      <c r="L78" s="27"/>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L79" s="1"/>
+      <c r="L79" s="27"/>
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L80" s="1"/>
+      <c r="L80" s="27"/>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L81" s="1"/>
+      <c r="L81" s="27"/>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L82" s="1"/>
+      <c r="L82" s="27"/>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L83" s="1"/>
+      <c r="L83" s="27"/>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L84" s="1"/>
+      <c r="L84" s="27"/>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L85" s="1"/>
+      <c r="L85" s="27"/>
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L86" s="1"/>
+      <c r="L86" s="27"/>
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L87" s="1"/>
+      <c r="L87" s="27"/>
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L88" s="1"/>
+      <c r="L88" s="27"/>
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L89" s="1"/>
+      <c r="L89" s="27"/>
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L90" s="1"/>
+      <c r="L90" s="27"/>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L91" s="1"/>
+      <c r="L91" s="27"/>
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L92" s="1"/>
+      <c r="L92" s="27"/>
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L93" s="1"/>
+      <c r="L93" s="27"/>
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L94" s="1"/>
+      <c r="L94" s="27"/>
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L95" s="1"/>
+      <c r="L95" s="27"/>
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L96" s="1"/>
+      <c r="L96" s="27"/>
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L97" s="1"/>
+      <c r="L97" s="27"/>
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L98" s="1"/>
+      <c r="L98" s="27"/>
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L99" s="1"/>
+      <c r="L99" s="27"/>
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L100" s="1"/>
+      <c r="L100" s="27"/>
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L101" s="1"/>
+      <c r="L101" s="27"/>
       <c r="M101" s="1"/>
     </row>
     <row r="102" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L102" s="1"/>
+      <c r="L102" s="27"/>
       <c r="M102" s="1"/>
     </row>
     <row r="103" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L103" s="1"/>
+      <c r="L103" s="27"/>
       <c r="M103" s="1"/>
     </row>
     <row r="104" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L104" s="1"/>
+      <c r="L104" s="27"/>
       <c r="M104" s="1"/>
     </row>
     <row r="105" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L105" s="1"/>
+      <c r="L105" s="27"/>
       <c r="M105" s="1"/>
     </row>
     <row r="106" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L106" s="1"/>
+      <c r="L106" s="27"/>
       <c r="M106" s="1"/>
     </row>
     <row r="107" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L107" s="1"/>
+      <c r="L107" s="27"/>
       <c r="M107" s="1"/>
     </row>
     <row r="108" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L108" s="1"/>
+      <c r="L108" s="27"/>
       <c r="M108" s="1"/>
     </row>
     <row r="109" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L109" s="1"/>
+      <c r="L109" s="27"/>
       <c r="M109" s="1"/>
     </row>
     <row r="110" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L110" s="1"/>
+      <c r="L110" s="27"/>
       <c r="M110" s="1"/>
     </row>
     <row r="111" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L111" s="1"/>
+      <c r="L111" s="27"/>
       <c r="M111" s="1"/>
     </row>
     <row r="112" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L112" s="1"/>
+      <c r="L112" s="27"/>
       <c r="M112" s="1"/>
     </row>
     <row r="113" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L113" s="1"/>
+      <c r="L113" s="27"/>
       <c r="M113" s="1"/>
     </row>
     <row r="114" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L114" s="1"/>
+      <c r="L114" s="27"/>
       <c r="M114" s="1"/>
     </row>
     <row r="115" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L115" s="1"/>
+      <c r="L115" s="27"/>
       <c r="M115" s="1"/>
     </row>
     <row r="116" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L116" s="1"/>
+      <c r="L116" s="27"/>
       <c r="M116" s="1"/>
     </row>
     <row r="117" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L117" s="1"/>
+      <c r="L117" s="27"/>
       <c r="M117" s="1"/>
     </row>
     <row r="118" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L118" s="1"/>
+      <c r="L118" s="27"/>
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L119" s="1"/>
+      <c r="L119" s="27"/>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L120" s="1"/>
+      <c r="L120" s="27"/>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L121" s="1"/>
+      <c r="L121" s="27"/>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L122" s="1"/>
+      <c r="L122" s="27"/>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L123" s="1"/>
+      <c r="L123" s="27"/>
       <c r="M123" s="1"/>
     </row>
     <row r="124" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L124" s="1"/>
+      <c r="L124" s="27"/>
       <c r="M124" s="1"/>
     </row>
     <row r="125" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L125" s="1"/>
+      <c r="L125" s="27"/>
       <c r="M125" s="1"/>
     </row>
     <row r="126" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L126" s="1"/>
+      <c r="L126" s="27"/>
       <c r="M126" s="1"/>
     </row>
     <row r="127" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L127" s="1"/>
+      <c r="L127" s="27"/>
       <c r="M127" s="1"/>
     </row>
     <row r="128" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L128" s="1"/>
+      <c r="L128" s="27"/>
       <c r="M128" s="1"/>
     </row>
     <row r="129" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L129" s="1"/>
+      <c r="L129" s="27"/>
       <c r="M129" s="1"/>
     </row>
     <row r="130" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L130" s="1"/>
+      <c r="L130" s="27"/>
       <c r="M130" s="1"/>
     </row>
     <row r="131" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L131" s="1"/>
+      <c r="L131" s="27"/>
       <c r="M131" s="1"/>
     </row>
     <row r="132" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L132" s="1"/>
+      <c r="L132" s="27"/>
       <c r="M132" s="1"/>
     </row>
     <row r="133" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L133" s="1"/>
+      <c r="L133" s="27"/>
       <c r="M133" s="1"/>
     </row>
     <row r="134" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L134" s="1"/>
+      <c r="L134" s="27"/>
       <c r="M134" s="1"/>
     </row>
     <row r="135" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L135" s="1"/>
+      <c r="L135" s="27"/>
       <c r="M135" s="1"/>
     </row>
     <row r="136" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L136" s="1"/>
+      <c r="L136" s="27"/>
       <c r="M136" s="1"/>
     </row>
     <row r="137" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L137" s="1"/>
+      <c r="L137" s="27"/>
       <c r="M137" s="1"/>
     </row>
     <row r="138" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L138" s="1"/>
+      <c r="L138" s="27"/>
       <c r="M138" s="1"/>
     </row>
     <row r="139" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L139" s="1"/>
+      <c r="L139" s="27"/>
       <c r="M139" s="1"/>
     </row>
     <row r="140" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L140" s="1"/>
+      <c r="L140" s="27"/>
       <c r="M140" s="1"/>
     </row>
     <row r="141" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L141" s="1"/>
+      <c r="L141" s="27"/>
       <c r="M141" s="1"/>
     </row>
     <row r="142" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L142" s="1"/>
+      <c r="L142" s="27"/>
       <c r="M142" s="1"/>
     </row>
     <row r="143" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L143" s="1"/>
+      <c r="L143" s="27"/>
       <c r="M143" s="1"/>
     </row>
     <row r="144" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L144" s="1"/>
+      <c r="L144" s="27"/>
       <c r="M144" s="1"/>
     </row>
     <row r="145" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L145" s="1"/>
+      <c r="L145" s="27"/>
       <c r="M145" s="1"/>
     </row>
     <row r="146" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L146" s="1"/>
+      <c r="L146" s="27"/>
       <c r="M146" s="1"/>
     </row>
     <row r="147" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L147" s="1"/>
+      <c r="L147" s="27"/>
       <c r="M147" s="1"/>
     </row>
     <row r="148" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L148" s="1"/>
+      <c r="L148" s="27"/>
       <c r="M148" s="1"/>
     </row>
     <row r="149" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L149" s="1"/>
+      <c r="L149" s="27"/>
       <c r="M149" s="1"/>
     </row>
     <row r="150" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L150" s="1"/>
+      <c r="L150" s="27"/>
       <c r="M150" s="1"/>
     </row>
     <row r="151" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L151" s="1"/>
+      <c r="L151" s="27"/>
       <c r="M151" s="1"/>
     </row>
     <row r="152" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L152" s="1"/>
+      <c r="L152" s="27"/>
       <c r="M152" s="1"/>
     </row>
     <row r="153" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L153" s="1"/>
+      <c r="L153" s="27"/>
       <c r="M153" s="1"/>
     </row>
     <row r="154" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L154" s="1"/>
+      <c r="L154" s="27"/>
       <c r="M154" s="1"/>
     </row>
     <row r="155" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L155" s="1"/>
+      <c r="L155" s="27"/>
       <c r="M155" s="1"/>
     </row>
     <row r="156" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L156" s="1"/>
+      <c r="L156" s="27"/>
       <c r="M156" s="1"/>
     </row>
     <row r="157" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L157" s="1"/>
+      <c r="L157" s="27"/>
       <c r="M157" s="1"/>
     </row>
     <row r="158" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L158" s="1"/>
+      <c r="L158" s="27"/>
       <c r="M158" s="1"/>
     </row>
     <row r="159" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L159" s="1"/>
+      <c r="L159" s="27"/>
       <c r="M159" s="1"/>
     </row>
     <row r="160" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L160" s="1"/>
+      <c r="L160" s="27"/>
       <c r="M160" s="1"/>
     </row>
     <row r="161" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L161" s="1"/>
+      <c r="L161" s="27"/>
       <c r="M161" s="1"/>
     </row>
     <row r="162" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L162" s="1"/>
+      <c r="L162" s="27"/>
       <c r="M162" s="1"/>
     </row>
     <row r="163" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L163" s="1"/>
+      <c r="L163" s="27"/>
       <c r="M163" s="1"/>
     </row>
     <row r="164" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L164" s="1"/>
+      <c r="L164" s="27"/>
       <c r="M164" s="1"/>
     </row>
     <row r="165" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L165" s="1"/>
+      <c r="L165" s="27"/>
       <c r="M165" s="1"/>
     </row>
     <row r="166" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L166" s="1"/>
+      <c r="L166" s="27"/>
       <c r="M166" s="1"/>
     </row>
     <row r="167" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L167" s="1"/>
+      <c r="L167" s="27"/>
       <c r="M167" s="1"/>
     </row>
     <row r="168" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L168" s="1"/>
+      <c r="L168" s="27"/>
       <c r="M168" s="1"/>
     </row>
     <row r="169" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L169" s="1"/>
+      <c r="L169" s="27"/>
       <c r="M169" s="1"/>
     </row>
     <row r="170" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L170" s="1"/>
+      <c r="L170" s="27"/>
       <c r="M170" s="1"/>
     </row>
     <row r="171" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L171" s="1"/>
+      <c r="L171" s="27"/>
       <c r="M171" s="1"/>
     </row>
     <row r="172" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L172" s="1"/>
+      <c r="L172" s="27"/>
       <c r="M172" s="1"/>
     </row>
     <row r="173" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L173" s="1"/>
+      <c r="L173" s="27"/>
       <c r="M173" s="1"/>
     </row>
     <row r="174" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L174" s="1"/>
+      <c r="L174" s="27"/>
       <c r="M174" s="1"/>
     </row>
     <row r="175" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L175" s="1"/>
+      <c r="L175" s="27"/>
       <c r="M175" s="1"/>
     </row>
     <row r="176" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L176" s="1"/>
+      <c r="L176" s="27"/>
       <c r="M176" s="1"/>
     </row>
     <row r="177" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L177" s="1"/>
+      <c r="L177" s="27"/>
       <c r="M177" s="1"/>
     </row>
     <row r="178" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L178" s="1"/>
+      <c r="L178" s="27"/>
       <c r="M178" s="1"/>
     </row>
     <row r="179" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L179" s="1"/>
+      <c r="L179" s="27"/>
       <c r="M179" s="1"/>
     </row>
     <row r="180" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L180" s="1"/>
+      <c r="L180" s="27"/>
       <c r="M180" s="1"/>
     </row>
     <row r="181" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L181" s="1"/>
+      <c r="L181" s="27"/>
       <c r="M181" s="1"/>
     </row>
     <row r="182" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L182" s="1"/>
+      <c r="L182" s="27"/>
       <c r="M182" s="1"/>
     </row>
     <row r="183" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L183" s="1"/>
+      <c r="L183" s="27"/>
       <c r="M183" s="1"/>
     </row>
     <row r="184" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L184" s="1"/>
+      <c r="L184" s="27"/>
       <c r="M184" s="1"/>
     </row>
     <row r="185" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L185" s="1"/>
+      <c r="L185" s="27"/>
       <c r="M185" s="1"/>
     </row>
     <row r="186" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L186" s="1"/>
+      <c r="L186" s="27"/>
       <c r="M186" s="1"/>
     </row>
     <row r="187" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L187" s="1"/>
+      <c r="L187" s="27"/>
       <c r="M187" s="1"/>
     </row>
     <row r="188" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L188" s="1"/>
+      <c r="L188" s="27"/>
       <c r="M188" s="1"/>
     </row>
     <row r="189" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L189" s="1"/>
+      <c r="L189" s="27"/>
       <c r="M189" s="1"/>
     </row>
     <row r="190" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L190" s="1"/>
+      <c r="L190" s="27"/>
       <c r="M190" s="1"/>
     </row>
     <row r="191" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L191" s="1"/>
+      <c r="L191" s="27"/>
       <c r="M191" s="1"/>
     </row>
     <row r="192" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L192" s="1"/>
+      <c r="L192" s="27"/>
       <c r="M192" s="1"/>
     </row>
     <row r="193" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L193" s="1"/>
+      <c r="L193" s="27"/>
       <c r="M193" s="1"/>
     </row>
     <row r="194" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L194" s="1"/>
+      <c r="L194" s="27"/>
       <c r="M194" s="1"/>
     </row>
     <row r="195" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L195" s="1"/>
+      <c r="L195" s="27"/>
       <c r="M195" s="1"/>
     </row>
     <row r="196" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L196" s="1"/>
+      <c r="L196" s="27"/>
       <c r="M196" s="1"/>
     </row>
     <row r="197" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L197" s="1"/>
+      <c r="L197" s="27"/>
       <c r="M197" s="1"/>
     </row>
     <row r="198" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L198" s="1"/>
+      <c r="L198" s="27"/>
       <c r="M198" s="1"/>
     </row>
     <row r="199" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L199" s="1"/>
+      <c r="L199" s="27"/>
       <c r="M199" s="1"/>
     </row>
     <row r="200" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L200" s="1"/>
+      <c r="L200" s="27"/>
       <c r="M200" s="1"/>
     </row>
     <row r="201" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L201" s="1"/>
+      <c r="L201" s="27"/>
       <c r="M201" s="1"/>
     </row>
     <row r="202" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L202" s="1"/>
+      <c r="L202" s="27"/>
       <c r="M202" s="1"/>
     </row>
     <row r="203" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L203" s="1"/>
+      <c r="L203" s="27"/>
       <c r="M203" s="1"/>
     </row>
     <row r="204" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L204" s="1"/>
+      <c r="L204" s="27"/>
       <c r="M204" s="1"/>
     </row>
     <row r="205" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L205" s="1"/>
+      <c r="L205" s="27"/>
       <c r="M205" s="1"/>
     </row>
     <row r="206" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L206" s="1"/>
+      <c r="L206" s="27"/>
       <c r="M206" s="1"/>
     </row>
     <row r="207" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L207" s="1"/>
+      <c r="L207" s="27"/>
       <c r="M207" s="1"/>
     </row>
     <row r="208" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L208" s="1"/>
+      <c r="L208" s="27"/>
       <c r="M208" s="1"/>
     </row>
     <row r="209" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L209" s="1"/>
+      <c r="L209" s="27"/>
       <c r="M209" s="1"/>
     </row>
     <row r="210" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L210" s="1"/>
+      <c r="L210" s="27"/>
       <c r="M210" s="1"/>
     </row>
     <row r="211" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L211" s="1"/>
+      <c r="L211" s="27"/>
       <c r="M211" s="1"/>
     </row>
     <row r="212" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L212" s="1"/>
+      <c r="L212" s="27"/>
       <c r="M212" s="1"/>
     </row>
     <row r="213" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L213" s="1"/>
+      <c r="L213" s="27"/>
       <c r="M213" s="1"/>
     </row>
     <row r="214" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L214" s="1"/>
+      <c r="L214" s="27"/>
       <c r="M214" s="1"/>
     </row>
     <row r="215" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L215" s="1"/>
+      <c r="L215" s="27"/>
       <c r="M215" s="1"/>
     </row>
     <row r="216" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L216" s="1"/>
+      <c r="L216" s="27"/>
       <c r="M216" s="1"/>
     </row>
     <row r="217" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L217" s="1"/>
+      <c r="L217" s="27"/>
       <c r="M217" s="1"/>
     </row>
     <row r="218" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L218" s="1"/>
+      <c r="L218" s="27"/>
       <c r="M218" s="1"/>
     </row>
     <row r="219" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L219" s="1"/>
+      <c r="L219" s="27"/>
       <c r="M219" s="1"/>
     </row>
     <row r="220" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L220" s="1"/>
+      <c r="L220" s="27"/>
       <c r="M220" s="1"/>
     </row>
     <row r="221" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L221" s="1"/>
+      <c r="L221" s="27"/>
       <c r="M221" s="1"/>
     </row>
     <row r="222" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L222" s="1"/>
+      <c r="L222" s="27"/>
       <c r="M222" s="1"/>
     </row>
     <row r="223" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L223" s="1"/>
+      <c r="L223" s="27"/>
       <c r="M223" s="1"/>
     </row>
     <row r="224" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L224" s="1"/>
+      <c r="L224" s="27"/>
       <c r="M224" s="1"/>
     </row>
     <row r="225" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L225" s="1"/>
+      <c r="L225" s="27"/>
       <c r="M225" s="1"/>
     </row>
     <row r="226" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L226" s="1"/>
+      <c r="L226" s="27"/>
       <c r="M226" s="1"/>
     </row>
     <row r="227" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L227" s="1"/>
+      <c r="L227" s="27"/>
       <c r="M227" s="1"/>
     </row>
     <row r="228" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L228" s="1"/>
+      <c r="L228" s="27"/>
       <c r="M228" s="1"/>
     </row>
     <row r="229" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L229" s="1"/>
+      <c r="L229" s="27"/>
       <c r="M229" s="1"/>
     </row>
     <row r="230" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L230" s="1"/>
+      <c r="L230" s="27"/>
       <c r="M230" s="1"/>
     </row>
     <row r="231" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L231" s="1"/>
+      <c r="L231" s="27"/>
       <c r="M231" s="1"/>
     </row>
     <row r="232" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L232" s="1"/>
+      <c r="L232" s="27"/>
       <c r="M232" s="1"/>
     </row>
     <row r="233" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L233" s="1"/>
+      <c r="L233" s="27"/>
       <c r="M233" s="1"/>
     </row>
     <row r="234" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L234" s="1"/>
+      <c r="L234" s="27"/>
       <c r="M234" s="1"/>
     </row>
     <row r="235" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L235" s="1"/>
+      <c r="L235" s="27"/>
       <c r="M235" s="1"/>
     </row>
     <row r="236" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L236" s="1"/>
+      <c r="L236" s="27"/>
       <c r="M236" s="1"/>
     </row>
     <row r="237" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L237" s="1"/>
+      <c r="L237" s="27"/>
       <c r="M237" s="1"/>
     </row>
     <row r="238" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L238" s="1"/>
+      <c r="L238" s="27"/>
       <c r="M238" s="1"/>
     </row>
     <row r="239" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L239" s="1"/>
+      <c r="L239" s="27"/>
       <c r="M239" s="1"/>
     </row>
     <row r="240" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L240" s="1"/>
+      <c r="L240" s="27"/>
       <c r="M240" s="1"/>
     </row>
     <row r="241" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L241" s="1"/>
+      <c r="L241" s="27"/>
       <c r="M241" s="1"/>
     </row>
     <row r="242" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L242" s="1"/>
+      <c r="L242" s="27"/>
       <c r="M242" s="1"/>
     </row>
     <row r="243" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L243" s="1"/>
+      <c r="L243" s="27"/>
       <c r="M243" s="1"/>
     </row>
     <row r="244" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L244" s="1"/>
+      <c r="L244" s="27"/>
       <c r="M244" s="1"/>
     </row>
     <row r="245" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L245" s="1"/>
+      <c r="L245" s="27"/>
       <c r="M245" s="1"/>
     </row>
     <row r="246" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L246" s="1"/>
+      <c r="L246" s="27"/>
       <c r="M246" s="1"/>
     </row>
     <row r="247" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L247" s="1"/>
+      <c r="L247" s="27"/>
       <c r="M247" s="1"/>
     </row>
     <row r="248" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L248" s="1"/>
+      <c r="L248" s="27"/>
       <c r="M248" s="1"/>
     </row>
     <row r="249" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L249" s="1"/>
+      <c r="L249" s="27"/>
       <c r="M249" s="1"/>
     </row>
     <row r="250" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L250" s="1"/>
+      <c r="L250" s="27"/>
       <c r="M250" s="1"/>
     </row>
     <row r="251" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L251" s="1"/>
+      <c r="L251" s="27"/>
       <c r="M251" s="1"/>
     </row>
     <row r="252" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L252" s="1"/>
+      <c r="L252" s="27"/>
       <c r="M252" s="1"/>
     </row>
     <row r="253" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L253" s="1"/>
+      <c r="L253" s="27"/>
       <c r="M253" s="1"/>
     </row>
     <row r="254" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L254" s="1"/>
+      <c r="L254" s="27"/>
       <c r="M254" s="1"/>
     </row>
     <row r="255" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L255" s="1"/>
+      <c r="L255" s="27"/>
       <c r="M255" s="1"/>
     </row>
     <row r="256" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L256" s="1"/>
+      <c r="L256" s="27"/>
       <c r="M256" s="1"/>
     </row>
     <row r="257" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L257" s="1"/>
+      <c r="L257" s="27"/>
       <c r="M257" s="1"/>
     </row>
     <row r="258" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L258" s="1"/>
+      <c r="L258" s="27"/>
       <c r="M258" s="1"/>
     </row>
     <row r="259" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L259" s="1"/>
+      <c r="L259" s="27"/>
       <c r="M259" s="1"/>
     </row>
     <row r="260" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L260" s="1"/>
+      <c r="L260" s="27"/>
       <c r="M260" s="1"/>
     </row>
     <row r="261" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L261" s="1"/>
+      <c r="L261" s="27"/>
       <c r="M261" s="1"/>
     </row>
     <row r="262" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L262" s="1"/>
+      <c r="L262" s="27"/>
       <c r="M262" s="1"/>
     </row>
     <row r="263" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L263" s="1"/>
+      <c r="L263" s="27"/>
       <c r="M263" s="1"/>
     </row>
     <row r="264" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L264" s="1"/>
+      <c r="L264" s="27"/>
       <c r="M264" s="1"/>
     </row>
     <row r="265" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L265" s="1"/>
+      <c r="L265" s="27"/>
       <c r="M265" s="1"/>
     </row>
     <row r="266" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L266" s="1"/>
+      <c r="L266" s="27"/>
       <c r="M266" s="1"/>
     </row>
     <row r="267" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L267" s="1"/>
+      <c r="L267" s="27"/>
       <c r="M267" s="1"/>
     </row>
     <row r="268" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L268" s="1"/>
+      <c r="L268" s="27"/>
       <c r="M268" s="1"/>
     </row>
     <row r="269" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L269" s="1"/>
+      <c r="L269" s="27"/>
       <c r="M269" s="1"/>
     </row>
     <row r="270" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L270" s="1"/>
+      <c r="L270" s="27"/>
       <c r="M270" s="1"/>
     </row>
     <row r="271" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L271" s="1"/>
+      <c r="L271" s="27"/>
       <c r="M271" s="1"/>
     </row>
     <row r="272" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L272" s="1"/>
+      <c r="L272" s="27"/>
       <c r="M272" s="1"/>
     </row>
     <row r="273" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L273" s="1"/>
+      <c r="L273" s="27"/>
       <c r="M273" s="1"/>
     </row>
     <row r="274" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L274" s="1"/>
+      <c r="L274" s="27"/>
       <c r="M274" s="1"/>
     </row>
     <row r="275" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L275" s="1"/>
+      <c r="L275" s="27"/>
       <c r="M275" s="1"/>
     </row>
     <row r="276" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L276" s="1"/>
+      <c r="L276" s="27"/>
       <c r="M276" s="1"/>
     </row>
     <row r="277" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L277" s="1"/>
+      <c r="L277" s="27"/>
       <c r="M277" s="1"/>
     </row>
     <row r="278" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L278" s="1"/>
+      <c r="L278" s="27"/>
       <c r="M278" s="1"/>
     </row>
     <row r="279" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L279" s="1"/>
+      <c r="L279" s="27"/>
       <c r="M279" s="1"/>
     </row>
     <row r="280" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L280" s="1"/>
+      <c r="L280" s="27"/>
       <c r="M280" s="1"/>
     </row>
     <row r="281" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L281" s="1"/>
+      <c r="L281" s="27"/>
       <c r="M281" s="1"/>
     </row>
     <row r="282" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L282" s="1"/>
+      <c r="L282" s="27"/>
       <c r="M282" s="1"/>
     </row>
     <row r="283" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L283" s="1"/>
+      <c r="L283" s="27"/>
       <c r="M283" s="1"/>
     </row>
     <row r="284" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L284" s="1"/>
+      <c r="L284" s="27"/>
       <c r="M284" s="1"/>
     </row>
     <row r="285" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L285" s="1"/>
+      <c r="L285" s="27"/>
       <c r="M285" s="1"/>
     </row>
     <row r="286" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L286" s="1"/>
+      <c r="L286" s="27"/>
       <c r="M286" s="1"/>
     </row>
     <row r="287" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L287" s="1"/>
+      <c r="L287" s="27"/>
       <c r="M287" s="1"/>
     </row>
     <row r="288" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L288" s="1"/>
+      <c r="L288" s="27"/>
       <c r="M288" s="1"/>
     </row>
     <row r="289" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L289" s="1"/>
+      <c r="L289" s="27"/>
       <c r="M289" s="1"/>
     </row>
     <row r="290" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L290" s="1"/>
+      <c r="L290" s="27"/>
       <c r="M290" s="1"/>
     </row>
     <row r="291" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L291" s="1"/>
+      <c r="L291" s="27"/>
       <c r="M291" s="1"/>
     </row>
     <row r="292" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L292" s="1"/>
+      <c r="L292" s="27"/>
       <c r="M292" s="1"/>
     </row>
     <row r="293" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L293" s="1"/>
+      <c r="L293" s="27"/>
       <c r="M293" s="1"/>
     </row>
     <row r="294" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L294" s="1"/>
+      <c r="L294" s="27"/>
       <c r="M294" s="1"/>
     </row>
     <row r="295" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L295" s="1"/>
+      <c r="L295" s="27"/>
       <c r="M295" s="1"/>
     </row>
     <row r="296" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L296" s="1"/>
+      <c r="L296" s="27"/>
       <c r="M296" s="1"/>
     </row>
     <row r="297" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L297" s="1"/>
+      <c r="L297" s="27"/>
       <c r="M297" s="1"/>
     </row>
     <row r="298" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L298" s="1"/>
+      <c r="L298" s="27"/>
       <c r="M298" s="1"/>
     </row>
     <row r="299" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L299" s="1"/>
+      <c r="L299" s="27"/>
       <c r="M299" s="1"/>
     </row>
     <row r="300" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L300" s="1"/>
+      <c r="L300" s="27"/>
       <c r="M300" s="1"/>
     </row>
     <row r="301" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L301" s="1"/>
+      <c r="L301" s="27"/>
       <c r="M301" s="1"/>
     </row>
     <row r="302" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L302" s="1"/>
+      <c r="L302" s="27"/>
       <c r="M302" s="1"/>
     </row>
     <row r="303" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L303" s="1"/>
+      <c r="L303" s="27"/>
       <c r="M303" s="1"/>
     </row>
     <row r="304" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L304" s="1"/>
+      <c r="L304" s="27"/>
       <c r="M304" s="1"/>
     </row>
     <row r="305" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L305" s="1"/>
+      <c r="L305" s="27"/>
       <c r="M305" s="1"/>
     </row>
     <row r="306" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L306" s="1"/>
+      <c r="L306" s="27"/>
       <c r="M306" s="1"/>
     </row>
     <row r="307" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L307" s="1"/>
+      <c r="L307" s="27"/>
       <c r="M307" s="1"/>
     </row>
     <row r="308" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L308" s="1"/>
+      <c r="L308" s="27"/>
       <c r="M308" s="1"/>
     </row>
     <row r="309" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L309" s="1"/>
+      <c r="L309" s="27"/>
       <c r="M309" s="1"/>
     </row>
     <row r="310" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L310" s="1"/>
+      <c r="L310" s="27"/>
       <c r="M310" s="1"/>
     </row>
     <row r="311" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L311" s="1"/>
+      <c r="L311" s="27"/>
       <c r="M311" s="1"/>
     </row>
     <row r="312" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L312" s="1"/>
+      <c r="L312" s="27"/>
       <c r="M312" s="1"/>
     </row>
     <row r="313" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L313" s="1"/>
+      <c r="L313" s="27"/>
       <c r="M313" s="1"/>
     </row>
     <row r="314" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L314" s="1"/>
+      <c r="L314" s="27"/>
       <c r="M314" s="1"/>
     </row>
     <row r="315" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L315" s="1"/>
+      <c r="L315" s="27"/>
       <c r="M315" s="1"/>
     </row>
     <row r="316" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L316" s="1"/>
+      <c r="L316" s="27"/>
       <c r="M316" s="1"/>
     </row>
     <row r="317" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L317" s="1"/>
+      <c r="L317" s="27"/>
       <c r="M317" s="1"/>
     </row>
     <row r="318" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L318" s="1"/>
+      <c r="L318" s="27"/>
       <c r="M318" s="1"/>
     </row>
     <row r="319" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L319" s="1"/>
+      <c r="L319" s="27"/>
       <c r="M319" s="1"/>
     </row>
     <row r="320" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L320" s="1"/>
+      <c r="L320" s="27"/>
       <c r="M320" s="1"/>
     </row>
     <row r="321" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L321" s="1"/>
+      <c r="L321" s="27"/>
       <c r="M321" s="1"/>
     </row>
     <row r="322" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L322" s="1"/>
+      <c r="L322" s="27"/>
       <c r="M322" s="1"/>
     </row>
     <row r="323" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L323" s="1"/>
+      <c r="L323" s="27"/>
       <c r="M323" s="1"/>
     </row>
     <row r="324" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L324" s="1"/>
+      <c r="L324" s="27"/>
       <c r="M324" s="1"/>
     </row>
     <row r="325" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L325" s="1"/>
+      <c r="L325" s="27"/>
       <c r="M325" s="1"/>
     </row>
     <row r="326" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L326" s="1"/>
+      <c r="L326" s="27"/>
       <c r="M326" s="1"/>
     </row>
     <row r="327" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L327" s="1"/>
+      <c r="L327" s="27"/>
       <c r="M327" s="1"/>
     </row>
     <row r="328" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L328" s="1"/>
+      <c r="L328" s="27"/>
       <c r="M328" s="1"/>
     </row>
     <row r="329" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L329" s="1"/>
+      <c r="L329" s="27"/>
       <c r="M329" s="1"/>
     </row>
     <row r="330" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L330" s="1"/>
+      <c r="L330" s="27"/>
       <c r="M330" s="1"/>
     </row>
     <row r="331" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L331" s="1"/>
+      <c r="L331" s="27"/>
       <c r="M331" s="1"/>
     </row>
     <row r="332" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L332" s="1"/>
+      <c r="L332" s="27"/>
       <c r="M332" s="1"/>
     </row>
     <row r="333" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L333" s="1"/>
+      <c r="L333" s="27"/>
       <c r="M333" s="1"/>
     </row>
     <row r="334" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L334" s="1"/>
+      <c r="L334" s="27"/>
       <c r="M334" s="1"/>
     </row>
     <row r="335" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L335" s="1"/>
+      <c r="L335" s="27"/>
       <c r="M335" s="1"/>
     </row>
     <row r="336" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L336" s="1"/>
+      <c r="L336" s="27"/>
       <c r="M336" s="1"/>
     </row>
     <row r="337" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L337" s="1"/>
+      <c r="L337" s="27"/>
       <c r="M337" s="1"/>
     </row>
     <row r="338" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L338" s="1"/>
+      <c r="L338" s="27"/>
       <c r="M338" s="1"/>
     </row>
     <row r="339" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L339" s="1"/>
+      <c r="L339" s="27"/>
       <c r="M339" s="1"/>
     </row>
     <row r="340" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L340" s="1"/>
+      <c r="L340" s="27"/>
       <c r="M340" s="1"/>
     </row>
     <row r="341" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L341" s="1"/>
+      <c r="L341" s="27"/>
       <c r="M341" s="1"/>
     </row>
     <row r="342" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L342" s="1"/>
+      <c r="L342" s="27"/>
       <c r="M342" s="1"/>
     </row>
     <row r="343" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L343" s="1"/>
+      <c r="L343" s="27"/>
       <c r="M343" s="1"/>
     </row>
     <row r="344" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L344" s="1"/>
+      <c r="L344" s="27"/>
       <c r="M344" s="1"/>
     </row>
     <row r="345" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L345" s="1"/>
+      <c r="L345" s="27"/>
       <c r="M345" s="1"/>
     </row>
     <row r="346" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L346" s="1"/>
+      <c r="L346" s="27"/>
       <c r="M346" s="1"/>
     </row>
     <row r="347" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L347" s="1"/>
+      <c r="L347" s="27"/>
       <c r="M347" s="1"/>
     </row>
     <row r="348" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L348" s="1"/>
+      <c r="L348" s="27"/>
       <c r="M348" s="1"/>
     </row>
     <row r="349" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L349" s="1"/>
+      <c r="L349" s="27"/>
       <c r="M349" s="1"/>
     </row>
     <row r="350" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L350" s="1"/>
+      <c r="L350" s="27"/>
       <c r="M350" s="1"/>
     </row>
     <row r="351" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L351" s="1"/>
+      <c r="L351" s="27"/>
       <c r="M351" s="1"/>
     </row>
     <row r="352" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L352" s="1"/>
+      <c r="L352" s="27"/>
       <c r="M352" s="1"/>
     </row>
     <row r="353" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L353" s="1"/>
+      <c r="L353" s="27"/>
       <c r="M353" s="1"/>
     </row>
     <row r="354" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L354" s="1"/>
+      <c r="L354" s="27"/>
       <c r="M354" s="1"/>
     </row>
     <row r="355" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L355" s="1"/>
+      <c r="L355" s="27"/>
       <c r="M355" s="1"/>
     </row>
     <row r="356" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L356" s="1"/>
+      <c r="L356" s="27"/>
       <c r="M356" s="1"/>
     </row>
     <row r="357" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L357" s="1"/>
+      <c r="L357" s="27"/>
       <c r="M357" s="1"/>
     </row>
     <row r="358" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L358" s="1"/>
+      <c r="L358" s="27"/>
       <c r="M358" s="1"/>
     </row>
     <row r="359" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L359" s="1"/>
+      <c r="L359" s="27"/>
       <c r="M359" s="1"/>
     </row>
     <row r="360" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L360" s="1"/>
+      <c r="L360" s="27"/>
       <c r="M360" s="1"/>
     </row>
     <row r="361" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L361" s="1"/>
+      <c r="L361" s="27"/>
       <c r="M361" s="1"/>
     </row>
     <row r="362" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L362" s="1"/>
+      <c r="L362" s="27"/>
       <c r="M362" s="1"/>
     </row>
     <row r="363" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L363" s="1"/>
+      <c r="L363" s="27"/>
       <c r="M363" s="1"/>
     </row>
     <row r="364" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L364" s="1"/>
+      <c r="L364" s="27"/>
       <c r="M364" s="1"/>
     </row>
     <row r="365" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L365" s="1"/>
+      <c r="L365" s="27"/>
       <c r="M365" s="1"/>
     </row>
     <row r="366" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L366" s="1"/>
+      <c r="L366" s="27"/>
       <c r="M366" s="1"/>
     </row>
     <row r="367" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L367" s="1"/>
+      <c r="L367" s="27"/>
       <c r="M367" s="1"/>
     </row>
     <row r="368" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L368" s="1"/>
+      <c r="L368" s="27"/>
       <c r="M368" s="1"/>
     </row>
     <row r="369" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L369" s="1"/>
+      <c r="L369" s="27"/>
       <c r="M369" s="1"/>
     </row>
     <row r="370" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L370" s="1"/>
+      <c r="L370" s="27"/>
       <c r="M370" s="1"/>
     </row>
     <row r="371" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L371" s="1"/>
+      <c r="L371" s="27"/>
       <c r="M371" s="1"/>
     </row>
     <row r="372" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L372" s="1"/>
+      <c r="L372" s="27"/>
       <c r="M372" s="1"/>
     </row>
     <row r="373" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L373" s="1"/>
+      <c r="L373" s="27"/>
       <c r="M373" s="1"/>
     </row>
     <row r="374" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L374" s="1"/>
+      <c r="L374" s="27"/>
       <c r="M374" s="1"/>
     </row>
     <row r="375" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L375" s="1"/>
+      <c r="L375" s="27"/>
       <c r="M375" s="1"/>
     </row>
     <row r="376" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L376" s="1"/>
+      <c r="L376" s="27"/>
       <c r="M376" s="1"/>
     </row>
     <row r="377" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L377" s="1"/>
+      <c r="L377" s="27"/>
       <c r="M377" s="1"/>
     </row>
     <row r="378" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L378" s="1"/>
+      <c r="L378" s="27"/>
       <c r="M378" s="1"/>
     </row>
     <row r="379" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L379" s="1"/>
+      <c r="L379" s="27"/>
       <c r="M379" s="1"/>
     </row>
     <row r="380" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L380" s="1"/>
+      <c r="L380" s="27"/>
       <c r="M380" s="1"/>
     </row>
     <row r="381" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L381" s="1"/>
+      <c r="L381" s="27"/>
       <c r="M381" s="1"/>
     </row>
     <row r="382" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L382" s="1"/>
+      <c r="L382" s="27"/>
       <c r="M382" s="1"/>
     </row>
     <row r="383" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L383" s="1"/>
+      <c r="L383" s="27"/>
       <c r="M383" s="1"/>
     </row>
     <row r="384" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L384" s="1"/>
+      <c r="L384" s="27"/>
       <c r="M384" s="1"/>
     </row>
     <row r="385" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L385" s="1"/>
+      <c r="L385" s="27"/>
       <c r="M385" s="1"/>
     </row>
     <row r="386" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L386" s="1"/>
+      <c r="L386" s="27"/>
       <c r="M386" s="1"/>
     </row>
     <row r="387" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L387" s="1"/>
+      <c r="L387" s="27"/>
       <c r="M387" s="1"/>
     </row>
     <row r="388" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L388" s="1"/>
+      <c r="L388" s="27"/>
       <c r="M388" s="1"/>
     </row>
     <row r="389" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L389" s="1"/>
+      <c r="L389" s="27"/>
       <c r="M389" s="1"/>
     </row>
     <row r="390" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L390" s="1"/>
+      <c r="L390" s="27"/>
       <c r="M390" s="1"/>
     </row>
     <row r="391" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L391" s="1"/>
+      <c r="L391" s="27"/>
       <c r="M391" s="1"/>
     </row>
     <row r="392" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L392" s="1"/>
+      <c r="L392" s="27"/>
       <c r="M392" s="1"/>
     </row>
     <row r="393" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L393" s="1"/>
+      <c r="L393" s="27"/>
       <c r="M393" s="1"/>
     </row>
     <row r="394" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L394" s="1"/>
+      <c r="L394" s="27"/>
       <c r="M394" s="1"/>
     </row>
     <row r="395" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L395" s="1"/>
+      <c r="L395" s="27"/>
       <c r="M395" s="1"/>
     </row>
     <row r="396" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L396" s="1"/>
+      <c r="L396" s="27"/>
       <c r="M396" s="1"/>
     </row>
     <row r="397" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L397" s="1"/>
+      <c r="L397" s="27"/>
       <c r="M397" s="1"/>
     </row>
     <row r="398" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L398" s="1"/>
+      <c r="L398" s="27"/>
       <c r="M398" s="1"/>
     </row>
     <row r="399" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L399" s="1"/>
+      <c r="L399" s="27"/>
       <c r="M399" s="1"/>
     </row>
     <row r="400" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L400" s="1"/>
+      <c r="L400" s="27"/>
       <c r="M400" s="1"/>
     </row>
     <row r="401" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L401" s="1"/>
+      <c r="L401" s="27"/>
       <c r="M401" s="1"/>
     </row>
     <row r="402" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L402" s="1"/>
+      <c r="L402" s="27"/>
       <c r="M402" s="1"/>
     </row>
     <row r="403" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L403" s="1"/>
+      <c r="L403" s="27"/>
       <c r="M403" s="1"/>
     </row>
     <row r="404" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L404" s="1"/>
+      <c r="L404" s="27"/>
       <c r="M404" s="1"/>
     </row>
     <row r="405" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L405" s="1"/>
+      <c r="L405" s="27"/>
       <c r="M405" s="1"/>
     </row>
     <row r="406" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L406" s="1"/>
+      <c r="L406" s="27"/>
       <c r="M406" s="1"/>
     </row>
     <row r="407" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L407" s="1"/>
+      <c r="L407" s="27"/>
       <c r="M407" s="1"/>
     </row>
     <row r="408" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L408" s="1"/>
+      <c r="L408" s="27"/>
       <c r="M408" s="1"/>
     </row>
     <row r="409" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L409" s="1"/>
+      <c r="L409" s="27"/>
       <c r="M409" s="1"/>
     </row>
     <row r="410" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L410" s="1"/>
+      <c r="L410" s="27"/>
       <c r="M410" s="1"/>
     </row>
     <row r="411" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L411" s="1"/>
+      <c r="L411" s="27"/>
       <c r="M411" s="1"/>
     </row>
     <row r="412" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L412" s="1"/>
+      <c r="L412" s="27"/>
       <c r="M412" s="1"/>
     </row>
     <row r="413" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L413" s="1"/>
+      <c r="L413" s="27"/>
       <c r="M413" s="1"/>
     </row>
     <row r="414" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L414" s="1"/>
+      <c r="L414" s="27"/>
       <c r="M414" s="1"/>
     </row>
     <row r="415" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L415" s="1"/>
+      <c r="L415" s="27"/>
       <c r="M415" s="1"/>
     </row>
     <row r="416" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L416" s="1"/>
+      <c r="L416" s="27"/>
       <c r="M416" s="1"/>
     </row>
     <row r="417" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L417" s="1"/>
+      <c r="L417" s="27"/>
       <c r="M417" s="1"/>
     </row>
     <row r="418" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L418" s="1"/>
+      <c r="L418" s="27"/>
       <c r="M418" s="1"/>
     </row>
     <row r="419" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L419" s="1"/>
+      <c r="L419" s="27"/>
       <c r="M419" s="1"/>
     </row>
     <row r="420" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L420" s="1"/>
+      <c r="L420" s="27"/>
       <c r="M420" s="1"/>
     </row>
     <row r="421" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L421" s="1"/>
+      <c r="L421" s="27"/>
       <c r="M421" s="1"/>
     </row>
     <row r="422" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L422" s="1"/>
+      <c r="L422" s="27"/>
       <c r="M422" s="1"/>
     </row>
     <row r="423" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L423" s="1"/>
+      <c r="L423" s="27"/>
       <c r="M423" s="1"/>
     </row>
     <row r="424" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L424" s="1"/>
+      <c r="L424" s="27"/>
       <c r="M424" s="1"/>
     </row>
     <row r="425" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L425" s="1"/>
+      <c r="L425" s="27"/>
       <c r="M425" s="1"/>
     </row>
     <row r="426" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L426" s="1"/>
+      <c r="L426" s="27"/>
       <c r="M426" s="1"/>
     </row>
     <row r="427" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L427" s="1"/>
+      <c r="L427" s="27"/>
       <c r="M427" s="1"/>
     </row>
     <row r="428" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L428" s="1"/>
+      <c r="L428" s="27"/>
       <c r="M428" s="1"/>
     </row>
     <row r="429" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L429" s="1"/>
+      <c r="L429" s="27"/>
       <c r="M429" s="1"/>
     </row>
     <row r="430" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L430" s="1"/>
+      <c r="L430" s="27"/>
       <c r="M430" s="1"/>
     </row>
     <row r="431" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L431" s="1"/>
+      <c r="L431" s="27"/>
       <c r="M431" s="1"/>
     </row>
     <row r="432" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L432" s="1"/>
+      <c r="L432" s="27"/>
       <c r="M432" s="1"/>
     </row>
     <row r="433" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L433" s="1"/>
+      <c r="L433" s="27"/>
       <c r="M433" s="1"/>
     </row>
     <row r="434" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L434" s="1"/>
+      <c r="L434" s="27"/>
       <c r="M434" s="1"/>
     </row>
     <row r="435" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L435" s="1"/>
+      <c r="L435" s="27"/>
       <c r="M435" s="1"/>
     </row>
     <row r="436" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L436" s="1"/>
+      <c r="L436" s="27"/>
       <c r="M436" s="1"/>
     </row>
     <row r="437" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L437" s="1"/>
+      <c r="L437" s="27"/>
       <c r="M437" s="1"/>
     </row>
     <row r="438" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L438" s="1"/>
+      <c r="L438" s="27"/>
       <c r="M438" s="1"/>
     </row>
     <row r="439" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L439" s="1"/>
+      <c r="L439" s="27"/>
       <c r="M439" s="1"/>
     </row>
     <row r="440" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L440" s="1"/>
+      <c r="L440" s="27"/>
       <c r="M440" s="1"/>
     </row>
     <row r="441" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L441" s="1"/>
+      <c r="L441" s="27"/>
       <c r="M441" s="1"/>
     </row>
     <row r="442" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L442" s="1"/>
+      <c r="L442" s="27"/>
       <c r="M442" s="1"/>
     </row>
     <row r="443" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L443" s="1"/>
+      <c r="L443" s="27"/>
       <c r="M443" s="1"/>
     </row>
     <row r="444" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L444" s="1"/>
+      <c r="L444" s="27"/>
       <c r="M444" s="1"/>
     </row>
     <row r="445" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L445" s="1"/>
+      <c r="L445" s="27"/>
       <c r="M445" s="1"/>
     </row>
     <row r="446" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L446" s="1"/>
+      <c r="L446" s="27"/>
       <c r="M446" s="1"/>
     </row>
     <row r="447" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L447" s="1"/>
+      <c r="L447" s="27"/>
       <c r="M447" s="1"/>
     </row>
     <row r="448" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L448" s="1"/>
+      <c r="L448" s="27"/>
       <c r="M448" s="1"/>
     </row>
     <row r="449" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L449" s="1"/>
+      <c r="L449" s="27"/>
       <c r="M449" s="1"/>
     </row>
     <row r="450" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L450" s="1"/>
+      <c r="L450" s="27"/>
       <c r="M450" s="1"/>
     </row>
     <row r="451" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L451" s="1"/>
+      <c r="L451" s="27"/>
       <c r="M451" s="1"/>
     </row>
     <row r="452" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L452" s="1"/>
+      <c r="L452" s="27"/>
       <c r="M452" s="1"/>
     </row>
     <row r="453" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L453" s="1"/>
+      <c r="L453" s="27"/>
       <c r="M453" s="1"/>
     </row>
     <row r="454" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L454" s="1"/>
+      <c r="L454" s="27"/>
       <c r="M454" s="1"/>
     </row>
     <row r="455" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L455" s="1"/>
+      <c r="L455" s="27"/>
       <c r="M455" s="1"/>
     </row>
     <row r="456" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L456" s="1"/>
+      <c r="L456" s="27"/>
       <c r="M456" s="1"/>
     </row>
     <row r="457" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L457" s="1"/>
+      <c r="L457" s="27"/>
       <c r="M457" s="1"/>
     </row>
     <row r="458" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L458" s="1"/>
+      <c r="L458" s="27"/>
       <c r="M458" s="1"/>
     </row>
     <row r="459" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L459" s="1"/>
+      <c r="L459" s="27"/>
       <c r="M459" s="1"/>
     </row>
     <row r="460" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L460" s="1"/>
+      <c r="L460" s="27"/>
       <c r="M460" s="1"/>
     </row>
     <row r="461" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L461" s="1"/>
+      <c r="L461" s="27"/>
       <c r="M461" s="1"/>
     </row>
     <row r="462" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L462" s="1"/>
+      <c r="L462" s="27"/>
       <c r="M462" s="1"/>
     </row>
     <row r="463" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L463" s="1"/>
+      <c r="L463" s="27"/>
       <c r="M463" s="1"/>
     </row>
     <row r="464" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L464" s="1"/>
+      <c r="L464" s="27"/>
       <c r="M464" s="1"/>
     </row>
     <row r="465" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L465" s="1"/>
+      <c r="L465" s="27"/>
       <c r="M465" s="1"/>
     </row>
     <row r="466" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L466" s="1"/>
+      <c r="L466" s="27"/>
       <c r="M466" s="1"/>
     </row>
     <row r="467" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L467" s="1"/>
+      <c r="L467" s="27"/>
       <c r="M467" s="1"/>
     </row>
     <row r="468" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L468" s="1"/>
+      <c r="L468" s="27"/>
       <c r="M468" s="1"/>
     </row>
     <row r="469" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L469" s="1"/>
+      <c r="L469" s="27"/>
       <c r="M469" s="1"/>
     </row>
     <row r="470" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L470" s="1"/>
+      <c r="L470" s="27"/>
       <c r="M470" s="1"/>
     </row>
     <row r="471" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L471" s="1"/>
+      <c r="L471" s="27"/>
       <c r="M471" s="1"/>
     </row>
     <row r="472" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L472" s="1"/>
+      <c r="L472" s="27"/>
       <c r="M472" s="1"/>
     </row>
     <row r="473" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L473" s="1"/>
+      <c r="L473" s="27"/>
       <c r="M473" s="1"/>
     </row>
     <row r="474" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L474" s="1"/>
+      <c r="L474" s="27"/>
       <c r="M474" s="1"/>
     </row>
     <row r="475" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L475" s="1"/>
+      <c r="L475" s="27"/>
       <c r="M475" s="1"/>
     </row>
     <row r="476" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L476" s="1"/>
+      <c r="L476" s="27"/>
       <c r="M476" s="1"/>
     </row>
     <row r="477" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L477" s="1"/>
+      <c r="L477" s="27"/>
       <c r="M477" s="1"/>
     </row>
     <row r="478" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L478" s="1"/>
+      <c r="L478" s="27"/>
       <c r="M478" s="1"/>
     </row>
     <row r="479" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L479" s="1"/>
+      <c r="L479" s="27"/>
       <c r="M479" s="1"/>
     </row>
     <row r="480" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L480" s="1"/>
+      <c r="L480" s="27"/>
       <c r="M480" s="1"/>
     </row>
     <row r="481" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L481" s="1"/>
+      <c r="L481" s="27"/>
       <c r="M481" s="1"/>
     </row>
     <row r="482" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L482" s="1"/>
+      <c r="L482" s="27"/>
       <c r="M482" s="1"/>
     </row>
     <row r="483" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L483" s="1"/>
+      <c r="L483" s="27"/>
       <c r="M483" s="1"/>
     </row>
     <row r="484" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L484" s="1"/>
+      <c r="L484" s="27"/>
       <c r="M484" s="1"/>
     </row>
     <row r="485" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L485" s="1"/>
+      <c r="L485" s="27"/>
       <c r="M485" s="1"/>
     </row>
     <row r="486" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L486" s="1"/>
+      <c r="L486" s="27"/>
       <c r="M486" s="1"/>
     </row>
     <row r="487" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L487" s="1"/>
+      <c r="L487" s="27"/>
       <c r="M487" s="1"/>
     </row>
     <row r="488" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L488" s="1"/>
+      <c r="L488" s="27"/>
       <c r="M488" s="1"/>
     </row>
     <row r="489" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L489" s="1"/>
+      <c r="L489" s="27"/>
       <c r="M489" s="1"/>
     </row>
     <row r="490" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L490" s="1"/>
+      <c r="L490" s="27"/>
       <c r="M490" s="1"/>
     </row>
     <row r="491" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L491" s="1"/>
+      <c r="L491" s="27"/>
       <c r="M491" s="1"/>
     </row>
     <row r="492" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L492" s="1"/>
+      <c r="L492" s="27"/>
       <c r="M492" s="1"/>
     </row>
     <row r="493" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L493" s="1"/>
+      <c r="L493" s="27"/>
       <c r="M493" s="1"/>
     </row>
     <row r="494" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L494" s="1"/>
+      <c r="L494" s="27"/>
       <c r="M494" s="1"/>
     </row>
     <row r="495" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L495" s="1"/>
+      <c r="L495" s="27"/>
       <c r="M495" s="1"/>
     </row>
     <row r="496" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L496" s="1"/>
+      <c r="L496" s="27"/>
       <c r="M496" s="1"/>
     </row>
     <row r="497" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L497" s="1"/>
+      <c r="L497" s="27"/>
       <c r="M497" s="1"/>
     </row>
     <row r="498" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L498" s="1"/>
+      <c r="L498" s="27"/>
       <c r="M498" s="1"/>
     </row>
     <row r="499" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L499" s="1"/>
+      <c r="L499" s="27"/>
       <c r="M499" s="1"/>
     </row>
     <row r="500" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L500" s="1"/>
+      <c r="L500" s="27"/>
       <c r="M500" s="1"/>
     </row>
     <row r="501" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L501" s="1"/>
+      <c r="L501" s="27"/>
       <c r="M501" s="1"/>
     </row>
     <row r="502" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L502" s="1"/>
+      <c r="L502" s="27"/>
       <c r="M502" s="1"/>
     </row>
     <row r="503" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L503" s="1"/>
+      <c r="L503" s="27"/>
       <c r="M503" s="1"/>
     </row>
     <row r="504" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L504" s="1"/>
+      <c r="L504" s="27"/>
       <c r="M504" s="1"/>
     </row>
     <row r="505" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L505" s="1"/>
+      <c r="L505" s="27"/>
       <c r="M505" s="1"/>
     </row>
     <row r="506" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L506" s="1"/>
+      <c r="L506" s="27"/>
       <c r="M506" s="1"/>
     </row>
     <row r="507" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L507" s="1"/>
+      <c r="L507" s="27"/>
       <c r="M507" s="1"/>
     </row>
     <row r="508" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L508" s="1"/>
+      <c r="L508" s="27"/>
       <c r="M508" s="1"/>
     </row>
     <row r="509" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L509" s="1"/>
+      <c r="L509" s="27"/>
       <c r="M509" s="1"/>
     </row>
     <row r="510" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L510" s="1"/>
+      <c r="L510" s="27"/>
       <c r="M510" s="1"/>
     </row>
     <row r="511" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L511" s="1"/>
+      <c r="L511" s="27"/>
       <c r="M511" s="1"/>
     </row>
     <row r="512" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L512" s="1"/>
+      <c r="L512" s="27"/>
       <c r="M512" s="1"/>
     </row>
     <row r="513" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L513" s="1"/>
+      <c r="L513" s="27"/>
       <c r="M513" s="1"/>
     </row>
     <row r="514" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L514" s="1"/>
+      <c r="L514" s="27"/>
       <c r="M514" s="1"/>
     </row>
     <row r="515" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L515" s="1"/>
+      <c r="L515" s="27"/>
       <c r="M515" s="1"/>
     </row>
     <row r="516" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L516" s="1"/>
+      <c r="L516" s="27"/>
       <c r="M516" s="1"/>
     </row>
     <row r="517" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L517" s="1"/>
+      <c r="L517" s="27"/>
       <c r="M517" s="1"/>
     </row>
     <row r="518" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L518" s="1"/>
+      <c r="L518" s="27"/>
       <c r="M518" s="1"/>
     </row>
     <row r="519" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L519" s="1"/>
+      <c r="L519" s="27"/>
       <c r="M519" s="1"/>
     </row>
     <row r="520" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L520" s="1"/>
+      <c r="L520" s="27"/>
       <c r="M520" s="1"/>
     </row>
     <row r="521" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L521" s="1"/>
+      <c r="L521" s="27"/>
       <c r="M521" s="1"/>
     </row>
     <row r="522" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L522" s="1"/>
+      <c r="L522" s="27"/>
       <c r="M522" s="1"/>
     </row>
     <row r="523" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L523" s="1"/>
+      <c r="L523" s="27"/>
       <c r="M523" s="1"/>
     </row>
     <row r="524" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L524" s="1"/>
+      <c r="L524" s="27"/>
       <c r="M524" s="1"/>
     </row>
     <row r="525" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L525" s="1"/>
+      <c r="L525" s="27"/>
       <c r="M525" s="1"/>
     </row>
     <row r="526" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L526" s="1"/>
+      <c r="L526" s="27"/>
       <c r="M526" s="1"/>
     </row>
     <row r="527" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L527" s="1"/>
+      <c r="L527" s="27"/>
       <c r="M527" s="1"/>
     </row>
     <row r="528" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L528" s="1"/>
+      <c r="L528" s="27"/>
       <c r="M528" s="1"/>
     </row>
     <row r="529" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L529" s="1"/>
+      <c r="L529" s="27"/>
       <c r="M529" s="1"/>
     </row>
     <row r="530" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L530" s="1"/>
+      <c r="L530" s="27"/>
       <c r="M530" s="1"/>
     </row>
     <row r="531" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L531" s="1"/>
+      <c r="L531" s="27"/>
       <c r="M531" s="1"/>
     </row>
     <row r="532" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L532" s="1"/>
+      <c r="L532" s="27"/>
       <c r="M532" s="1"/>
     </row>
     <row r="533" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L533" s="1"/>
+      <c r="L533" s="27"/>
       <c r="M533" s="1"/>
     </row>
     <row r="534" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L534" s="1"/>
+      <c r="L534" s="27"/>
       <c r="M534" s="1"/>
     </row>
     <row r="535" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L535" s="1"/>
+      <c r="L535" s="27"/>
       <c r="M535" s="1"/>
     </row>
     <row r="536" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L536" s="1"/>
+      <c r="L536" s="27"/>
       <c r="M536" s="1"/>
     </row>
     <row r="537" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L537" s="1"/>
+      <c r="L537" s="27"/>
       <c r="M537" s="1"/>
     </row>
     <row r="538" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L538" s="1"/>
+      <c r="L538" s="27"/>
       <c r="M538" s="1"/>
     </row>
     <row r="539" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L539" s="1"/>
+      <c r="L539" s="27"/>
       <c r="M539" s="1"/>
     </row>
     <row r="540" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L540" s="1"/>
+      <c r="L540" s="27"/>
       <c r="M540" s="1"/>
     </row>
     <row r="541" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L541" s="1"/>
+      <c r="L541" s="27"/>
       <c r="M541" s="1"/>
     </row>
     <row r="542" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L542" s="1"/>
+      <c r="L542" s="27"/>
       <c r="M542" s="1"/>
     </row>
     <row r="543" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L543" s="1"/>
+      <c r="L543" s="27"/>
       <c r="M543" s="1"/>
     </row>
     <row r="544" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L544" s="1"/>
+      <c r="L544" s="27"/>
       <c r="M544" s="1"/>
     </row>
     <row r="545" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L545" s="1"/>
+      <c r="L545" s="27"/>
       <c r="M545" s="1"/>
     </row>
     <row r="546" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L546" s="1"/>
+      <c r="L546" s="27"/>
       <c r="M546" s="1"/>
     </row>
     <row r="547" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L547" s="1"/>
+      <c r="L547" s="27"/>
       <c r="M547" s="1"/>
     </row>
     <row r="548" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L548" s="1"/>
+      <c r="L548" s="27"/>
       <c r="M548" s="1"/>
     </row>
     <row r="549" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L549" s="1"/>
+      <c r="L549" s="27"/>
       <c r="M549" s="1"/>
     </row>
     <row r="550" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L550" s="1"/>
+      <c r="L550" s="27"/>
       <c r="M550" s="1"/>
     </row>
     <row r="551" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L551" s="1"/>
+      <c r="L551" s="27"/>
       <c r="M551" s="1"/>
     </row>
     <row r="552" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L552" s="1"/>
+      <c r="L552" s="27"/>
       <c r="M552" s="1"/>
     </row>
     <row r="553" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L553" s="1"/>
+      <c r="L553" s="27"/>
       <c r="M553" s="1"/>
     </row>
     <row r="554" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L554" s="1"/>
+      <c r="L554" s="27"/>
       <c r="M554" s="1"/>
     </row>
     <row r="555" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L555" s="1"/>
+      <c r="L555" s="27"/>
       <c r="M555" s="1"/>
     </row>
     <row r="556" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L556" s="1"/>
+      <c r="L556" s="27"/>
       <c r="M556" s="1"/>
     </row>
     <row r="557" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L557" s="1"/>
+      <c r="L557" s="27"/>
       <c r="M557" s="1"/>
     </row>
     <row r="558" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L558" s="1"/>
+      <c r="L558" s="27"/>
       <c r="M558" s="1"/>
     </row>
     <row r="559" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L559" s="1"/>
+      <c r="L559" s="27"/>
       <c r="M559" s="1"/>
     </row>
     <row r="560" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L560" s="1"/>
+      <c r="L560" s="27"/>
       <c r="M560" s="1"/>
     </row>
     <row r="561" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L561" s="1"/>
+      <c r="L561" s="27"/>
       <c r="M561" s="1"/>
     </row>
     <row r="562" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L562" s="1"/>
+      <c r="L562" s="27"/>
       <c r="M562" s="1"/>
     </row>
     <row r="563" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L563" s="1"/>
+      <c r="L563" s="27"/>
       <c r="M563" s="1"/>
     </row>
     <row r="564" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L564" s="1"/>
+      <c r="L564" s="27"/>
       <c r="M564" s="1"/>
     </row>
     <row r="565" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L565" s="1"/>
+      <c r="L565" s="27"/>
       <c r="M565" s="1"/>
     </row>
     <row r="566" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L566" s="1"/>
+      <c r="L566" s="27"/>
       <c r="M566" s="1"/>
     </row>
     <row r="567" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L567" s="1"/>
+      <c r="L567" s="27"/>
       <c r="M567" s="1"/>
     </row>
     <row r="568" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L568" s="1"/>
+      <c r="L568" s="27"/>
       <c r="M568" s="1"/>
     </row>
     <row r="569" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L569" s="1"/>
+      <c r="L569" s="27"/>
       <c r="M569" s="1"/>
     </row>
     <row r="570" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L570" s="1"/>
+      <c r="L570" s="27"/>
       <c r="M570" s="1"/>
     </row>
     <row r="571" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L571" s="1"/>
+      <c r="L571" s="27"/>
       <c r="M571" s="1"/>
     </row>
     <row r="572" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L572" s="1"/>
+      <c r="L572" s="27"/>
       <c r="M572" s="1"/>
     </row>
     <row r="573" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L573" s="1"/>
+      <c r="L573" s="27"/>
       <c r="M573" s="1"/>
     </row>
     <row r="574" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L574" s="1"/>
+      <c r="L574" s="27"/>
       <c r="M574" s="1"/>
     </row>
     <row r="575" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L575" s="1"/>
+      <c r="L575" s="27"/>
       <c r="M575" s="1"/>
     </row>
     <row r="576" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L576" s="1"/>
+      <c r="L576" s="27"/>
       <c r="M576" s="1"/>
     </row>
     <row r="577" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L577" s="1"/>
+      <c r="L577" s="27"/>
       <c r="M577" s="1"/>
     </row>
     <row r="578" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L578" s="1"/>
+      <c r="L578" s="27"/>
       <c r="M578" s="1"/>
     </row>
     <row r="579" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L579" s="1"/>
+      <c r="L579" s="27"/>
       <c r="M579" s="1"/>
     </row>
     <row r="580" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L580" s="1"/>
+      <c r="L580" s="27"/>
       <c r="M580" s="1"/>
     </row>
     <row r="581" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L581" s="1"/>
+      <c r="L581" s="27"/>
       <c r="M581" s="1"/>
     </row>
     <row r="582" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L582" s="1"/>
+      <c r="L582" s="27"/>
       <c r="M582" s="1"/>
     </row>
     <row r="583" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L583" s="1"/>
+      <c r="L583" s="27"/>
       <c r="M583" s="1"/>
     </row>
     <row r="584" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L584" s="1"/>
+      <c r="L584" s="27"/>
       <c r="M584" s="1"/>
     </row>
     <row r="585" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L585" s="1"/>
+      <c r="L585" s="27"/>
       <c r="M585" s="1"/>
     </row>
     <row r="586" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L586" s="1"/>
+      <c r="L586" s="27"/>
       <c r="M586" s="1"/>
     </row>
     <row r="587" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L587" s="1"/>
+      <c r="L587" s="27"/>
       <c r="M587" s="1"/>
     </row>
     <row r="588" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L588" s="1"/>
+      <c r="L588" s="27"/>
       <c r="M588" s="1"/>
     </row>
     <row r="589" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L589" s="1"/>
+      <c r="L589" s="27"/>
       <c r="M589" s="1"/>
     </row>
     <row r="590" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L590" s="1"/>
+      <c r="L590" s="27"/>
       <c r="M590" s="1"/>
     </row>
     <row r="591" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L591" s="1"/>
+      <c r="L591" s="27"/>
       <c r="M591" s="1"/>
     </row>
     <row r="592" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L592" s="1"/>
+      <c r="L592" s="27"/>
       <c r="M592" s="1"/>
     </row>
     <row r="593" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L593" s="1"/>
+      <c r="L593" s="27"/>
       <c r="M593" s="1"/>
     </row>
     <row r="594" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L594" s="1"/>
+      <c r="L594" s="27"/>
       <c r="M594" s="1"/>
     </row>
     <row r="595" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L595" s="1"/>
+      <c r="L595" s="27"/>
       <c r="M595" s="1"/>
     </row>
     <row r="596" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L596" s="1"/>
+      <c r="L596" s="27"/>
       <c r="M596" s="1"/>
     </row>
     <row r="597" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L597" s="1"/>
+      <c r="L597" s="27"/>
       <c r="M597" s="1"/>
     </row>
     <row r="598" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L598" s="1"/>
+      <c r="L598" s="27"/>
       <c r="M598" s="1"/>
     </row>
     <row r="599" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L599" s="1"/>
+      <c r="L599" s="27"/>
       <c r="M599" s="1"/>
     </row>
     <row r="600" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L600" s="1"/>
+      <c r="L600" s="27"/>
       <c r="M600" s="1"/>
     </row>
     <row r="601" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L601" s="1"/>
+      <c r="L601" s="27"/>
       <c r="M601" s="1"/>
     </row>
     <row r="602" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L602" s="1"/>
+      <c r="L602" s="27"/>
       <c r="M602" s="1"/>
     </row>
     <row r="603" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L603" s="1"/>
+      <c r="L603" s="27"/>
       <c r="M603" s="1"/>
     </row>
     <row r="604" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L604" s="1"/>
+      <c r="L604" s="27"/>
       <c r="M604" s="1"/>
     </row>
     <row r="605" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L605" s="1"/>
+      <c r="L605" s="27"/>
       <c r="M605" s="1"/>
     </row>
     <row r="606" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L606" s="1"/>
+      <c r="L606" s="27"/>
       <c r="M606" s="1"/>
     </row>
     <row r="607" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L607" s="1"/>
+      <c r="L607" s="27"/>
       <c r="M607" s="1"/>
     </row>
     <row r="608" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L608" s="1"/>
+      <c r="L608" s="27"/>
       <c r="M608" s="1"/>
     </row>
     <row r="609" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L609" s="1"/>
+      <c r="L609" s="27"/>
       <c r="M609" s="1"/>
     </row>
     <row r="610" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L610" s="1"/>
+      <c r="L610" s="27"/>
       <c r="M610" s="1"/>
     </row>
     <row r="611" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L611" s="1"/>
+      <c r="L611" s="27"/>
       <c r="M611" s="1"/>
     </row>
     <row r="612" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L612" s="1"/>
+      <c r="L612" s="27"/>
       <c r="M612" s="1"/>
     </row>
     <row r="613" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L613" s="1"/>
+      <c r="L613" s="27"/>
       <c r="M613" s="1"/>
     </row>
     <row r="614" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L614" s="1"/>
+      <c r="L614" s="27"/>
       <c r="M614" s="1"/>
     </row>
     <row r="615" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L615" s="1"/>
+      <c r="L615" s="27"/>
       <c r="M615" s="1"/>
     </row>
     <row r="616" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L616" s="1"/>
+      <c r="L616" s="27"/>
       <c r="M616" s="1"/>
     </row>
     <row r="617" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L617" s="1"/>
+      <c r="L617" s="27"/>
       <c r="M617" s="1"/>
     </row>
     <row r="618" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L618" s="1"/>
+      <c r="L618" s="27"/>
       <c r="M618" s="1"/>
     </row>
     <row r="619" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L619" s="1"/>
+      <c r="L619" s="27"/>
       <c r="M619" s="1"/>
     </row>
     <row r="620" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L620" s="1"/>
+      <c r="L620" s="27"/>
       <c r="M620" s="1"/>
     </row>
     <row r="621" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L621" s="1"/>
+      <c r="L621" s="27"/>
       <c r="M621" s="1"/>
     </row>
     <row r="622" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L622" s="1"/>
+      <c r="L622" s="27"/>
       <c r="M622" s="1"/>
     </row>
     <row r="623" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L623" s="1"/>
+      <c r="L623" s="27"/>
       <c r="M623" s="1"/>
     </row>
     <row r="624" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L624" s="1"/>
+      <c r="L624" s="27"/>
       <c r="M624" s="1"/>
     </row>
     <row r="625" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L625" s="1"/>
+      <c r="L625" s="27"/>
       <c r="M625" s="1"/>
     </row>
     <row r="626" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L626" s="1"/>
+      <c r="L626" s="27"/>
       <c r="M626" s="1"/>
     </row>
     <row r="627" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L627" s="1"/>
+      <c r="L627" s="27"/>
       <c r="M627" s="1"/>
     </row>
     <row r="628" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L628" s="1"/>
+      <c r="L628" s="27"/>
       <c r="M628" s="1"/>
     </row>
     <row r="629" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L629" s="1"/>
+      <c r="L629" s="27"/>
       <c r="M629" s="1"/>
     </row>
     <row r="630" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L630" s="1"/>
+      <c r="L630" s="27"/>
       <c r="M630" s="1"/>
     </row>
     <row r="631" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L631" s="1"/>
+      <c r="L631" s="27"/>
       <c r="M631" s="1"/>
     </row>
     <row r="632" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L632" s="1"/>
+      <c r="L632" s="27"/>
       <c r="M632" s="1"/>
     </row>
     <row r="633" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L633" s="1"/>
+      <c r="L633" s="27"/>
       <c r="M633" s="1"/>
     </row>
     <row r="634" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L634" s="1"/>
+      <c r="L634" s="27"/>
       <c r="M634" s="1"/>
     </row>
     <row r="635" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L635" s="1"/>
+      <c r="L635" s="27"/>
       <c r="M635" s="1"/>
     </row>
     <row r="636" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L636" s="1"/>
+      <c r="L636" s="27"/>
       <c r="M636" s="1"/>
     </row>
     <row r="637" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L637" s="1"/>
+      <c r="L637" s="27"/>
       <c r="M637" s="1"/>
     </row>
     <row r="638" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L638" s="1"/>
+      <c r="L638" s="27"/>
       <c r="M638" s="1"/>
     </row>
     <row r="639" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L639" s="1"/>
+      <c r="L639" s="27"/>
       <c r="M639" s="1"/>
     </row>
     <row r="640" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L640" s="1"/>
+      <c r="L640" s="27"/>
       <c r="M640" s="1"/>
     </row>
     <row r="641" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L641" s="1"/>
+      <c r="L641" s="27"/>
       <c r="M641" s="1"/>
     </row>
     <row r="642" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L642" s="1"/>
+      <c r="L642" s="27"/>
       <c r="M642" s="1"/>
     </row>
     <row r="643" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L643" s="1"/>
+      <c r="L643" s="27"/>
       <c r="M643" s="1"/>
     </row>
     <row r="644" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L644" s="1"/>
+      <c r="L644" s="27"/>
       <c r="M644" s="1"/>
     </row>
     <row r="645" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L645" s="1"/>
+      <c r="L645" s="27"/>
       <c r="M645" s="1"/>
     </row>
     <row r="646" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L646" s="1"/>
+      <c r="L646" s="27"/>
       <c r="M646" s="1"/>
     </row>
     <row r="647" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L647" s="1"/>
+      <c r="L647" s="27"/>
       <c r="M647" s="1"/>
     </row>
     <row r="648" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L648" s="1"/>
+      <c r="L648" s="27"/>
       <c r="M648" s="1"/>
     </row>
     <row r="649" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L649" s="1"/>
+      <c r="L649" s="27"/>
       <c r="M649" s="1"/>
     </row>
     <row r="650" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L650" s="1"/>
+      <c r="L650" s="27"/>
       <c r="M650" s="1"/>
     </row>
     <row r="651" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L651" s="1"/>
+      <c r="L651" s="27"/>
       <c r="M651" s="1"/>
     </row>
     <row r="652" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L652" s="1"/>
+      <c r="L652" s="27"/>
       <c r="M652" s="1"/>
     </row>
     <row r="653" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L653" s="1"/>
+      <c r="L653" s="27"/>
       <c r="M653" s="1"/>
     </row>
     <row r="654" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L654" s="1"/>
+      <c r="L654" s="27"/>
       <c r="M654" s="1"/>
     </row>
     <row r="655" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L655" s="1"/>
+      <c r="L655" s="27"/>
       <c r="M655" s="1"/>
     </row>
     <row r="656" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L656" s="1"/>
+      <c r="L656" s="27"/>
       <c r="M656" s="1"/>
     </row>
     <row r="657" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L657" s="1"/>
+      <c r="L657" s="27"/>
       <c r="M657" s="1"/>
     </row>
     <row r="658" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L658" s="1"/>
+      <c r="L658" s="27"/>
       <c r="M658" s="1"/>
     </row>
     <row r="659" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L659" s="1"/>
+      <c r="L659" s="27"/>
       <c r="M659" s="1"/>
     </row>
     <row r="660" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L660" s="1"/>
+      <c r="L660" s="27"/>
       <c r="M660" s="1"/>
     </row>
     <row r="661" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L661" s="1"/>
+      <c r="L661" s="27"/>
       <c r="M661" s="1"/>
     </row>
     <row r="662" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L662" s="1"/>
+      <c r="L662" s="27"/>
       <c r="M662" s="1"/>
     </row>
     <row r="663" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L663" s="1"/>
+      <c r="L663" s="27"/>
       <c r="M663" s="1"/>
     </row>
     <row r="664" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L664" s="1"/>
+      <c r="L664" s="27"/>
       <c r="M664" s="1"/>
     </row>
     <row r="665" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L665" s="1"/>
+      <c r="L665" s="27"/>
       <c r="M665" s="1"/>
     </row>
     <row r="666" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L666" s="1"/>
+      <c r="L666" s="27"/>
       <c r="M666" s="1"/>
     </row>
     <row r="667" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L667" s="1"/>
+      <c r="L667" s="27"/>
       <c r="M667" s="1"/>
     </row>
     <row r="668" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L668" s="1"/>
+      <c r="L668" s="27"/>
       <c r="M668" s="1"/>
     </row>
     <row r="669" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L669" s="1"/>
+      <c r="L669" s="27"/>
       <c r="M669" s="1"/>
     </row>
     <row r="670" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L670" s="1"/>
+      <c r="L670" s="27"/>
       <c r="M670" s="1"/>
     </row>
     <row r="671" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L671" s="1"/>
+      <c r="L671" s="27"/>
       <c r="M671" s="1"/>
     </row>
     <row r="672" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L672" s="1"/>
+      <c r="L672" s="27"/>
       <c r="M672" s="1"/>
     </row>
     <row r="673" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L673" s="1"/>
+      <c r="L673" s="27"/>
       <c r="M673" s="1"/>
     </row>
     <row r="674" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L674" s="1"/>
+      <c r="L674" s="27"/>
       <c r="M674" s="1"/>
     </row>
     <row r="675" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L675" s="1"/>
+      <c r="L675" s="27"/>
       <c r="M675" s="1"/>
     </row>
     <row r="676" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L676" s="1"/>
+      <c r="L676" s="27"/>
       <c r="M676" s="1"/>
     </row>
     <row r="677" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L677" s="1"/>
+      <c r="L677" s="27"/>
       <c r="M677" s="1"/>
     </row>
     <row r="678" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L678" s="1"/>
+      <c r="L678" s="27"/>
       <c r="M678" s="1"/>
     </row>
     <row r="679" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L679" s="1"/>
+      <c r="L679" s="27"/>
       <c r="M679" s="1"/>
     </row>
     <row r="680" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L680" s="1"/>
+      <c r="L680" s="27"/>
       <c r="M680" s="1"/>
     </row>
     <row r="681" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L681" s="1"/>
+      <c r="L681" s="27"/>
       <c r="M681" s="1"/>
     </row>
     <row r="682" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L682" s="1"/>
+      <c r="L682" s="27"/>
       <c r="M682" s="1"/>
     </row>
     <row r="683" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L683" s="1"/>
+      <c r="L683" s="27"/>
       <c r="M683" s="1"/>
     </row>
     <row r="684" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L684" s="1"/>
+      <c r="L684" s="27"/>
       <c r="M684" s="1"/>
     </row>
     <row r="685" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L685" s="1"/>
+      <c r="L685" s="27"/>
       <c r="M685" s="1"/>
     </row>
     <row r="686" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L686" s="1"/>
+      <c r="L686" s="27"/>
       <c r="M686" s="1"/>
     </row>
     <row r="687" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L687" s="1"/>
+      <c r="L687" s="27"/>
       <c r="M687" s="1"/>
     </row>
     <row r="688" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L688" s="1"/>
+      <c r="L688" s="27"/>
       <c r="M688" s="1"/>
     </row>
     <row r="689" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L689" s="1"/>
+      <c r="L689" s="27"/>
       <c r="M689" s="1"/>
     </row>
     <row r="690" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L690" s="1"/>
+      <c r="L690" s="27"/>
       <c r="M690" s="1"/>
     </row>
     <row r="691" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L691" s="1"/>
+      <c r="L691" s="27"/>
       <c r="M691" s="1"/>
     </row>
     <row r="692" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L692" s="1"/>
+      <c r="L692" s="27"/>
       <c r="M692" s="1"/>
     </row>
     <row r="693" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L693" s="1"/>
+      <c r="L693" s="27"/>
       <c r="M693" s="1"/>
     </row>
     <row r="694" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L694" s="1"/>
+      <c r="L694" s="27"/>
       <c r="M694" s="1"/>
     </row>
     <row r="695" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L695" s="1"/>
+      <c r="L695" s="27"/>
       <c r="M695" s="1"/>
     </row>
     <row r="696" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L696" s="1"/>
+      <c r="L696" s="27"/>
       <c r="M696" s="1"/>
     </row>
     <row r="697" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L697" s="1"/>
+      <c r="L697" s="27"/>
       <c r="M697" s="1"/>
     </row>
     <row r="698" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L698" s="1"/>
+      <c r="L698" s="27"/>
       <c r="M698" s="1"/>
     </row>
     <row r="699" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L699" s="1"/>
+      <c r="L699" s="27"/>
       <c r="M699" s="1"/>
     </row>
     <row r="700" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L700" s="1"/>
+      <c r="L700" s="27"/>
       <c r="M700" s="1"/>
     </row>
     <row r="701" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L701" s="1"/>
+      <c r="L701" s="27"/>
       <c r="M701" s="1"/>
     </row>
     <row r="702" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L702" s="1"/>
+      <c r="L702" s="27"/>
       <c r="M702" s="1"/>
     </row>
     <row r="703" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L703" s="1"/>
+      <c r="L703" s="27"/>
       <c r="M703" s="1"/>
     </row>
     <row r="704" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L704" s="1"/>
+      <c r="L704" s="27"/>
       <c r="M704" s="1"/>
     </row>
     <row r="705" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L705" s="1"/>
+      <c r="L705" s="27"/>
       <c r="M705" s="1"/>
     </row>
     <row r="706" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L706" s="1"/>
+      <c r="L706" s="27"/>
       <c r="M706" s="1"/>
     </row>
     <row r="707" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L707" s="1"/>
+      <c r="L707" s="27"/>
       <c r="M707" s="1"/>
     </row>
     <row r="708" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L708" s="1"/>
+      <c r="L708" s="27"/>
       <c r="M708" s="1"/>
     </row>
     <row r="709" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L709" s="1"/>
+      <c r="L709" s="27"/>
       <c r="M709" s="1"/>
     </row>
     <row r="710" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L710" s="1"/>
+      <c r="L710" s="27"/>
       <c r="M710" s="1"/>
     </row>
     <row r="711" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L711" s="1"/>
+      <c r="L711" s="27"/>
       <c r="M711" s="1"/>
     </row>
     <row r="712" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L712" s="1"/>
+      <c r="L712" s="27"/>
       <c r="M712" s="1"/>
     </row>
     <row r="713" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L713" s="1"/>
+      <c r="L713" s="27"/>
       <c r="M713" s="1"/>
     </row>
     <row r="714" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L714" s="1"/>
+      <c r="L714" s="27"/>
       <c r="M714" s="1"/>
     </row>
     <row r="715" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L715" s="1"/>
+      <c r="L715" s="27"/>
       <c r="M715" s="1"/>
     </row>
     <row r="716" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L716" s="1"/>
+      <c r="L716" s="27"/>
       <c r="M716" s="1"/>
     </row>
     <row r="717" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L717" s="1"/>
+      <c r="L717" s="27"/>
       <c r="M717" s="1"/>
     </row>
     <row r="718" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L718" s="1"/>
+      <c r="L718" s="27"/>
       <c r="M718" s="1"/>
     </row>
     <row r="719" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L719" s="1"/>
+      <c r="L719" s="27"/>
       <c r="M719" s="1"/>
     </row>
     <row r="720" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L720" s="1"/>
+      <c r="L720" s="27"/>
       <c r="M720" s="1"/>
     </row>
     <row r="721" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L721" s="1"/>
+      <c r="L721" s="27"/>
       <c r="M721" s="1"/>
     </row>
     <row r="722" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L722" s="1"/>
+      <c r="L722" s="27"/>
       <c r="M722" s="1"/>
     </row>
     <row r="723" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L723" s="1"/>
+      <c r="L723" s="27"/>
       <c r="M723" s="1"/>
     </row>
     <row r="724" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L724" s="1"/>
+      <c r="L724" s="27"/>
       <c r="M724" s="1"/>
     </row>
     <row r="725" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L725" s="1"/>
+      <c r="L725" s="27"/>
       <c r="M725" s="1"/>
     </row>
     <row r="726" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L726" s="1"/>
+      <c r="L726" s="27"/>
       <c r="M726" s="1"/>
     </row>
     <row r="727" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L727" s="1"/>
+      <c r="L727" s="27"/>
       <c r="M727" s="1"/>
     </row>
     <row r="728" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L728" s="1"/>
+      <c r="L728" s="27"/>
       <c r="M728" s="1"/>
     </row>
     <row r="729" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L729" s="1"/>
+      <c r="L729" s="27"/>
       <c r="M729" s="1"/>
     </row>
     <row r="730" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L730" s="1"/>
+      <c r="L730" s="27"/>
       <c r="M730" s="1"/>
     </row>
     <row r="731" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L731" s="1"/>
+      <c r="L731" s="27"/>
       <c r="M731" s="1"/>
     </row>
     <row r="732" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L732" s="1"/>
+      <c r="L732" s="27"/>
       <c r="M732" s="1"/>
     </row>
     <row r="733" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L733" s="1"/>
+      <c r="L733" s="27"/>
       <c r="M733" s="1"/>
     </row>
     <row r="734" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L734" s="1"/>
+      <c r="L734" s="27"/>
       <c r="M734" s="1"/>
     </row>
     <row r="735" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L735" s="1"/>
+      <c r="L735" s="27"/>
       <c r="M735" s="1"/>
     </row>
     <row r="736" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L736" s="1"/>
+      <c r="L736" s="27"/>
       <c r="M736" s="1"/>
     </row>
     <row r="737" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L737" s="1"/>
+      <c r="L737" s="27"/>
       <c r="M737" s="1"/>
     </row>
     <row r="738" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L738" s="1"/>
+      <c r="L738" s="27"/>
       <c r="M738" s="1"/>
     </row>
     <row r="739" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L739" s="1"/>
+      <c r="L739" s="27"/>
       <c r="M739" s="1"/>
     </row>
     <row r="740" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L740" s="1"/>
+      <c r="L740" s="27"/>
       <c r="M740" s="1"/>
     </row>
     <row r="741" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L741" s="1"/>
+      <c r="L741" s="27"/>
       <c r="M741" s="1"/>
     </row>
     <row r="742" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L742" s="1"/>
+      <c r="L742" s="27"/>
       <c r="M742" s="1"/>
     </row>
     <row r="743" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L743" s="1"/>
+      <c r="L743" s="27"/>
       <c r="M743" s="1"/>
     </row>
     <row r="744" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L744" s="1"/>
+      <c r="L744" s="27"/>
       <c r="M744" s="1"/>
     </row>
     <row r="745" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L745" s="1"/>
+      <c r="L745" s="27"/>
       <c r="M745" s="1"/>
     </row>
     <row r="746" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L746" s="1"/>
+      <c r="L746" s="27"/>
       <c r="M746" s="1"/>
     </row>
     <row r="747" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L747" s="1"/>
+      <c r="L747" s="27"/>
       <c r="M747" s="1"/>
     </row>
     <row r="748" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L748" s="1"/>
+      <c r="L748" s="27"/>
       <c r="M748" s="1"/>
     </row>
     <row r="749" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L749" s="1"/>
+      <c r="L749" s="27"/>
       <c r="M749" s="1"/>
     </row>
     <row r="750" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L750" s="1"/>
+      <c r="L750" s="27"/>
       <c r="M750" s="1"/>
     </row>
     <row r="751" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L751" s="1"/>
+      <c r="L751" s="27"/>
       <c r="M751" s="1"/>
     </row>
     <row r="752" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L752" s="1"/>
+      <c r="L752" s="27"/>
       <c r="M752" s="1"/>
     </row>
     <row r="753" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L753" s="1"/>
+      <c r="L753" s="27"/>
       <c r="M753" s="1"/>
     </row>
     <row r="754" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L754" s="1"/>
+      <c r="L754" s="27"/>
       <c r="M754" s="1"/>
     </row>
     <row r="755" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L755" s="1"/>
+      <c r="L755" s="27"/>
       <c r="M755" s="1"/>
     </row>
     <row r="756" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L756" s="1"/>
+      <c r="L756" s="27"/>
       <c r="M756" s="1"/>
     </row>
     <row r="757" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L757" s="1"/>
+      <c r="L757" s="27"/>
       <c r="M757" s="1"/>
     </row>
     <row r="758" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L758" s="1"/>
+      <c r="L758" s="27"/>
       <c r="M758" s="1"/>
     </row>
     <row r="759" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L759" s="1"/>
+      <c r="L759" s="27"/>
       <c r="M759" s="1"/>
     </row>
     <row r="760" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L760" s="1"/>
+      <c r="L760" s="27"/>
       <c r="M760" s="1"/>
     </row>
     <row r="761" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L761" s="1"/>
+      <c r="L761" s="27"/>
       <c r="M761" s="1"/>
     </row>
     <row r="762" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L762" s="1"/>
+      <c r="L762" s="27"/>
       <c r="M762" s="1"/>
     </row>
     <row r="763" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L763" s="1"/>
+      <c r="L763" s="27"/>
       <c r="M763" s="1"/>
     </row>
     <row r="764" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L764" s="1"/>
+      <c r="L764" s="27"/>
       <c r="M764" s="1"/>
     </row>
     <row r="765" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L765" s="1"/>
+      <c r="L765" s="27"/>
       <c r="M765" s="1"/>
     </row>
     <row r="766" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L766" s="1"/>
+      <c r="L766" s="27"/>
       <c r="M766" s="1"/>
     </row>
     <row r="767" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L767" s="1"/>
+      <c r="L767" s="27"/>
       <c r="M767" s="1"/>
     </row>
     <row r="768" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L768" s="1"/>
+      <c r="L768" s="27"/>
       <c r="M768" s="1"/>
     </row>
     <row r="769" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L769" s="1"/>
+      <c r="L769" s="27"/>
       <c r="M769" s="1"/>
     </row>
     <row r="770" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L770" s="1"/>
+      <c r="L770" s="27"/>
       <c r="M770" s="1"/>
     </row>
     <row r="771" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L771" s="1"/>
+      <c r="L771" s="27"/>
       <c r="M771" s="1"/>
     </row>
     <row r="772" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L772" s="1"/>
+      <c r="L772" s="27"/>
       <c r="M772" s="1"/>
     </row>
     <row r="773" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L773" s="1"/>
+      <c r="L773" s="27"/>
       <c r="M773" s="1"/>
     </row>
     <row r="774" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L774" s="1"/>
+      <c r="L774" s="27"/>
       <c r="M774" s="1"/>
     </row>
     <row r="775" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L775" s="1"/>
+      <c r="L775" s="27"/>
       <c r="M775" s="1"/>
     </row>
     <row r="776" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L776" s="1"/>
+      <c r="L776" s="27"/>
       <c r="M776" s="1"/>
     </row>
     <row r="777" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L777" s="1"/>
+      <c r="L777" s="27"/>
       <c r="M777" s="1"/>
     </row>
     <row r="778" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L778" s="1"/>
+      <c r="L778" s="27"/>
       <c r="M778" s="1"/>
     </row>
     <row r="779" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L779" s="1"/>
+      <c r="L779" s="27"/>
       <c r="M779" s="1"/>
     </row>
     <row r="780" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L780" s="1"/>
+      <c r="L780" s="27"/>
       <c r="M780" s="1"/>
     </row>
     <row r="781" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L781" s="1"/>
+      <c r="L781" s="27"/>
       <c r="M781" s="1"/>
     </row>
     <row r="782" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L782" s="1"/>
+      <c r="L782" s="27"/>
       <c r="M782" s="1"/>
     </row>
     <row r="783" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L783" s="1"/>
+      <c r="L783" s="27"/>
       <c r="M783" s="1"/>
     </row>
     <row r="784" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L784" s="1"/>
+      <c r="L784" s="27"/>
       <c r="M784" s="1"/>
     </row>
     <row r="785" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L785" s="1"/>
+      <c r="L785" s="27"/>
       <c r="M785" s="1"/>
     </row>
     <row r="786" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L786" s="1"/>
+      <c r="L786" s="27"/>
       <c r="M786" s="1"/>
     </row>
     <row r="787" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L787" s="1"/>
+      <c r="L787" s="27"/>
       <c r="M787" s="1"/>
     </row>
     <row r="788" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L788" s="1"/>
+      <c r="L788" s="27"/>
       <c r="M788" s="1"/>
     </row>
     <row r="789" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L789" s="1"/>
+      <c r="L789" s="27"/>
       <c r="M789" s="1"/>
     </row>
     <row r="790" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L790" s="1"/>
+      <c r="L790" s="27"/>
       <c r="M790" s="1"/>
     </row>
     <row r="791" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L791" s="1"/>
+      <c r="L791" s="27"/>
       <c r="M791" s="1"/>
     </row>
     <row r="792" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L792" s="1"/>
+      <c r="L792" s="27"/>
       <c r="M792" s="1"/>
     </row>
     <row r="793" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L793" s="1"/>
+      <c r="L793" s="27"/>
       <c r="M793" s="1"/>
     </row>
     <row r="794" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L794" s="1"/>
+      <c r="L794" s="27"/>
       <c r="M794" s="1"/>
     </row>
     <row r="795" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L795" s="1"/>
+      <c r="L795" s="27"/>
       <c r="M795" s="1"/>
     </row>
     <row r="796" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L796" s="1"/>
+      <c r="L796" s="27"/>
       <c r="M796" s="1"/>
     </row>
     <row r="797" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L797" s="1"/>
+      <c r="L797" s="27"/>
       <c r="M797" s="1"/>
     </row>
     <row r="798" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L798" s="1"/>
+      <c r="L798" s="27"/>
       <c r="M798" s="1"/>
     </row>
     <row r="799" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L799" s="1"/>
+      <c r="L799" s="27"/>
       <c r="M799" s="1"/>
     </row>
     <row r="800" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L800" s="1"/>
+      <c r="L800" s="27"/>
       <c r="M800" s="1"/>
     </row>
     <row r="801" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L801" s="1"/>
+      <c r="L801" s="27"/>
       <c r="M801" s="1"/>
     </row>
     <row r="802" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L802" s="1"/>
+      <c r="L802" s="27"/>
       <c r="M802" s="1"/>
     </row>
     <row r="803" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L803" s="1"/>
+      <c r="L803" s="27"/>
       <c r="M803" s="1"/>
     </row>
     <row r="804" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L804" s="1"/>
+      <c r="L804" s="27"/>
       <c r="M804" s="1"/>
     </row>
     <row r="805" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L805" s="1"/>
+      <c r="L805" s="27"/>
       <c r="M805" s="1"/>
     </row>
     <row r="806" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L806" s="1"/>
+      <c r="L806" s="27"/>
       <c r="M806" s="1"/>
     </row>
     <row r="807" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L807" s="1"/>
+      <c r="L807" s="27"/>
       <c r="M807" s="1"/>
     </row>
     <row r="808" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L808" s="1"/>
+      <c r="L808" s="27"/>
       <c r="M808" s="1"/>
     </row>
     <row r="809" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L809" s="1"/>
+      <c r="L809" s="27"/>
       <c r="M809" s="1"/>
     </row>
     <row r="810" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L810" s="1"/>
+      <c r="L810" s="27"/>
       <c r="M810" s="1"/>
     </row>
     <row r="811" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L811" s="1"/>
+      <c r="L811" s="27"/>
       <c r="M811" s="1"/>
     </row>
     <row r="812" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L812" s="1"/>
+      <c r="L812" s="27"/>
       <c r="M812" s="1"/>
     </row>
     <row r="813" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L813" s="1"/>
+      <c r="L813" s="27"/>
       <c r="M813" s="1"/>
     </row>
     <row r="814" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L814" s="1"/>
+      <c r="L814" s="27"/>
       <c r="M814" s="1"/>
     </row>
     <row r="815" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L815" s="1"/>
+      <c r="L815" s="27"/>
       <c r="M815" s="1"/>
     </row>
     <row r="816" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L816" s="1"/>
+      <c r="L816" s="27"/>
       <c r="M816" s="1"/>
     </row>
     <row r="817" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L817" s="1"/>
+      <c r="L817" s="27"/>
       <c r="M817" s="1"/>
     </row>
     <row r="818" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L818" s="1"/>
+      <c r="L818" s="27"/>
       <c r="M818" s="1"/>
     </row>
     <row r="819" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L819" s="1"/>
+      <c r="L819" s="27"/>
       <c r="M819" s="1"/>
     </row>
     <row r="820" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L820" s="1"/>
+      <c r="L820" s="27"/>
       <c r="M820" s="1"/>
     </row>
     <row r="821" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L821" s="1"/>
+      <c r="L821" s="27"/>
       <c r="M821" s="1"/>
     </row>
     <row r="822" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L822" s="1"/>
+      <c r="L822" s="27"/>
       <c r="M822" s="1"/>
     </row>
     <row r="823" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L823" s="1"/>
+      <c r="L823" s="27"/>
       <c r="M823" s="1"/>
     </row>
     <row r="824" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L824" s="1"/>
+      <c r="L824" s="27"/>
       <c r="M824" s="1"/>
     </row>
     <row r="825" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L825" s="1"/>
+      <c r="L825" s="27"/>
       <c r="M825" s="1"/>
     </row>
     <row r="826" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L826" s="1"/>
+      <c r="L826" s="27"/>
       <c r="M826" s="1"/>
     </row>
     <row r="827" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L827" s="1"/>
+      <c r="L827" s="27"/>
       <c r="M827" s="1"/>
     </row>
     <row r="828" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L828" s="1"/>
+      <c r="L828" s="27"/>
       <c r="M828" s="1"/>
     </row>
     <row r="829" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L829" s="1"/>
+      <c r="L829" s="27"/>
       <c r="M829" s="1"/>
     </row>
     <row r="830" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L830" s="1"/>
+      <c r="L830" s="27"/>
       <c r="M830" s="1"/>
     </row>
     <row r="831" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L831" s="1"/>
+      <c r="L831" s="27"/>
       <c r="M831" s="1"/>
     </row>
     <row r="832" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L832" s="1"/>
+      <c r="L832" s="27"/>
       <c r="M832" s="1"/>
     </row>
     <row r="833" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L833" s="1"/>
+      <c r="L833" s="27"/>
       <c r="M833" s="1"/>
     </row>
     <row r="834" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L834" s="1"/>
+      <c r="L834" s="27"/>
       <c r="M834" s="1"/>
     </row>
     <row r="835" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L835" s="1"/>
+      <c r="L835" s="27"/>
       <c r="M835" s="1"/>
     </row>
     <row r="836" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L836" s="1"/>
+      <c r="L836" s="27"/>
       <c r="M836" s="1"/>
     </row>
     <row r="837" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L837" s="1"/>
+      <c r="L837" s="27"/>
       <c r="M837" s="1"/>
     </row>
     <row r="838" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L838" s="1"/>
+      <c r="L838" s="27"/>
       <c r="M838" s="1"/>
     </row>
     <row r="839" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L839" s="1"/>
+      <c r="L839" s="27"/>
       <c r="M839" s="1"/>
     </row>
     <row r="840" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L840" s="1"/>
+      <c r="L840" s="27"/>
       <c r="M840" s="1"/>
     </row>
     <row r="841" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L841" s="1"/>
+      <c r="L841" s="27"/>
       <c r="M841" s="1"/>
     </row>
     <row r="842" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L842" s="1"/>
+      <c r="L842" s="27"/>
       <c r="M842" s="1"/>
     </row>
     <row r="843" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L843" s="1"/>
+      <c r="L843" s="27"/>
       <c r="M843" s="1"/>
     </row>
     <row r="844" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L844" s="1"/>
+      <c r="L844" s="27"/>
       <c r="M844" s="1"/>
     </row>
     <row r="845" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L845" s="1"/>
+      <c r="L845" s="27"/>
       <c r="M845" s="1"/>
     </row>
     <row r="846" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L846" s="1"/>
+      <c r="L846" s="27"/>
       <c r="M846" s="1"/>
     </row>
     <row r="847" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L847" s="1"/>
+      <c r="L847" s="27"/>
       <c r="M847" s="1"/>
     </row>
     <row r="848" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L848" s="1"/>
+      <c r="L848" s="27"/>
       <c r="M848" s="1"/>
     </row>
     <row r="849" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L849" s="1"/>
+      <c r="L849" s="27"/>
       <c r="M849" s="1"/>
     </row>
     <row r="850" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L850" s="1"/>
+      <c r="L850" s="27"/>
       <c r="M850" s="1"/>
     </row>
     <row r="851" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L851" s="1"/>
+      <c r="L851" s="27"/>
       <c r="M851" s="1"/>
     </row>
     <row r="852" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L852" s="1"/>
+      <c r="L852" s="27"/>
       <c r="M852" s="1"/>
     </row>
     <row r="853" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L853" s="1"/>
+      <c r="L853" s="27"/>
       <c r="M853" s="1"/>
     </row>
     <row r="854" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L854" s="1"/>
+      <c r="L854" s="27"/>
       <c r="M854" s="1"/>
     </row>
     <row r="855" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L855" s="1"/>
+      <c r="L855" s="27"/>
       <c r="M855" s="1"/>
     </row>
     <row r="856" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L856" s="1"/>
+      <c r="L856" s="27"/>
       <c r="M856" s="1"/>
     </row>
     <row r="857" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L857" s="1"/>
+      <c r="L857" s="27"/>
       <c r="M857" s="1"/>
     </row>
     <row r="858" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L858" s="1"/>
+      <c r="L858" s="27"/>
       <c r="M858" s="1"/>
     </row>
     <row r="859" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L859" s="1"/>
+      <c r="L859" s="27"/>
       <c r="M859" s="1"/>
     </row>
     <row r="860" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L860" s="1"/>
+      <c r="L860" s="27"/>
       <c r="M860" s="1"/>
     </row>
     <row r="861" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L861" s="1"/>
+      <c r="L861" s="27"/>
       <c r="M861" s="1"/>
     </row>
     <row r="862" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L862" s="1"/>
+      <c r="L862" s="27"/>
       <c r="M862" s="1"/>
     </row>
     <row r="863" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L863" s="1"/>
+      <c r="L863" s="27"/>
       <c r="M863" s="1"/>
     </row>
     <row r="864" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L864" s="1"/>
+      <c r="L864" s="27"/>
       <c r="M864" s="1"/>
     </row>
     <row r="865" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L865" s="1"/>
+      <c r="L865" s="27"/>
       <c r="M865" s="1"/>
     </row>
     <row r="866" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L866" s="1"/>
+      <c r="L866" s="27"/>
       <c r="M866" s="1"/>
     </row>
     <row r="867" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L867" s="1"/>
+      <c r="L867" s="27"/>
       <c r="M867" s="1"/>
     </row>
     <row r="868" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L868" s="1"/>
+      <c r="L868" s="27"/>
       <c r="M868" s="1"/>
     </row>
     <row r="869" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L869" s="1"/>
+      <c r="L869" s="27"/>
       <c r="M869" s="1"/>
     </row>
     <row r="870" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L870" s="1"/>
+      <c r="L870" s="27"/>
       <c r="M870" s="1"/>
     </row>
     <row r="871" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L871" s="1"/>
+      <c r="L871" s="27"/>
       <c r="M871" s="1"/>
     </row>
     <row r="872" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L872" s="1"/>
+      <c r="L872" s="27"/>
       <c r="M872" s="1"/>
     </row>
     <row r="873" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L873" s="1"/>
+      <c r="L873" s="27"/>
       <c r="M873" s="1"/>
     </row>
     <row r="874" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L874" s="1"/>
+      <c r="L874" s="27"/>
       <c r="M874" s="1"/>
     </row>
     <row r="875" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L875" s="1"/>
+      <c r="L875" s="27"/>
       <c r="M875" s="1"/>
     </row>
     <row r="876" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L876" s="1"/>
+      <c r="L876" s="27"/>
       <c r="M876" s="1"/>
     </row>
     <row r="877" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L877" s="1"/>
+      <c r="L877" s="27"/>
       <c r="M877" s="1"/>
     </row>
     <row r="878" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L878" s="1"/>
+      <c r="L878" s="27"/>
       <c r="M878" s="1"/>
     </row>
     <row r="879" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L879" s="1"/>
+      <c r="L879" s="27"/>
       <c r="M879" s="1"/>
     </row>
     <row r="880" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L880" s="1"/>
+      <c r="L880" s="27"/>
       <c r="M880" s="1"/>
     </row>
     <row r="881" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L881" s="1"/>
+      <c r="L881" s="27"/>
       <c r="M881" s="1"/>
     </row>
     <row r="882" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L882" s="1"/>
+      <c r="L882" s="27"/>
       <c r="M882" s="1"/>
     </row>
     <row r="883" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L883" s="1"/>
+      <c r="L883" s="27"/>
       <c r="M883" s="1"/>
     </row>
     <row r="884" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L884" s="1"/>
+      <c r="L884" s="27"/>
       <c r="M884" s="1"/>
     </row>
     <row r="885" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L885" s="1"/>
+      <c r="L885" s="27"/>
       <c r="M885" s="1"/>
     </row>
     <row r="886" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L886" s="1"/>
+      <c r="L886" s="27"/>
       <c r="M886" s="1"/>
     </row>
     <row r="887" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L887" s="1"/>
+      <c r="L887" s="27"/>
       <c r="M887" s="1"/>
     </row>
     <row r="888" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L888" s="1"/>
+      <c r="L888" s="27"/>
       <c r="M888" s="1"/>
     </row>
     <row r="889" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L889" s="1"/>
+      <c r="L889" s="27"/>
       <c r="M889" s="1"/>
     </row>
     <row r="890" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L890" s="1"/>
+      <c r="L890" s="27"/>
       <c r="M890" s="1"/>
     </row>
     <row r="891" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L891" s="1"/>
+      <c r="L891" s="27"/>
       <c r="M891" s="1"/>
     </row>
     <row r="892" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L892" s="1"/>
+      <c r="L892" s="27"/>
       <c r="M892" s="1"/>
     </row>
     <row r="893" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L893" s="1"/>
+      <c r="L893" s="27"/>
       <c r="M893" s="1"/>
     </row>
     <row r="894" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L894" s="1"/>
+      <c r="L894" s="27"/>
       <c r="M894" s="1"/>
     </row>
     <row r="895" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L895" s="1"/>
+      <c r="L895" s="27"/>
       <c r="M895" s="1"/>
     </row>
     <row r="896" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L896" s="1"/>
+      <c r="L896" s="27"/>
       <c r="M896" s="1"/>
     </row>
     <row r="897" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L897" s="1"/>
+      <c r="L897" s="27"/>
       <c r="M897" s="1"/>
     </row>
     <row r="898" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L898" s="1"/>
+      <c r="L898" s="27"/>
       <c r="M898" s="1"/>
     </row>
     <row r="899" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L899" s="1"/>
+      <c r="L899" s="27"/>
       <c r="M899" s="1"/>
     </row>
     <row r="900" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L900" s="1"/>
+      <c r="L900" s="27"/>
       <c r="M900" s="1"/>
     </row>
     <row r="901" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L901" s="1"/>
+      <c r="L901" s="27"/>
       <c r="M901" s="1"/>
     </row>
     <row r="902" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L902" s="1"/>
+      <c r="L902" s="27"/>
       <c r="M902" s="1"/>
     </row>
     <row r="903" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L903" s="1"/>
+      <c r="L903" s="27"/>
       <c r="M903" s="1"/>
     </row>
     <row r="904" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L904" s="1"/>
+      <c r="L904" s="27"/>
       <c r="M904" s="1"/>
     </row>
     <row r="905" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L905" s="1"/>
+      <c r="L905" s="27"/>
       <c r="M905" s="1"/>
     </row>
     <row r="906" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L906" s="1"/>
+      <c r="L906" s="27"/>
       <c r="M906" s="1"/>
     </row>
     <row r="907" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L907" s="1"/>
+      <c r="L907" s="27"/>
       <c r="M907" s="1"/>
     </row>
     <row r="908" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L908" s="1"/>
+      <c r="L908" s="27"/>
       <c r="M908" s="1"/>
     </row>
     <row r="909" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L909" s="1"/>
+      <c r="L909" s="27"/>
       <c r="M909" s="1"/>
     </row>
     <row r="910" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L910" s="1"/>
+      <c r="L910" s="27"/>
       <c r="M910" s="1"/>
     </row>
     <row r="911" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L911" s="1"/>
+      <c r="L911" s="27"/>
       <c r="M911" s="1"/>
     </row>
     <row r="912" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L912" s="1"/>
+      <c r="L912" s="27"/>
       <c r="M912" s="1"/>
     </row>
     <row r="913" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L913" s="1"/>
+      <c r="L913" s="27"/>
       <c r="M913" s="1"/>
     </row>
     <row r="914" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L914" s="1"/>
+      <c r="L914" s="27"/>
       <c r="M914" s="1"/>
     </row>
     <row r="915" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L915" s="1"/>
+      <c r="L915" s="27"/>
       <c r="M915" s="1"/>
     </row>
     <row r="916" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L916" s="1"/>
+      <c r="L916" s="27"/>
       <c r="M916" s="1"/>
     </row>
     <row r="917" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L917" s="1"/>
+      <c r="L917" s="27"/>
       <c r="M917" s="1"/>
     </row>
     <row r="918" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L918" s="1"/>
+      <c r="L918" s="27"/>
       <c r="M918" s="1"/>
     </row>
     <row r="919" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L919" s="1"/>
+      <c r="L919" s="27"/>
       <c r="M919" s="1"/>
     </row>
     <row r="920" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L920" s="1"/>
+      <c r="L920" s="27"/>
       <c r="M920" s="1"/>
     </row>
     <row r="921" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L921" s="1"/>
+      <c r="L921" s="27"/>
       <c r="M921" s="1"/>
     </row>
     <row r="922" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L922" s="1"/>
+      <c r="L922" s="27"/>
       <c r="M922" s="1"/>
     </row>
     <row r="923" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L923" s="1"/>
+      <c r="L923" s="27"/>
       <c r="M923" s="1"/>
     </row>
     <row r="924" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L924" s="1"/>
+      <c r="L924" s="27"/>
       <c r="M924" s="1"/>
     </row>
     <row r="925" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L925" s="1"/>
+      <c r="L925" s="27"/>
       <c r="M925" s="1"/>
     </row>
     <row r="926" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L926" s="1"/>
+      <c r="L926" s="27"/>
       <c r="M926" s="1"/>
     </row>
     <row r="927" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L927" s="1"/>
+      <c r="L927" s="27"/>
       <c r="M927" s="1"/>
     </row>
     <row r="928" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L928" s="1"/>
+      <c r="L928" s="27"/>
       <c r="M928" s="1"/>
     </row>
     <row r="929" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L929" s="1"/>
+      <c r="L929" s="27"/>
       <c r="M929" s="1"/>
     </row>
     <row r="930" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L930" s="1"/>
+      <c r="L930" s="27"/>
       <c r="M930" s="1"/>
     </row>
     <row r="931" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L931" s="1"/>
+      <c r="L931" s="27"/>
       <c r="M931" s="1"/>
     </row>
     <row r="932" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L932" s="1"/>
+      <c r="L932" s="27"/>
       <c r="M932" s="1"/>
     </row>
     <row r="933" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L933" s="1"/>
+      <c r="L933" s="27"/>
       <c r="M933" s="1"/>
     </row>
     <row r="934" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L934" s="1"/>
+      <c r="L934" s="27"/>
       <c r="M934" s="1"/>
     </row>
     <row r="935" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L935" s="1"/>
+      <c r="L935" s="27"/>
       <c r="M935" s="1"/>
     </row>
     <row r="936" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L936" s="1"/>
+      <c r="L936" s="27"/>
       <c r="M936" s="1"/>
     </row>
     <row r="937" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L937" s="1"/>
+      <c r="L937" s="27"/>
       <c r="M937" s="1"/>
     </row>
     <row r="938" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L938" s="1"/>
+      <c r="L938" s="27"/>
       <c r="M938" s="1"/>
     </row>
     <row r="939" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L939" s="1"/>
+      <c r="L939" s="27"/>
       <c r="M939" s="1"/>
     </row>
     <row r="940" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L940" s="1"/>
+      <c r="L940" s="27"/>
       <c r="M940" s="1"/>
     </row>
     <row r="941" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L941" s="1"/>
+      <c r="L941" s="27"/>
       <c r="M941" s="1"/>
     </row>
     <row r="942" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L942" s="1"/>
+      <c r="L942" s="27"/>
       <c r="M942" s="1"/>
     </row>
     <row r="943" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L943" s="1"/>
+      <c r="L943" s="27"/>
       <c r="M943" s="1"/>
     </row>
     <row r="944" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L944" s="1"/>
+      <c r="L944" s="27"/>
       <c r="M944" s="1"/>
     </row>
     <row r="945" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L945" s="1"/>
+      <c r="L945" s="27"/>
       <c r="M945" s="1"/>
     </row>
     <row r="946" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L946" s="1"/>
+      <c r="L946" s="27"/>
       <c r="M946" s="1"/>
     </row>
     <row r="947" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L947" s="1"/>
+      <c r="L947" s="27"/>
       <c r="M947" s="1"/>
     </row>
     <row r="948" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L948" s="1"/>
+      <c r="L948" s="27"/>
       <c r="M948" s="1"/>
     </row>
     <row r="949" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L949" s="1"/>
+      <c r="L949" s="27"/>
       <c r="M949" s="1"/>
     </row>
     <row r="950" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L950" s="1"/>
+      <c r="L950" s="27"/>
       <c r="M950" s="1"/>
     </row>
     <row r="951" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L951" s="1"/>
+      <c r="L951" s="27"/>
       <c r="M951" s="1"/>
     </row>
     <row r="952" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L952" s="1"/>
+      <c r="L952" s="27"/>
       <c r="M952" s="1"/>
     </row>
     <row r="953" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L953" s="1"/>
+      <c r="L953" s="27"/>
       <c r="M953" s="1"/>
     </row>
     <row r="954" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L954" s="1"/>
+      <c r="L954" s="27"/>
       <c r="M954" s="1"/>
     </row>
     <row r="955" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L955" s="1"/>
+      <c r="L955" s="27"/>
       <c r="M955" s="1"/>
     </row>
     <row r="956" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L956" s="1"/>
+      <c r="L956" s="27"/>
       <c r="M956" s="1"/>
     </row>
     <row r="957" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L957" s="1"/>
+      <c r="L957" s="27"/>
       <c r="M957" s="1"/>
     </row>
     <row r="958" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L958" s="1"/>
+      <c r="L958" s="27"/>
       <c r="M958" s="1"/>
     </row>
     <row r="959" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L959" s="1"/>
+      <c r="L959" s="27"/>
       <c r="M959" s="1"/>
     </row>
     <row r="960" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L960" s="1"/>
+      <c r="L960" s="27"/>
       <c r="M960" s="1"/>
     </row>
     <row r="961" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L961" s="1"/>
+      <c r="L961" s="27"/>
       <c r="M961" s="1"/>
     </row>
     <row r="962" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L962" s="1"/>
+      <c r="L962" s="27"/>
       <c r="M962" s="1"/>
     </row>
     <row r="963" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L963" s="1"/>
+      <c r="L963" s="27"/>
       <c r="M963" s="1"/>
     </row>
     <row r="964" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L964" s="1"/>
+      <c r="L964" s="27"/>
       <c r="M964" s="1"/>
     </row>
     <row r="965" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L965" s="1"/>
+      <c r="L965" s="27"/>
       <c r="M965" s="1"/>
     </row>
     <row r="966" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L966" s="1"/>
+      <c r="L966" s="27"/>
       <c r="M966" s="1"/>
     </row>
     <row r="967" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L967" s="1"/>
+      <c r="L967" s="27"/>
       <c r="M967" s="1"/>
     </row>
     <row r="968" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L968" s="1"/>
+      <c r="L968" s="27"/>
       <c r="M968" s="1"/>
     </row>
     <row r="969" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L969" s="1"/>
+      <c r="L969" s="27"/>
       <c r="M969" s="1"/>
     </row>
     <row r="970" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L970" s="1"/>
+      <c r="L970" s="27"/>
       <c r="M970" s="1"/>
     </row>
     <row r="971" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L971" s="1"/>
+      <c r="L971" s="27"/>
       <c r="M971" s="1"/>
     </row>
     <row r="972" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L972" s="1"/>
+      <c r="L972" s="27"/>
       <c r="M972" s="1"/>
     </row>
     <row r="973" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L973" s="1"/>
+      <c r="L973" s="27"/>
       <c r="M973" s="1"/>
     </row>
     <row r="974" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L974" s="1"/>
+      <c r="L974" s="27"/>
       <c r="M974" s="1"/>
     </row>
     <row r="975" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L975" s="1"/>
+      <c r="L975" s="27"/>
       <c r="M975" s="1"/>
     </row>
     <row r="976" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L976" s="1"/>
+      <c r="L976" s="27"/>
       <c r="M976" s="1"/>
     </row>
     <row r="977" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L977" s="1"/>
+      <c r="L977" s="27"/>
       <c r="M977" s="1"/>
     </row>
     <row r="978" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L978" s="1"/>
+      <c r="L978" s="27"/>
       <c r="M978" s="1"/>
     </row>
     <row r="979" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L979" s="1"/>
+      <c r="L979" s="27"/>
       <c r="M979" s="1"/>
     </row>
     <row r="980" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L980" s="1"/>
+      <c r="L980" s="27"/>
       <c r="M980" s="1"/>
     </row>
     <row r="981" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L981" s="1"/>
+      <c r="L981" s="27"/>
       <c r="M981" s="1"/>
     </row>
     <row r="982" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L982" s="1"/>
+      <c r="L982" s="27"/>
       <c r="M982" s="1"/>
     </row>
     <row r="983" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L983" s="1"/>
+      <c r="L983" s="27"/>
       <c r="M983" s="1"/>
     </row>
     <row r="984" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L984" s="1"/>
+      <c r="L984" s="27"/>
       <c r="M984" s="1"/>
     </row>
     <row r="985" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L985" s="1"/>
+      <c r="L985" s="27"/>
       <c r="M985" s="1"/>
     </row>
     <row r="986" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L986" s="1"/>
+      <c r="L986" s="27"/>
       <c r="M986" s="1"/>
     </row>
     <row r="987" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L987" s="1"/>
+      <c r="L987" s="27"/>
       <c r="M987" s="1"/>
     </row>
     <row r="988" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L988" s="1"/>
+      <c r="L988" s="27"/>
       <c r="M988" s="1"/>
     </row>
     <row r="989" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L989" s="1"/>
+      <c r="L989" s="27"/>
       <c r="M989" s="1"/>
     </row>
     <row r="990" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L990" s="1"/>
+      <c r="L990" s="27"/>
       <c r="M990" s="1"/>
     </row>
     <row r="991" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L991" s="1"/>
+      <c r="L991" s="27"/>
       <c r="M991" s="1"/>
     </row>
     <row r="992" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L992" s="1"/>
+      <c r="L992" s="27"/>
       <c r="M992" s="1"/>
     </row>
     <row r="993" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L993" s="1"/>
+      <c r="L993" s="27"/>
       <c r="M993" s="1"/>
     </row>
     <row r="994" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L994" s="1"/>
+      <c r="L994" s="27"/>
       <c r="M994" s="1"/>
     </row>
     <row r="995" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L995" s="1"/>
+      <c r="L995" s="27"/>
       <c r="M995" s="1"/>
     </row>
     <row r="996" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L996" s="1"/>
+      <c r="L996" s="27"/>
       <c r="M996" s="1"/>
     </row>
     <row r="997" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L997" s="1"/>
+      <c r="L997" s="27"/>
       <c r="M997" s="1"/>
     </row>
     <row r="998" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L998" s="1"/>
+      <c r="L998" s="27"/>
       <c r="M998" s="1"/>
     </row>
     <row r="999" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L999" s="1"/>
+      <c r="L999" s="27"/>
       <c r="M999" s="1"/>
     </row>
     <row r="1000" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L1000" s="1"/>
+      <c r="L1000" s="27"/>
       <c r="M1000" s="1"/>
     </row>
   </sheetData>
@@ -6712,7 +6827,7 @@
     <sortCondition ref="A1:A1000"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="K2:Z48 D2:J49">
+  <conditionalFormatting sqref="K2:K48 D2:J49 M2:Z48">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="&quot;Присутствовал&quot;"/>
@@ -6722,7 +6837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:Z48 D2:J49">
+  <conditionalFormatting sqref="K2:K48 D2:J49 M2:Z48">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -6733,7 +6848,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:E49 D2:F48 G2:J49 K2:Z48" xr:uid="{2BED188C-1251-4068-9952-87063711D3FC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:E49 D2:F48 G2:J49 K2:K48 M2:Z48" xr:uid="{2BED188C-1251-4068-9952-87063711D3FC}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/students/sdr_club_2025.xlsx
+++ b/students/sdr_club_2025.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325CCBF8-0117-4B65-A27B-2DF75A5B515D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10E44F-BB13-46B4-B289-70D251BF608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$L$48</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>ФИО</t>
   </si>
@@ -47,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">Дабасамбуева Сарюна Биликтуевна </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДАНГЫТ ВЕНЕРА Айдашовна </t>
   </si>
   <si>
     <t xml:space="preserve">Дементьев Даниил Сергеевич  </t>
@@ -192,7 +192,7 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="d\.m\.yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -214,12 +214,6 @@
       <strike/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -267,7 +261,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -393,23 +393,22 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -419,6 +418,8 @@
     <xf numFmtId="1" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -637,11 +638,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L15" sqref="L15"/>
+      <selection pane="topRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -657,7 +658,7 @@
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="27" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
@@ -665,41 +666,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="20">
+        <v>45916</v>
+      </c>
+      <c r="E1" s="20">
+        <v>45923</v>
+      </c>
+      <c r="F1" s="22">
+        <v>45930</v>
+      </c>
+      <c r="G1" s="23">
+        <v>45937</v>
+      </c>
+      <c r="H1" s="23">
+        <v>45944</v>
+      </c>
+      <c r="I1" s="24">
+        <v>45951</v>
+      </c>
+      <c r="J1" s="24">
+        <v>45958</v>
+      </c>
+      <c r="K1" s="23">
+        <v>45972</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="21">
-        <v>45916</v>
-      </c>
-      <c r="E1" s="21">
-        <v>45923</v>
-      </c>
-      <c r="F1" s="23">
-        <v>45930</v>
-      </c>
-      <c r="G1" s="24">
-        <v>45937</v>
-      </c>
-      <c r="H1" s="24">
-        <v>45944</v>
-      </c>
-      <c r="I1" s="25">
-        <v>45951</v>
-      </c>
-      <c r="J1" s="25">
-        <v>45958</v>
-      </c>
-      <c r="K1" s="24">
-        <v>45972</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>53</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="4"/>
@@ -717,11 +718,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>26</v>
+      <c r="B2" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6">
@@ -730,46 +731,48 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="18">
-        <v>1</v>
-      </c>
-      <c r="G2" s="18">
-        <v>1</v>
-      </c>
-      <c r="H2" s="18">
-        <v>1</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
-        <v>1</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="26">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
+      <c r="F2" s="17">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6">
@@ -778,94 +781,98 @@
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="18">
-        <v>1</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1</v>
-      </c>
-      <c r="I3" s="18">
-        <v>1</v>
-      </c>
-      <c r="J3" s="18">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="26">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="26">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
@@ -874,46 +881,48 @@
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="26">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>26</v>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6">
@@ -922,94 +931,98 @@
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="18">
-        <v>1</v>
-      </c>
-      <c r="G6" s="18">
-        <v>1</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1</v>
-      </c>
-      <c r="I6" s="18">
-        <v>1</v>
-      </c>
-      <c r="J6" s="18">
-        <v>1</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="26">
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="25">
         <v>3</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="11"/>
+      <c r="A7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18">
-        <v>1</v>
-      </c>
-      <c r="J7" s="18">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="26">
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7" s="25">
         <v>7</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>26</v>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
@@ -1018,46 +1031,48 @@
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18">
-        <v>1</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="26">
-        <v>1</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="L8" s="25">
+        <v>1</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>26</v>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6">
@@ -1066,94 +1081,98 @@
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18">
-        <v>1</v>
-      </c>
-      <c r="I9" s="18">
-        <v>1</v>
-      </c>
-      <c r="J9" s="18">
-        <v>1</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="26">
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="25">
         <v>7</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="11"/>
+      <c r="A10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="18">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
-        <v>1</v>
-      </c>
-      <c r="I10" s="18">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="26">
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1</v>
+      </c>
+      <c r="L10" s="25">
         <v>2</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>26</v>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
@@ -1162,238 +1181,248 @@
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="18">
-        <v>1</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18">
-        <v>1</v>
-      </c>
-      <c r="I11" s="18">
-        <v>1</v>
-      </c>
-      <c r="J11" s="18">
-        <v>1</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="26">
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+      <c r="L11" s="25">
         <v>2</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="25">
+        <v>2</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="26">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-    </row>
-    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="25">
+        <v>1</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1</v>
+      </c>
+      <c r="L14" s="25">
+        <v>5</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18">
-        <v>1</v>
-      </c>
-      <c r="J13" s="18">
-        <v>1</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="26">
-        <v>2</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-    </row>
-    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18">
-        <v>1</v>
-      </c>
-      <c r="J14" s="18">
-        <v>1</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="26">
-        <v>1</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-    </row>
-    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="11"/>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="6">
         <v>1</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="18">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18">
-        <v>1</v>
-      </c>
-      <c r="I15" s="18">
-        <v>1</v>
-      </c>
-      <c r="J15" s="18">
-        <v>1</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="26">
-        <v>5</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1</v>
+      </c>
+      <c r="L15" s="25">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>26</v>
+      <c r="B16" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6">
@@ -1402,190 +1431,198 @@
       <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="18">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18">
-        <v>1</v>
-      </c>
-      <c r="I16" s="18">
-        <v>0</v>
-      </c>
-      <c r="J16" s="18">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="26">
-        <v>1</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
+        <v>1</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1</v>
+      </c>
+      <c r="L16" s="25">
+        <v>5</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+    </row>
+    <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18">
-        <v>1</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="18">
-        <v>1</v>
-      </c>
-      <c r="I17" s="18">
-        <v>0</v>
-      </c>
-      <c r="J17" s="18">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="26">
-        <v>5</v>
-      </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-    </row>
-    <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="11"/>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="6">
         <v>1</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="18">
-        <v>1</v>
-      </c>
-      <c r="J18" s="18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="26">
-        <v>0</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
+      <c r="F18" s="17">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>1</v>
+      </c>
+      <c r="L18" s="25">
+        <v>3</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5"/>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="6">
         <v>1</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1</v>
-      </c>
-      <c r="H19" s="18">
-        <v>1</v>
-      </c>
-      <c r="I19" s="18">
-        <v>0</v>
-      </c>
-      <c r="J19" s="18">
-        <v>0</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="26">
-        <v>3</v>
-      </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
+      <c r="F19" s="17">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>1</v>
+      </c>
+      <c r="L19" s="25">
+        <v>2</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>26</v>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6">
@@ -1594,285 +1631,297 @@
       <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1</v>
-      </c>
-      <c r="H20" s="18">
-        <v>1</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0</v>
-      </c>
-      <c r="J20" s="18">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="26">
-        <v>2</v>
-      </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
+      <c r="F20" s="17">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="25">
+        <v>3</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="17">
+        <v>1</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
+        <v>1</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="25">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+    </row>
+    <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>1</v>
-      </c>
-      <c r="J21" s="18">
-        <v>1</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="26">
-        <v>3</v>
-      </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-    </row>
-    <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="J22" s="17">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+    </row>
+    <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1</v>
-      </c>
-      <c r="H22" s="18">
-        <v>1</v>
-      </c>
-      <c r="I22" s="18">
-        <v>1</v>
-      </c>
-      <c r="J22" s="18">
-        <v>1</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="26">
-        <v>0</v>
-      </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-    </row>
-    <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18">
-        <v>1</v>
-      </c>
-      <c r="I23" s="18">
-        <v>1</v>
-      </c>
-      <c r="J23" s="18">
-        <v>1</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="26">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-    </row>
-    <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="11"/>
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="6">
         <v>1</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="18">
-        <v>0</v>
-      </c>
-      <c r="G24" s="18">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0</v>
-      </c>
-      <c r="I24" s="18">
-        <v>0</v>
-      </c>
-      <c r="J24" s="18">
-        <v>0</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="26">
-        <v>0</v>
-      </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>1</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="25">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="5"/>
+      <c r="B25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="6">
         <v>1</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="18">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0</v>
-      </c>
-      <c r="I25" s="18">
-        <v>0</v>
-      </c>
-      <c r="J25" s="18">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="26">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
+      <c r="F25" s="17">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="17">
+        <v>1</v>
+      </c>
+      <c r="J25" s="17">
+        <v>1</v>
+      </c>
+      <c r="K25" s="12">
+        <v>1</v>
+      </c>
+      <c r="L25" s="25">
+        <v>5</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="10"/>
@@ -1882,4952 +1931,4951 @@
       <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="F26" s="18">
-        <v>1</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1</v>
-      </c>
-      <c r="H26" s="18">
-        <v>1</v>
-      </c>
-      <c r="I26" s="18">
-        <v>1</v>
-      </c>
-      <c r="J26" s="18">
-        <v>1</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="26">
+      <c r="F26" s="17">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1</v>
+      </c>
+      <c r="K26" s="12">
+        <v>1</v>
+      </c>
+      <c r="L26" s="25">
+        <v>7</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <v>1</v>
+      </c>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1</v>
+      </c>
+      <c r="K27" s="12">
+        <v>1</v>
+      </c>
+      <c r="L27" s="25">
+        <v>4</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17">
+        <v>1</v>
+      </c>
+      <c r="I28" s="17">
+        <v>1</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1</v>
+      </c>
+      <c r="K28" s="12">
+        <v>1</v>
+      </c>
+      <c r="L28" s="25">
+        <v>4</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17">
+        <v>1</v>
+      </c>
+      <c r="I29" s="17">
+        <v>1</v>
+      </c>
+      <c r="J29" s="17">
+        <v>1</v>
+      </c>
+      <c r="K29" s="12">
+        <v>1</v>
+      </c>
+      <c r="L29" s="25">
+        <v>4</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17">
+        <v>1</v>
+      </c>
+      <c r="I30" s="17">
+        <v>1</v>
+      </c>
+      <c r="J30" s="17">
+        <v>1</v>
+      </c>
+      <c r="K30" s="12">
+        <v>1</v>
+      </c>
+      <c r="L30" s="25">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17">
+        <v>1</v>
+      </c>
+      <c r="I31" s="17">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>1</v>
+      </c>
+      <c r="L31" s="25">
+        <v>4</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17">
+        <v>1</v>
+      </c>
+      <c r="G32" s="17">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17">
+        <v>1</v>
+      </c>
+      <c r="I32" s="17">
+        <v>1</v>
+      </c>
+      <c r="J32" s="17">
+        <v>1</v>
+      </c>
+      <c r="K32" s="12">
+        <v>1</v>
+      </c>
+      <c r="L32" s="25">
         <v>5</v>
       </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-    </row>
-    <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1</v>
-      </c>
-      <c r="H27" s="18">
-        <v>1</v>
-      </c>
-      <c r="I27" s="18">
-        <v>1</v>
-      </c>
-      <c r="J27" s="18">
-        <v>1</v>
-      </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="26">
-        <v>7</v>
-      </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="18">
-        <v>1</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1</v>
-      </c>
-      <c r="H28" s="18">
-        <v>1</v>
-      </c>
-      <c r="I28" s="18">
-        <v>1</v>
-      </c>
-      <c r="J28" s="18">
-        <v>1</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="26">
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+    </row>
+    <row r="33" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17">
+        <v>1</v>
+      </c>
+      <c r="I33" s="17">
+        <v>1</v>
+      </c>
+      <c r="J33" s="17">
+        <v>1</v>
+      </c>
+      <c r="K33" s="12">
+        <v>1</v>
+      </c>
+      <c r="L33" s="25">
         <v>4</v>
       </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="18">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1</v>
-      </c>
-      <c r="H29" s="18">
-        <v>1</v>
-      </c>
-      <c r="I29" s="18">
-        <v>1</v>
-      </c>
-      <c r="J29" s="18">
-        <v>1</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="26">
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+    </row>
+    <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1</v>
+      </c>
+      <c r="G34" s="17">
+        <v>1</v>
+      </c>
+      <c r="H34" s="17">
+        <v>1</v>
+      </c>
+      <c r="I34" s="17">
+        <v>1</v>
+      </c>
+      <c r="J34" s="17">
+        <v>1</v>
+      </c>
+      <c r="K34" s="12">
+        <v>1</v>
+      </c>
+      <c r="L34" s="25">
+        <v>5</v>
+      </c>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+    </row>
+    <row r="35" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
+      <c r="H35" s="17">
+        <v>1</v>
+      </c>
+      <c r="I35" s="17">
+        <v>1</v>
+      </c>
+      <c r="J35" s="17">
+        <v>1</v>
+      </c>
+      <c r="K35" s="12">
+        <v>1</v>
+      </c>
+      <c r="L35" s="25">
         <v>4</v>
       </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-    </row>
-    <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="18">
-        <v>1</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1</v>
-      </c>
-      <c r="H30" s="18">
-        <v>1</v>
-      </c>
-      <c r="I30" s="18">
-        <v>1</v>
-      </c>
-      <c r="J30" s="18">
-        <v>1</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="26">
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+    </row>
+    <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="17">
+        <v>1</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="17">
+        <v>1</v>
+      </c>
+      <c r="I36" s="17">
+        <v>1</v>
+      </c>
+      <c r="J36" s="17">
+        <v>1</v>
+      </c>
+      <c r="K36" s="12">
+        <v>1</v>
+      </c>
+      <c r="L36" s="25">
+        <v>3</v>
+      </c>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+    </row>
+    <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17">
+        <v>1</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
+        <v>1</v>
+      </c>
+      <c r="K37" s="12">
+        <v>1</v>
+      </c>
+      <c r="L37" s="25">
         <v>4</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+    </row>
+    <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="18">
-        <v>1</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1</v>
-      </c>
-      <c r="H31" s="18">
-        <v>1</v>
-      </c>
-      <c r="I31" s="18">
-        <v>1</v>
-      </c>
-      <c r="J31" s="18">
-        <v>1</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="26">
-        <v>0</v>
-      </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-    </row>
-    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1</v>
+      </c>
+      <c r="G38" s="17">
+        <v>0</v>
+      </c>
+      <c r="H38" s="17">
+        <v>1</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1</v>
+      </c>
+      <c r="J38" s="17">
+        <v>1</v>
+      </c>
+      <c r="K38" s="12">
+        <v>1</v>
+      </c>
+      <c r="L38" s="25">
+        <v>2</v>
+      </c>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+    </row>
+    <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="17">
+        <v>1</v>
+      </c>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17">
+        <v>1</v>
+      </c>
+      <c r="I39" s="17">
+        <v>0</v>
+      </c>
+      <c r="J39" s="17">
+        <v>0</v>
+      </c>
+      <c r="K39" s="12">
+        <v>1</v>
+      </c>
+      <c r="L39" s="25">
+        <v>1</v>
+      </c>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+    </row>
+    <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="18">
-        <v>1</v>
-      </c>
-      <c r="G32" s="18">
-        <v>0</v>
-      </c>
-      <c r="H32" s="18">
-        <v>1</v>
-      </c>
-      <c r="I32" s="18">
-        <v>0</v>
-      </c>
-      <c r="J32" s="18">
-        <v>0</v>
-      </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="26">
-        <v>4</v>
-      </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-    </row>
-    <row r="33" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="17">
+        <v>1</v>
+      </c>
+      <c r="G40" s="17">
+        <v>1</v>
+      </c>
+      <c r="H40" s="17">
+        <v>1</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1</v>
+      </c>
+      <c r="J40" s="17">
+        <v>1</v>
+      </c>
+      <c r="K40" s="12">
+        <v>1</v>
+      </c>
+      <c r="L40" s="25">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+    </row>
+    <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="18">
-        <v>1</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1</v>
-      </c>
-      <c r="H33" s="18">
-        <v>1</v>
-      </c>
-      <c r="I33" s="18">
-        <v>1</v>
-      </c>
-      <c r="J33" s="18">
-        <v>1</v>
-      </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="26">
-        <v>5</v>
-      </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-    </row>
-    <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1</v>
-      </c>
-      <c r="H34" s="18">
-        <v>1</v>
-      </c>
-      <c r="I34" s="18">
-        <v>1</v>
-      </c>
-      <c r="J34" s="18">
-        <v>1</v>
-      </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="26">
-        <v>4</v>
-      </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-    </row>
-    <row r="35" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="18">
-        <v>1</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1</v>
-      </c>
-      <c r="H35" s="18">
-        <v>1</v>
-      </c>
-      <c r="I35" s="18">
-        <v>1</v>
-      </c>
-      <c r="J35" s="18">
-        <v>1</v>
-      </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="26">
-        <v>5</v>
-      </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-    </row>
-    <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="18">
-        <v>0</v>
-      </c>
-      <c r="G36" s="18">
-        <v>0</v>
-      </c>
-      <c r="H36" s="18">
-        <v>1</v>
-      </c>
-      <c r="I36" s="18">
-        <v>1</v>
-      </c>
-      <c r="J36" s="18">
-        <v>1</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="26">
-        <v>4</v>
-      </c>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-    </row>
-    <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="18">
-        <v>1</v>
-      </c>
-      <c r="G37" s="18">
-        <v>0</v>
-      </c>
-      <c r="H37" s="18">
-        <v>1</v>
-      </c>
-      <c r="I37" s="18">
-        <v>1</v>
-      </c>
-      <c r="J37" s="18">
-        <v>1</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="26">
-        <v>3</v>
-      </c>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-    </row>
-    <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="17">
+        <v>0</v>
+      </c>
+      <c r="G41" s="17">
+        <v>0</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0</v>
+      </c>
+      <c r="I41" s="17">
+        <v>0</v>
+      </c>
+      <c r="J41" s="17">
+        <v>0</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
+      <c r="L41" s="25">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+    </row>
+    <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="17">
+        <v>1</v>
+      </c>
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
+      <c r="H42" s="17">
+        <v>1</v>
+      </c>
+      <c r="I42" s="17">
+        <v>1</v>
+      </c>
+      <c r="J42" s="17">
+        <v>1</v>
+      </c>
+      <c r="K42" s="12">
+        <v>1</v>
+      </c>
+      <c r="L42" s="25">
+        <v>2</v>
+      </c>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+    </row>
+    <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
-      </c>
-      <c r="F38" s="18">
-        <v>1</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1</v>
-      </c>
-      <c r="H38" s="18">
-        <v>1</v>
-      </c>
-      <c r="I38" s="18">
-        <v>0</v>
-      </c>
-      <c r="J38" s="18">
-        <v>1</v>
-      </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="26">
-        <v>4</v>
-      </c>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-    </row>
-    <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="18">
-        <v>1</v>
-      </c>
-      <c r="G39" s="18">
-        <v>0</v>
-      </c>
-      <c r="H39" s="18">
-        <v>1</v>
-      </c>
-      <c r="I39" s="18">
-        <v>1</v>
-      </c>
-      <c r="J39" s="18">
-        <v>1</v>
-      </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="26">
+      <c r="C43" s="10"/>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0</v>
+      </c>
+      <c r="I43" s="17">
+        <v>1</v>
+      </c>
+      <c r="J43" s="17">
+        <v>1</v>
+      </c>
+      <c r="K43" s="12">
+        <v>1</v>
+      </c>
+      <c r="L43" s="25">
+        <v>1</v>
+      </c>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+    </row>
+    <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="17">
+        <v>1</v>
+      </c>
+      <c r="G44" s="17">
+        <v>0</v>
+      </c>
+      <c r="H44" s="17">
+        <v>1</v>
+      </c>
+      <c r="I44" s="17">
+        <v>1</v>
+      </c>
+      <c r="J44" s="17">
+        <v>1</v>
+      </c>
+      <c r="K44" s="12">
+        <v>1</v>
+      </c>
+      <c r="L44" s="25">
+        <v>1</v>
+      </c>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+    </row>
+    <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17">
+        <v>1</v>
+      </c>
+      <c r="G45" s="17">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17">
+        <v>1</v>
+      </c>
+      <c r="I45" s="17">
+        <v>1</v>
+      </c>
+      <c r="J45" s="17">
+        <v>1</v>
+      </c>
+      <c r="K45" s="12">
+        <v>1</v>
+      </c>
+      <c r="L45" s="25">
+        <v>1</v>
+      </c>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+    </row>
+    <row r="46" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="17">
+        <v>1</v>
+      </c>
+      <c r="G46" s="17">
+        <v>1</v>
+      </c>
+      <c r="H46" s="17">
+        <v>1</v>
+      </c>
+      <c r="I46" s="17">
+        <v>0</v>
+      </c>
+      <c r="J46" s="17">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12">
+        <v>1</v>
+      </c>
+      <c r="L46" s="25">
+        <v>6</v>
+      </c>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+    </row>
+    <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="17">
+        <v>0</v>
+      </c>
+      <c r="G47" s="17">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17">
+        <v>1</v>
+      </c>
+      <c r="I47" s="17">
+        <v>1</v>
+      </c>
+      <c r="J47" s="17">
+        <v>1</v>
+      </c>
+      <c r="K47" s="12">
+        <v>0</v>
+      </c>
+      <c r="L47" s="25">
+        <v>0</v>
+      </c>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+    </row>
+    <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="21">
+        <v>1</v>
+      </c>
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+      <c r="H48" s="17">
+        <v>1</v>
+      </c>
+      <c r="I48" s="17">
+        <v>1</v>
+      </c>
+      <c r="J48" s="17">
+        <v>1</v>
+      </c>
+      <c r="K48" s="12">
+        <v>1</v>
+      </c>
+      <c r="L48" s="25">
         <v>2</v>
       </c>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-    </row>
-    <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="18">
-        <v>1</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1</v>
-      </c>
-      <c r="H40" s="18">
-        <v>1</v>
-      </c>
-      <c r="I40" s="18">
-        <v>0</v>
-      </c>
-      <c r="J40" s="18">
-        <v>0</v>
-      </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="26">
-        <v>1</v>
-      </c>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-    </row>
-    <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="18">
-        <v>1</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1</v>
-      </c>
-      <c r="H41" s="18">
-        <v>1</v>
-      </c>
-      <c r="I41" s="18">
-        <v>1</v>
-      </c>
-      <c r="J41" s="18">
-        <v>1</v>
-      </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="26">
-        <v>0</v>
-      </c>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-    </row>
-    <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="18">
-        <v>0</v>
-      </c>
-      <c r="G42" s="18">
-        <v>0</v>
-      </c>
-      <c r="H42" s="18">
-        <v>0</v>
-      </c>
-      <c r="I42" s="18">
-        <v>0</v>
-      </c>
-      <c r="J42" s="18">
-        <v>0</v>
-      </c>
-      <c r="K42" s="13"/>
-      <c r="L42" s="26">
-        <v>0</v>
-      </c>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-    </row>
-    <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="18">
-        <v>1</v>
-      </c>
-      <c r="G43" s="18">
-        <v>0</v>
-      </c>
-      <c r="H43" s="18">
-        <v>1</v>
-      </c>
-      <c r="I43" s="18">
-        <v>1</v>
-      </c>
-      <c r="J43" s="18">
-        <v>1</v>
-      </c>
-      <c r="K43" s="13"/>
-      <c r="L43" s="26">
-        <v>2</v>
-      </c>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-    </row>
-    <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6">
-        <v>1</v>
-      </c>
-      <c r="F44" s="18">
-        <v>0</v>
-      </c>
-      <c r="G44" s="18">
-        <v>0</v>
-      </c>
-      <c r="H44" s="18">
-        <v>0</v>
-      </c>
-      <c r="I44" s="18">
-        <v>1</v>
-      </c>
-      <c r="J44" s="18">
-        <v>1</v>
-      </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="26">
-        <v>1</v>
-      </c>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-    </row>
-    <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" s="18">
-        <v>1</v>
-      </c>
-      <c r="G45" s="18">
-        <v>0</v>
-      </c>
-      <c r="H45" s="18">
-        <v>1</v>
-      </c>
-      <c r="I45" s="18">
-        <v>1</v>
-      </c>
-      <c r="J45" s="18">
-        <v>1</v>
-      </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="26">
-        <v>1</v>
-      </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-    </row>
-    <row r="46" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1</v>
-      </c>
-      <c r="F46" s="18">
-        <v>1</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1</v>
-      </c>
-      <c r="H46" s="18">
-        <v>1</v>
-      </c>
-      <c r="I46" s="18">
-        <v>1</v>
-      </c>
-      <c r="J46" s="18">
-        <v>1</v>
-      </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="26">
-        <v>1</v>
-      </c>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-    </row>
-    <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-      <c r="F47" s="18">
-        <v>1</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1</v>
-      </c>
-      <c r="H47" s="18">
-        <v>1</v>
-      </c>
-      <c r="I47" s="18">
-        <v>0</v>
-      </c>
-      <c r="J47" s="18">
-        <v>0</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="26">
-        <v>6</v>
-      </c>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-    </row>
-    <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
-      <c r="E48" s="6">
-        <v>1</v>
-      </c>
-      <c r="F48" s="18">
-        <v>0</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1</v>
-      </c>
-      <c r="H48" s="18">
-        <v>1</v>
-      </c>
-      <c r="I48" s="18">
-        <v>1</v>
-      </c>
-      <c r="J48" s="18">
-        <v>1</v>
-      </c>
-      <c r="K48" s="13"/>
-      <c r="L48" s="26">
-        <v>0</v>
-      </c>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-    </row>
-    <row r="49" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" s="22">
-        <v>1</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1</v>
-      </c>
-      <c r="H49" s="18">
-        <v>1</v>
-      </c>
-      <c r="I49" s="18">
-        <v>1</v>
-      </c>
-      <c r="J49" s="18">
-        <v>1</v>
-      </c>
-      <c r="K49" s="11"/>
-      <c r="L49" s="26">
-        <v>2</v>
-      </c>
-      <c r="M49" s="10"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-    </row>
-    <row r="50" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L50" s="27"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+    </row>
+    <row r="49" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L49" s="26"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L50" s="26"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L51" s="27"/>
+    <row r="51" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L51" s="26"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L52" s="27"/>
+    <row r="52" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L52" s="26"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L53" s="27"/>
+    <row r="53" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L53" s="26"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L54" s="27"/>
+    <row r="54" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L54" s="26"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L55" s="27"/>
+    <row r="55" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L55" s="26"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L56" s="27"/>
+    <row r="56" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L56" s="26"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L57" s="27"/>
+    <row r="57" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L57" s="26"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L58" s="27"/>
+    <row r="58" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L58" s="26"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L59" s="27"/>
+    <row r="59" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L59" s="26"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L60" s="27"/>
+    <row r="60" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L60" s="26"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L61" s="27"/>
+    <row r="61" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L61" s="26"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L62" s="27"/>
+    <row r="62" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L62" s="26"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L63" s="27"/>
+    <row r="63" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L63" s="26"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L64" s="27"/>
+    <row r="64" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L64" s="26"/>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L65" s="27"/>
+      <c r="L65" s="26"/>
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L66" s="27"/>
+      <c r="L66" s="26"/>
       <c r="M66" s="1"/>
     </row>
     <row r="67" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L67" s="27"/>
+      <c r="L67" s="26"/>
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L68" s="27"/>
+      <c r="L68" s="26"/>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L69" s="27"/>
+      <c r="L69" s="26"/>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L70" s="27"/>
+      <c r="L70" s="26"/>
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L71" s="27"/>
+      <c r="L71" s="26"/>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L72" s="27"/>
+      <c r="L72" s="26"/>
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L73" s="27"/>
+      <c r="L73" s="26"/>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L74" s="27"/>
+      <c r="L74" s="26"/>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L75" s="27"/>
+      <c r="L75" s="26"/>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L76" s="27"/>
+      <c r="L76" s="26"/>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L77" s="27"/>
+      <c r="L77" s="26"/>
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L78" s="27"/>
+      <c r="L78" s="26"/>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L79" s="27"/>
+      <c r="L79" s="26"/>
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L80" s="27"/>
+      <c r="L80" s="26"/>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L81" s="27"/>
+      <c r="L81" s="26"/>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L82" s="27"/>
+      <c r="L82" s="26"/>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L83" s="27"/>
+      <c r="L83" s="26"/>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L84" s="27"/>
+      <c r="L84" s="26"/>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L85" s="27"/>
+      <c r="L85" s="26"/>
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L86" s="27"/>
+      <c r="L86" s="26"/>
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L87" s="27"/>
+      <c r="L87" s="26"/>
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L88" s="27"/>
+      <c r="L88" s="26"/>
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L89" s="27"/>
+      <c r="L89" s="26"/>
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L90" s="27"/>
+      <c r="L90" s="26"/>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L91" s="27"/>
+      <c r="L91" s="26"/>
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L92" s="27"/>
+      <c r="L92" s="26"/>
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L93" s="27"/>
+      <c r="L93" s="26"/>
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L94" s="27"/>
+      <c r="L94" s="26"/>
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L95" s="27"/>
+      <c r="L95" s="26"/>
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L96" s="27"/>
+      <c r="L96" s="26"/>
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L97" s="27"/>
+      <c r="L97" s="26"/>
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L98" s="27"/>
+      <c r="L98" s="26"/>
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L99" s="27"/>
+      <c r="L99" s="26"/>
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L100" s="27"/>
+      <c r="L100" s="26"/>
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L101" s="27"/>
+      <c r="L101" s="26"/>
       <c r="M101" s="1"/>
     </row>
     <row r="102" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L102" s="27"/>
+      <c r="L102" s="26"/>
       <c r="M102" s="1"/>
     </row>
     <row r="103" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L103" s="27"/>
+      <c r="L103" s="26"/>
       <c r="M103" s="1"/>
     </row>
     <row r="104" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L104" s="27"/>
+      <c r="L104" s="26"/>
       <c r="M104" s="1"/>
     </row>
     <row r="105" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L105" s="27"/>
+      <c r="L105" s="26"/>
       <c r="M105" s="1"/>
     </row>
     <row r="106" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L106" s="27"/>
+      <c r="L106" s="26"/>
       <c r="M106" s="1"/>
     </row>
     <row r="107" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L107" s="27"/>
+      <c r="L107" s="26"/>
       <c r="M107" s="1"/>
     </row>
     <row r="108" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L108" s="27"/>
+      <c r="L108" s="26"/>
       <c r="M108" s="1"/>
     </row>
     <row r="109" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L109" s="27"/>
+      <c r="L109" s="26"/>
       <c r="M109" s="1"/>
     </row>
     <row r="110" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L110" s="27"/>
+      <c r="L110" s="26"/>
       <c r="M110" s="1"/>
     </row>
     <row r="111" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L111" s="27"/>
+      <c r="L111" s="26"/>
       <c r="M111" s="1"/>
     </row>
     <row r="112" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L112" s="27"/>
+      <c r="L112" s="26"/>
       <c r="M112" s="1"/>
     </row>
     <row r="113" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L113" s="27"/>
+      <c r="L113" s="26"/>
       <c r="M113" s="1"/>
     </row>
     <row r="114" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L114" s="27"/>
+      <c r="L114" s="26"/>
       <c r="M114" s="1"/>
     </row>
     <row r="115" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L115" s="27"/>
+      <c r="L115" s="26"/>
       <c r="M115" s="1"/>
     </row>
     <row r="116" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L116" s="27"/>
+      <c r="L116" s="26"/>
       <c r="M116" s="1"/>
     </row>
     <row r="117" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L117" s="27"/>
+      <c r="L117" s="26"/>
       <c r="M117" s="1"/>
     </row>
     <row r="118" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L118" s="27"/>
+      <c r="L118" s="26"/>
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L119" s="27"/>
+      <c r="L119" s="26"/>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L120" s="27"/>
+      <c r="L120" s="26"/>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L121" s="27"/>
+      <c r="L121" s="26"/>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L122" s="27"/>
+      <c r="L122" s="26"/>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L123" s="27"/>
+      <c r="L123" s="26"/>
       <c r="M123" s="1"/>
     </row>
     <row r="124" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L124" s="27"/>
+      <c r="L124" s="26"/>
       <c r="M124" s="1"/>
     </row>
     <row r="125" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L125" s="27"/>
+      <c r="L125" s="26"/>
       <c r="M125" s="1"/>
     </row>
     <row r="126" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L126" s="27"/>
+      <c r="L126" s="26"/>
       <c r="M126" s="1"/>
     </row>
     <row r="127" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L127" s="27"/>
+      <c r="L127" s="26"/>
       <c r="M127" s="1"/>
     </row>
     <row r="128" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L128" s="27"/>
+      <c r="L128" s="26"/>
       <c r="M128" s="1"/>
     </row>
     <row r="129" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L129" s="27"/>
+      <c r="L129" s="26"/>
       <c r="M129" s="1"/>
     </row>
     <row r="130" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L130" s="27"/>
+      <c r="L130" s="26"/>
       <c r="M130" s="1"/>
     </row>
     <row r="131" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L131" s="27"/>
+      <c r="L131" s="26"/>
       <c r="M131" s="1"/>
     </row>
     <row r="132" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L132" s="27"/>
+      <c r="L132" s="26"/>
       <c r="M132" s="1"/>
     </row>
     <row r="133" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L133" s="27"/>
+      <c r="L133" s="26"/>
       <c r="M133" s="1"/>
     </row>
     <row r="134" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L134" s="27"/>
+      <c r="L134" s="26"/>
       <c r="M134" s="1"/>
     </row>
     <row r="135" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L135" s="27"/>
+      <c r="L135" s="26"/>
       <c r="M135" s="1"/>
     </row>
     <row r="136" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L136" s="27"/>
+      <c r="L136" s="26"/>
       <c r="M136" s="1"/>
     </row>
     <row r="137" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L137" s="27"/>
+      <c r="L137" s="26"/>
       <c r="M137" s="1"/>
     </row>
     <row r="138" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L138" s="27"/>
+      <c r="L138" s="26"/>
       <c r="M138" s="1"/>
     </row>
     <row r="139" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L139" s="27"/>
+      <c r="L139" s="26"/>
       <c r="M139" s="1"/>
     </row>
     <row r="140" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L140" s="27"/>
+      <c r="L140" s="26"/>
       <c r="M140" s="1"/>
     </row>
     <row r="141" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L141" s="27"/>
+      <c r="L141" s="26"/>
       <c r="M141" s="1"/>
     </row>
     <row r="142" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L142" s="27"/>
+      <c r="L142" s="26"/>
       <c r="M142" s="1"/>
     </row>
     <row r="143" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L143" s="27"/>
+      <c r="L143" s="26"/>
       <c r="M143" s="1"/>
     </row>
     <row r="144" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L144" s="27"/>
+      <c r="L144" s="26"/>
       <c r="M144" s="1"/>
     </row>
     <row r="145" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L145" s="27"/>
+      <c r="L145" s="26"/>
       <c r="M145" s="1"/>
     </row>
     <row r="146" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L146" s="27"/>
+      <c r="L146" s="26"/>
       <c r="M146" s="1"/>
     </row>
     <row r="147" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L147" s="27"/>
+      <c r="L147" s="26"/>
       <c r="M147" s="1"/>
     </row>
     <row r="148" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L148" s="27"/>
+      <c r="L148" s="26"/>
       <c r="M148" s="1"/>
     </row>
     <row r="149" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L149" s="27"/>
+      <c r="L149" s="26"/>
       <c r="M149" s="1"/>
     </row>
     <row r="150" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L150" s="27"/>
+      <c r="L150" s="26"/>
       <c r="M150" s="1"/>
     </row>
     <row r="151" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L151" s="27"/>
+      <c r="L151" s="26"/>
       <c r="M151" s="1"/>
     </row>
     <row r="152" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L152" s="27"/>
+      <c r="L152" s="26"/>
       <c r="M152" s="1"/>
     </row>
     <row r="153" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L153" s="27"/>
+      <c r="L153" s="26"/>
       <c r="M153" s="1"/>
     </row>
     <row r="154" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L154" s="27"/>
+      <c r="L154" s="26"/>
       <c r="M154" s="1"/>
     </row>
     <row r="155" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L155" s="27"/>
+      <c r="L155" s="26"/>
       <c r="M155" s="1"/>
     </row>
     <row r="156" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L156" s="27"/>
+      <c r="L156" s="26"/>
       <c r="M156" s="1"/>
     </row>
     <row r="157" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L157" s="27"/>
+      <c r="L157" s="26"/>
       <c r="M157" s="1"/>
     </row>
     <row r="158" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L158" s="27"/>
+      <c r="L158" s="26"/>
       <c r="M158" s="1"/>
     </row>
     <row r="159" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L159" s="27"/>
+      <c r="L159" s="26"/>
       <c r="M159" s="1"/>
     </row>
     <row r="160" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L160" s="27"/>
+      <c r="L160" s="26"/>
       <c r="M160" s="1"/>
     </row>
     <row r="161" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L161" s="27"/>
+      <c r="L161" s="26"/>
       <c r="M161" s="1"/>
     </row>
     <row r="162" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L162" s="27"/>
+      <c r="L162" s="26"/>
       <c r="M162" s="1"/>
     </row>
     <row r="163" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L163" s="27"/>
+      <c r="L163" s="26"/>
       <c r="M163" s="1"/>
     </row>
     <row r="164" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L164" s="27"/>
+      <c r="L164" s="26"/>
       <c r="M164" s="1"/>
     </row>
     <row r="165" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L165" s="27"/>
+      <c r="L165" s="26"/>
       <c r="M165" s="1"/>
     </row>
     <row r="166" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L166" s="27"/>
+      <c r="L166" s="26"/>
       <c r="M166" s="1"/>
     </row>
     <row r="167" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L167" s="27"/>
+      <c r="L167" s="26"/>
       <c r="M167" s="1"/>
     </row>
     <row r="168" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L168" s="27"/>
+      <c r="L168" s="26"/>
       <c r="M168" s="1"/>
     </row>
     <row r="169" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L169" s="27"/>
+      <c r="L169" s="26"/>
       <c r="M169" s="1"/>
     </row>
     <row r="170" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L170" s="27"/>
+      <c r="L170" s="26"/>
       <c r="M170" s="1"/>
     </row>
     <row r="171" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L171" s="27"/>
+      <c r="L171" s="26"/>
       <c r="M171" s="1"/>
     </row>
     <row r="172" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L172" s="27"/>
+      <c r="L172" s="26"/>
       <c r="M172" s="1"/>
     </row>
     <row r="173" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L173" s="27"/>
+      <c r="L173" s="26"/>
       <c r="M173" s="1"/>
     </row>
     <row r="174" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L174" s="27"/>
+      <c r="L174" s="26"/>
       <c r="M174" s="1"/>
     </row>
     <row r="175" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L175" s="27"/>
+      <c r="L175" s="26"/>
       <c r="M175" s="1"/>
     </row>
     <row r="176" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L176" s="27"/>
+      <c r="L176" s="26"/>
       <c r="M176" s="1"/>
     </row>
     <row r="177" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L177" s="27"/>
+      <c r="L177" s="26"/>
       <c r="M177" s="1"/>
     </row>
     <row r="178" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L178" s="27"/>
+      <c r="L178" s="26"/>
       <c r="M178" s="1"/>
     </row>
     <row r="179" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L179" s="27"/>
+      <c r="L179" s="26"/>
       <c r="M179" s="1"/>
     </row>
     <row r="180" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L180" s="27"/>
+      <c r="L180" s="26"/>
       <c r="M180" s="1"/>
     </row>
     <row r="181" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L181" s="27"/>
+      <c r="L181" s="26"/>
       <c r="M181" s="1"/>
     </row>
     <row r="182" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L182" s="27"/>
+      <c r="L182" s="26"/>
       <c r="M182" s="1"/>
     </row>
     <row r="183" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L183" s="27"/>
+      <c r="L183" s="26"/>
       <c r="M183" s="1"/>
     </row>
     <row r="184" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L184" s="27"/>
+      <c r="L184" s="26"/>
       <c r="M184" s="1"/>
     </row>
     <row r="185" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L185" s="27"/>
+      <c r="L185" s="26"/>
       <c r="M185" s="1"/>
     </row>
     <row r="186" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L186" s="27"/>
+      <c r="L186" s="26"/>
       <c r="M186" s="1"/>
     </row>
     <row r="187" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L187" s="27"/>
+      <c r="L187" s="26"/>
       <c r="M187" s="1"/>
     </row>
     <row r="188" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L188" s="27"/>
+      <c r="L188" s="26"/>
       <c r="M188" s="1"/>
     </row>
     <row r="189" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L189" s="27"/>
+      <c r="L189" s="26"/>
       <c r="M189" s="1"/>
     </row>
     <row r="190" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L190" s="27"/>
+      <c r="L190" s="26"/>
       <c r="M190" s="1"/>
     </row>
     <row r="191" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L191" s="27"/>
+      <c r="L191" s="26"/>
       <c r="M191" s="1"/>
     </row>
     <row r="192" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L192" s="27"/>
+      <c r="L192" s="26"/>
       <c r="M192" s="1"/>
     </row>
     <row r="193" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L193" s="27"/>
+      <c r="L193" s="26"/>
       <c r="M193" s="1"/>
     </row>
     <row r="194" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L194" s="27"/>
+      <c r="L194" s="26"/>
       <c r="M194" s="1"/>
     </row>
     <row r="195" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L195" s="27"/>
+      <c r="L195" s="26"/>
       <c r="M195" s="1"/>
     </row>
     <row r="196" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L196" s="27"/>
+      <c r="L196" s="26"/>
       <c r="M196" s="1"/>
     </row>
     <row r="197" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L197" s="27"/>
+      <c r="L197" s="26"/>
       <c r="M197" s="1"/>
     </row>
     <row r="198" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L198" s="27"/>
+      <c r="L198" s="26"/>
       <c r="M198" s="1"/>
     </row>
     <row r="199" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L199" s="27"/>
+      <c r="L199" s="26"/>
       <c r="M199" s="1"/>
     </row>
     <row r="200" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L200" s="27"/>
+      <c r="L200" s="26"/>
       <c r="M200" s="1"/>
     </row>
     <row r="201" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L201" s="27"/>
+      <c r="L201" s="26"/>
       <c r="M201" s="1"/>
     </row>
     <row r="202" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L202" s="27"/>
+      <c r="L202" s="26"/>
       <c r="M202" s="1"/>
     </row>
     <row r="203" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L203" s="27"/>
+      <c r="L203" s="26"/>
       <c r="M203" s="1"/>
     </row>
     <row r="204" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L204" s="27"/>
+      <c r="L204" s="26"/>
       <c r="M204" s="1"/>
     </row>
     <row r="205" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L205" s="27"/>
+      <c r="L205" s="26"/>
       <c r="M205" s="1"/>
     </row>
     <row r="206" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L206" s="27"/>
+      <c r="L206" s="26"/>
       <c r="M206" s="1"/>
     </row>
     <row r="207" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L207" s="27"/>
+      <c r="L207" s="26"/>
       <c r="M207" s="1"/>
     </row>
     <row r="208" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L208" s="27"/>
+      <c r="L208" s="26"/>
       <c r="M208" s="1"/>
     </row>
     <row r="209" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L209" s="27"/>
+      <c r="L209" s="26"/>
       <c r="M209" s="1"/>
     </row>
     <row r="210" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L210" s="27"/>
+      <c r="L210" s="26"/>
       <c r="M210" s="1"/>
     </row>
     <row r="211" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L211" s="27"/>
+      <c r="L211" s="26"/>
       <c r="M211" s="1"/>
     </row>
     <row r="212" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L212" s="27"/>
+      <c r="L212" s="26"/>
       <c r="M212" s="1"/>
     </row>
     <row r="213" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L213" s="27"/>
+      <c r="L213" s="26"/>
       <c r="M213" s="1"/>
     </row>
     <row r="214" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L214" s="27"/>
+      <c r="L214" s="26"/>
       <c r="M214" s="1"/>
     </row>
     <row r="215" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L215" s="27"/>
+      <c r="L215" s="26"/>
       <c r="M215" s="1"/>
     </row>
     <row r="216" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L216" s="27"/>
+      <c r="L216" s="26"/>
       <c r="M216" s="1"/>
     </row>
     <row r="217" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L217" s="27"/>
+      <c r="L217" s="26"/>
       <c r="M217" s="1"/>
     </row>
     <row r="218" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L218" s="27"/>
+      <c r="L218" s="26"/>
       <c r="M218" s="1"/>
     </row>
     <row r="219" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L219" s="27"/>
+      <c r="L219" s="26"/>
       <c r="M219" s="1"/>
     </row>
     <row r="220" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L220" s="27"/>
+      <c r="L220" s="26"/>
       <c r="M220" s="1"/>
     </row>
     <row r="221" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L221" s="27"/>
+      <c r="L221" s="26"/>
       <c r="M221" s="1"/>
     </row>
     <row r="222" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L222" s="27"/>
+      <c r="L222" s="26"/>
       <c r="M222" s="1"/>
     </row>
     <row r="223" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L223" s="27"/>
+      <c r="L223" s="26"/>
       <c r="M223" s="1"/>
     </row>
     <row r="224" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L224" s="27"/>
+      <c r="L224" s="26"/>
       <c r="M224" s="1"/>
     </row>
     <row r="225" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L225" s="27"/>
+      <c r="L225" s="26"/>
       <c r="M225" s="1"/>
     </row>
     <row r="226" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L226" s="27"/>
+      <c r="L226" s="26"/>
       <c r="M226" s="1"/>
     </row>
     <row r="227" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L227" s="27"/>
+      <c r="L227" s="26"/>
       <c r="M227" s="1"/>
     </row>
     <row r="228" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L228" s="27"/>
+      <c r="L228" s="26"/>
       <c r="M228" s="1"/>
     </row>
     <row r="229" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L229" s="27"/>
+      <c r="L229" s="26"/>
       <c r="M229" s="1"/>
     </row>
     <row r="230" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L230" s="27"/>
+      <c r="L230" s="26"/>
       <c r="M230" s="1"/>
     </row>
     <row r="231" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L231" s="27"/>
+      <c r="L231" s="26"/>
       <c r="M231" s="1"/>
     </row>
     <row r="232" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L232" s="27"/>
+      <c r="L232" s="26"/>
       <c r="M232" s="1"/>
     </row>
     <row r="233" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L233" s="27"/>
+      <c r="L233" s="26"/>
       <c r="M233" s="1"/>
     </row>
     <row r="234" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L234" s="27"/>
+      <c r="L234" s="26"/>
       <c r="M234" s="1"/>
     </row>
     <row r="235" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L235" s="27"/>
+      <c r="L235" s="26"/>
       <c r="M235" s="1"/>
     </row>
     <row r="236" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L236" s="27"/>
+      <c r="L236" s="26"/>
       <c r="M236" s="1"/>
     </row>
     <row r="237" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L237" s="27"/>
+      <c r="L237" s="26"/>
       <c r="M237" s="1"/>
     </row>
     <row r="238" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L238" s="27"/>
+      <c r="L238" s="26"/>
       <c r="M238" s="1"/>
     </row>
     <row r="239" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L239" s="27"/>
+      <c r="L239" s="26"/>
       <c r="M239" s="1"/>
     </row>
     <row r="240" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L240" s="27"/>
+      <c r="L240" s="26"/>
       <c r="M240" s="1"/>
     </row>
     <row r="241" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L241" s="27"/>
+      <c r="L241" s="26"/>
       <c r="M241" s="1"/>
     </row>
     <row r="242" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L242" s="27"/>
+      <c r="L242" s="26"/>
       <c r="M242" s="1"/>
     </row>
     <row r="243" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L243" s="27"/>
+      <c r="L243" s="26"/>
       <c r="M243" s="1"/>
     </row>
     <row r="244" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L244" s="27"/>
+      <c r="L244" s="26"/>
       <c r="M244" s="1"/>
     </row>
     <row r="245" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L245" s="27"/>
+      <c r="L245" s="26"/>
       <c r="M245" s="1"/>
     </row>
     <row r="246" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L246" s="27"/>
+      <c r="L246" s="26"/>
       <c r="M246" s="1"/>
     </row>
     <row r="247" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L247" s="27"/>
+      <c r="L247" s="26"/>
       <c r="M247" s="1"/>
     </row>
     <row r="248" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L248" s="27"/>
+      <c r="L248" s="26"/>
       <c r="M248" s="1"/>
     </row>
     <row r="249" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L249" s="27"/>
+      <c r="L249" s="26"/>
       <c r="M249" s="1"/>
     </row>
     <row r="250" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L250" s="27"/>
+      <c r="L250" s="26"/>
       <c r="M250" s="1"/>
     </row>
     <row r="251" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L251" s="27"/>
+      <c r="L251" s="26"/>
       <c r="M251" s="1"/>
     </row>
     <row r="252" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L252" s="27"/>
+      <c r="L252" s="26"/>
       <c r="M252" s="1"/>
     </row>
     <row r="253" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L253" s="27"/>
+      <c r="L253" s="26"/>
       <c r="M253" s="1"/>
     </row>
     <row r="254" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L254" s="27"/>
+      <c r="L254" s="26"/>
       <c r="M254" s="1"/>
     </row>
     <row r="255" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L255" s="27"/>
+      <c r="L255" s="26"/>
       <c r="M255" s="1"/>
     </row>
     <row r="256" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L256" s="27"/>
+      <c r="L256" s="26"/>
       <c r="M256" s="1"/>
     </row>
     <row r="257" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L257" s="27"/>
+      <c r="L257" s="26"/>
       <c r="M257" s="1"/>
     </row>
     <row r="258" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L258" s="27"/>
+      <c r="L258" s="26"/>
       <c r="M258" s="1"/>
     </row>
     <row r="259" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L259" s="27"/>
+      <c r="L259" s="26"/>
       <c r="M259" s="1"/>
     </row>
     <row r="260" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L260" s="27"/>
+      <c r="L260" s="26"/>
       <c r="M260" s="1"/>
     </row>
     <row r="261" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L261" s="27"/>
+      <c r="L261" s="26"/>
       <c r="M261" s="1"/>
     </row>
     <row r="262" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L262" s="27"/>
+      <c r="L262" s="26"/>
       <c r="M262" s="1"/>
     </row>
     <row r="263" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L263" s="27"/>
+      <c r="L263" s="26"/>
       <c r="M263" s="1"/>
     </row>
     <row r="264" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L264" s="27"/>
+      <c r="L264" s="26"/>
       <c r="M264" s="1"/>
     </row>
     <row r="265" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L265" s="27"/>
+      <c r="L265" s="26"/>
       <c r="M265" s="1"/>
     </row>
     <row r="266" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L266" s="27"/>
+      <c r="L266" s="26"/>
       <c r="M266" s="1"/>
     </row>
     <row r="267" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L267" s="27"/>
+      <c r="L267" s="26"/>
       <c r="M267" s="1"/>
     </row>
     <row r="268" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L268" s="27"/>
+      <c r="L268" s="26"/>
       <c r="M268" s="1"/>
     </row>
     <row r="269" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L269" s="27"/>
+      <c r="L269" s="26"/>
       <c r="M269" s="1"/>
     </row>
     <row r="270" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L270" s="27"/>
+      <c r="L270" s="26"/>
       <c r="M270" s="1"/>
     </row>
     <row r="271" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L271" s="27"/>
+      <c r="L271" s="26"/>
       <c r="M271" s="1"/>
     </row>
     <row r="272" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L272" s="27"/>
+      <c r="L272" s="26"/>
       <c r="M272" s="1"/>
     </row>
     <row r="273" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L273" s="27"/>
+      <c r="L273" s="26"/>
       <c r="M273" s="1"/>
     </row>
     <row r="274" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L274" s="27"/>
+      <c r="L274" s="26"/>
       <c r="M274" s="1"/>
     </row>
     <row r="275" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L275" s="27"/>
+      <c r="L275" s="26"/>
       <c r="M275" s="1"/>
     </row>
     <row r="276" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L276" s="27"/>
+      <c r="L276" s="26"/>
       <c r="M276" s="1"/>
     </row>
     <row r="277" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L277" s="27"/>
+      <c r="L277" s="26"/>
       <c r="M277" s="1"/>
     </row>
     <row r="278" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L278" s="27"/>
+      <c r="L278" s="26"/>
       <c r="M278" s="1"/>
     </row>
     <row r="279" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L279" s="27"/>
+      <c r="L279" s="26"/>
       <c r="M279" s="1"/>
     </row>
     <row r="280" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L280" s="27"/>
+      <c r="L280" s="26"/>
       <c r="M280" s="1"/>
     </row>
     <row r="281" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L281" s="27"/>
+      <c r="L281" s="26"/>
       <c r="M281" s="1"/>
     </row>
     <row r="282" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L282" s="27"/>
+      <c r="L282" s="26"/>
       <c r="M282" s="1"/>
     </row>
     <row r="283" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L283" s="27"/>
+      <c r="L283" s="26"/>
       <c r="M283" s="1"/>
     </row>
     <row r="284" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L284" s="27"/>
+      <c r="L284" s="26"/>
       <c r="M284" s="1"/>
     </row>
     <row r="285" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L285" s="27"/>
+      <c r="L285" s="26"/>
       <c r="M285" s="1"/>
     </row>
     <row r="286" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L286" s="27"/>
+      <c r="L286" s="26"/>
       <c r="M286" s="1"/>
     </row>
     <row r="287" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L287" s="27"/>
+      <c r="L287" s="26"/>
       <c r="M287" s="1"/>
     </row>
     <row r="288" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L288" s="27"/>
+      <c r="L288" s="26"/>
       <c r="M288" s="1"/>
     </row>
     <row r="289" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L289" s="27"/>
+      <c r="L289" s="26"/>
       <c r="M289" s="1"/>
     </row>
     <row r="290" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L290" s="27"/>
+      <c r="L290" s="26"/>
       <c r="M290" s="1"/>
     </row>
     <row r="291" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L291" s="27"/>
+      <c r="L291" s="26"/>
       <c r="M291" s="1"/>
     </row>
     <row r="292" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L292" s="27"/>
+      <c r="L292" s="26"/>
       <c r="M292" s="1"/>
     </row>
     <row r="293" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L293" s="27"/>
+      <c r="L293" s="26"/>
       <c r="M293" s="1"/>
     </row>
     <row r="294" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L294" s="27"/>
+      <c r="L294" s="26"/>
       <c r="M294" s="1"/>
     </row>
     <row r="295" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L295" s="27"/>
+      <c r="L295" s="26"/>
       <c r="M295" s="1"/>
     </row>
     <row r="296" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L296" s="27"/>
+      <c r="L296" s="26"/>
       <c r="M296" s="1"/>
     </row>
     <row r="297" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L297" s="27"/>
+      <c r="L297" s="26"/>
       <c r="M297" s="1"/>
     </row>
     <row r="298" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L298" s="27"/>
+      <c r="L298" s="26"/>
       <c r="M298" s="1"/>
     </row>
     <row r="299" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L299" s="27"/>
+      <c r="L299" s="26"/>
       <c r="M299" s="1"/>
     </row>
     <row r="300" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L300" s="27"/>
+      <c r="L300" s="26"/>
       <c r="M300" s="1"/>
     </row>
     <row r="301" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L301" s="27"/>
+      <c r="L301" s="26"/>
       <c r="M301" s="1"/>
     </row>
     <row r="302" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L302" s="27"/>
+      <c r="L302" s="26"/>
       <c r="M302" s="1"/>
     </row>
     <row r="303" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L303" s="27"/>
+      <c r="L303" s="26"/>
       <c r="M303" s="1"/>
     </row>
     <row r="304" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L304" s="27"/>
+      <c r="L304" s="26"/>
       <c r="M304" s="1"/>
     </row>
     <row r="305" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L305" s="27"/>
+      <c r="L305" s="26"/>
       <c r="M305" s="1"/>
     </row>
     <row r="306" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L306" s="27"/>
+      <c r="L306" s="26"/>
       <c r="M306" s="1"/>
     </row>
     <row r="307" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L307" s="27"/>
+      <c r="L307" s="26"/>
       <c r="M307" s="1"/>
     </row>
     <row r="308" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L308" s="27"/>
+      <c r="L308" s="26"/>
       <c r="M308" s="1"/>
     </row>
     <row r="309" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L309" s="27"/>
+      <c r="L309" s="26"/>
       <c r="M309" s="1"/>
     </row>
     <row r="310" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L310" s="27"/>
+      <c r="L310" s="26"/>
       <c r="M310" s="1"/>
     </row>
     <row r="311" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L311" s="27"/>
+      <c r="L311" s="26"/>
       <c r="M311" s="1"/>
     </row>
     <row r="312" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L312" s="27"/>
+      <c r="L312" s="26"/>
       <c r="M312" s="1"/>
     </row>
     <row r="313" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L313" s="27"/>
+      <c r="L313" s="26"/>
       <c r="M313" s="1"/>
     </row>
     <row r="314" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L314" s="27"/>
+      <c r="L314" s="26"/>
       <c r="M314" s="1"/>
     </row>
     <row r="315" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L315" s="27"/>
+      <c r="L315" s="26"/>
       <c r="M315" s="1"/>
     </row>
     <row r="316" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L316" s="27"/>
+      <c r="L316" s="26"/>
       <c r="M316" s="1"/>
     </row>
     <row r="317" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L317" s="27"/>
+      <c r="L317" s="26"/>
       <c r="M317" s="1"/>
     </row>
     <row r="318" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L318" s="27"/>
+      <c r="L318" s="26"/>
       <c r="M318" s="1"/>
     </row>
     <row r="319" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L319" s="27"/>
+      <c r="L319" s="26"/>
       <c r="M319" s="1"/>
     </row>
     <row r="320" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L320" s="27"/>
+      <c r="L320" s="26"/>
       <c r="M320" s="1"/>
     </row>
     <row r="321" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L321" s="27"/>
+      <c r="L321" s="26"/>
       <c r="M321" s="1"/>
     </row>
     <row r="322" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L322" s="27"/>
+      <c r="L322" s="26"/>
       <c r="M322" s="1"/>
     </row>
     <row r="323" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L323" s="27"/>
+      <c r="L323" s="26"/>
       <c r="M323" s="1"/>
     </row>
     <row r="324" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L324" s="27"/>
+      <c r="L324" s="26"/>
       <c r="M324" s="1"/>
     </row>
     <row r="325" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L325" s="27"/>
+      <c r="L325" s="26"/>
       <c r="M325" s="1"/>
     </row>
     <row r="326" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L326" s="27"/>
+      <c r="L326" s="26"/>
       <c r="M326" s="1"/>
     </row>
     <row r="327" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L327" s="27"/>
+      <c r="L327" s="26"/>
       <c r="M327" s="1"/>
     </row>
     <row r="328" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L328" s="27"/>
+      <c r="L328" s="26"/>
       <c r="M328" s="1"/>
     </row>
     <row r="329" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L329" s="27"/>
+      <c r="L329" s="26"/>
       <c r="M329" s="1"/>
     </row>
     <row r="330" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L330" s="27"/>
+      <c r="L330" s="26"/>
       <c r="M330" s="1"/>
     </row>
     <row r="331" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L331" s="27"/>
+      <c r="L331" s="26"/>
       <c r="M331" s="1"/>
     </row>
     <row r="332" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L332" s="27"/>
+      <c r="L332" s="26"/>
       <c r="M332" s="1"/>
     </row>
     <row r="333" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L333" s="27"/>
+      <c r="L333" s="26"/>
       <c r="M333" s="1"/>
     </row>
     <row r="334" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L334" s="27"/>
+      <c r="L334" s="26"/>
       <c r="M334" s="1"/>
     </row>
     <row r="335" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L335" s="27"/>
+      <c r="L335" s="26"/>
       <c r="M335" s="1"/>
     </row>
     <row r="336" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L336" s="27"/>
+      <c r="L336" s="26"/>
       <c r="M336" s="1"/>
     </row>
     <row r="337" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L337" s="27"/>
+      <c r="L337" s="26"/>
       <c r="M337" s="1"/>
     </row>
     <row r="338" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L338" s="27"/>
+      <c r="L338" s="26"/>
       <c r="M338" s="1"/>
     </row>
     <row r="339" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L339" s="27"/>
+      <c r="L339" s="26"/>
       <c r="M339" s="1"/>
     </row>
     <row r="340" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L340" s="27"/>
+      <c r="L340" s="26"/>
       <c r="M340" s="1"/>
     </row>
     <row r="341" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L341" s="27"/>
+      <c r="L341" s="26"/>
       <c r="M341" s="1"/>
     </row>
     <row r="342" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L342" s="27"/>
+      <c r="L342" s="26"/>
       <c r="M342" s="1"/>
     </row>
     <row r="343" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L343" s="27"/>
+      <c r="L343" s="26"/>
       <c r="M343" s="1"/>
     </row>
     <row r="344" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L344" s="27"/>
+      <c r="L344" s="26"/>
       <c r="M344" s="1"/>
     </row>
     <row r="345" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L345" s="27"/>
+      <c r="L345" s="26"/>
       <c r="M345" s="1"/>
     </row>
     <row r="346" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L346" s="27"/>
+      <c r="L346" s="26"/>
       <c r="M346" s="1"/>
     </row>
     <row r="347" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L347" s="27"/>
+      <c r="L347" s="26"/>
       <c r="M347" s="1"/>
     </row>
     <row r="348" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L348" s="27"/>
+      <c r="L348" s="26"/>
       <c r="M348" s="1"/>
     </row>
     <row r="349" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L349" s="27"/>
+      <c r="L349" s="26"/>
       <c r="M349" s="1"/>
     </row>
     <row r="350" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L350" s="27"/>
+      <c r="L350" s="26"/>
       <c r="M350" s="1"/>
     </row>
     <row r="351" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L351" s="27"/>
+      <c r="L351" s="26"/>
       <c r="M351" s="1"/>
     </row>
     <row r="352" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L352" s="27"/>
+      <c r="L352" s="26"/>
       <c r="M352" s="1"/>
     </row>
     <row r="353" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L353" s="27"/>
+      <c r="L353" s="26"/>
       <c r="M353" s="1"/>
     </row>
     <row r="354" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L354" s="27"/>
+      <c r="L354" s="26"/>
       <c r="M354" s="1"/>
     </row>
     <row r="355" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L355" s="27"/>
+      <c r="L355" s="26"/>
       <c r="M355" s="1"/>
     </row>
     <row r="356" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L356" s="27"/>
+      <c r="L356" s="26"/>
       <c r="M356" s="1"/>
     </row>
     <row r="357" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L357" s="27"/>
+      <c r="L357" s="26"/>
       <c r="M357" s="1"/>
     </row>
     <row r="358" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L358" s="27"/>
+      <c r="L358" s="26"/>
       <c r="M358" s="1"/>
     </row>
     <row r="359" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L359" s="27"/>
+      <c r="L359" s="26"/>
       <c r="M359" s="1"/>
     </row>
     <row r="360" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L360" s="27"/>
+      <c r="L360" s="26"/>
       <c r="M360" s="1"/>
     </row>
     <row r="361" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L361" s="27"/>
+      <c r="L361" s="26"/>
       <c r="M361" s="1"/>
     </row>
     <row r="362" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L362" s="27"/>
+      <c r="L362" s="26"/>
       <c r="M362" s="1"/>
     </row>
     <row r="363" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L363" s="27"/>
+      <c r="L363" s="26"/>
       <c r="M363" s="1"/>
     </row>
     <row r="364" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L364" s="27"/>
+      <c r="L364" s="26"/>
       <c r="M364" s="1"/>
     </row>
     <row r="365" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L365" s="27"/>
+      <c r="L365" s="26"/>
       <c r="M365" s="1"/>
     </row>
     <row r="366" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L366" s="27"/>
+      <c r="L366" s="26"/>
       <c r="M366" s="1"/>
     </row>
     <row r="367" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L367" s="27"/>
+      <c r="L367" s="26"/>
       <c r="M367" s="1"/>
     </row>
     <row r="368" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L368" s="27"/>
+      <c r="L368" s="26"/>
       <c r="M368" s="1"/>
     </row>
     <row r="369" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L369" s="27"/>
+      <c r="L369" s="26"/>
       <c r="M369" s="1"/>
     </row>
     <row r="370" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L370" s="27"/>
+      <c r="L370" s="26"/>
       <c r="M370" s="1"/>
     </row>
     <row r="371" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L371" s="27"/>
+      <c r="L371" s="26"/>
       <c r="M371" s="1"/>
     </row>
     <row r="372" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L372" s="27"/>
+      <c r="L372" s="26"/>
       <c r="M372" s="1"/>
     </row>
     <row r="373" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L373" s="27"/>
+      <c r="L373" s="26"/>
       <c r="M373" s="1"/>
     </row>
     <row r="374" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L374" s="27"/>
+      <c r="L374" s="26"/>
       <c r="M374" s="1"/>
     </row>
     <row r="375" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L375" s="27"/>
+      <c r="L375" s="26"/>
       <c r="M375" s="1"/>
     </row>
     <row r="376" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L376" s="27"/>
+      <c r="L376" s="26"/>
       <c r="M376" s="1"/>
     </row>
     <row r="377" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L377" s="27"/>
+      <c r="L377" s="26"/>
       <c r="M377" s="1"/>
     </row>
     <row r="378" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L378" s="27"/>
+      <c r="L378" s="26"/>
       <c r="M378" s="1"/>
     </row>
     <row r="379" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L379" s="27"/>
+      <c r="L379" s="26"/>
       <c r="M379" s="1"/>
     </row>
     <row r="380" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L380" s="27"/>
+      <c r="L380" s="26"/>
       <c r="M380" s="1"/>
     </row>
     <row r="381" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L381" s="27"/>
+      <c r="L381" s="26"/>
       <c r="M381" s="1"/>
     </row>
     <row r="382" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L382" s="27"/>
+      <c r="L382" s="26"/>
       <c r="M382" s="1"/>
     </row>
     <row r="383" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L383" s="27"/>
+      <c r="L383" s="26"/>
       <c r="M383" s="1"/>
     </row>
     <row r="384" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L384" s="27"/>
+      <c r="L384" s="26"/>
       <c r="M384" s="1"/>
     </row>
     <row r="385" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L385" s="27"/>
+      <c r="L385" s="26"/>
       <c r="M385" s="1"/>
     </row>
     <row r="386" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L386" s="27"/>
+      <c r="L386" s="26"/>
       <c r="M386" s="1"/>
     </row>
     <row r="387" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L387" s="27"/>
+      <c r="L387" s="26"/>
       <c r="M387" s="1"/>
     </row>
     <row r="388" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L388" s="27"/>
+      <c r="L388" s="26"/>
       <c r="M388" s="1"/>
     </row>
     <row r="389" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L389" s="27"/>
+      <c r="L389" s="26"/>
       <c r="M389" s="1"/>
     </row>
     <row r="390" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L390" s="27"/>
+      <c r="L390" s="26"/>
       <c r="M390" s="1"/>
     </row>
     <row r="391" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L391" s="27"/>
+      <c r="L391" s="26"/>
       <c r="M391" s="1"/>
     </row>
     <row r="392" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L392" s="27"/>
+      <c r="L392" s="26"/>
       <c r="M392" s="1"/>
     </row>
     <row r="393" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L393" s="27"/>
+      <c r="L393" s="26"/>
       <c r="M393" s="1"/>
     </row>
     <row r="394" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L394" s="27"/>
+      <c r="L394" s="26"/>
       <c r="M394" s="1"/>
     </row>
     <row r="395" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L395" s="27"/>
+      <c r="L395" s="26"/>
       <c r="M395" s="1"/>
     </row>
     <row r="396" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L396" s="27"/>
+      <c r="L396" s="26"/>
       <c r="M396" s="1"/>
     </row>
     <row r="397" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L397" s="27"/>
+      <c r="L397" s="26"/>
       <c r="M397" s="1"/>
     </row>
     <row r="398" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L398" s="27"/>
+      <c r="L398" s="26"/>
       <c r="M398" s="1"/>
     </row>
     <row r="399" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L399" s="27"/>
+      <c r="L399" s="26"/>
       <c r="M399" s="1"/>
     </row>
     <row r="400" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L400" s="27"/>
+      <c r="L400" s="26"/>
       <c r="M400" s="1"/>
     </row>
     <row r="401" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L401" s="27"/>
+      <c r="L401" s="26"/>
       <c r="M401" s="1"/>
     </row>
     <row r="402" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L402" s="27"/>
+      <c r="L402" s="26"/>
       <c r="M402" s="1"/>
     </row>
     <row r="403" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L403" s="27"/>
+      <c r="L403" s="26"/>
       <c r="M403" s="1"/>
     </row>
     <row r="404" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L404" s="27"/>
+      <c r="L404" s="26"/>
       <c r="M404" s="1"/>
     </row>
     <row r="405" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L405" s="27"/>
+      <c r="L405" s="26"/>
       <c r="M405" s="1"/>
     </row>
     <row r="406" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L406" s="27"/>
+      <c r="L406" s="26"/>
       <c r="M406" s="1"/>
     </row>
     <row r="407" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L407" s="27"/>
+      <c r="L407" s="26"/>
       <c r="M407" s="1"/>
     </row>
     <row r="408" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L408" s="27"/>
+      <c r="L408" s="26"/>
       <c r="M408" s="1"/>
     </row>
     <row r="409" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L409" s="27"/>
+      <c r="L409" s="26"/>
       <c r="M409" s="1"/>
     </row>
     <row r="410" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L410" s="27"/>
+      <c r="L410" s="26"/>
       <c r="M410" s="1"/>
     </row>
     <row r="411" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L411" s="27"/>
+      <c r="L411" s="26"/>
       <c r="M411" s="1"/>
     </row>
     <row r="412" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L412" s="27"/>
+      <c r="L412" s="26"/>
       <c r="M412" s="1"/>
     </row>
     <row r="413" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L413" s="27"/>
+      <c r="L413" s="26"/>
       <c r="M413" s="1"/>
     </row>
     <row r="414" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L414" s="27"/>
+      <c r="L414" s="26"/>
       <c r="M414" s="1"/>
     </row>
     <row r="415" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L415" s="27"/>
+      <c r="L415" s="26"/>
       <c r="M415" s="1"/>
     </row>
     <row r="416" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L416" s="27"/>
+      <c r="L416" s="26"/>
       <c r="M416" s="1"/>
     </row>
     <row r="417" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L417" s="27"/>
+      <c r="L417" s="26"/>
       <c r="M417" s="1"/>
     </row>
     <row r="418" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L418" s="27"/>
+      <c r="L418" s="26"/>
       <c r="M418" s="1"/>
     </row>
     <row r="419" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L419" s="27"/>
+      <c r="L419" s="26"/>
       <c r="M419" s="1"/>
     </row>
     <row r="420" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L420" s="27"/>
+      <c r="L420" s="26"/>
       <c r="M420" s="1"/>
     </row>
     <row r="421" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L421" s="27"/>
+      <c r="L421" s="26"/>
       <c r="M421" s="1"/>
     </row>
     <row r="422" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L422" s="27"/>
+      <c r="L422" s="26"/>
       <c r="M422" s="1"/>
     </row>
     <row r="423" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L423" s="27"/>
+      <c r="L423" s="26"/>
       <c r="M423" s="1"/>
     </row>
     <row r="424" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L424" s="27"/>
+      <c r="L424" s="26"/>
       <c r="M424" s="1"/>
     </row>
     <row r="425" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L425" s="27"/>
+      <c r="L425" s="26"/>
       <c r="M425" s="1"/>
     </row>
     <row r="426" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L426" s="27"/>
+      <c r="L426" s="26"/>
       <c r="M426" s="1"/>
     </row>
     <row r="427" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L427" s="27"/>
+      <c r="L427" s="26"/>
       <c r="M427" s="1"/>
     </row>
     <row r="428" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L428" s="27"/>
+      <c r="L428" s="26"/>
       <c r="M428" s="1"/>
     </row>
     <row r="429" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L429" s="27"/>
+      <c r="L429" s="26"/>
       <c r="M429" s="1"/>
     </row>
     <row r="430" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L430" s="27"/>
+      <c r="L430" s="26"/>
       <c r="M430" s="1"/>
     </row>
     <row r="431" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L431" s="27"/>
+      <c r="L431" s="26"/>
       <c r="M431" s="1"/>
     </row>
     <row r="432" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L432" s="27"/>
+      <c r="L432" s="26"/>
       <c r="M432" s="1"/>
     </row>
     <row r="433" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L433" s="27"/>
+      <c r="L433" s="26"/>
       <c r="M433" s="1"/>
     </row>
     <row r="434" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L434" s="27"/>
+      <c r="L434" s="26"/>
       <c r="M434" s="1"/>
     </row>
     <row r="435" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L435" s="27"/>
+      <c r="L435" s="26"/>
       <c r="M435" s="1"/>
     </row>
     <row r="436" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L436" s="27"/>
+      <c r="L436" s="26"/>
       <c r="M436" s="1"/>
     </row>
     <row r="437" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L437" s="27"/>
+      <c r="L437" s="26"/>
       <c r="M437" s="1"/>
     </row>
     <row r="438" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L438" s="27"/>
+      <c r="L438" s="26"/>
       <c r="M438" s="1"/>
     </row>
     <row r="439" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L439" s="27"/>
+      <c r="L439" s="26"/>
       <c r="M439" s="1"/>
     </row>
     <row r="440" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L440" s="27"/>
+      <c r="L440" s="26"/>
       <c r="M440" s="1"/>
     </row>
     <row r="441" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L441" s="27"/>
+      <c r="L441" s="26"/>
       <c r="M441" s="1"/>
     </row>
     <row r="442" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L442" s="27"/>
+      <c r="L442" s="26"/>
       <c r="M442" s="1"/>
     </row>
     <row r="443" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L443" s="27"/>
+      <c r="L443" s="26"/>
       <c r="M443" s="1"/>
     </row>
     <row r="444" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L444" s="27"/>
+      <c r="L444" s="26"/>
       <c r="M444" s="1"/>
     </row>
     <row r="445" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L445" s="27"/>
+      <c r="L445" s="26"/>
       <c r="M445" s="1"/>
     </row>
     <row r="446" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L446" s="27"/>
+      <c r="L446" s="26"/>
       <c r="M446" s="1"/>
     </row>
     <row r="447" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L447" s="27"/>
+      <c r="L447" s="26"/>
       <c r="M447" s="1"/>
     </row>
     <row r="448" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L448" s="27"/>
+      <c r="L448" s="26"/>
       <c r="M448" s="1"/>
     </row>
     <row r="449" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L449" s="27"/>
+      <c r="L449" s="26"/>
       <c r="M449" s="1"/>
     </row>
     <row r="450" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L450" s="27"/>
+      <c r="L450" s="26"/>
       <c r="M450" s="1"/>
     </row>
     <row r="451" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L451" s="27"/>
+      <c r="L451" s="26"/>
       <c r="M451" s="1"/>
     </row>
     <row r="452" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L452" s="27"/>
+      <c r="L452" s="26"/>
       <c r="M452" s="1"/>
     </row>
     <row r="453" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L453" s="27"/>
+      <c r="L453" s="26"/>
       <c r="M453" s="1"/>
     </row>
     <row r="454" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L454" s="27"/>
+      <c r="L454" s="26"/>
       <c r="M454" s="1"/>
     </row>
     <row r="455" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L455" s="27"/>
+      <c r="L455" s="26"/>
       <c r="M455" s="1"/>
     </row>
     <row r="456" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L456" s="27"/>
+      <c r="L456" s="26"/>
       <c r="M456" s="1"/>
     </row>
     <row r="457" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L457" s="27"/>
+      <c r="L457" s="26"/>
       <c r="M457" s="1"/>
     </row>
     <row r="458" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L458" s="27"/>
+      <c r="L458" s="26"/>
       <c r="M458" s="1"/>
     </row>
     <row r="459" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L459" s="27"/>
+      <c r="L459" s="26"/>
       <c r="M459" s="1"/>
     </row>
     <row r="460" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L460" s="27"/>
+      <c r="L460" s="26"/>
       <c r="M460" s="1"/>
     </row>
     <row r="461" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L461" s="27"/>
+      <c r="L461" s="26"/>
       <c r="M461" s="1"/>
     </row>
     <row r="462" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L462" s="27"/>
+      <c r="L462" s="26"/>
       <c r="M462" s="1"/>
     </row>
     <row r="463" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L463" s="27"/>
+      <c r="L463" s="26"/>
       <c r="M463" s="1"/>
     </row>
     <row r="464" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L464" s="27"/>
+      <c r="L464" s="26"/>
       <c r="M464" s="1"/>
     </row>
     <row r="465" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L465" s="27"/>
+      <c r="L465" s="26"/>
       <c r="M465" s="1"/>
     </row>
     <row r="466" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L466" s="27"/>
+      <c r="L466" s="26"/>
       <c r="M466" s="1"/>
     </row>
     <row r="467" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L467" s="27"/>
+      <c r="L467" s="26"/>
       <c r="M467" s="1"/>
     </row>
     <row r="468" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L468" s="27"/>
+      <c r="L468" s="26"/>
       <c r="M468" s="1"/>
     </row>
     <row r="469" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L469" s="27"/>
+      <c r="L469" s="26"/>
       <c r="M469" s="1"/>
     </row>
     <row r="470" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L470" s="27"/>
+      <c r="L470" s="26"/>
       <c r="M470" s="1"/>
     </row>
     <row r="471" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L471" s="27"/>
+      <c r="L471" s="26"/>
       <c r="M471" s="1"/>
     </row>
     <row r="472" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L472" s="27"/>
+      <c r="L472" s="26"/>
       <c r="M472" s="1"/>
     </row>
     <row r="473" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L473" s="27"/>
+      <c r="L473" s="26"/>
       <c r="M473" s="1"/>
     </row>
     <row r="474" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L474" s="27"/>
+      <c r="L474" s="26"/>
       <c r="M474" s="1"/>
     </row>
     <row r="475" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L475" s="27"/>
+      <c r="L475" s="26"/>
       <c r="M475" s="1"/>
     </row>
     <row r="476" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L476" s="27"/>
+      <c r="L476" s="26"/>
       <c r="M476" s="1"/>
     </row>
     <row r="477" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L477" s="27"/>
+      <c r="L477" s="26"/>
       <c r="M477" s="1"/>
     </row>
     <row r="478" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L478" s="27"/>
+      <c r="L478" s="26"/>
       <c r="M478" s="1"/>
     </row>
     <row r="479" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L479" s="27"/>
+      <c r="L479" s="26"/>
       <c r="M479" s="1"/>
     </row>
     <row r="480" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L480" s="27"/>
+      <c r="L480" s="26"/>
       <c r="M480" s="1"/>
     </row>
     <row r="481" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L481" s="27"/>
+      <c r="L481" s="26"/>
       <c r="M481" s="1"/>
     </row>
     <row r="482" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L482" s="27"/>
+      <c r="L482" s="26"/>
       <c r="M482" s="1"/>
     </row>
     <row r="483" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L483" s="27"/>
+      <c r="L483" s="26"/>
       <c r="M483" s="1"/>
     </row>
     <row r="484" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L484" s="27"/>
+      <c r="L484" s="26"/>
       <c r="M484" s="1"/>
     </row>
     <row r="485" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L485" s="27"/>
+      <c r="L485" s="26"/>
       <c r="M485" s="1"/>
     </row>
     <row r="486" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L486" s="27"/>
+      <c r="L486" s="26"/>
       <c r="M486" s="1"/>
     </row>
     <row r="487" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L487" s="27"/>
+      <c r="L487" s="26"/>
       <c r="M487" s="1"/>
     </row>
     <row r="488" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L488" s="27"/>
+      <c r="L488" s="26"/>
       <c r="M488" s="1"/>
     </row>
     <row r="489" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L489" s="27"/>
+      <c r="L489" s="26"/>
       <c r="M489" s="1"/>
     </row>
     <row r="490" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L490" s="27"/>
+      <c r="L490" s="26"/>
       <c r="M490" s="1"/>
     </row>
     <row r="491" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L491" s="27"/>
+      <c r="L491" s="26"/>
       <c r="M491" s="1"/>
     </row>
     <row r="492" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L492" s="27"/>
+      <c r="L492" s="26"/>
       <c r="M492" s="1"/>
     </row>
     <row r="493" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L493" s="27"/>
+      <c r="L493" s="26"/>
       <c r="M493" s="1"/>
     </row>
     <row r="494" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L494" s="27"/>
+      <c r="L494" s="26"/>
       <c r="M494" s="1"/>
     </row>
     <row r="495" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L495" s="27"/>
+      <c r="L495" s="26"/>
       <c r="M495" s="1"/>
     </row>
     <row r="496" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L496" s="27"/>
+      <c r="L496" s="26"/>
       <c r="M496" s="1"/>
     </row>
     <row r="497" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L497" s="27"/>
+      <c r="L497" s="26"/>
       <c r="M497" s="1"/>
     </row>
     <row r="498" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L498" s="27"/>
+      <c r="L498" s="26"/>
       <c r="M498" s="1"/>
     </row>
     <row r="499" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L499" s="27"/>
+      <c r="L499" s="26"/>
       <c r="M499" s="1"/>
     </row>
     <row r="500" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L500" s="27"/>
+      <c r="L500" s="26"/>
       <c r="M500" s="1"/>
     </row>
     <row r="501" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L501" s="27"/>
+      <c r="L501" s="26"/>
       <c r="M501" s="1"/>
     </row>
     <row r="502" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L502" s="27"/>
+      <c r="L502" s="26"/>
       <c r="M502" s="1"/>
     </row>
     <row r="503" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L503" s="27"/>
+      <c r="L503" s="26"/>
       <c r="M503" s="1"/>
     </row>
     <row r="504" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L504" s="27"/>
+      <c r="L504" s="26"/>
       <c r="M504" s="1"/>
     </row>
     <row r="505" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L505" s="27"/>
+      <c r="L505" s="26"/>
       <c r="M505" s="1"/>
     </row>
     <row r="506" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L506" s="27"/>
+      <c r="L506" s="26"/>
       <c r="M506" s="1"/>
     </row>
     <row r="507" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L507" s="27"/>
+      <c r="L507" s="26"/>
       <c r="M507" s="1"/>
     </row>
     <row r="508" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L508" s="27"/>
+      <c r="L508" s="26"/>
       <c r="M508" s="1"/>
     </row>
     <row r="509" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L509" s="27"/>
+      <c r="L509" s="26"/>
       <c r="M509" s="1"/>
     </row>
     <row r="510" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L510" s="27"/>
+      <c r="L510" s="26"/>
       <c r="M510" s="1"/>
     </row>
     <row r="511" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L511" s="27"/>
+      <c r="L511" s="26"/>
       <c r="M511" s="1"/>
     </row>
     <row r="512" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L512" s="27"/>
+      <c r="L512" s="26"/>
       <c r="M512" s="1"/>
     </row>
     <row r="513" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L513" s="27"/>
+      <c r="L513" s="26"/>
       <c r="M513" s="1"/>
     </row>
     <row r="514" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L514" s="27"/>
+      <c r="L514" s="26"/>
       <c r="M514" s="1"/>
     </row>
     <row r="515" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L515" s="27"/>
+      <c r="L515" s="26"/>
       <c r="M515" s="1"/>
     </row>
     <row r="516" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L516" s="27"/>
+      <c r="L516" s="26"/>
       <c r="M516" s="1"/>
     </row>
     <row r="517" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L517" s="27"/>
+      <c r="L517" s="26"/>
       <c r="M517" s="1"/>
     </row>
     <row r="518" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L518" s="27"/>
+      <c r="L518" s="26"/>
       <c r="M518" s="1"/>
     </row>
     <row r="519" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L519" s="27"/>
+      <c r="L519" s="26"/>
       <c r="M519" s="1"/>
     </row>
     <row r="520" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L520" s="27"/>
+      <c r="L520" s="26"/>
       <c r="M520" s="1"/>
     </row>
     <row r="521" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L521" s="27"/>
+      <c r="L521" s="26"/>
       <c r="M521" s="1"/>
     </row>
     <row r="522" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L522" s="27"/>
+      <c r="L522" s="26"/>
       <c r="M522" s="1"/>
     </row>
     <row r="523" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L523" s="27"/>
+      <c r="L523" s="26"/>
       <c r="M523" s="1"/>
     </row>
     <row r="524" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L524" s="27"/>
+      <c r="L524" s="26"/>
       <c r="M524" s="1"/>
     </row>
     <row r="525" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L525" s="27"/>
+      <c r="L525" s="26"/>
       <c r="M525" s="1"/>
     </row>
     <row r="526" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L526" s="27"/>
+      <c r="L526" s="26"/>
       <c r="M526" s="1"/>
     </row>
     <row r="527" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L527" s="27"/>
+      <c r="L527" s="26"/>
       <c r="M527" s="1"/>
     </row>
     <row r="528" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L528" s="27"/>
+      <c r="L528" s="26"/>
       <c r="M528" s="1"/>
     </row>
     <row r="529" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L529" s="27"/>
+      <c r="L529" s="26"/>
       <c r="M529" s="1"/>
     </row>
     <row r="530" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L530" s="27"/>
+      <c r="L530" s="26"/>
       <c r="M530" s="1"/>
     </row>
     <row r="531" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L531" s="27"/>
+      <c r="L531" s="26"/>
       <c r="M531" s="1"/>
     </row>
     <row r="532" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L532" s="27"/>
+      <c r="L532" s="26"/>
       <c r="M532" s="1"/>
     </row>
     <row r="533" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L533" s="27"/>
+      <c r="L533" s="26"/>
       <c r="M533" s="1"/>
     </row>
     <row r="534" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L534" s="27"/>
+      <c r="L534" s="26"/>
       <c r="M534" s="1"/>
     </row>
     <row r="535" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L535" s="27"/>
+      <c r="L535" s="26"/>
       <c r="M535" s="1"/>
     </row>
     <row r="536" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L536" s="27"/>
+      <c r="L536" s="26"/>
       <c r="M536" s="1"/>
     </row>
     <row r="537" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L537" s="27"/>
+      <c r="L537" s="26"/>
       <c r="M537" s="1"/>
     </row>
     <row r="538" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L538" s="27"/>
+      <c r="L538" s="26"/>
       <c r="M538" s="1"/>
     </row>
     <row r="539" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L539" s="27"/>
+      <c r="L539" s="26"/>
       <c r="M539" s="1"/>
     </row>
     <row r="540" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L540" s="27"/>
+      <c r="L540" s="26"/>
       <c r="M540" s="1"/>
     </row>
     <row r="541" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L541" s="27"/>
+      <c r="L541" s="26"/>
       <c r="M541" s="1"/>
     </row>
     <row r="542" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L542" s="27"/>
+      <c r="L542" s="26"/>
       <c r="M542" s="1"/>
     </row>
     <row r="543" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L543" s="27"/>
+      <c r="L543" s="26"/>
       <c r="M543" s="1"/>
     </row>
     <row r="544" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L544" s="27"/>
+      <c r="L544" s="26"/>
       <c r="M544" s="1"/>
     </row>
     <row r="545" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L545" s="27"/>
+      <c r="L545" s="26"/>
       <c r="M545" s="1"/>
     </row>
     <row r="546" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L546" s="27"/>
+      <c r="L546" s="26"/>
       <c r="M546" s="1"/>
     </row>
     <row r="547" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L547" s="27"/>
+      <c r="L547" s="26"/>
       <c r="M547" s="1"/>
     </row>
     <row r="548" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L548" s="27"/>
+      <c r="L548" s="26"/>
       <c r="M548" s="1"/>
     </row>
     <row r="549" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L549" s="27"/>
+      <c r="L549" s="26"/>
       <c r="M549" s="1"/>
     </row>
     <row r="550" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L550" s="27"/>
+      <c r="L550" s="26"/>
       <c r="M550" s="1"/>
     </row>
     <row r="551" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L551" s="27"/>
+      <c r="L551" s="26"/>
       <c r="M551" s="1"/>
     </row>
     <row r="552" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L552" s="27"/>
+      <c r="L552" s="26"/>
       <c r="M552" s="1"/>
     </row>
     <row r="553" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L553" s="27"/>
+      <c r="L553" s="26"/>
       <c r="M553" s="1"/>
     </row>
     <row r="554" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L554" s="27"/>
+      <c r="L554" s="26"/>
       <c r="M554" s="1"/>
     </row>
     <row r="555" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L555" s="27"/>
+      <c r="L555" s="26"/>
       <c r="M555" s="1"/>
     </row>
     <row r="556" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L556" s="27"/>
+      <c r="L556" s="26"/>
       <c r="M556" s="1"/>
     </row>
     <row r="557" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L557" s="27"/>
+      <c r="L557" s="26"/>
       <c r="M557" s="1"/>
     </row>
     <row r="558" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L558" s="27"/>
+      <c r="L558" s="26"/>
       <c r="M558" s="1"/>
     </row>
     <row r="559" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L559" s="27"/>
+      <c r="L559" s="26"/>
       <c r="M559" s="1"/>
     </row>
     <row r="560" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L560" s="27"/>
+      <c r="L560" s="26"/>
       <c r="M560" s="1"/>
     </row>
     <row r="561" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L561" s="27"/>
+      <c r="L561" s="26"/>
       <c r="M561" s="1"/>
     </row>
     <row r="562" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L562" s="27"/>
+      <c r="L562" s="26"/>
       <c r="M562" s="1"/>
     </row>
     <row r="563" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L563" s="27"/>
+      <c r="L563" s="26"/>
       <c r="M563" s="1"/>
     </row>
     <row r="564" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L564" s="27"/>
+      <c r="L564" s="26"/>
       <c r="M564" s="1"/>
     </row>
     <row r="565" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L565" s="27"/>
+      <c r="L565" s="26"/>
       <c r="M565" s="1"/>
     </row>
     <row r="566" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L566" s="27"/>
+      <c r="L566" s="26"/>
       <c r="M566" s="1"/>
     </row>
     <row r="567" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L567" s="27"/>
+      <c r="L567" s="26"/>
       <c r="M567" s="1"/>
     </row>
     <row r="568" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L568" s="27"/>
+      <c r="L568" s="26"/>
       <c r="M568" s="1"/>
     </row>
     <row r="569" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L569" s="27"/>
+      <c r="L569" s="26"/>
       <c r="M569" s="1"/>
     </row>
     <row r="570" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L570" s="27"/>
+      <c r="L570" s="26"/>
       <c r="M570" s="1"/>
     </row>
     <row r="571" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L571" s="27"/>
+      <c r="L571" s="26"/>
       <c r="M571" s="1"/>
     </row>
     <row r="572" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L572" s="27"/>
+      <c r="L572" s="26"/>
       <c r="M572" s="1"/>
     </row>
     <row r="573" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L573" s="27"/>
+      <c r="L573" s="26"/>
       <c r="M573" s="1"/>
     </row>
     <row r="574" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L574" s="27"/>
+      <c r="L574" s="26"/>
       <c r="M574" s="1"/>
     </row>
     <row r="575" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L575" s="27"/>
+      <c r="L575" s="26"/>
       <c r="M575" s="1"/>
     </row>
     <row r="576" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L576" s="27"/>
+      <c r="L576" s="26"/>
       <c r="M576" s="1"/>
     </row>
     <row r="577" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L577" s="27"/>
+      <c r="L577" s="26"/>
       <c r="M577" s="1"/>
     </row>
     <row r="578" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L578" s="27"/>
+      <c r="L578" s="26"/>
       <c r="M578" s="1"/>
     </row>
     <row r="579" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L579" s="27"/>
+      <c r="L579" s="26"/>
       <c r="M579" s="1"/>
     </row>
     <row r="580" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L580" s="27"/>
+      <c r="L580" s="26"/>
       <c r="M580" s="1"/>
     </row>
     <row r="581" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L581" s="27"/>
+      <c r="L581" s="26"/>
       <c r="M581" s="1"/>
     </row>
     <row r="582" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L582" s="27"/>
+      <c r="L582" s="26"/>
       <c r="M582" s="1"/>
     </row>
     <row r="583" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L583" s="27"/>
+      <c r="L583" s="26"/>
       <c r="M583" s="1"/>
     </row>
     <row r="584" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L584" s="27"/>
+      <c r="L584" s="26"/>
       <c r="M584" s="1"/>
     </row>
     <row r="585" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L585" s="27"/>
+      <c r="L585" s="26"/>
       <c r="M585" s="1"/>
     </row>
     <row r="586" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L586" s="27"/>
+      <c r="L586" s="26"/>
       <c r="M586" s="1"/>
     </row>
     <row r="587" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L587" s="27"/>
+      <c r="L587" s="26"/>
       <c r="M587" s="1"/>
     </row>
     <row r="588" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L588" s="27"/>
+      <c r="L588" s="26"/>
       <c r="M588" s="1"/>
     </row>
     <row r="589" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L589" s="27"/>
+      <c r="L589" s="26"/>
       <c r="M589" s="1"/>
     </row>
     <row r="590" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L590" s="27"/>
+      <c r="L590" s="26"/>
       <c r="M590" s="1"/>
     </row>
     <row r="591" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L591" s="27"/>
+      <c r="L591" s="26"/>
       <c r="M591" s="1"/>
     </row>
     <row r="592" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L592" s="27"/>
+      <c r="L592" s="26"/>
       <c r="M592" s="1"/>
     </row>
     <row r="593" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L593" s="27"/>
+      <c r="L593" s="26"/>
       <c r="M593" s="1"/>
     </row>
     <row r="594" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L594" s="27"/>
+      <c r="L594" s="26"/>
       <c r="M594" s="1"/>
     </row>
     <row r="595" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L595" s="27"/>
+      <c r="L595" s="26"/>
       <c r="M595" s="1"/>
     </row>
     <row r="596" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L596" s="27"/>
+      <c r="L596" s="26"/>
       <c r="M596" s="1"/>
     </row>
     <row r="597" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L597" s="27"/>
+      <c r="L597" s="26"/>
       <c r="M597" s="1"/>
     </row>
     <row r="598" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L598" s="27"/>
+      <c r="L598" s="26"/>
       <c r="M598" s="1"/>
     </row>
     <row r="599" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L599" s="27"/>
+      <c r="L599" s="26"/>
       <c r="M599" s="1"/>
     </row>
     <row r="600" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L600" s="27"/>
+      <c r="L600" s="26"/>
       <c r="M600" s="1"/>
     </row>
     <row r="601" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L601" s="27"/>
+      <c r="L601" s="26"/>
       <c r="M601" s="1"/>
     </row>
     <row r="602" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L602" s="27"/>
+      <c r="L602" s="26"/>
       <c r="M602" s="1"/>
     </row>
     <row r="603" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L603" s="27"/>
+      <c r="L603" s="26"/>
       <c r="M603" s="1"/>
     </row>
     <row r="604" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L604" s="27"/>
+      <c r="L604" s="26"/>
       <c r="M604" s="1"/>
     </row>
     <row r="605" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L605" s="27"/>
+      <c r="L605" s="26"/>
       <c r="M605" s="1"/>
     </row>
     <row r="606" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L606" s="27"/>
+      <c r="L606" s="26"/>
       <c r="M606" s="1"/>
     </row>
     <row r="607" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L607" s="27"/>
+      <c r="L607" s="26"/>
       <c r="M607" s="1"/>
     </row>
     <row r="608" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L608" s="27"/>
+      <c r="L608" s="26"/>
       <c r="M608" s="1"/>
     </row>
     <row r="609" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L609" s="27"/>
+      <c r="L609" s="26"/>
       <c r="M609" s="1"/>
     </row>
     <row r="610" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L610" s="27"/>
+      <c r="L610" s="26"/>
       <c r="M610" s="1"/>
     </row>
     <row r="611" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L611" s="27"/>
+      <c r="L611" s="26"/>
       <c r="M611" s="1"/>
     </row>
     <row r="612" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L612" s="27"/>
+      <c r="L612" s="26"/>
       <c r="M612" s="1"/>
     </row>
     <row r="613" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L613" s="27"/>
+      <c r="L613" s="26"/>
       <c r="M613" s="1"/>
     </row>
     <row r="614" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L614" s="27"/>
+      <c r="L614" s="26"/>
       <c r="M614" s="1"/>
     </row>
     <row r="615" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L615" s="27"/>
+      <c r="L615" s="26"/>
       <c r="M615" s="1"/>
     </row>
     <row r="616" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L616" s="27"/>
+      <c r="L616" s="26"/>
       <c r="M616" s="1"/>
     </row>
     <row r="617" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L617" s="27"/>
+      <c r="L617" s="26"/>
       <c r="M617" s="1"/>
     </row>
     <row r="618" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L618" s="27"/>
+      <c r="L618" s="26"/>
       <c r="M618" s="1"/>
     </row>
     <row r="619" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L619" s="27"/>
+      <c r="L619" s="26"/>
       <c r="M619" s="1"/>
     </row>
     <row r="620" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L620" s="27"/>
+      <c r="L620" s="26"/>
       <c r="M620" s="1"/>
     </row>
     <row r="621" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L621" s="27"/>
+      <c r="L621" s="26"/>
       <c r="M621" s="1"/>
     </row>
     <row r="622" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L622" s="27"/>
+      <c r="L622" s="26"/>
       <c r="M622" s="1"/>
     </row>
     <row r="623" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L623" s="27"/>
+      <c r="L623" s="26"/>
       <c r="M623" s="1"/>
     </row>
     <row r="624" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L624" s="27"/>
+      <c r="L624" s="26"/>
       <c r="M624" s="1"/>
     </row>
     <row r="625" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L625" s="27"/>
+      <c r="L625" s="26"/>
       <c r="M625" s="1"/>
     </row>
     <row r="626" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L626" s="27"/>
+      <c r="L626" s="26"/>
       <c r="M626" s="1"/>
     </row>
     <row r="627" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L627" s="27"/>
+      <c r="L627" s="26"/>
       <c r="M627" s="1"/>
     </row>
     <row r="628" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L628" s="27"/>
+      <c r="L628" s="26"/>
       <c r="M628" s="1"/>
     </row>
     <row r="629" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L629" s="27"/>
+      <c r="L629" s="26"/>
       <c r="M629" s="1"/>
     </row>
     <row r="630" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L630" s="27"/>
+      <c r="L630" s="26"/>
       <c r="M630" s="1"/>
     </row>
     <row r="631" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L631" s="27"/>
+      <c r="L631" s="26"/>
       <c r="M631" s="1"/>
     </row>
     <row r="632" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L632" s="27"/>
+      <c r="L632" s="26"/>
       <c r="M632" s="1"/>
     </row>
     <row r="633" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L633" s="27"/>
+      <c r="L633" s="26"/>
       <c r="M633" s="1"/>
     </row>
     <row r="634" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L634" s="27"/>
+      <c r="L634" s="26"/>
       <c r="M634" s="1"/>
     </row>
     <row r="635" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L635" s="27"/>
+      <c r="L635" s="26"/>
       <c r="M635" s="1"/>
     </row>
     <row r="636" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L636" s="27"/>
+      <c r="L636" s="26"/>
       <c r="M636" s="1"/>
     </row>
     <row r="637" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L637" s="27"/>
+      <c r="L637" s="26"/>
       <c r="M637" s="1"/>
     </row>
     <row r="638" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L638" s="27"/>
+      <c r="L638" s="26"/>
       <c r="M638" s="1"/>
     </row>
     <row r="639" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L639" s="27"/>
+      <c r="L639" s="26"/>
       <c r="M639" s="1"/>
     </row>
     <row r="640" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L640" s="27"/>
+      <c r="L640" s="26"/>
       <c r="M640" s="1"/>
     </row>
     <row r="641" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L641" s="27"/>
+      <c r="L641" s="26"/>
       <c r="M641" s="1"/>
     </row>
     <row r="642" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L642" s="27"/>
+      <c r="L642" s="26"/>
       <c r="M642" s="1"/>
     </row>
     <row r="643" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L643" s="27"/>
+      <c r="L643" s="26"/>
       <c r="M643" s="1"/>
     </row>
     <row r="644" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L644" s="27"/>
+      <c r="L644" s="26"/>
       <c r="M644" s="1"/>
     </row>
     <row r="645" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L645" s="27"/>
+      <c r="L645" s="26"/>
       <c r="M645" s="1"/>
     </row>
     <row r="646" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L646" s="27"/>
+      <c r="L646" s="26"/>
       <c r="M646" s="1"/>
     </row>
     <row r="647" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L647" s="27"/>
+      <c r="L647" s="26"/>
       <c r="M647" s="1"/>
     </row>
     <row r="648" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L648" s="27"/>
+      <c r="L648" s="26"/>
       <c r="M648" s="1"/>
     </row>
     <row r="649" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L649" s="27"/>
+      <c r="L649" s="26"/>
       <c r="M649" s="1"/>
     </row>
     <row r="650" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L650" s="27"/>
+      <c r="L650" s="26"/>
       <c r="M650" s="1"/>
     </row>
     <row r="651" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L651" s="27"/>
+      <c r="L651" s="26"/>
       <c r="M651" s="1"/>
     </row>
     <row r="652" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L652" s="27"/>
+      <c r="L652" s="26"/>
       <c r="M652" s="1"/>
     </row>
     <row r="653" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L653" s="27"/>
+      <c r="L653" s="26"/>
       <c r="M653" s="1"/>
     </row>
     <row r="654" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L654" s="27"/>
+      <c r="L654" s="26"/>
       <c r="M654" s="1"/>
     </row>
     <row r="655" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L655" s="27"/>
+      <c r="L655" s="26"/>
       <c r="M655" s="1"/>
     </row>
     <row r="656" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L656" s="27"/>
+      <c r="L656" s="26"/>
       <c r="M656" s="1"/>
     </row>
     <row r="657" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L657" s="27"/>
+      <c r="L657" s="26"/>
       <c r="M657" s="1"/>
     </row>
     <row r="658" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L658" s="27"/>
+      <c r="L658" s="26"/>
       <c r="M658" s="1"/>
     </row>
     <row r="659" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L659" s="27"/>
+      <c r="L659" s="26"/>
       <c r="M659" s="1"/>
     </row>
     <row r="660" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L660" s="27"/>
+      <c r="L660" s="26"/>
       <c r="M660" s="1"/>
     </row>
     <row r="661" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L661" s="27"/>
+      <c r="L661" s="26"/>
       <c r="M661" s="1"/>
     </row>
     <row r="662" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L662" s="27"/>
+      <c r="L662" s="26"/>
       <c r="M662" s="1"/>
     </row>
     <row r="663" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L663" s="27"/>
+      <c r="L663" s="26"/>
       <c r="M663" s="1"/>
     </row>
     <row r="664" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L664" s="27"/>
+      <c r="L664" s="26"/>
       <c r="M664" s="1"/>
     </row>
     <row r="665" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L665" s="27"/>
+      <c r="L665" s="26"/>
       <c r="M665" s="1"/>
     </row>
     <row r="666" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L666" s="27"/>
+      <c r="L666" s="26"/>
       <c r="M666" s="1"/>
     </row>
     <row r="667" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L667" s="27"/>
+      <c r="L667" s="26"/>
       <c r="M667" s="1"/>
     </row>
     <row r="668" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L668" s="27"/>
+      <c r="L668" s="26"/>
       <c r="M668" s="1"/>
     </row>
     <row r="669" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L669" s="27"/>
+      <c r="L669" s="26"/>
       <c r="M669" s="1"/>
     </row>
     <row r="670" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L670" s="27"/>
+      <c r="L670" s="26"/>
       <c r="M670" s="1"/>
     </row>
     <row r="671" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L671" s="27"/>
+      <c r="L671" s="26"/>
       <c r="M671" s="1"/>
     </row>
     <row r="672" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L672" s="27"/>
+      <c r="L672" s="26"/>
       <c r="M672" s="1"/>
     </row>
     <row r="673" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L673" s="27"/>
+      <c r="L673" s="26"/>
       <c r="M673" s="1"/>
     </row>
     <row r="674" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L674" s="27"/>
+      <c r="L674" s="26"/>
       <c r="M674" s="1"/>
     </row>
     <row r="675" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L675" s="27"/>
+      <c r="L675" s="26"/>
       <c r="M675" s="1"/>
     </row>
     <row r="676" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L676" s="27"/>
+      <c r="L676" s="26"/>
       <c r="M676" s="1"/>
     </row>
     <row r="677" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L677" s="27"/>
+      <c r="L677" s="26"/>
       <c r="M677" s="1"/>
     </row>
     <row r="678" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L678" s="27"/>
+      <c r="L678" s="26"/>
       <c r="M678" s="1"/>
     </row>
     <row r="679" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L679" s="27"/>
+      <c r="L679" s="26"/>
       <c r="M679" s="1"/>
     </row>
     <row r="680" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L680" s="27"/>
+      <c r="L680" s="26"/>
       <c r="M680" s="1"/>
     </row>
     <row r="681" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L681" s="27"/>
+      <c r="L681" s="26"/>
       <c r="M681" s="1"/>
     </row>
     <row r="682" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L682" s="27"/>
+      <c r="L682" s="26"/>
       <c r="M682" s="1"/>
     </row>
     <row r="683" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L683" s="27"/>
+      <c r="L683" s="26"/>
       <c r="M683" s="1"/>
     </row>
     <row r="684" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L684" s="27"/>
+      <c r="L684" s="26"/>
       <c r="M684" s="1"/>
     </row>
     <row r="685" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L685" s="27"/>
+      <c r="L685" s="26"/>
       <c r="M685" s="1"/>
     </row>
     <row r="686" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L686" s="27"/>
+      <c r="L686" s="26"/>
       <c r="M686" s="1"/>
     </row>
     <row r="687" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L687" s="27"/>
+      <c r="L687" s="26"/>
       <c r="M687" s="1"/>
     </row>
     <row r="688" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L688" s="27"/>
+      <c r="L688" s="26"/>
       <c r="M688" s="1"/>
     </row>
     <row r="689" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L689" s="27"/>
+      <c r="L689" s="26"/>
       <c r="M689" s="1"/>
     </row>
     <row r="690" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L690" s="27"/>
+      <c r="L690" s="26"/>
       <c r="M690" s="1"/>
     </row>
     <row r="691" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L691" s="27"/>
+      <c r="L691" s="26"/>
       <c r="M691" s="1"/>
     </row>
     <row r="692" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L692" s="27"/>
+      <c r="L692" s="26"/>
       <c r="M692" s="1"/>
     </row>
     <row r="693" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L693" s="27"/>
+      <c r="L693" s="26"/>
       <c r="M693" s="1"/>
     </row>
     <row r="694" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L694" s="27"/>
+      <c r="L694" s="26"/>
       <c r="M694" s="1"/>
     </row>
     <row r="695" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L695" s="27"/>
+      <c r="L695" s="26"/>
       <c r="M695" s="1"/>
     </row>
     <row r="696" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L696" s="27"/>
+      <c r="L696" s="26"/>
       <c r="M696" s="1"/>
     </row>
     <row r="697" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L697" s="27"/>
+      <c r="L697" s="26"/>
       <c r="M697" s="1"/>
     </row>
     <row r="698" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L698" s="27"/>
+      <c r="L698" s="26"/>
       <c r="M698" s="1"/>
     </row>
     <row r="699" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L699" s="27"/>
+      <c r="L699" s="26"/>
       <c r="M699" s="1"/>
     </row>
     <row r="700" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L700" s="27"/>
+      <c r="L700" s="26"/>
       <c r="M700" s="1"/>
     </row>
     <row r="701" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L701" s="27"/>
+      <c r="L701" s="26"/>
       <c r="M701" s="1"/>
     </row>
     <row r="702" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L702" s="27"/>
+      <c r="L702" s="26"/>
       <c r="M702" s="1"/>
     </row>
     <row r="703" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L703" s="27"/>
+      <c r="L703" s="26"/>
       <c r="M703" s="1"/>
     </row>
     <row r="704" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L704" s="27"/>
+      <c r="L704" s="26"/>
       <c r="M704" s="1"/>
     </row>
     <row r="705" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L705" s="27"/>
+      <c r="L705" s="26"/>
       <c r="M705" s="1"/>
     </row>
     <row r="706" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L706" s="27"/>
+      <c r="L706" s="26"/>
       <c r="M706" s="1"/>
     </row>
     <row r="707" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L707" s="27"/>
+      <c r="L707" s="26"/>
       <c r="M707" s="1"/>
     </row>
     <row r="708" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L708" s="27"/>
+      <c r="L708" s="26"/>
       <c r="M708" s="1"/>
     </row>
     <row r="709" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L709" s="27"/>
+      <c r="L709" s="26"/>
       <c r="M709" s="1"/>
     </row>
     <row r="710" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L710" s="27"/>
+      <c r="L710" s="26"/>
       <c r="M710" s="1"/>
     </row>
     <row r="711" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L711" s="27"/>
+      <c r="L711" s="26"/>
       <c r="M711" s="1"/>
     </row>
     <row r="712" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L712" s="27"/>
+      <c r="L712" s="26"/>
       <c r="M712" s="1"/>
     </row>
     <row r="713" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L713" s="27"/>
+      <c r="L713" s="26"/>
       <c r="M713" s="1"/>
     </row>
     <row r="714" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L714" s="27"/>
+      <c r="L714" s="26"/>
       <c r="M714" s="1"/>
     </row>
     <row r="715" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L715" s="27"/>
+      <c r="L715" s="26"/>
       <c r="M715" s="1"/>
     </row>
     <row r="716" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L716" s="27"/>
+      <c r="L716" s="26"/>
       <c r="M716" s="1"/>
     </row>
     <row r="717" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L717" s="27"/>
+      <c r="L717" s="26"/>
       <c r="M717" s="1"/>
     </row>
     <row r="718" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L718" s="27"/>
+      <c r="L718" s="26"/>
       <c r="M718" s="1"/>
     </row>
     <row r="719" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L719" s="27"/>
+      <c r="L719" s="26"/>
       <c r="M719" s="1"/>
     </row>
     <row r="720" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L720" s="27"/>
+      <c r="L720" s="26"/>
       <c r="M720" s="1"/>
     </row>
     <row r="721" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L721" s="27"/>
+      <c r="L721" s="26"/>
       <c r="M721" s="1"/>
     </row>
     <row r="722" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L722" s="27"/>
+      <c r="L722" s="26"/>
       <c r="M722" s="1"/>
     </row>
     <row r="723" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L723" s="27"/>
+      <c r="L723" s="26"/>
       <c r="M723" s="1"/>
     </row>
     <row r="724" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L724" s="27"/>
+      <c r="L724" s="26"/>
       <c r="M724" s="1"/>
     </row>
     <row r="725" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L725" s="27"/>
+      <c r="L725" s="26"/>
       <c r="M725" s="1"/>
     </row>
     <row r="726" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L726" s="27"/>
+      <c r="L726" s="26"/>
       <c r="M726" s="1"/>
     </row>
     <row r="727" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L727" s="27"/>
+      <c r="L727" s="26"/>
       <c r="M727" s="1"/>
     </row>
     <row r="728" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L728" s="27"/>
+      <c r="L728" s="26"/>
       <c r="M728" s="1"/>
     </row>
     <row r="729" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L729" s="27"/>
+      <c r="L729" s="26"/>
       <c r="M729" s="1"/>
     </row>
     <row r="730" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L730" s="27"/>
+      <c r="L730" s="26"/>
       <c r="M730" s="1"/>
     </row>
     <row r="731" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L731" s="27"/>
+      <c r="L731" s="26"/>
       <c r="M731" s="1"/>
     </row>
     <row r="732" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L732" s="27"/>
+      <c r="L732" s="26"/>
       <c r="M732" s="1"/>
     </row>
     <row r="733" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L733" s="27"/>
+      <c r="L733" s="26"/>
       <c r="M733" s="1"/>
     </row>
     <row r="734" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L734" s="27"/>
+      <c r="L734" s="26"/>
       <c r="M734" s="1"/>
     </row>
     <row r="735" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L735" s="27"/>
+      <c r="L735" s="26"/>
       <c r="M735" s="1"/>
     </row>
     <row r="736" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L736" s="27"/>
+      <c r="L736" s="26"/>
       <c r="M736" s="1"/>
     </row>
     <row r="737" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L737" s="27"/>
+      <c r="L737" s="26"/>
       <c r="M737" s="1"/>
     </row>
     <row r="738" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L738" s="27"/>
+      <c r="L738" s="26"/>
       <c r="M738" s="1"/>
     </row>
     <row r="739" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L739" s="27"/>
+      <c r="L739" s="26"/>
       <c r="M739" s="1"/>
     </row>
     <row r="740" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L740" s="27"/>
+      <c r="L740" s="26"/>
       <c r="M740" s="1"/>
     </row>
     <row r="741" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L741" s="27"/>
+      <c r="L741" s="26"/>
       <c r="M741" s="1"/>
     </row>
     <row r="742" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L742" s="27"/>
+      <c r="L742" s="26"/>
       <c r="M742" s="1"/>
     </row>
     <row r="743" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L743" s="27"/>
+      <c r="L743" s="26"/>
       <c r="M743" s="1"/>
     </row>
     <row r="744" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L744" s="27"/>
+      <c r="L744" s="26"/>
       <c r="M744" s="1"/>
     </row>
     <row r="745" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L745" s="27"/>
+      <c r="L745" s="26"/>
       <c r="M745" s="1"/>
     </row>
     <row r="746" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L746" s="27"/>
+      <c r="L746" s="26"/>
       <c r="M746" s="1"/>
     </row>
     <row r="747" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L747" s="27"/>
+      <c r="L747" s="26"/>
       <c r="M747" s="1"/>
     </row>
     <row r="748" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L748" s="27"/>
+      <c r="L748" s="26"/>
       <c r="M748" s="1"/>
     </row>
     <row r="749" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L749" s="27"/>
+      <c r="L749" s="26"/>
       <c r="M749" s="1"/>
     </row>
     <row r="750" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L750" s="27"/>
+      <c r="L750" s="26"/>
       <c r="M750" s="1"/>
     </row>
     <row r="751" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L751" s="27"/>
+      <c r="L751" s="26"/>
       <c r="M751" s="1"/>
     </row>
     <row r="752" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L752" s="27"/>
+      <c r="L752" s="26"/>
       <c r="M752" s="1"/>
     </row>
     <row r="753" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L753" s="27"/>
+      <c r="L753" s="26"/>
       <c r="M753" s="1"/>
     </row>
     <row r="754" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L754" s="27"/>
+      <c r="L754" s="26"/>
       <c r="M754" s="1"/>
     </row>
     <row r="755" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L755" s="27"/>
+      <c r="L755" s="26"/>
       <c r="M755" s="1"/>
     </row>
     <row r="756" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L756" s="27"/>
+      <c r="L756" s="26"/>
       <c r="M756" s="1"/>
     </row>
     <row r="757" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L757" s="27"/>
+      <c r="L757" s="26"/>
       <c r="M757" s="1"/>
     </row>
     <row r="758" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L758" s="27"/>
+      <c r="L758" s="26"/>
       <c r="M758" s="1"/>
     </row>
     <row r="759" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L759" s="27"/>
+      <c r="L759" s="26"/>
       <c r="M759" s="1"/>
     </row>
     <row r="760" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L760" s="27"/>
+      <c r="L760" s="26"/>
       <c r="M760" s="1"/>
     </row>
     <row r="761" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L761" s="27"/>
+      <c r="L761" s="26"/>
       <c r="M761" s="1"/>
     </row>
     <row r="762" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L762" s="27"/>
+      <c r="L762" s="26"/>
       <c r="M762" s="1"/>
     </row>
     <row r="763" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L763" s="27"/>
+      <c r="L763" s="26"/>
       <c r="M763" s="1"/>
     </row>
     <row r="764" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L764" s="27"/>
+      <c r="L764" s="26"/>
       <c r="M764" s="1"/>
     </row>
     <row r="765" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L765" s="27"/>
+      <c r="L765" s="26"/>
       <c r="M765" s="1"/>
     </row>
     <row r="766" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L766" s="27"/>
+      <c r="L766" s="26"/>
       <c r="M766" s="1"/>
     </row>
     <row r="767" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L767" s="27"/>
+      <c r="L767" s="26"/>
       <c r="M767" s="1"/>
     </row>
     <row r="768" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L768" s="27"/>
+      <c r="L768" s="26"/>
       <c r="M768" s="1"/>
     </row>
     <row r="769" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L769" s="27"/>
+      <c r="L769" s="26"/>
       <c r="M769" s="1"/>
     </row>
     <row r="770" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L770" s="27"/>
+      <c r="L770" s="26"/>
       <c r="M770" s="1"/>
     </row>
     <row r="771" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L771" s="27"/>
+      <c r="L771" s="26"/>
       <c r="M771" s="1"/>
     </row>
     <row r="772" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L772" s="27"/>
+      <c r="L772" s="26"/>
       <c r="M772" s="1"/>
     </row>
     <row r="773" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L773" s="27"/>
+      <c r="L773" s="26"/>
       <c r="M773" s="1"/>
     </row>
     <row r="774" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L774" s="27"/>
+      <c r="L774" s="26"/>
       <c r="M774" s="1"/>
     </row>
     <row r="775" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L775" s="27"/>
+      <c r="L775" s="26"/>
       <c r="M775" s="1"/>
     </row>
     <row r="776" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L776" s="27"/>
+      <c r="L776" s="26"/>
       <c r="M776" s="1"/>
     </row>
     <row r="777" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L777" s="27"/>
+      <c r="L777" s="26"/>
       <c r="M777" s="1"/>
     </row>
     <row r="778" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L778" s="27"/>
+      <c r="L778" s="26"/>
       <c r="M778" s="1"/>
     </row>
     <row r="779" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L779" s="27"/>
+      <c r="L779" s="26"/>
       <c r="M779" s="1"/>
     </row>
     <row r="780" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L780" s="27"/>
+      <c r="L780" s="26"/>
       <c r="M780" s="1"/>
     </row>
     <row r="781" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L781" s="27"/>
+      <c r="L781" s="26"/>
       <c r="M781" s="1"/>
     </row>
     <row r="782" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L782" s="27"/>
+      <c r="L782" s="26"/>
       <c r="M782" s="1"/>
     </row>
     <row r="783" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L783" s="27"/>
+      <c r="L783" s="26"/>
       <c r="M783" s="1"/>
     </row>
     <row r="784" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L784" s="27"/>
+      <c r="L784" s="26"/>
       <c r="M784" s="1"/>
     </row>
     <row r="785" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L785" s="27"/>
+      <c r="L785" s="26"/>
       <c r="M785" s="1"/>
     </row>
     <row r="786" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L786" s="27"/>
+      <c r="L786" s="26"/>
       <c r="M786" s="1"/>
     </row>
     <row r="787" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L787" s="27"/>
+      <c r="L787" s="26"/>
       <c r="M787" s="1"/>
     </row>
     <row r="788" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L788" s="27"/>
+      <c r="L788" s="26"/>
       <c r="M788" s="1"/>
     </row>
     <row r="789" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L789" s="27"/>
+      <c r="L789" s="26"/>
       <c r="M789" s="1"/>
     </row>
     <row r="790" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L790" s="27"/>
+      <c r="L790" s="26"/>
       <c r="M790" s="1"/>
     </row>
     <row r="791" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L791" s="27"/>
+      <c r="L791" s="26"/>
       <c r="M791" s="1"/>
     </row>
     <row r="792" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L792" s="27"/>
+      <c r="L792" s="26"/>
       <c r="M792" s="1"/>
     </row>
     <row r="793" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L793" s="27"/>
+      <c r="L793" s="26"/>
       <c r="M793" s="1"/>
     </row>
     <row r="794" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L794" s="27"/>
+      <c r="L794" s="26"/>
       <c r="M794" s="1"/>
     </row>
     <row r="795" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L795" s="27"/>
+      <c r="L795" s="26"/>
       <c r="M795" s="1"/>
     </row>
     <row r="796" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L796" s="27"/>
+      <c r="L796" s="26"/>
       <c r="M796" s="1"/>
     </row>
     <row r="797" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L797" s="27"/>
+      <c r="L797" s="26"/>
       <c r="M797" s="1"/>
     </row>
     <row r="798" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L798" s="27"/>
+      <c r="L798" s="26"/>
       <c r="M798" s="1"/>
     </row>
     <row r="799" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L799" s="27"/>
+      <c r="L799" s="26"/>
       <c r="M799" s="1"/>
     </row>
     <row r="800" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L800" s="27"/>
+      <c r="L800" s="26"/>
       <c r="M800" s="1"/>
     </row>
     <row r="801" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L801" s="27"/>
+      <c r="L801" s="26"/>
       <c r="M801" s="1"/>
     </row>
     <row r="802" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L802" s="27"/>
+      <c r="L802" s="26"/>
       <c r="M802" s="1"/>
     </row>
     <row r="803" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L803" s="27"/>
+      <c r="L803" s="26"/>
       <c r="M803" s="1"/>
     </row>
     <row r="804" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L804" s="27"/>
+      <c r="L804" s="26"/>
       <c r="M804" s="1"/>
     </row>
     <row r="805" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L805" s="27"/>
+      <c r="L805" s="26"/>
       <c r="M805" s="1"/>
     </row>
     <row r="806" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L806" s="27"/>
+      <c r="L806" s="26"/>
       <c r="M806" s="1"/>
     </row>
     <row r="807" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L807" s="27"/>
+      <c r="L807" s="26"/>
       <c r="M807" s="1"/>
     </row>
     <row r="808" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L808" s="27"/>
+      <c r="L808" s="26"/>
       <c r="M808" s="1"/>
     </row>
     <row r="809" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L809" s="27"/>
+      <c r="L809" s="26"/>
       <c r="M809" s="1"/>
     </row>
     <row r="810" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L810" s="27"/>
+      <c r="L810" s="26"/>
       <c r="M810" s="1"/>
     </row>
     <row r="811" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L811" s="27"/>
+      <c r="L811" s="26"/>
       <c r="M811" s="1"/>
     </row>
     <row r="812" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L812" s="27"/>
+      <c r="L812" s="26"/>
       <c r="M812" s="1"/>
     </row>
     <row r="813" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L813" s="27"/>
+      <c r="L813" s="26"/>
       <c r="M813" s="1"/>
     </row>
     <row r="814" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L814" s="27"/>
+      <c r="L814" s="26"/>
       <c r="M814" s="1"/>
     </row>
     <row r="815" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L815" s="27"/>
+      <c r="L815" s="26"/>
       <c r="M815" s="1"/>
     </row>
     <row r="816" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L816" s="27"/>
+      <c r="L816" s="26"/>
       <c r="M816" s="1"/>
     </row>
     <row r="817" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L817" s="27"/>
+      <c r="L817" s="26"/>
       <c r="M817" s="1"/>
     </row>
     <row r="818" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L818" s="27"/>
+      <c r="L818" s="26"/>
       <c r="M818" s="1"/>
     </row>
     <row r="819" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L819" s="27"/>
+      <c r="L819" s="26"/>
       <c r="M819" s="1"/>
     </row>
     <row r="820" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L820" s="27"/>
+      <c r="L820" s="26"/>
       <c r="M820" s="1"/>
     </row>
     <row r="821" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L821" s="27"/>
+      <c r="L821" s="26"/>
       <c r="M821" s="1"/>
     </row>
     <row r="822" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L822" s="27"/>
+      <c r="L822" s="26"/>
       <c r="M822" s="1"/>
     </row>
     <row r="823" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L823" s="27"/>
+      <c r="L823" s="26"/>
       <c r="M823" s="1"/>
     </row>
     <row r="824" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L824" s="27"/>
+      <c r="L824" s="26"/>
       <c r="M824" s="1"/>
     </row>
     <row r="825" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L825" s="27"/>
+      <c r="L825" s="26"/>
       <c r="M825" s="1"/>
     </row>
     <row r="826" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L826" s="27"/>
+      <c r="L826" s="26"/>
       <c r="M826" s="1"/>
     </row>
     <row r="827" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L827" s="27"/>
+      <c r="L827" s="26"/>
       <c r="M827" s="1"/>
     </row>
     <row r="828" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L828" s="27"/>
+      <c r="L828" s="26"/>
       <c r="M828" s="1"/>
     </row>
     <row r="829" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L829" s="27"/>
+      <c r="L829" s="26"/>
       <c r="M829" s="1"/>
     </row>
     <row r="830" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L830" s="27"/>
+      <c r="L830" s="26"/>
       <c r="M830" s="1"/>
     </row>
     <row r="831" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L831" s="27"/>
+      <c r="L831" s="26"/>
       <c r="M831" s="1"/>
     </row>
     <row r="832" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L832" s="27"/>
+      <c r="L832" s="26"/>
       <c r="M832" s="1"/>
     </row>
     <row r="833" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L833" s="27"/>
+      <c r="L833" s="26"/>
       <c r="M833" s="1"/>
     </row>
     <row r="834" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L834" s="27"/>
+      <c r="L834" s="26"/>
       <c r="M834" s="1"/>
     </row>
     <row r="835" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L835" s="27"/>
+      <c r="L835" s="26"/>
       <c r="M835" s="1"/>
     </row>
     <row r="836" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L836" s="27"/>
+      <c r="L836" s="26"/>
       <c r="M836" s="1"/>
     </row>
     <row r="837" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L837" s="27"/>
+      <c r="L837" s="26"/>
       <c r="M837" s="1"/>
     </row>
     <row r="838" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L838" s="27"/>
+      <c r="L838" s="26"/>
       <c r="M838" s="1"/>
     </row>
     <row r="839" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L839" s="27"/>
+      <c r="L839" s="26"/>
       <c r="M839" s="1"/>
     </row>
     <row r="840" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L840" s="27"/>
+      <c r="L840" s="26"/>
       <c r="M840" s="1"/>
     </row>
     <row r="841" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L841" s="27"/>
+      <c r="L841" s="26"/>
       <c r="M841" s="1"/>
     </row>
     <row r="842" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L842" s="27"/>
+      <c r="L842" s="26"/>
       <c r="M842" s="1"/>
     </row>
     <row r="843" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L843" s="27"/>
+      <c r="L843" s="26"/>
       <c r="M843" s="1"/>
     </row>
     <row r="844" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L844" s="27"/>
+      <c r="L844" s="26"/>
       <c r="M844" s="1"/>
     </row>
     <row r="845" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L845" s="27"/>
+      <c r="L845" s="26"/>
       <c r="M845" s="1"/>
     </row>
     <row r="846" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L846" s="27"/>
+      <c r="L846" s="26"/>
       <c r="M846" s="1"/>
     </row>
     <row r="847" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L847" s="27"/>
+      <c r="L847" s="26"/>
       <c r="M847" s="1"/>
     </row>
     <row r="848" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L848" s="27"/>
+      <c r="L848" s="26"/>
       <c r="M848" s="1"/>
     </row>
     <row r="849" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L849" s="27"/>
+      <c r="L849" s="26"/>
       <c r="M849" s="1"/>
     </row>
     <row r="850" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L850" s="27"/>
+      <c r="L850" s="26"/>
       <c r="M850" s="1"/>
     </row>
     <row r="851" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L851" s="27"/>
+      <c r="L851" s="26"/>
       <c r="M851" s="1"/>
     </row>
     <row r="852" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L852" s="27"/>
+      <c r="L852" s="26"/>
       <c r="M852" s="1"/>
     </row>
     <row r="853" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L853" s="27"/>
+      <c r="L853" s="26"/>
       <c r="M853" s="1"/>
     </row>
     <row r="854" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L854" s="27"/>
+      <c r="L854" s="26"/>
       <c r="M854" s="1"/>
     </row>
     <row r="855" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L855" s="27"/>
+      <c r="L855" s="26"/>
       <c r="M855" s="1"/>
     </row>
     <row r="856" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L856" s="27"/>
+      <c r="L856" s="26"/>
       <c r="M856" s="1"/>
     </row>
     <row r="857" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L857" s="27"/>
+      <c r="L857" s="26"/>
       <c r="M857" s="1"/>
     </row>
     <row r="858" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L858" s="27"/>
+      <c r="L858" s="26"/>
       <c r="M858" s="1"/>
     </row>
     <row r="859" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L859" s="27"/>
+      <c r="L859" s="26"/>
       <c r="M859" s="1"/>
     </row>
     <row r="860" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L860" s="27"/>
+      <c r="L860" s="26"/>
       <c r="M860" s="1"/>
     </row>
     <row r="861" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L861" s="27"/>
+      <c r="L861" s="26"/>
       <c r="M861" s="1"/>
     </row>
     <row r="862" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L862" s="27"/>
+      <c r="L862" s="26"/>
       <c r="M862" s="1"/>
     </row>
     <row r="863" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L863" s="27"/>
+      <c r="L863" s="26"/>
       <c r="M863" s="1"/>
     </row>
     <row r="864" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L864" s="27"/>
+      <c r="L864" s="26"/>
       <c r="M864" s="1"/>
     </row>
     <row r="865" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L865" s="27"/>
+      <c r="L865" s="26"/>
       <c r="M865" s="1"/>
     </row>
     <row r="866" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L866" s="27"/>
+      <c r="L866" s="26"/>
       <c r="M866" s="1"/>
     </row>
     <row r="867" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L867" s="27"/>
+      <c r="L867" s="26"/>
       <c r="M867" s="1"/>
     </row>
     <row r="868" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L868" s="27"/>
+      <c r="L868" s="26"/>
       <c r="M868" s="1"/>
     </row>
     <row r="869" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L869" s="27"/>
+      <c r="L869" s="26"/>
       <c r="M869" s="1"/>
     </row>
     <row r="870" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L870" s="27"/>
+      <c r="L870" s="26"/>
       <c r="M870" s="1"/>
     </row>
     <row r="871" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L871" s="27"/>
+      <c r="L871" s="26"/>
       <c r="M871" s="1"/>
     </row>
     <row r="872" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L872" s="27"/>
+      <c r="L872" s="26"/>
       <c r="M872" s="1"/>
     </row>
     <row r="873" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L873" s="27"/>
+      <c r="L873" s="26"/>
       <c r="M873" s="1"/>
     </row>
     <row r="874" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L874" s="27"/>
+      <c r="L874" s="26"/>
       <c r="M874" s="1"/>
     </row>
     <row r="875" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L875" s="27"/>
+      <c r="L875" s="26"/>
       <c r="M875" s="1"/>
     </row>
     <row r="876" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L876" s="27"/>
+      <c r="L876" s="26"/>
       <c r="M876" s="1"/>
     </row>
     <row r="877" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L877" s="27"/>
+      <c r="L877" s="26"/>
       <c r="M877" s="1"/>
     </row>
     <row r="878" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L878" s="27"/>
+      <c r="L878" s="26"/>
       <c r="M878" s="1"/>
     </row>
     <row r="879" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L879" s="27"/>
+      <c r="L879" s="26"/>
       <c r="M879" s="1"/>
     </row>
     <row r="880" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L880" s="27"/>
+      <c r="L880" s="26"/>
       <c r="M880" s="1"/>
     </row>
     <row r="881" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L881" s="27"/>
+      <c r="L881" s="26"/>
       <c r="M881" s="1"/>
     </row>
     <row r="882" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L882" s="27"/>
+      <c r="L882" s="26"/>
       <c r="M882" s="1"/>
     </row>
     <row r="883" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L883" s="27"/>
+      <c r="L883" s="26"/>
       <c r="M883" s="1"/>
     </row>
     <row r="884" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L884" s="27"/>
+      <c r="L884" s="26"/>
       <c r="M884" s="1"/>
     </row>
     <row r="885" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L885" s="27"/>
+      <c r="L885" s="26"/>
       <c r="M885" s="1"/>
     </row>
     <row r="886" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L886" s="27"/>
+      <c r="L886" s="26"/>
       <c r="M886" s="1"/>
     </row>
     <row r="887" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L887" s="27"/>
+      <c r="L887" s="26"/>
       <c r="M887" s="1"/>
     </row>
     <row r="888" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L888" s="27"/>
+      <c r="L888" s="26"/>
       <c r="M888" s="1"/>
     </row>
     <row r="889" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L889" s="27"/>
+      <c r="L889" s="26"/>
       <c r="M889" s="1"/>
     </row>
     <row r="890" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L890" s="27"/>
+      <c r="L890" s="26"/>
       <c r="M890" s="1"/>
     </row>
     <row r="891" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L891" s="27"/>
+      <c r="L891" s="26"/>
       <c r="M891" s="1"/>
     </row>
     <row r="892" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L892" s="27"/>
+      <c r="L892" s="26"/>
       <c r="M892" s="1"/>
     </row>
     <row r="893" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L893" s="27"/>
+      <c r="L893" s="26"/>
       <c r="M893" s="1"/>
     </row>
     <row r="894" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L894" s="27"/>
+      <c r="L894" s="26"/>
       <c r="M894" s="1"/>
     </row>
     <row r="895" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L895" s="27"/>
+      <c r="L895" s="26"/>
       <c r="M895" s="1"/>
     </row>
     <row r="896" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L896" s="27"/>
+      <c r="L896" s="26"/>
       <c r="M896" s="1"/>
     </row>
     <row r="897" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L897" s="27"/>
+      <c r="L897" s="26"/>
       <c r="M897" s="1"/>
     </row>
     <row r="898" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L898" s="27"/>
+      <c r="L898" s="26"/>
       <c r="M898" s="1"/>
     </row>
     <row r="899" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L899" s="27"/>
+      <c r="L899" s="26"/>
       <c r="M899" s="1"/>
     </row>
     <row r="900" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L900" s="27"/>
+      <c r="L900" s="26"/>
       <c r="M900" s="1"/>
     </row>
     <row r="901" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L901" s="27"/>
+      <c r="L901" s="26"/>
       <c r="M901" s="1"/>
     </row>
     <row r="902" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L902" s="27"/>
+      <c r="L902" s="26"/>
       <c r="M902" s="1"/>
     </row>
     <row r="903" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L903" s="27"/>
+      <c r="L903" s="26"/>
       <c r="M903" s="1"/>
     </row>
     <row r="904" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L904" s="27"/>
+      <c r="L904" s="26"/>
       <c r="M904" s="1"/>
     </row>
     <row r="905" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L905" s="27"/>
+      <c r="L905" s="26"/>
       <c r="M905" s="1"/>
     </row>
     <row r="906" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L906" s="27"/>
+      <c r="L906" s="26"/>
       <c r="M906" s="1"/>
     </row>
     <row r="907" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L907" s="27"/>
+      <c r="L907" s="26"/>
       <c r="M907" s="1"/>
     </row>
     <row r="908" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L908" s="27"/>
+      <c r="L908" s="26"/>
       <c r="M908" s="1"/>
     </row>
     <row r="909" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L909" s="27"/>
+      <c r="L909" s="26"/>
       <c r="M909" s="1"/>
     </row>
     <row r="910" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L910" s="27"/>
+      <c r="L910" s="26"/>
       <c r="M910" s="1"/>
     </row>
     <row r="911" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L911" s="27"/>
+      <c r="L911" s="26"/>
       <c r="M911" s="1"/>
     </row>
     <row r="912" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L912" s="27"/>
+      <c r="L912" s="26"/>
       <c r="M912" s="1"/>
     </row>
     <row r="913" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L913" s="27"/>
+      <c r="L913" s="26"/>
       <c r="M913" s="1"/>
     </row>
     <row r="914" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L914" s="27"/>
+      <c r="L914" s="26"/>
       <c r="M914" s="1"/>
     </row>
     <row r="915" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L915" s="27"/>
+      <c r="L915" s="26"/>
       <c r="M915" s="1"/>
     </row>
     <row r="916" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L916" s="27"/>
+      <c r="L916" s="26"/>
       <c r="M916" s="1"/>
     </row>
     <row r="917" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L917" s="27"/>
+      <c r="L917" s="26"/>
       <c r="M917" s="1"/>
     </row>
     <row r="918" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L918" s="27"/>
+      <c r="L918" s="26"/>
       <c r="M918" s="1"/>
     </row>
     <row r="919" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L919" s="27"/>
+      <c r="L919" s="26"/>
       <c r="M919" s="1"/>
     </row>
     <row r="920" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L920" s="27"/>
+      <c r="L920" s="26"/>
       <c r="M920" s="1"/>
     </row>
     <row r="921" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L921" s="27"/>
+      <c r="L921" s="26"/>
       <c r="M921" s="1"/>
     </row>
     <row r="922" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L922" s="27"/>
+      <c r="L922" s="26"/>
       <c r="M922" s="1"/>
     </row>
     <row r="923" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L923" s="27"/>
+      <c r="L923" s="26"/>
       <c r="M923" s="1"/>
     </row>
     <row r="924" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L924" s="27"/>
+      <c r="L924" s="26"/>
       <c r="M924" s="1"/>
     </row>
     <row r="925" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L925" s="27"/>
+      <c r="L925" s="26"/>
       <c r="M925" s="1"/>
     </row>
     <row r="926" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L926" s="27"/>
+      <c r="L926" s="26"/>
       <c r="M926" s="1"/>
     </row>
     <row r="927" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L927" s="27"/>
+      <c r="L927" s="26"/>
       <c r="M927" s="1"/>
     </row>
     <row r="928" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L928" s="27"/>
+      <c r="L928" s="26"/>
       <c r="M928" s="1"/>
     </row>
     <row r="929" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L929" s="27"/>
+      <c r="L929" s="26"/>
       <c r="M929" s="1"/>
     </row>
     <row r="930" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L930" s="27"/>
+      <c r="L930" s="26"/>
       <c r="M930" s="1"/>
     </row>
     <row r="931" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L931" s="27"/>
+      <c r="L931" s="26"/>
       <c r="M931" s="1"/>
     </row>
     <row r="932" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L932" s="27"/>
+      <c r="L932" s="26"/>
       <c r="M932" s="1"/>
     </row>
     <row r="933" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L933" s="27"/>
+      <c r="L933" s="26"/>
       <c r="M933" s="1"/>
     </row>
     <row r="934" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L934" s="27"/>
+      <c r="L934" s="26"/>
       <c r="M934" s="1"/>
     </row>
     <row r="935" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L935" s="27"/>
+      <c r="L935" s="26"/>
       <c r="M935" s="1"/>
     </row>
     <row r="936" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L936" s="27"/>
+      <c r="L936" s="26"/>
       <c r="M936" s="1"/>
     </row>
     <row r="937" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L937" s="27"/>
+      <c r="L937" s="26"/>
       <c r="M937" s="1"/>
     </row>
     <row r="938" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L938" s="27"/>
+      <c r="L938" s="26"/>
       <c r="M938" s="1"/>
     </row>
     <row r="939" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L939" s="27"/>
+      <c r="L939" s="26"/>
       <c r="M939" s="1"/>
     </row>
     <row r="940" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L940" s="27"/>
+      <c r="L940" s="26"/>
       <c r="M940" s="1"/>
     </row>
     <row r="941" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L941" s="27"/>
+      <c r="L941" s="26"/>
       <c r="M941" s="1"/>
     </row>
     <row r="942" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L942" s="27"/>
+      <c r="L942" s="26"/>
       <c r="M942" s="1"/>
     </row>
     <row r="943" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L943" s="27"/>
+      <c r="L943" s="26"/>
       <c r="M943" s="1"/>
     </row>
     <row r="944" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L944" s="27"/>
+      <c r="L944" s="26"/>
       <c r="M944" s="1"/>
     </row>
     <row r="945" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L945" s="27"/>
+      <c r="L945" s="26"/>
       <c r="M945" s="1"/>
     </row>
     <row r="946" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L946" s="27"/>
+      <c r="L946" s="26"/>
       <c r="M946" s="1"/>
     </row>
     <row r="947" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L947" s="27"/>
+      <c r="L947" s="26"/>
       <c r="M947" s="1"/>
     </row>
     <row r="948" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L948" s="27"/>
+      <c r="L948" s="26"/>
       <c r="M948" s="1"/>
     </row>
     <row r="949" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L949" s="27"/>
+      <c r="L949" s="26"/>
       <c r="M949" s="1"/>
     </row>
     <row r="950" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L950" s="27"/>
+      <c r="L950" s="26"/>
       <c r="M950" s="1"/>
     </row>
     <row r="951" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L951" s="27"/>
+      <c r="L951" s="26"/>
       <c r="M951" s="1"/>
     </row>
     <row r="952" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L952" s="27"/>
+      <c r="L952" s="26"/>
       <c r="M952" s="1"/>
     </row>
     <row r="953" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L953" s="27"/>
+      <c r="L953" s="26"/>
       <c r="M953" s="1"/>
     </row>
     <row r="954" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L954" s="27"/>
+      <c r="L954" s="26"/>
       <c r="M954" s="1"/>
     </row>
     <row r="955" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L955" s="27"/>
+      <c r="L955" s="26"/>
       <c r="M955" s="1"/>
     </row>
     <row r="956" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L956" s="27"/>
+      <c r="L956" s="26"/>
       <c r="M956" s="1"/>
     </row>
     <row r="957" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L957" s="27"/>
+      <c r="L957" s="26"/>
       <c r="M957" s="1"/>
     </row>
     <row r="958" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L958" s="27"/>
+      <c r="L958" s="26"/>
       <c r="M958" s="1"/>
     </row>
     <row r="959" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L959" s="27"/>
+      <c r="L959" s="26"/>
       <c r="M959" s="1"/>
     </row>
     <row r="960" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L960" s="27"/>
+      <c r="L960" s="26"/>
       <c r="M960" s="1"/>
     </row>
     <row r="961" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L961" s="27"/>
+      <c r="L961" s="26"/>
       <c r="M961" s="1"/>
     </row>
     <row r="962" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L962" s="27"/>
+      <c r="L962" s="26"/>
       <c r="M962" s="1"/>
     </row>
     <row r="963" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L963" s="27"/>
+      <c r="L963" s="26"/>
       <c r="M963" s="1"/>
     </row>
     <row r="964" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L964" s="27"/>
+      <c r="L964" s="26"/>
       <c r="M964" s="1"/>
     </row>
     <row r="965" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L965" s="27"/>
+      <c r="L965" s="26"/>
       <c r="M965" s="1"/>
     </row>
     <row r="966" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L966" s="27"/>
+      <c r="L966" s="26"/>
       <c r="M966" s="1"/>
     </row>
     <row r="967" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L967" s="27"/>
+      <c r="L967" s="26"/>
       <c r="M967" s="1"/>
     </row>
     <row r="968" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L968" s="27"/>
+      <c r="L968" s="26"/>
       <c r="M968" s="1"/>
     </row>
     <row r="969" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L969" s="27"/>
+      <c r="L969" s="26"/>
       <c r="M969" s="1"/>
     </row>
     <row r="970" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L970" s="27"/>
+      <c r="L970" s="26"/>
       <c r="M970" s="1"/>
     </row>
     <row r="971" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L971" s="27"/>
+      <c r="L971" s="26"/>
       <c r="M971" s="1"/>
     </row>
     <row r="972" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L972" s="27"/>
+      <c r="L972" s="26"/>
       <c r="M972" s="1"/>
     </row>
     <row r="973" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L973" s="27"/>
+      <c r="L973" s="26"/>
       <c r="M973" s="1"/>
     </row>
     <row r="974" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L974" s="27"/>
+      <c r="L974" s="26"/>
       <c r="M974" s="1"/>
     </row>
     <row r="975" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L975" s="27"/>
+      <c r="L975" s="26"/>
       <c r="M975" s="1"/>
     </row>
     <row r="976" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L976" s="27"/>
+      <c r="L976" s="26"/>
       <c r="M976" s="1"/>
     </row>
     <row r="977" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L977" s="27"/>
+      <c r="L977" s="26"/>
       <c r="M977" s="1"/>
     </row>
     <row r="978" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L978" s="27"/>
+      <c r="L978" s="26"/>
       <c r="M978" s="1"/>
     </row>
     <row r="979" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L979" s="27"/>
+      <c r="L979" s="26"/>
       <c r="M979" s="1"/>
     </row>
     <row r="980" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L980" s="27"/>
+      <c r="L980" s="26"/>
       <c r="M980" s="1"/>
     </row>
     <row r="981" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L981" s="27"/>
+      <c r="L981" s="26"/>
       <c r="M981" s="1"/>
     </row>
     <row r="982" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L982" s="27"/>
+      <c r="L982" s="26"/>
       <c r="M982" s="1"/>
     </row>
     <row r="983" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L983" s="27"/>
+      <c r="L983" s="26"/>
       <c r="M983" s="1"/>
     </row>
     <row r="984" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L984" s="27"/>
+      <c r="L984" s="26"/>
       <c r="M984" s="1"/>
     </row>
     <row r="985" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L985" s="27"/>
+      <c r="L985" s="26"/>
       <c r="M985" s="1"/>
     </row>
     <row r="986" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L986" s="27"/>
+      <c r="L986" s="26"/>
       <c r="M986" s="1"/>
     </row>
     <row r="987" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L987" s="27"/>
+      <c r="L987" s="26"/>
       <c r="M987" s="1"/>
     </row>
     <row r="988" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L988" s="27"/>
+      <c r="L988" s="26"/>
       <c r="M988" s="1"/>
     </row>
     <row r="989" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L989" s="27"/>
+      <c r="L989" s="26"/>
       <c r="M989" s="1"/>
     </row>
     <row r="990" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L990" s="27"/>
+      <c r="L990" s="26"/>
       <c r="M990" s="1"/>
     </row>
     <row r="991" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L991" s="27"/>
+      <c r="L991" s="26"/>
       <c r="M991" s="1"/>
     </row>
     <row r="992" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L992" s="27"/>
+      <c r="L992" s="26"/>
       <c r="M992" s="1"/>
     </row>
     <row r="993" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L993" s="27"/>
+      <c r="L993" s="26"/>
       <c r="M993" s="1"/>
     </row>
     <row r="994" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L994" s="27"/>
+      <c r="L994" s="26"/>
       <c r="M994" s="1"/>
     </row>
     <row r="995" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L995" s="27"/>
+      <c r="L995" s="26"/>
       <c r="M995" s="1"/>
     </row>
     <row r="996" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L996" s="27"/>
+      <c r="L996" s="26"/>
       <c r="M996" s="1"/>
     </row>
     <row r="997" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L997" s="27"/>
+      <c r="L997" s="26"/>
       <c r="M997" s="1"/>
     </row>
     <row r="998" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L998" s="27"/>
+      <c r="L998" s="26"/>
       <c r="M998" s="1"/>
     </row>
     <row r="999" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L999" s="27"/>
+      <c r="L999" s="26"/>
       <c r="M999" s="1"/>
     </row>
-    <row r="1000" spans="12:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L1000" s="27"/>
-      <c r="M1000" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1000">
-    <sortCondition ref="A1:A1000"/>
+  <autoFilter ref="A1:L48" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E999">
+    <sortCondition ref="A1:A999"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="K2:K48 D2:J49 M2:Z48">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="M2:Z47 D2:K48">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="&quot;Присутствовал&quot;"/>
@@ -6837,7 +6885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K48 D2:J49 M2:Z48">
+  <conditionalFormatting sqref="M2:Z47 D2:K48">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -6848,7 +6896,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:E49 D2:F48 G2:J49 K2:K48 M2:Z48" xr:uid="{2BED188C-1251-4068-9952-87063711D3FC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48:E48 M2:Z47 G2:K48 D2:F47" xr:uid="{2BED188C-1251-4068-9952-87063711D3FC}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/students/sdr_club_2025.xlsx
+++ b/students/sdr_club_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10E44F-BB13-46B4-B289-70D251BF608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8D13E8-DD0E-40AC-93B6-4ADD504261E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,9 +640,9 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A45" sqref="A45"/>
+      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1018,7 +1018,7 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2168,7 +2168,7 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -2568,7 +2568,7 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="8" t="s">

--- a/students/sdr_club_2025.xlsx
+++ b/students/sdr_club_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8D13E8-DD0E-40AC-93B6-4ADD504261E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3291D35-CEA6-46E0-BA5B-C6C0FF50C5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,7 +261,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +308,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -384,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -420,6 +432,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -640,9 +655,9 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -718,7 +733,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1118,7 +1133,7 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1168,7 +1183,7 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1218,7 +1233,7 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1368,7 +1383,7 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1518,7 +1533,7 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1568,7 +1583,7 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1668,7 +1683,7 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1718,7 +1733,7 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -2118,7 +2133,7 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -2418,7 +2433,7 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -2518,7 +2533,7 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="32" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -2618,7 +2633,7 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="32" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -2718,7 +2733,7 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -2768,7 +2783,7 @@
       <c r="Z42" s="12"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -2868,7 +2883,7 @@
       <c r="Z44" s="12"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="11" t="s">

--- a/students/sdr_club_2025.xlsx
+++ b/students/sdr_club_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE64CBAB-9DF7-4E1D-A503-AF6F384108E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8A5CDD-BF24-4ED4-B4A7-CAD630B1BFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>ФИО</t>
   </si>
@@ -155,6 +155,9 @@
   <si>
     <t>КР</t>
   </si>
+  <si>
+    <t>КР (5 заданий)</t>
+  </si>
 </sst>
 </file>
 
@@ -233,7 +236,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,7 +287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -362,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -376,7 +385,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -395,6 +403,11 @@
     <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -616,8 +629,8 @@
   <dimension ref="A1:Z986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R19" sqref="R19"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -633,60 +646,60 @@
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="16" style="24" customWidth="1"/>
     <col min="13" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="25" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="24" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="17">
         <v>45916</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="17">
         <v>45923</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="19">
         <v>45930</v>
       </c>
-      <c r="G1" s="21">
+      <c r="G1" s="20">
         <v>45937</v>
       </c>
-      <c r="H1" s="21">
+      <c r="H1" s="20">
         <v>45944</v>
       </c>
-      <c r="I1" s="22">
+      <c r="I1" s="21">
         <v>45951</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="21">
         <v>45958</v>
       </c>
-      <c r="K1" s="21">
+      <c r="K1" s="20">
         <v>45972</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="20">
         <v>45979</v>
       </c>
-      <c r="N1" s="21">
+      <c r="N1" s="20">
         <v>45986</v>
       </c>
-      <c r="O1" s="21">
+      <c r="O1" s="20">
         <v>45993</v>
       </c>
-      <c r="P1" s="26" t="s">
-        <v>39</v>
+      <c r="P1" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -700,7 +713,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -713,25 +726,25 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15">
-        <v>1</v>
-      </c>
-      <c r="H2" s="15">
-        <v>1</v>
-      </c>
-      <c r="I2" s="15">
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14">
         <v>0</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <v>1</v>
       </c>
       <c r="K2" s="10">
         <v>0</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="22">
         <v>0</v>
       </c>
       <c r="M2" s="10">
@@ -743,7 +756,7 @@
       <c r="O2" s="10">
         <v>0</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="32">
         <v>0</v>
       </c>
       <c r="Q2" s="10"/>
@@ -771,25 +784,25 @@
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1</v>
-      </c>
-      <c r="H3" s="15">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15">
-        <v>1</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14">
         <v>1</v>
       </c>
       <c r="K3" s="10">
         <v>1</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <v>3</v>
       </c>
       <c r="M3" s="10">
@@ -801,8 +814,8 @@
       <c r="O3" s="10">
         <v>1</v>
       </c>
-      <c r="P3" s="23">
-        <v>0</v>
+      <c r="P3" s="22">
+        <v>3</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -816,7 +829,7 @@
       <c r="Z3" s="10"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -829,25 +842,25 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15">
-        <v>1</v>
-      </c>
-      <c r="H4" s="15">
-        <v>1</v>
-      </c>
-      <c r="I4" s="15">
-        <v>1</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
         <v>1</v>
       </c>
       <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="22">
         <v>7</v>
       </c>
       <c r="M4" s="10">
@@ -859,8 +872,8 @@
       <c r="O4" s="10">
         <v>1</v>
       </c>
-      <c r="P4" s="23">
-        <v>0</v>
+      <c r="P4" s="33">
+        <v>1</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -887,25 +900,25 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14">
         <v>1</v>
       </c>
       <c r="K5" s="10">
         <v>1</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>7</v>
       </c>
       <c r="M5" s="10">
@@ -917,8 +930,8 @@
       <c r="O5" s="10">
         <v>1</v>
       </c>
-      <c r="P5" s="23">
-        <v>0</v>
+      <c r="P5" s="22">
+        <v>5</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -932,7 +945,7 @@
       <c r="Z5" s="10"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -945,25 +958,25 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15">
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
         <v>0</v>
       </c>
-      <c r="H6" s="15">
-        <v>1</v>
-      </c>
-      <c r="I6" s="15">
-        <v>1</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14">
         <v>1</v>
       </c>
       <c r="K6" s="10">
         <v>1</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>2</v>
       </c>
       <c r="M6" s="10">
@@ -975,8 +988,8 @@
       <c r="O6" s="10">
         <v>1</v>
       </c>
-      <c r="P6" s="23">
-        <v>0</v>
+      <c r="P6" s="22">
+        <v>3</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -990,7 +1003,7 @@
       <c r="Z6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1003,25 +1016,25 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
         <v>0</v>
       </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+      <c r="J7" s="14">
         <v>1</v>
       </c>
       <c r="K7" s="10">
         <v>1</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="22">
         <v>2</v>
       </c>
       <c r="M7" s="10">
@@ -1033,8 +1046,8 @@
       <c r="O7" s="10">
         <v>1</v>
       </c>
-      <c r="P7" s="23">
-        <v>0</v>
+      <c r="P7" s="22">
+        <v>3</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -1048,7 +1061,7 @@
       <c r="Z7" s="10"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1061,25 +1074,25 @@
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15">
-        <v>1</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
         <v>1</v>
       </c>
       <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="22">
         <v>2</v>
       </c>
       <c r="M8" s="10">
@@ -1091,8 +1104,8 @@
       <c r="O8" s="10">
         <v>1</v>
       </c>
-      <c r="P8" s="23">
-        <v>0</v>
+      <c r="P8" s="22">
+        <v>3</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -1106,7 +1119,7 @@
       <c r="Z8" s="10"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1119,25 +1132,25 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15">
-        <v>1</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14">
         <v>1</v>
       </c>
       <c r="K9" s="10">
         <v>1</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="22">
         <v>5</v>
       </c>
       <c r="M9" s="10">
@@ -1149,8 +1162,8 @@
       <c r="O9" s="10">
         <v>1</v>
       </c>
-      <c r="P9" s="23">
-        <v>0</v>
+      <c r="P9" s="22">
+        <v>4</v>
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -1164,7 +1177,7 @@
       <c r="Z9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1177,25 +1190,25 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
         <v>0</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>0</v>
       </c>
       <c r="K10" s="10">
         <v>1</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="32">
         <v>1</v>
       </c>
       <c r="M10" s="10">
@@ -1207,8 +1220,8 @@
       <c r="O10" s="10">
         <v>1</v>
       </c>
-      <c r="P10" s="23">
-        <v>0</v>
+      <c r="P10" s="33">
+        <v>2</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -1235,25 +1248,25 @@
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
         <v>0</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <v>0</v>
       </c>
       <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="22">
         <v>5</v>
       </c>
       <c r="M11" s="10">
@@ -1265,8 +1278,8 @@
       <c r="O11" s="10">
         <v>1</v>
       </c>
-      <c r="P11" s="23">
-        <v>0</v>
+      <c r="P11" s="22">
+        <v>3</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -1280,7 +1293,7 @@
       <c r="Z11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1293,25 +1306,25 @@
       <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15">
-        <v>1</v>
-      </c>
-      <c r="I12" s="15">
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <v>0</v>
       </c>
       <c r="K12" s="10">
         <v>1</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="22">
         <v>3</v>
       </c>
       <c r="M12" s="10">
@@ -1323,7 +1336,7 @@
       <c r="O12" s="10">
         <v>0</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="32">
         <v>0</v>
       </c>
       <c r="Q12" s="10"/>
@@ -1351,25 +1364,25 @@
       <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-      <c r="G13" s="15">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15">
-        <v>1</v>
-      </c>
-      <c r="I13" s="15">
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
         <v>0</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <v>0</v>
       </c>
       <c r="K13" s="10">
         <v>1</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="22">
         <v>2</v>
       </c>
       <c r="M13" s="10">
@@ -1381,7 +1394,7 @@
       <c r="O13" s="10">
         <v>0</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="32">
         <v>0</v>
       </c>
       <c r="Q13" s="10"/>
@@ -1409,25 +1422,25 @@
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15">
-        <v>1</v>
-      </c>
-      <c r="I14" s="15">
-        <v>1</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
         <v>1</v>
       </c>
       <c r="K14" s="10">
         <v>1</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="22">
         <v>3</v>
       </c>
       <c r="M14" s="10">
@@ -1439,7 +1452,7 @@
       <c r="O14" s="10">
         <v>0</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="32">
         <v>0</v>
       </c>
       <c r="Q14" s="10"/>
@@ -1454,7 +1467,7 @@
       <c r="Z14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1467,25 +1480,25 @@
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="15">
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14">
         <v>1</v>
       </c>
       <c r="K15" s="10">
         <v>0</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="32">
         <v>0</v>
       </c>
       <c r="M15" s="10">
@@ -1497,8 +1510,8 @@
       <c r="O15" s="10">
         <v>1</v>
       </c>
-      <c r="P15" s="23">
-        <v>0</v>
+      <c r="P15" s="32">
+        <v>1</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -1512,7 +1525,7 @@
       <c r="Z15" s="10"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1525,25 +1538,25 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>0</v>
       </c>
-      <c r="G16" s="15">
-        <v>1</v>
-      </c>
-      <c r="H16" s="15">
-        <v>1</v>
-      </c>
-      <c r="I16" s="15">
-        <v>1</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14">
         <v>1</v>
       </c>
       <c r="K16" s="10">
         <v>0</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="22">
         <v>0</v>
       </c>
       <c r="M16" s="10">
@@ -1555,8 +1568,8 @@
       <c r="O16" s="10">
         <v>1</v>
       </c>
-      <c r="P16" s="23">
-        <v>0</v>
+      <c r="P16" s="22">
+        <v>4</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -1570,7 +1583,7 @@
       <c r="Z16" s="10"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1583,25 +1596,25 @@
       <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="F17" s="15">
-        <v>1</v>
-      </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15">
-        <v>1</v>
-      </c>
-      <c r="I17" s="15">
-        <v>1</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14">
         <v>1</v>
       </c>
       <c r="K17" s="10">
         <v>1</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="22">
         <v>5</v>
       </c>
       <c r="M17" s="10">
@@ -1613,8 +1626,8 @@
       <c r="O17" s="10">
         <v>1</v>
       </c>
-      <c r="P17" s="23">
-        <v>0</v>
+      <c r="P17" s="33">
+        <v>1</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -1628,7 +1641,7 @@
       <c r="Z17" s="10"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1641,25 +1654,25 @@
       <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" s="15">
-        <v>1</v>
-      </c>
-      <c r="G18" s="15">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15">
-        <v>1</v>
-      </c>
-      <c r="I18" s="15">
-        <v>1</v>
-      </c>
-      <c r="J18" s="15">
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
         <v>1</v>
       </c>
       <c r="K18" s="10">
         <v>1</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="22">
         <v>7</v>
       </c>
       <c r="M18" s="10">
@@ -1671,8 +1684,8 @@
       <c r="O18" s="10">
         <v>1</v>
       </c>
-      <c r="P18" s="23">
-        <v>0</v>
+      <c r="P18" s="22">
+        <v>3</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -1686,7 +1699,7 @@
       <c r="Z18" s="10"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1699,25 +1712,25 @@
       <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="15">
-        <v>1</v>
-      </c>
-      <c r="G19" s="15">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15">
-        <v>1</v>
-      </c>
-      <c r="I19" s="15">
-        <v>1</v>
-      </c>
-      <c r="J19" s="15">
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
         <v>1</v>
       </c>
       <c r="K19" s="10">
         <v>1</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="22">
         <v>4</v>
       </c>
       <c r="M19" s="10">
@@ -1729,8 +1742,8 @@
       <c r="O19" s="10">
         <v>1</v>
       </c>
-      <c r="P19" s="23">
-        <v>0</v>
+      <c r="P19" s="22">
+        <v>3</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -1744,7 +1757,7 @@
       <c r="Z19" s="10"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1757,25 +1770,25 @@
       <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="15">
-        <v>1</v>
-      </c>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-      <c r="H20" s="15">
-        <v>1</v>
-      </c>
-      <c r="I20" s="15">
-        <v>1</v>
-      </c>
-      <c r="J20" s="15">
+      <c r="F20" s="14">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
         <v>1</v>
       </c>
       <c r="K20" s="10">
         <v>1</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="22">
         <v>4</v>
       </c>
       <c r="M20" s="10">
@@ -1787,8 +1800,8 @@
       <c r="O20" s="10">
         <v>1</v>
       </c>
-      <c r="P20" s="23">
-        <v>0</v>
+      <c r="P20" s="22">
+        <v>3</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -1802,7 +1815,7 @@
       <c r="Z20" s="10"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1815,25 +1828,25 @@
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="15">
-        <v>1</v>
-      </c>
-      <c r="H21" s="15">
-        <v>1</v>
-      </c>
-      <c r="I21" s="15">
-        <v>1</v>
-      </c>
-      <c r="J21" s="15">
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1</v>
+      </c>
+      <c r="J21" s="14">
         <v>1</v>
       </c>
       <c r="K21" s="10">
         <v>1</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="22">
         <v>4</v>
       </c>
       <c r="M21" s="10">
@@ -1845,8 +1858,8 @@
       <c r="O21" s="10">
         <v>1</v>
       </c>
-      <c r="P21" s="23">
-        <v>0</v>
+      <c r="P21" s="22">
+        <v>3</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -1860,7 +1873,7 @@
       <c r="Z21" s="10"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1873,25 +1886,25 @@
       <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22" s="15">
-        <v>1</v>
-      </c>
-      <c r="G22" s="15">
-        <v>1</v>
-      </c>
-      <c r="H22" s="15">
-        <v>1</v>
-      </c>
-      <c r="I22" s="15">
-        <v>1</v>
-      </c>
-      <c r="J22" s="15">
+      <c r="F22" s="14">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14">
+        <v>1</v>
+      </c>
+      <c r="I22" s="14">
+        <v>1</v>
+      </c>
+      <c r="J22" s="14">
         <v>1</v>
       </c>
       <c r="K22" s="10">
         <v>1</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="22">
         <v>0</v>
       </c>
       <c r="M22" s="10">
@@ -1903,8 +1916,8 @@
       <c r="O22" s="10">
         <v>1</v>
       </c>
-      <c r="P22" s="23">
-        <v>0</v>
+      <c r="P22" s="22">
+        <v>3</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -1918,7 +1931,7 @@
       <c r="Z22" s="10"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1931,25 +1944,25 @@
       <c r="E23" s="4">
         <v>1</v>
       </c>
-      <c r="F23" s="15">
-        <v>1</v>
-      </c>
-      <c r="G23" s="15">
-        <v>1</v>
-      </c>
-      <c r="H23" s="15">
-        <v>1</v>
-      </c>
-      <c r="I23" s="15">
-        <v>1</v>
-      </c>
-      <c r="J23" s="15">
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14">
+        <v>1</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14">
         <v>1</v>
       </c>
       <c r="K23" s="10">
         <v>1</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="22">
         <v>5</v>
       </c>
       <c r="M23" s="10">
@@ -1961,8 +1974,8 @@
       <c r="O23" s="10">
         <v>1</v>
       </c>
-      <c r="P23" s="23">
-        <v>0</v>
+      <c r="P23" s="22">
+        <v>3</v>
       </c>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
@@ -1976,7 +1989,7 @@
       <c r="Z23" s="10"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1989,25 +2002,25 @@
       <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="15">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15">
-        <v>1</v>
-      </c>
-      <c r="H24" s="15">
-        <v>1</v>
-      </c>
-      <c r="I24" s="15">
-        <v>1</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>1</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
         <v>1</v>
       </c>
       <c r="K24" s="10">
         <v>1</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="22">
         <v>4</v>
       </c>
       <c r="M24" s="10">
@@ -2019,8 +2032,8 @@
       <c r="O24" s="10">
         <v>1</v>
       </c>
-      <c r="P24" s="23">
-        <v>0</v>
+      <c r="P24" s="22">
+        <v>5</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -2034,7 +2047,7 @@
       <c r="Z24" s="10"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -2047,25 +2060,25 @@
       <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="15">
-        <v>1</v>
-      </c>
-      <c r="G25" s="15">
-        <v>1</v>
-      </c>
-      <c r="H25" s="15">
-        <v>1</v>
-      </c>
-      <c r="I25" s="15">
-        <v>1</v>
-      </c>
-      <c r="J25" s="15">
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14">
+        <v>1</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14">
         <v>1</v>
       </c>
       <c r="K25" s="10">
         <v>1</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="22">
         <v>5</v>
       </c>
       <c r="M25" s="10">
@@ -2077,8 +2090,8 @@
       <c r="O25" s="10">
         <v>1</v>
       </c>
-      <c r="P25" s="23">
-        <v>0</v>
+      <c r="P25" s="22">
+        <v>4</v>
       </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
@@ -2092,7 +2105,7 @@
       <c r="Z25" s="10"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -2105,25 +2118,25 @@
       <c r="E26" s="4">
         <v>1</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="14">
         <v>0</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <v>0</v>
       </c>
-      <c r="H26" s="15">
-        <v>1</v>
-      </c>
-      <c r="I26" s="15">
-        <v>1</v>
-      </c>
-      <c r="J26" s="15">
+      <c r="H26" s="14">
+        <v>1</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14">
         <v>1</v>
       </c>
       <c r="K26" s="10">
         <v>1</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="22">
         <v>4</v>
       </c>
       <c r="M26" s="10">
@@ -2135,8 +2148,8 @@
       <c r="O26" s="10">
         <v>1</v>
       </c>
-      <c r="P26" s="23">
-        <v>0</v>
+      <c r="P26" s="33">
+        <v>2</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
@@ -2150,7 +2163,7 @@
       <c r="Z26" s="10"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -2163,25 +2176,25 @@
       <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="F27" s="15">
-        <v>1</v>
-      </c>
-      <c r="G27" s="15">
+      <c r="F27" s="14">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14">
         <v>0</v>
       </c>
-      <c r="H27" s="15">
-        <v>1</v>
-      </c>
-      <c r="I27" s="15">
-        <v>1</v>
-      </c>
-      <c r="J27" s="15">
+      <c r="H27" s="14">
+        <v>1</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1</v>
+      </c>
+      <c r="J27" s="14">
         <v>1</v>
       </c>
       <c r="K27" s="10">
         <v>1</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="22">
         <v>3</v>
       </c>
       <c r="M27" s="10">
@@ -2193,8 +2206,8 @@
       <c r="O27" s="10">
         <v>1</v>
       </c>
-      <c r="P27" s="23">
-        <v>0</v>
+      <c r="P27" s="22">
+        <v>4</v>
       </c>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
@@ -2208,7 +2221,7 @@
       <c r="Z27" s="10"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -2221,25 +2234,25 @@
       <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28" s="15">
-        <v>1</v>
-      </c>
-      <c r="H28" s="15">
-        <v>1</v>
-      </c>
-      <c r="I28" s="15">
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14">
+        <v>1</v>
+      </c>
+      <c r="I28" s="14">
         <v>0</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="14">
         <v>1</v>
       </c>
       <c r="K28" s="10">
         <v>1</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="22">
         <v>4</v>
       </c>
       <c r="M28" s="10">
@@ -2251,8 +2264,8 @@
       <c r="O28" s="10">
         <v>1</v>
       </c>
-      <c r="P28" s="23">
-        <v>0</v>
+      <c r="P28" s="22">
+        <v>5</v>
       </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -2266,7 +2279,7 @@
       <c r="Z28" s="10"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -2279,25 +2292,25 @@
       <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="F29" s="15">
-        <v>1</v>
-      </c>
-      <c r="G29" s="15">
+      <c r="F29" s="14">
+        <v>1</v>
+      </c>
+      <c r="G29" s="14">
         <v>0</v>
       </c>
-      <c r="H29" s="15">
-        <v>1</v>
-      </c>
-      <c r="I29" s="15">
-        <v>1</v>
-      </c>
-      <c r="J29" s="15">
+      <c r="H29" s="14">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14">
+        <v>1</v>
+      </c>
+      <c r="J29" s="14">
         <v>1</v>
       </c>
       <c r="K29" s="10">
         <v>1</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="22">
         <v>2</v>
       </c>
       <c r="M29" s="10">
@@ -2309,8 +2322,8 @@
       <c r="O29" s="10">
         <v>1</v>
       </c>
-      <c r="P29" s="23">
-        <v>0</v>
+      <c r="P29" s="33">
+        <v>2</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
@@ -2324,7 +2337,7 @@
       <c r="Z29" s="10"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -2337,25 +2350,25 @@
       <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="15">
-        <v>1</v>
-      </c>
-      <c r="G30" s="15">
-        <v>1</v>
-      </c>
-      <c r="H30" s="15">
-        <v>1</v>
-      </c>
-      <c r="I30" s="15">
-        <v>1</v>
-      </c>
-      <c r="J30" s="15">
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1</v>
+      </c>
+      <c r="J30" s="14">
         <v>1</v>
       </c>
       <c r="K30" s="10">
         <v>1</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="32">
         <v>0</v>
       </c>
       <c r="M30" s="10">
@@ -2367,8 +2380,8 @@
       <c r="O30" s="10">
         <v>1</v>
       </c>
-      <c r="P30" s="23">
-        <v>0</v>
+      <c r="P30" s="32">
+        <v>1</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -2382,7 +2395,7 @@
       <c r="Z30" s="10"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -2395,25 +2408,25 @@
       <c r="E31" s="4">
         <v>1</v>
       </c>
-      <c r="F31" s="15">
-        <v>1</v>
-      </c>
-      <c r="G31" s="15">
+      <c r="F31" s="14">
+        <v>1</v>
+      </c>
+      <c r="G31" s="14">
         <v>0</v>
       </c>
-      <c r="H31" s="15">
-        <v>1</v>
-      </c>
-      <c r="I31" s="15">
-        <v>1</v>
-      </c>
-      <c r="J31" s="15">
+      <c r="H31" s="14">
+        <v>1</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1</v>
+      </c>
+      <c r="J31" s="14">
         <v>1</v>
       </c>
       <c r="K31" s="10">
         <v>1</v>
       </c>
-      <c r="L31" s="23">
+      <c r="L31" s="22">
         <v>2</v>
       </c>
       <c r="M31" s="10">
@@ -2425,7 +2438,7 @@
       <c r="O31" s="10">
         <v>0</v>
       </c>
-      <c r="P31" s="23">
+      <c r="P31" s="32">
         <v>0</v>
       </c>
       <c r="Q31" s="10"/>
@@ -2440,7 +2453,7 @@
       <c r="Z31" s="10"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -2453,25 +2466,25 @@
       <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="14">
         <v>0</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <v>0</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <v>0</v>
       </c>
-      <c r="I32" s="15">
-        <v>1</v>
-      </c>
-      <c r="J32" s="15">
+      <c r="I32" s="14">
+        <v>1</v>
+      </c>
+      <c r="J32" s="14">
         <v>1</v>
       </c>
       <c r="K32" s="10">
         <v>1</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="22">
         <v>1</v>
       </c>
       <c r="M32" s="10">
@@ -2483,8 +2496,8 @@
       <c r="O32" s="10">
         <v>1</v>
       </c>
-      <c r="P32" s="23">
-        <v>0</v>
+      <c r="P32" s="33">
+        <v>2</v>
       </c>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
@@ -2498,7 +2511,7 @@
       <c r="Z32" s="10"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -2511,25 +2524,25 @@
       <c r="E33" s="4">
         <v>1</v>
       </c>
-      <c r="F33" s="15">
-        <v>1</v>
-      </c>
-      <c r="G33" s="15">
-        <v>1</v>
-      </c>
-      <c r="H33" s="15">
-        <v>1</v>
-      </c>
-      <c r="I33" s="15">
-        <v>1</v>
-      </c>
-      <c r="J33" s="15">
+      <c r="F33" s="14">
+        <v>1</v>
+      </c>
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14">
+        <v>1</v>
+      </c>
+      <c r="I33" s="14">
+        <v>1</v>
+      </c>
+      <c r="J33" s="14">
         <v>1</v>
       </c>
       <c r="K33" s="10">
         <v>1</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L33" s="22">
         <v>1</v>
       </c>
       <c r="M33" s="10">
@@ -2541,8 +2554,8 @@
       <c r="O33" s="10">
         <v>1</v>
       </c>
-      <c r="P33" s="23">
-        <v>0</v>
+      <c r="P33" s="22">
+        <v>3</v>
       </c>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
@@ -2556,7 +2569,7 @@
       <c r="Z33" s="10"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -2569,25 +2582,25 @@
       <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="15">
-        <v>1</v>
-      </c>
-      <c r="G34" s="15">
-        <v>1</v>
-      </c>
-      <c r="H34" s="15">
-        <v>1</v>
-      </c>
-      <c r="I34" s="15">
+      <c r="F34" s="14">
+        <v>1</v>
+      </c>
+      <c r="G34" s="14">
+        <v>1</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1</v>
+      </c>
+      <c r="I34" s="14">
         <v>0</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="14">
         <v>0</v>
       </c>
       <c r="K34" s="10">
         <v>1</v>
       </c>
-      <c r="L34" s="23">
+      <c r="L34" s="22">
         <v>6</v>
       </c>
       <c r="M34" s="10">
@@ -2599,8 +2612,8 @@
       <c r="O34" s="10">
         <v>1</v>
       </c>
-      <c r="P34" s="23">
-        <v>0</v>
+      <c r="P34" s="22">
+        <v>5</v>
       </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -2625,25 +2638,25 @@
       <c r="E35" s="4">
         <v>1</v>
       </c>
-      <c r="F35" s="19">
-        <v>1</v>
-      </c>
-      <c r="G35" s="15">
-        <v>1</v>
-      </c>
-      <c r="H35" s="15">
-        <v>1</v>
-      </c>
-      <c r="I35" s="15">
-        <v>1</v>
-      </c>
-      <c r="J35" s="15">
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1</v>
+      </c>
+      <c r="H35" s="14">
+        <v>1</v>
+      </c>
+      <c r="I35" s="14">
+        <v>1</v>
+      </c>
+      <c r="J35" s="14">
         <v>1</v>
       </c>
       <c r="K35" s="10">
         <v>1</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="22">
         <v>2</v>
       </c>
       <c r="M35" s="10">
@@ -2655,8 +2668,8 @@
       <c r="O35" s="10">
         <v>1</v>
       </c>
-      <c r="P35" s="23">
-        <v>0</v>
+      <c r="P35" s="22">
+        <v>3</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
@@ -2670,3808 +2683,3808 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L36" s="24"/>
-      <c r="P36" s="24"/>
+      <c r="L36" s="23"/>
+      <c r="P36" s="23"/>
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L37" s="24"/>
-      <c r="P37" s="24"/>
+      <c r="L37" s="23"/>
+      <c r="P37" s="23"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L38" s="24"/>
-      <c r="P38" s="24"/>
+      <c r="L38" s="23"/>
+      <c r="P38" s="23"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L39" s="24"/>
-      <c r="P39" s="24"/>
+      <c r="L39" s="23"/>
+      <c r="P39" s="23"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L40" s="24"/>
-      <c r="P40" s="24"/>
+      <c r="L40" s="23"/>
+      <c r="P40" s="23"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L41" s="24"/>
-      <c r="P41" s="24"/>
+      <c r="L41" s="23"/>
+      <c r="P41" s="23"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L42" s="24"/>
-      <c r="P42" s="24"/>
+      <c r="L42" s="23"/>
+      <c r="P42" s="23"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L43" s="24"/>
-      <c r="P43" s="24"/>
+      <c r="L43" s="23"/>
+      <c r="P43" s="23"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L44" s="24"/>
-      <c r="P44" s="24"/>
+      <c r="L44" s="23"/>
+      <c r="P44" s="23"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L45" s="24"/>
-      <c r="P45" s="24"/>
+      <c r="L45" s="23"/>
+      <c r="P45" s="23"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L46" s="24"/>
-      <c r="P46" s="24"/>
+      <c r="L46" s="23"/>
+      <c r="P46" s="23"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L47" s="24"/>
-      <c r="P47" s="24"/>
+      <c r="L47" s="23"/>
+      <c r="P47" s="23"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L48" s="24"/>
-      <c r="P48" s="24"/>
+      <c r="L48" s="23"/>
+      <c r="P48" s="23"/>
     </row>
     <row r="49" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L49" s="24"/>
-      <c r="P49" s="24"/>
+      <c r="L49" s="23"/>
+      <c r="P49" s="23"/>
     </row>
     <row r="50" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L50" s="24"/>
-      <c r="P50" s="24"/>
+      <c r="L50" s="23"/>
+      <c r="P50" s="23"/>
     </row>
     <row r="51" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L51" s="24"/>
-      <c r="P51" s="24"/>
+      <c r="L51" s="23"/>
+      <c r="P51" s="23"/>
     </row>
     <row r="52" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L52" s="24"/>
-      <c r="P52" s="24"/>
+      <c r="L52" s="23"/>
+      <c r="P52" s="23"/>
     </row>
     <row r="53" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L53" s="24"/>
-      <c r="P53" s="24"/>
+      <c r="L53" s="23"/>
+      <c r="P53" s="23"/>
     </row>
     <row r="54" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L54" s="24"/>
-      <c r="P54" s="24"/>
+      <c r="L54" s="23"/>
+      <c r="P54" s="23"/>
     </row>
     <row r="55" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L55" s="24"/>
-      <c r="P55" s="24"/>
+      <c r="L55" s="23"/>
+      <c r="P55" s="23"/>
     </row>
     <row r="56" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L56" s="24"/>
-      <c r="P56" s="24"/>
+      <c r="L56" s="23"/>
+      <c r="P56" s="23"/>
     </row>
     <row r="57" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L57" s="24"/>
-      <c r="P57" s="24"/>
+      <c r="L57" s="23"/>
+      <c r="P57" s="23"/>
     </row>
     <row r="58" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L58" s="24"/>
-      <c r="P58" s="24"/>
+      <c r="L58" s="23"/>
+      <c r="P58" s="23"/>
     </row>
     <row r="59" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L59" s="24"/>
-      <c r="P59" s="24"/>
+      <c r="L59" s="23"/>
+      <c r="P59" s="23"/>
     </row>
     <row r="60" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L60" s="24"/>
-      <c r="P60" s="24"/>
+      <c r="L60" s="23"/>
+      <c r="P60" s="23"/>
     </row>
     <row r="61" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L61" s="24"/>
-      <c r="P61" s="24"/>
+      <c r="L61" s="23"/>
+      <c r="P61" s="23"/>
     </row>
     <row r="62" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L62" s="24"/>
-      <c r="P62" s="24"/>
+      <c r="L62" s="23"/>
+      <c r="P62" s="23"/>
     </row>
     <row r="63" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L63" s="24"/>
-      <c r="P63" s="24"/>
+      <c r="L63" s="23"/>
+      <c r="P63" s="23"/>
     </row>
     <row r="64" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L64" s="24"/>
-      <c r="P64" s="24"/>
+      <c r="L64" s="23"/>
+      <c r="P64" s="23"/>
     </row>
     <row r="65" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L65" s="24"/>
-      <c r="P65" s="24"/>
+      <c r="L65" s="23"/>
+      <c r="P65" s="23"/>
     </row>
     <row r="66" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L66" s="24"/>
-      <c r="P66" s="24"/>
+      <c r="L66" s="23"/>
+      <c r="P66" s="23"/>
     </row>
     <row r="67" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L67" s="24"/>
-      <c r="P67" s="24"/>
+      <c r="L67" s="23"/>
+      <c r="P67" s="23"/>
     </row>
     <row r="68" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L68" s="24"/>
-      <c r="P68" s="24"/>
+      <c r="L68" s="23"/>
+      <c r="P68" s="23"/>
     </row>
     <row r="69" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L69" s="24"/>
-      <c r="P69" s="24"/>
+      <c r="L69" s="23"/>
+      <c r="P69" s="23"/>
     </row>
     <row r="70" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L70" s="24"/>
-      <c r="P70" s="24"/>
+      <c r="L70" s="23"/>
+      <c r="P70" s="23"/>
     </row>
     <row r="71" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L71" s="24"/>
-      <c r="P71" s="24"/>
+      <c r="L71" s="23"/>
+      <c r="P71" s="23"/>
     </row>
     <row r="72" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L72" s="24"/>
-      <c r="P72" s="24"/>
+      <c r="L72" s="23"/>
+      <c r="P72" s="23"/>
     </row>
     <row r="73" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L73" s="24"/>
-      <c r="P73" s="24"/>
+      <c r="L73" s="23"/>
+      <c r="P73" s="23"/>
     </row>
     <row r="74" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L74" s="24"/>
-      <c r="P74" s="24"/>
+      <c r="L74" s="23"/>
+      <c r="P74" s="23"/>
     </row>
     <row r="75" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L75" s="24"/>
-      <c r="P75" s="24"/>
+      <c r="L75" s="23"/>
+      <c r="P75" s="23"/>
     </row>
     <row r="76" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L76" s="24"/>
-      <c r="P76" s="24"/>
+      <c r="L76" s="23"/>
+      <c r="P76" s="23"/>
     </row>
     <row r="77" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L77" s="24"/>
-      <c r="P77" s="24"/>
+      <c r="L77" s="23"/>
+      <c r="P77" s="23"/>
     </row>
     <row r="78" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L78" s="24"/>
-      <c r="P78" s="24"/>
+      <c r="L78" s="23"/>
+      <c r="P78" s="23"/>
     </row>
     <row r="79" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L79" s="24"/>
-      <c r="P79" s="24"/>
+      <c r="L79" s="23"/>
+      <c r="P79" s="23"/>
     </row>
     <row r="80" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L80" s="24"/>
-      <c r="P80" s="24"/>
+      <c r="L80" s="23"/>
+      <c r="P80" s="23"/>
     </row>
     <row r="81" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L81" s="24"/>
-      <c r="P81" s="24"/>
+      <c r="L81" s="23"/>
+      <c r="P81" s="23"/>
     </row>
     <row r="82" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L82" s="24"/>
-      <c r="P82" s="24"/>
+      <c r="L82" s="23"/>
+      <c r="P82" s="23"/>
     </row>
     <row r="83" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L83" s="24"/>
-      <c r="P83" s="24"/>
+      <c r="L83" s="23"/>
+      <c r="P83" s="23"/>
     </row>
     <row r="84" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L84" s="24"/>
-      <c r="P84" s="24"/>
+      <c r="L84" s="23"/>
+      <c r="P84" s="23"/>
     </row>
     <row r="85" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L85" s="24"/>
-      <c r="P85" s="24"/>
+      <c r="L85" s="23"/>
+      <c r="P85" s="23"/>
     </row>
     <row r="86" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L86" s="24"/>
-      <c r="P86" s="24"/>
+      <c r="L86" s="23"/>
+      <c r="P86" s="23"/>
     </row>
     <row r="87" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L87" s="24"/>
-      <c r="P87" s="24"/>
+      <c r="L87" s="23"/>
+      <c r="P87" s="23"/>
     </row>
     <row r="88" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L88" s="24"/>
-      <c r="P88" s="24"/>
+      <c r="L88" s="23"/>
+      <c r="P88" s="23"/>
     </row>
     <row r="89" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L89" s="24"/>
-      <c r="P89" s="24"/>
+      <c r="L89" s="23"/>
+      <c r="P89" s="23"/>
     </row>
     <row r="90" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L90" s="24"/>
-      <c r="P90" s="24"/>
+      <c r="L90" s="23"/>
+      <c r="P90" s="23"/>
     </row>
     <row r="91" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L91" s="24"/>
-      <c r="P91" s="24"/>
+      <c r="L91" s="23"/>
+      <c r="P91" s="23"/>
     </row>
     <row r="92" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L92" s="24"/>
-      <c r="P92" s="24"/>
+      <c r="L92" s="23"/>
+      <c r="P92" s="23"/>
     </row>
     <row r="93" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L93" s="24"/>
-      <c r="P93" s="24"/>
+      <c r="L93" s="23"/>
+      <c r="P93" s="23"/>
     </row>
     <row r="94" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L94" s="24"/>
-      <c r="P94" s="24"/>
+      <c r="L94" s="23"/>
+      <c r="P94" s="23"/>
     </row>
     <row r="95" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L95" s="24"/>
-      <c r="P95" s="24"/>
+      <c r="L95" s="23"/>
+      <c r="P95" s="23"/>
     </row>
     <row r="96" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L96" s="24"/>
-      <c r="P96" s="24"/>
+      <c r="L96" s="23"/>
+      <c r="P96" s="23"/>
     </row>
     <row r="97" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L97" s="24"/>
-      <c r="P97" s="24"/>
+      <c r="L97" s="23"/>
+      <c r="P97" s="23"/>
     </row>
     <row r="98" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L98" s="24"/>
-      <c r="P98" s="24"/>
+      <c r="L98" s="23"/>
+      <c r="P98" s="23"/>
     </row>
     <row r="99" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L99" s="24"/>
-      <c r="P99" s="24"/>
+      <c r="L99" s="23"/>
+      <c r="P99" s="23"/>
     </row>
     <row r="100" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L100" s="24"/>
-      <c r="P100" s="24"/>
+      <c r="L100" s="23"/>
+      <c r="P100" s="23"/>
     </row>
     <row r="101" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L101" s="24"/>
-      <c r="P101" s="24"/>
+      <c r="L101" s="23"/>
+      <c r="P101" s="23"/>
     </row>
     <row r="102" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L102" s="24"/>
-      <c r="P102" s="24"/>
+      <c r="L102" s="23"/>
+      <c r="P102" s="23"/>
     </row>
     <row r="103" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L103" s="24"/>
-      <c r="P103" s="24"/>
+      <c r="L103" s="23"/>
+      <c r="P103" s="23"/>
     </row>
     <row r="104" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L104" s="24"/>
-      <c r="P104" s="24"/>
+      <c r="L104" s="23"/>
+      <c r="P104" s="23"/>
     </row>
     <row r="105" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L105" s="24"/>
-      <c r="P105" s="24"/>
+      <c r="L105" s="23"/>
+      <c r="P105" s="23"/>
     </row>
     <row r="106" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L106" s="24"/>
-      <c r="P106" s="24"/>
+      <c r="L106" s="23"/>
+      <c r="P106" s="23"/>
     </row>
     <row r="107" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L107" s="24"/>
-      <c r="P107" s="24"/>
+      <c r="L107" s="23"/>
+      <c r="P107" s="23"/>
     </row>
     <row r="108" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L108" s="24"/>
-      <c r="P108" s="24"/>
+      <c r="L108" s="23"/>
+      <c r="P108" s="23"/>
     </row>
     <row r="109" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L109" s="24"/>
-      <c r="P109" s="24"/>
+      <c r="L109" s="23"/>
+      <c r="P109" s="23"/>
     </row>
     <row r="110" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L110" s="24"/>
-      <c r="P110" s="24"/>
+      <c r="L110" s="23"/>
+      <c r="P110" s="23"/>
     </row>
     <row r="111" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L111" s="24"/>
-      <c r="P111" s="24"/>
+      <c r="L111" s="23"/>
+      <c r="P111" s="23"/>
     </row>
     <row r="112" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L112" s="24"/>
-      <c r="P112" s="24"/>
+      <c r="L112" s="23"/>
+      <c r="P112" s="23"/>
     </row>
     <row r="113" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L113" s="24"/>
-      <c r="P113" s="24"/>
+      <c r="L113" s="23"/>
+      <c r="P113" s="23"/>
     </row>
     <row r="114" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L114" s="24"/>
-      <c r="P114" s="24"/>
+      <c r="L114" s="23"/>
+      <c r="P114" s="23"/>
     </row>
     <row r="115" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L115" s="24"/>
-      <c r="P115" s="24"/>
+      <c r="L115" s="23"/>
+      <c r="P115" s="23"/>
     </row>
     <row r="116" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L116" s="24"/>
-      <c r="P116" s="24"/>
+      <c r="L116" s="23"/>
+      <c r="P116" s="23"/>
     </row>
     <row r="117" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L117" s="24"/>
-      <c r="P117" s="24"/>
+      <c r="L117" s="23"/>
+      <c r="P117" s="23"/>
     </row>
     <row r="118" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L118" s="24"/>
-      <c r="P118" s="24"/>
+      <c r="L118" s="23"/>
+      <c r="P118" s="23"/>
     </row>
     <row r="119" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L119" s="24"/>
-      <c r="P119" s="24"/>
+      <c r="L119" s="23"/>
+      <c r="P119" s="23"/>
     </row>
     <row r="120" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L120" s="24"/>
-      <c r="P120" s="24"/>
+      <c r="L120" s="23"/>
+      <c r="P120" s="23"/>
     </row>
     <row r="121" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L121" s="24"/>
-      <c r="P121" s="24"/>
+      <c r="L121" s="23"/>
+      <c r="P121" s="23"/>
     </row>
     <row r="122" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L122" s="24"/>
-      <c r="P122" s="24"/>
+      <c r="L122" s="23"/>
+      <c r="P122" s="23"/>
     </row>
     <row r="123" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L123" s="24"/>
-      <c r="P123" s="24"/>
+      <c r="L123" s="23"/>
+      <c r="P123" s="23"/>
     </row>
     <row r="124" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L124" s="24"/>
-      <c r="P124" s="24"/>
+      <c r="L124" s="23"/>
+      <c r="P124" s="23"/>
     </row>
     <row r="125" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L125" s="24"/>
-      <c r="P125" s="24"/>
+      <c r="L125" s="23"/>
+      <c r="P125" s="23"/>
     </row>
     <row r="126" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L126" s="24"/>
-      <c r="P126" s="24"/>
+      <c r="L126" s="23"/>
+      <c r="P126" s="23"/>
     </row>
     <row r="127" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L127" s="24"/>
-      <c r="P127" s="24"/>
+      <c r="L127" s="23"/>
+      <c r="P127" s="23"/>
     </row>
     <row r="128" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L128" s="24"/>
-      <c r="P128" s="24"/>
+      <c r="L128" s="23"/>
+      <c r="P128" s="23"/>
     </row>
     <row r="129" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L129" s="24"/>
-      <c r="P129" s="24"/>
+      <c r="L129" s="23"/>
+      <c r="P129" s="23"/>
     </row>
     <row r="130" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L130" s="24"/>
-      <c r="P130" s="24"/>
+      <c r="L130" s="23"/>
+      <c r="P130" s="23"/>
     </row>
     <row r="131" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L131" s="24"/>
-      <c r="P131" s="24"/>
+      <c r="L131" s="23"/>
+      <c r="P131" s="23"/>
     </row>
     <row r="132" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L132" s="24"/>
-      <c r="P132" s="24"/>
+      <c r="L132" s="23"/>
+      <c r="P132" s="23"/>
     </row>
     <row r="133" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L133" s="24"/>
-      <c r="P133" s="24"/>
+      <c r="L133" s="23"/>
+      <c r="P133" s="23"/>
     </row>
     <row r="134" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L134" s="24"/>
-      <c r="P134" s="24"/>
+      <c r="L134" s="23"/>
+      <c r="P134" s="23"/>
     </row>
     <row r="135" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L135" s="24"/>
-      <c r="P135" s="24"/>
+      <c r="L135" s="23"/>
+      <c r="P135" s="23"/>
     </row>
     <row r="136" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L136" s="24"/>
-      <c r="P136" s="24"/>
+      <c r="L136" s="23"/>
+      <c r="P136" s="23"/>
     </row>
     <row r="137" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L137" s="24"/>
-      <c r="P137" s="24"/>
+      <c r="L137" s="23"/>
+      <c r="P137" s="23"/>
     </row>
     <row r="138" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L138" s="24"/>
-      <c r="P138" s="24"/>
+      <c r="L138" s="23"/>
+      <c r="P138" s="23"/>
     </row>
     <row r="139" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L139" s="24"/>
-      <c r="P139" s="24"/>
+      <c r="L139" s="23"/>
+      <c r="P139" s="23"/>
     </row>
     <row r="140" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L140" s="24"/>
-      <c r="P140" s="24"/>
+      <c r="L140" s="23"/>
+      <c r="P140" s="23"/>
     </row>
     <row r="141" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L141" s="24"/>
-      <c r="P141" s="24"/>
+      <c r="L141" s="23"/>
+      <c r="P141" s="23"/>
     </row>
     <row r="142" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L142" s="24"/>
-      <c r="P142" s="24"/>
+      <c r="L142" s="23"/>
+      <c r="P142" s="23"/>
     </row>
     <row r="143" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L143" s="24"/>
-      <c r="P143" s="24"/>
+      <c r="L143" s="23"/>
+      <c r="P143" s="23"/>
     </row>
     <row r="144" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L144" s="24"/>
-      <c r="P144" s="24"/>
+      <c r="L144" s="23"/>
+      <c r="P144" s="23"/>
     </row>
     <row r="145" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L145" s="24"/>
-      <c r="P145" s="24"/>
+      <c r="L145" s="23"/>
+      <c r="P145" s="23"/>
     </row>
     <row r="146" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L146" s="24"/>
-      <c r="P146" s="24"/>
+      <c r="L146" s="23"/>
+      <c r="P146" s="23"/>
     </row>
     <row r="147" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L147" s="24"/>
-      <c r="P147" s="24"/>
+      <c r="L147" s="23"/>
+      <c r="P147" s="23"/>
     </row>
     <row r="148" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L148" s="24"/>
-      <c r="P148" s="24"/>
+      <c r="L148" s="23"/>
+      <c r="P148" s="23"/>
     </row>
     <row r="149" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L149" s="24"/>
-      <c r="P149" s="24"/>
+      <c r="L149" s="23"/>
+      <c r="P149" s="23"/>
     </row>
     <row r="150" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L150" s="24"/>
-      <c r="P150" s="24"/>
+      <c r="L150" s="23"/>
+      <c r="P150" s="23"/>
     </row>
     <row r="151" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L151" s="24"/>
-      <c r="P151" s="24"/>
+      <c r="L151" s="23"/>
+      <c r="P151" s="23"/>
     </row>
     <row r="152" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L152" s="24"/>
-      <c r="P152" s="24"/>
+      <c r="L152" s="23"/>
+      <c r="P152" s="23"/>
     </row>
     <row r="153" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L153" s="24"/>
-      <c r="P153" s="24"/>
+      <c r="L153" s="23"/>
+      <c r="P153" s="23"/>
     </row>
     <row r="154" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L154" s="24"/>
-      <c r="P154" s="24"/>
+      <c r="L154" s="23"/>
+      <c r="P154" s="23"/>
     </row>
     <row r="155" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L155" s="24"/>
-      <c r="P155" s="24"/>
+      <c r="L155" s="23"/>
+      <c r="P155" s="23"/>
     </row>
     <row r="156" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L156" s="24"/>
-      <c r="P156" s="24"/>
+      <c r="L156" s="23"/>
+      <c r="P156" s="23"/>
     </row>
     <row r="157" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L157" s="24"/>
-      <c r="P157" s="24"/>
+      <c r="L157" s="23"/>
+      <c r="P157" s="23"/>
     </row>
     <row r="158" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L158" s="24"/>
-      <c r="P158" s="24"/>
+      <c r="L158" s="23"/>
+      <c r="P158" s="23"/>
     </row>
     <row r="159" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L159" s="24"/>
-      <c r="P159" s="24"/>
+      <c r="L159" s="23"/>
+      <c r="P159" s="23"/>
     </row>
     <row r="160" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L160" s="24"/>
-      <c r="P160" s="24"/>
+      <c r="L160" s="23"/>
+      <c r="P160" s="23"/>
     </row>
     <row r="161" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L161" s="24"/>
-      <c r="P161" s="24"/>
+      <c r="L161" s="23"/>
+      <c r="P161" s="23"/>
     </row>
     <row r="162" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L162" s="24"/>
-      <c r="P162" s="24"/>
+      <c r="L162" s="23"/>
+      <c r="P162" s="23"/>
     </row>
     <row r="163" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L163" s="24"/>
-      <c r="P163" s="24"/>
+      <c r="L163" s="23"/>
+      <c r="P163" s="23"/>
     </row>
     <row r="164" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L164" s="24"/>
-      <c r="P164" s="24"/>
+      <c r="L164" s="23"/>
+      <c r="P164" s="23"/>
     </row>
     <row r="165" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L165" s="24"/>
-      <c r="P165" s="24"/>
+      <c r="L165" s="23"/>
+      <c r="P165" s="23"/>
     </row>
     <row r="166" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L166" s="24"/>
-      <c r="P166" s="24"/>
+      <c r="L166" s="23"/>
+      <c r="P166" s="23"/>
     </row>
     <row r="167" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L167" s="24"/>
-      <c r="P167" s="24"/>
+      <c r="L167" s="23"/>
+      <c r="P167" s="23"/>
     </row>
     <row r="168" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L168" s="24"/>
-      <c r="P168" s="24"/>
+      <c r="L168" s="23"/>
+      <c r="P168" s="23"/>
     </row>
     <row r="169" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L169" s="24"/>
-      <c r="P169" s="24"/>
+      <c r="L169" s="23"/>
+      <c r="P169" s="23"/>
     </row>
     <row r="170" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L170" s="24"/>
-      <c r="P170" s="24"/>
+      <c r="L170" s="23"/>
+      <c r="P170" s="23"/>
     </row>
     <row r="171" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L171" s="24"/>
-      <c r="P171" s="24"/>
+      <c r="L171" s="23"/>
+      <c r="P171" s="23"/>
     </row>
     <row r="172" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L172" s="24"/>
-      <c r="P172" s="24"/>
+      <c r="L172" s="23"/>
+      <c r="P172" s="23"/>
     </row>
     <row r="173" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L173" s="24"/>
-      <c r="P173" s="24"/>
+      <c r="L173" s="23"/>
+      <c r="P173" s="23"/>
     </row>
     <row r="174" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L174" s="24"/>
-      <c r="P174" s="24"/>
+      <c r="L174" s="23"/>
+      <c r="P174" s="23"/>
     </row>
     <row r="175" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L175" s="24"/>
-      <c r="P175" s="24"/>
+      <c r="L175" s="23"/>
+      <c r="P175" s="23"/>
     </row>
     <row r="176" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L176" s="24"/>
-      <c r="P176" s="24"/>
+      <c r="L176" s="23"/>
+      <c r="P176" s="23"/>
     </row>
     <row r="177" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L177" s="24"/>
-      <c r="P177" s="24"/>
+      <c r="L177" s="23"/>
+      <c r="P177" s="23"/>
     </row>
     <row r="178" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L178" s="24"/>
-      <c r="P178" s="24"/>
+      <c r="L178" s="23"/>
+      <c r="P178" s="23"/>
     </row>
     <row r="179" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L179" s="24"/>
-      <c r="P179" s="24"/>
+      <c r="L179" s="23"/>
+      <c r="P179" s="23"/>
     </row>
     <row r="180" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L180" s="24"/>
-      <c r="P180" s="24"/>
+      <c r="L180" s="23"/>
+      <c r="P180" s="23"/>
     </row>
     <row r="181" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L181" s="24"/>
-      <c r="P181" s="24"/>
+      <c r="L181" s="23"/>
+      <c r="P181" s="23"/>
     </row>
     <row r="182" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L182" s="24"/>
-      <c r="P182" s="24"/>
+      <c r="L182" s="23"/>
+      <c r="P182" s="23"/>
     </row>
     <row r="183" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L183" s="24"/>
-      <c r="P183" s="24"/>
+      <c r="L183" s="23"/>
+      <c r="P183" s="23"/>
     </row>
     <row r="184" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L184" s="24"/>
-      <c r="P184" s="24"/>
+      <c r="L184" s="23"/>
+      <c r="P184" s="23"/>
     </row>
     <row r="185" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L185" s="24"/>
-      <c r="P185" s="24"/>
+      <c r="L185" s="23"/>
+      <c r="P185" s="23"/>
     </row>
     <row r="186" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L186" s="24"/>
-      <c r="P186" s="24"/>
+      <c r="L186" s="23"/>
+      <c r="P186" s="23"/>
     </row>
     <row r="187" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L187" s="24"/>
-      <c r="P187" s="24"/>
+      <c r="L187" s="23"/>
+      <c r="P187" s="23"/>
     </row>
     <row r="188" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L188" s="24"/>
-      <c r="P188" s="24"/>
+      <c r="L188" s="23"/>
+      <c r="P188" s="23"/>
     </row>
     <row r="189" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L189" s="24"/>
-      <c r="P189" s="24"/>
+      <c r="L189" s="23"/>
+      <c r="P189" s="23"/>
     </row>
     <row r="190" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L190" s="24"/>
-      <c r="P190" s="24"/>
+      <c r="L190" s="23"/>
+      <c r="P190" s="23"/>
     </row>
     <row r="191" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L191" s="24"/>
-      <c r="P191" s="24"/>
+      <c r="L191" s="23"/>
+      <c r="P191" s="23"/>
     </row>
     <row r="192" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L192" s="24"/>
-      <c r="P192" s="24"/>
+      <c r="L192" s="23"/>
+      <c r="P192" s="23"/>
     </row>
     <row r="193" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L193" s="24"/>
-      <c r="P193" s="24"/>
+      <c r="L193" s="23"/>
+      <c r="P193" s="23"/>
     </row>
     <row r="194" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L194" s="24"/>
-      <c r="P194" s="24"/>
+      <c r="L194" s="23"/>
+      <c r="P194" s="23"/>
     </row>
     <row r="195" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L195" s="24"/>
-      <c r="P195" s="24"/>
+      <c r="L195" s="23"/>
+      <c r="P195" s="23"/>
     </row>
     <row r="196" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L196" s="24"/>
-      <c r="P196" s="24"/>
+      <c r="L196" s="23"/>
+      <c r="P196" s="23"/>
     </row>
     <row r="197" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L197" s="24"/>
-      <c r="P197" s="24"/>
+      <c r="L197" s="23"/>
+      <c r="P197" s="23"/>
     </row>
     <row r="198" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L198" s="24"/>
-      <c r="P198" s="24"/>
+      <c r="L198" s="23"/>
+      <c r="P198" s="23"/>
     </row>
     <row r="199" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L199" s="24"/>
-      <c r="P199" s="24"/>
+      <c r="L199" s="23"/>
+      <c r="P199" s="23"/>
     </row>
     <row r="200" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L200" s="24"/>
-      <c r="P200" s="24"/>
+      <c r="L200" s="23"/>
+      <c r="P200" s="23"/>
     </row>
     <row r="201" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L201" s="24"/>
-      <c r="P201" s="24"/>
+      <c r="L201" s="23"/>
+      <c r="P201" s="23"/>
     </row>
     <row r="202" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L202" s="24"/>
-      <c r="P202" s="24"/>
+      <c r="L202" s="23"/>
+      <c r="P202" s="23"/>
     </row>
     <row r="203" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L203" s="24"/>
-      <c r="P203" s="24"/>
+      <c r="L203" s="23"/>
+      <c r="P203" s="23"/>
     </row>
     <row r="204" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L204" s="24"/>
-      <c r="P204" s="24"/>
+      <c r="L204" s="23"/>
+      <c r="P204" s="23"/>
     </row>
     <row r="205" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L205" s="24"/>
-      <c r="P205" s="24"/>
+      <c r="L205" s="23"/>
+      <c r="P205" s="23"/>
     </row>
     <row r="206" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L206" s="24"/>
-      <c r="P206" s="24"/>
+      <c r="L206" s="23"/>
+      <c r="P206" s="23"/>
     </row>
     <row r="207" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L207" s="24"/>
-      <c r="P207" s="24"/>
+      <c r="L207" s="23"/>
+      <c r="P207" s="23"/>
     </row>
     <row r="208" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L208" s="24"/>
-      <c r="P208" s="24"/>
+      <c r="L208" s="23"/>
+      <c r="P208" s="23"/>
     </row>
     <row r="209" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L209" s="24"/>
-      <c r="P209" s="24"/>
+      <c r="L209" s="23"/>
+      <c r="P209" s="23"/>
     </row>
     <row r="210" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L210" s="24"/>
-      <c r="P210" s="24"/>
+      <c r="L210" s="23"/>
+      <c r="P210" s="23"/>
     </row>
     <row r="211" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L211" s="24"/>
-      <c r="P211" s="24"/>
+      <c r="L211" s="23"/>
+      <c r="P211" s="23"/>
     </row>
     <row r="212" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L212" s="24"/>
-      <c r="P212" s="24"/>
+      <c r="L212" s="23"/>
+      <c r="P212" s="23"/>
     </row>
     <row r="213" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L213" s="24"/>
-      <c r="P213" s="24"/>
+      <c r="L213" s="23"/>
+      <c r="P213" s="23"/>
     </row>
     <row r="214" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L214" s="24"/>
-      <c r="P214" s="24"/>
+      <c r="L214" s="23"/>
+      <c r="P214" s="23"/>
     </row>
     <row r="215" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L215" s="24"/>
-      <c r="P215" s="24"/>
+      <c r="L215" s="23"/>
+      <c r="P215" s="23"/>
     </row>
     <row r="216" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L216" s="24"/>
-      <c r="P216" s="24"/>
+      <c r="L216" s="23"/>
+      <c r="P216" s="23"/>
     </row>
     <row r="217" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L217" s="24"/>
-      <c r="P217" s="24"/>
+      <c r="L217" s="23"/>
+      <c r="P217" s="23"/>
     </row>
     <row r="218" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L218" s="24"/>
-      <c r="P218" s="24"/>
+      <c r="L218" s="23"/>
+      <c r="P218" s="23"/>
     </row>
     <row r="219" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L219" s="24"/>
-      <c r="P219" s="24"/>
+      <c r="L219" s="23"/>
+      <c r="P219" s="23"/>
     </row>
     <row r="220" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L220" s="24"/>
-      <c r="P220" s="24"/>
+      <c r="L220" s="23"/>
+      <c r="P220" s="23"/>
     </row>
     <row r="221" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L221" s="24"/>
-      <c r="P221" s="24"/>
+      <c r="L221" s="23"/>
+      <c r="P221" s="23"/>
     </row>
     <row r="222" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L222" s="24"/>
-      <c r="P222" s="24"/>
+      <c r="L222" s="23"/>
+      <c r="P222" s="23"/>
     </row>
     <row r="223" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L223" s="24"/>
-      <c r="P223" s="24"/>
+      <c r="L223" s="23"/>
+      <c r="P223" s="23"/>
     </row>
     <row r="224" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L224" s="24"/>
-      <c r="P224" s="24"/>
+      <c r="L224" s="23"/>
+      <c r="P224" s="23"/>
     </row>
     <row r="225" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L225" s="24"/>
-      <c r="P225" s="24"/>
+      <c r="L225" s="23"/>
+      <c r="P225" s="23"/>
     </row>
     <row r="226" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L226" s="24"/>
-      <c r="P226" s="24"/>
+      <c r="L226" s="23"/>
+      <c r="P226" s="23"/>
     </row>
     <row r="227" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L227" s="24"/>
-      <c r="P227" s="24"/>
+      <c r="L227" s="23"/>
+      <c r="P227" s="23"/>
     </row>
     <row r="228" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L228" s="24"/>
-      <c r="P228" s="24"/>
+      <c r="L228" s="23"/>
+      <c r="P228" s="23"/>
     </row>
     <row r="229" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L229" s="24"/>
-      <c r="P229" s="24"/>
+      <c r="L229" s="23"/>
+      <c r="P229" s="23"/>
     </row>
     <row r="230" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L230" s="24"/>
-      <c r="P230" s="24"/>
+      <c r="L230" s="23"/>
+      <c r="P230" s="23"/>
     </row>
     <row r="231" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L231" s="24"/>
-      <c r="P231" s="24"/>
+      <c r="L231" s="23"/>
+      <c r="P231" s="23"/>
     </row>
     <row r="232" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L232" s="24"/>
-      <c r="P232" s="24"/>
+      <c r="L232" s="23"/>
+      <c r="P232" s="23"/>
     </row>
     <row r="233" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L233" s="24"/>
-      <c r="P233" s="24"/>
+      <c r="L233" s="23"/>
+      <c r="P233" s="23"/>
     </row>
     <row r="234" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L234" s="24"/>
-      <c r="P234" s="24"/>
+      <c r="L234" s="23"/>
+      <c r="P234" s="23"/>
     </row>
     <row r="235" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L235" s="24"/>
-      <c r="P235" s="24"/>
+      <c r="L235" s="23"/>
+      <c r="P235" s="23"/>
     </row>
     <row r="236" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L236" s="24"/>
-      <c r="P236" s="24"/>
+      <c r="L236" s="23"/>
+      <c r="P236" s="23"/>
     </row>
     <row r="237" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L237" s="24"/>
-      <c r="P237" s="24"/>
+      <c r="L237" s="23"/>
+      <c r="P237" s="23"/>
     </row>
     <row r="238" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L238" s="24"/>
-      <c r="P238" s="24"/>
+      <c r="L238" s="23"/>
+      <c r="P238" s="23"/>
     </row>
     <row r="239" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L239" s="24"/>
-      <c r="P239" s="24"/>
+      <c r="L239" s="23"/>
+      <c r="P239" s="23"/>
     </row>
     <row r="240" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L240" s="24"/>
-      <c r="P240" s="24"/>
+      <c r="L240" s="23"/>
+      <c r="P240" s="23"/>
     </row>
     <row r="241" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L241" s="24"/>
-      <c r="P241" s="24"/>
+      <c r="L241" s="23"/>
+      <c r="P241" s="23"/>
     </row>
     <row r="242" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L242" s="24"/>
-      <c r="P242" s="24"/>
+      <c r="L242" s="23"/>
+      <c r="P242" s="23"/>
     </row>
     <row r="243" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L243" s="24"/>
-      <c r="P243" s="24"/>
+      <c r="L243" s="23"/>
+      <c r="P243" s="23"/>
     </row>
     <row r="244" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L244" s="24"/>
-      <c r="P244" s="24"/>
+      <c r="L244" s="23"/>
+      <c r="P244" s="23"/>
     </row>
     <row r="245" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L245" s="24"/>
-      <c r="P245" s="24"/>
+      <c r="L245" s="23"/>
+      <c r="P245" s="23"/>
     </row>
     <row r="246" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L246" s="24"/>
-      <c r="P246" s="24"/>
+      <c r="L246" s="23"/>
+      <c r="P246" s="23"/>
     </row>
     <row r="247" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L247" s="24"/>
-      <c r="P247" s="24"/>
+      <c r="L247" s="23"/>
+      <c r="P247" s="23"/>
     </row>
     <row r="248" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L248" s="24"/>
-      <c r="P248" s="24"/>
+      <c r="L248" s="23"/>
+      <c r="P248" s="23"/>
     </row>
     <row r="249" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L249" s="24"/>
-      <c r="P249" s="24"/>
+      <c r="L249" s="23"/>
+      <c r="P249" s="23"/>
     </row>
     <row r="250" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L250" s="24"/>
-      <c r="P250" s="24"/>
+      <c r="L250" s="23"/>
+      <c r="P250" s="23"/>
     </row>
     <row r="251" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L251" s="24"/>
-      <c r="P251" s="24"/>
+      <c r="L251" s="23"/>
+      <c r="P251" s="23"/>
     </row>
     <row r="252" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L252" s="24"/>
-      <c r="P252" s="24"/>
+      <c r="L252" s="23"/>
+      <c r="P252" s="23"/>
     </row>
     <row r="253" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L253" s="24"/>
-      <c r="P253" s="24"/>
+      <c r="L253" s="23"/>
+      <c r="P253" s="23"/>
     </row>
     <row r="254" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L254" s="24"/>
-      <c r="P254" s="24"/>
+      <c r="L254" s="23"/>
+      <c r="P254" s="23"/>
     </row>
     <row r="255" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L255" s="24"/>
-      <c r="P255" s="24"/>
+      <c r="L255" s="23"/>
+      <c r="P255" s="23"/>
     </row>
     <row r="256" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L256" s="24"/>
-      <c r="P256" s="24"/>
+      <c r="L256" s="23"/>
+      <c r="P256" s="23"/>
     </row>
     <row r="257" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L257" s="24"/>
-      <c r="P257" s="24"/>
+      <c r="L257" s="23"/>
+      <c r="P257" s="23"/>
     </row>
     <row r="258" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L258" s="24"/>
-      <c r="P258" s="24"/>
+      <c r="L258" s="23"/>
+      <c r="P258" s="23"/>
     </row>
     <row r="259" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L259" s="24"/>
-      <c r="P259" s="24"/>
+      <c r="L259" s="23"/>
+      <c r="P259" s="23"/>
     </row>
     <row r="260" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L260" s="24"/>
-      <c r="P260" s="24"/>
+      <c r="L260" s="23"/>
+      <c r="P260" s="23"/>
     </row>
     <row r="261" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L261" s="24"/>
-      <c r="P261" s="24"/>
+      <c r="L261" s="23"/>
+      <c r="P261" s="23"/>
     </row>
     <row r="262" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L262" s="24"/>
-      <c r="P262" s="24"/>
+      <c r="L262" s="23"/>
+      <c r="P262" s="23"/>
     </row>
     <row r="263" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L263" s="24"/>
-      <c r="P263" s="24"/>
+      <c r="L263" s="23"/>
+      <c r="P263" s="23"/>
     </row>
     <row r="264" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L264" s="24"/>
-      <c r="P264" s="24"/>
+      <c r="L264" s="23"/>
+      <c r="P264" s="23"/>
     </row>
     <row r="265" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L265" s="24"/>
-      <c r="P265" s="24"/>
+      <c r="L265" s="23"/>
+      <c r="P265" s="23"/>
     </row>
     <row r="266" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L266" s="24"/>
-      <c r="P266" s="24"/>
+      <c r="L266" s="23"/>
+      <c r="P266" s="23"/>
     </row>
     <row r="267" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L267" s="24"/>
-      <c r="P267" s="24"/>
+      <c r="L267" s="23"/>
+      <c r="P267" s="23"/>
     </row>
     <row r="268" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L268" s="24"/>
-      <c r="P268" s="24"/>
+      <c r="L268" s="23"/>
+      <c r="P268" s="23"/>
     </row>
     <row r="269" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L269" s="24"/>
-      <c r="P269" s="24"/>
+      <c r="L269" s="23"/>
+      <c r="P269" s="23"/>
     </row>
     <row r="270" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L270" s="24"/>
-      <c r="P270" s="24"/>
+      <c r="L270" s="23"/>
+      <c r="P270" s="23"/>
     </row>
     <row r="271" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L271" s="24"/>
-      <c r="P271" s="24"/>
+      <c r="L271" s="23"/>
+      <c r="P271" s="23"/>
     </row>
     <row r="272" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L272" s="24"/>
-      <c r="P272" s="24"/>
+      <c r="L272" s="23"/>
+      <c r="P272" s="23"/>
     </row>
     <row r="273" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L273" s="24"/>
-      <c r="P273" s="24"/>
+      <c r="L273" s="23"/>
+      <c r="P273" s="23"/>
     </row>
     <row r="274" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L274" s="24"/>
-      <c r="P274" s="24"/>
+      <c r="L274" s="23"/>
+      <c r="P274" s="23"/>
     </row>
     <row r="275" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L275" s="24"/>
-      <c r="P275" s="24"/>
+      <c r="L275" s="23"/>
+      <c r="P275" s="23"/>
     </row>
     <row r="276" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L276" s="24"/>
-      <c r="P276" s="24"/>
+      <c r="L276" s="23"/>
+      <c r="P276" s="23"/>
     </row>
     <row r="277" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L277" s="24"/>
-      <c r="P277" s="24"/>
+      <c r="L277" s="23"/>
+      <c r="P277" s="23"/>
     </row>
     <row r="278" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L278" s="24"/>
-      <c r="P278" s="24"/>
+      <c r="L278" s="23"/>
+      <c r="P278" s="23"/>
     </row>
     <row r="279" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L279" s="24"/>
-      <c r="P279" s="24"/>
+      <c r="L279" s="23"/>
+      <c r="P279" s="23"/>
     </row>
     <row r="280" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L280" s="24"/>
-      <c r="P280" s="24"/>
+      <c r="L280" s="23"/>
+      <c r="P280" s="23"/>
     </row>
     <row r="281" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L281" s="24"/>
-      <c r="P281" s="24"/>
+      <c r="L281" s="23"/>
+      <c r="P281" s="23"/>
     </row>
     <row r="282" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L282" s="24"/>
-      <c r="P282" s="24"/>
+      <c r="L282" s="23"/>
+      <c r="P282" s="23"/>
     </row>
     <row r="283" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L283" s="24"/>
-      <c r="P283" s="24"/>
+      <c r="L283" s="23"/>
+      <c r="P283" s="23"/>
     </row>
     <row r="284" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L284" s="24"/>
-      <c r="P284" s="24"/>
+      <c r="L284" s="23"/>
+      <c r="P284" s="23"/>
     </row>
     <row r="285" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L285" s="24"/>
-      <c r="P285" s="24"/>
+      <c r="L285" s="23"/>
+      <c r="P285" s="23"/>
     </row>
     <row r="286" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L286" s="24"/>
-      <c r="P286" s="24"/>
+      <c r="L286" s="23"/>
+      <c r="P286" s="23"/>
     </row>
     <row r="287" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L287" s="24"/>
-      <c r="P287" s="24"/>
+      <c r="L287" s="23"/>
+      <c r="P287" s="23"/>
     </row>
     <row r="288" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L288" s="24"/>
-      <c r="P288" s="24"/>
+      <c r="L288" s="23"/>
+      <c r="P288" s="23"/>
     </row>
     <row r="289" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L289" s="24"/>
-      <c r="P289" s="24"/>
+      <c r="L289" s="23"/>
+      <c r="P289" s="23"/>
     </row>
     <row r="290" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L290" s="24"/>
-      <c r="P290" s="24"/>
+      <c r="L290" s="23"/>
+      <c r="P290" s="23"/>
     </row>
     <row r="291" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L291" s="24"/>
-      <c r="P291" s="24"/>
+      <c r="L291" s="23"/>
+      <c r="P291" s="23"/>
     </row>
     <row r="292" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L292" s="24"/>
-      <c r="P292" s="24"/>
+      <c r="L292" s="23"/>
+      <c r="P292" s="23"/>
     </row>
     <row r="293" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L293" s="24"/>
-      <c r="P293" s="24"/>
+      <c r="L293" s="23"/>
+      <c r="P293" s="23"/>
     </row>
     <row r="294" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L294" s="24"/>
-      <c r="P294" s="24"/>
+      <c r="L294" s="23"/>
+      <c r="P294" s="23"/>
     </row>
     <row r="295" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L295" s="24"/>
-      <c r="P295" s="24"/>
+      <c r="L295" s="23"/>
+      <c r="P295" s="23"/>
     </row>
     <row r="296" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L296" s="24"/>
-      <c r="P296" s="24"/>
+      <c r="L296" s="23"/>
+      <c r="P296" s="23"/>
     </row>
     <row r="297" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L297" s="24"/>
-      <c r="P297" s="24"/>
+      <c r="L297" s="23"/>
+      <c r="P297" s="23"/>
     </row>
     <row r="298" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L298" s="24"/>
-      <c r="P298" s="24"/>
+      <c r="L298" s="23"/>
+      <c r="P298" s="23"/>
     </row>
     <row r="299" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L299" s="24"/>
-      <c r="P299" s="24"/>
+      <c r="L299" s="23"/>
+      <c r="P299" s="23"/>
     </row>
     <row r="300" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L300" s="24"/>
-      <c r="P300" s="24"/>
+      <c r="L300" s="23"/>
+      <c r="P300" s="23"/>
     </row>
     <row r="301" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L301" s="24"/>
-      <c r="P301" s="24"/>
+      <c r="L301" s="23"/>
+      <c r="P301" s="23"/>
     </row>
     <row r="302" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L302" s="24"/>
-      <c r="P302" s="24"/>
+      <c r="L302" s="23"/>
+      <c r="P302" s="23"/>
     </row>
     <row r="303" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L303" s="24"/>
-      <c r="P303" s="24"/>
+      <c r="L303" s="23"/>
+      <c r="P303" s="23"/>
     </row>
     <row r="304" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L304" s="24"/>
-      <c r="P304" s="24"/>
+      <c r="L304" s="23"/>
+      <c r="P304" s="23"/>
     </row>
     <row r="305" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L305" s="24"/>
-      <c r="P305" s="24"/>
+      <c r="L305" s="23"/>
+      <c r="P305" s="23"/>
     </row>
     <row r="306" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L306" s="24"/>
-      <c r="P306" s="24"/>
+      <c r="L306" s="23"/>
+      <c r="P306" s="23"/>
     </row>
     <row r="307" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L307" s="24"/>
-      <c r="P307" s="24"/>
+      <c r="L307" s="23"/>
+      <c r="P307" s="23"/>
     </row>
     <row r="308" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L308" s="24"/>
-      <c r="P308" s="24"/>
+      <c r="L308" s="23"/>
+      <c r="P308" s="23"/>
     </row>
     <row r="309" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L309" s="24"/>
-      <c r="P309" s="24"/>
+      <c r="L309" s="23"/>
+      <c r="P309" s="23"/>
     </row>
     <row r="310" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L310" s="24"/>
-      <c r="P310" s="24"/>
+      <c r="L310" s="23"/>
+      <c r="P310" s="23"/>
     </row>
     <row r="311" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L311" s="24"/>
-      <c r="P311" s="24"/>
+      <c r="L311" s="23"/>
+      <c r="P311" s="23"/>
     </row>
     <row r="312" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L312" s="24"/>
-      <c r="P312" s="24"/>
+      <c r="L312" s="23"/>
+      <c r="P312" s="23"/>
     </row>
     <row r="313" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L313" s="24"/>
-      <c r="P313" s="24"/>
+      <c r="L313" s="23"/>
+      <c r="P313" s="23"/>
     </row>
     <row r="314" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L314" s="24"/>
-      <c r="P314" s="24"/>
+      <c r="L314" s="23"/>
+      <c r="P314" s="23"/>
     </row>
     <row r="315" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L315" s="24"/>
-      <c r="P315" s="24"/>
+      <c r="L315" s="23"/>
+      <c r="P315" s="23"/>
     </row>
     <row r="316" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L316" s="24"/>
-      <c r="P316" s="24"/>
+      <c r="L316" s="23"/>
+      <c r="P316" s="23"/>
     </row>
     <row r="317" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L317" s="24"/>
-      <c r="P317" s="24"/>
+      <c r="L317" s="23"/>
+      <c r="P317" s="23"/>
     </row>
     <row r="318" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L318" s="24"/>
-      <c r="P318" s="24"/>
+      <c r="L318" s="23"/>
+      <c r="P318" s="23"/>
     </row>
     <row r="319" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L319" s="24"/>
-      <c r="P319" s="24"/>
+      <c r="L319" s="23"/>
+      <c r="P319" s="23"/>
     </row>
     <row r="320" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L320" s="24"/>
-      <c r="P320" s="24"/>
+      <c r="L320" s="23"/>
+      <c r="P320" s="23"/>
     </row>
     <row r="321" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L321" s="24"/>
-      <c r="P321" s="24"/>
+      <c r="L321" s="23"/>
+      <c r="P321" s="23"/>
     </row>
     <row r="322" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L322" s="24"/>
-      <c r="P322" s="24"/>
+      <c r="L322" s="23"/>
+      <c r="P322" s="23"/>
     </row>
     <row r="323" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L323" s="24"/>
-      <c r="P323" s="24"/>
+      <c r="L323" s="23"/>
+      <c r="P323" s="23"/>
     </row>
     <row r="324" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L324" s="24"/>
-      <c r="P324" s="24"/>
+      <c r="L324" s="23"/>
+      <c r="P324" s="23"/>
     </row>
     <row r="325" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L325" s="24"/>
-      <c r="P325" s="24"/>
+      <c r="L325" s="23"/>
+      <c r="P325" s="23"/>
     </row>
     <row r="326" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L326" s="24"/>
-      <c r="P326" s="24"/>
+      <c r="L326" s="23"/>
+      <c r="P326" s="23"/>
     </row>
     <row r="327" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L327" s="24"/>
-      <c r="P327" s="24"/>
+      <c r="L327" s="23"/>
+      <c r="P327" s="23"/>
     </row>
     <row r="328" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L328" s="24"/>
-      <c r="P328" s="24"/>
+      <c r="L328" s="23"/>
+      <c r="P328" s="23"/>
     </row>
     <row r="329" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L329" s="24"/>
-      <c r="P329" s="24"/>
+      <c r="L329" s="23"/>
+      <c r="P329" s="23"/>
     </row>
     <row r="330" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L330" s="24"/>
-      <c r="P330" s="24"/>
+      <c r="L330" s="23"/>
+      <c r="P330" s="23"/>
     </row>
     <row r="331" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L331" s="24"/>
-      <c r="P331" s="24"/>
+      <c r="L331" s="23"/>
+      <c r="P331" s="23"/>
     </row>
     <row r="332" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L332" s="24"/>
-      <c r="P332" s="24"/>
+      <c r="L332" s="23"/>
+      <c r="P332" s="23"/>
     </row>
     <row r="333" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L333" s="24"/>
-      <c r="P333" s="24"/>
+      <c r="L333" s="23"/>
+      <c r="P333" s="23"/>
     </row>
     <row r="334" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L334" s="24"/>
-      <c r="P334" s="24"/>
+      <c r="L334" s="23"/>
+      <c r="P334" s="23"/>
     </row>
     <row r="335" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L335" s="24"/>
-      <c r="P335" s="24"/>
+      <c r="L335" s="23"/>
+      <c r="P335" s="23"/>
     </row>
     <row r="336" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L336" s="24"/>
-      <c r="P336" s="24"/>
+      <c r="L336" s="23"/>
+      <c r="P336" s="23"/>
     </row>
     <row r="337" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L337" s="24"/>
-      <c r="P337" s="24"/>
+      <c r="L337" s="23"/>
+      <c r="P337" s="23"/>
     </row>
     <row r="338" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L338" s="24"/>
-      <c r="P338" s="24"/>
+      <c r="L338" s="23"/>
+      <c r="P338" s="23"/>
     </row>
     <row r="339" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L339" s="24"/>
-      <c r="P339" s="24"/>
+      <c r="L339" s="23"/>
+      <c r="P339" s="23"/>
     </row>
     <row r="340" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L340" s="24"/>
-      <c r="P340" s="24"/>
+      <c r="L340" s="23"/>
+      <c r="P340" s="23"/>
     </row>
     <row r="341" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L341" s="24"/>
-      <c r="P341" s="24"/>
+      <c r="L341" s="23"/>
+      <c r="P341" s="23"/>
     </row>
     <row r="342" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L342" s="24"/>
-      <c r="P342" s="24"/>
+      <c r="L342" s="23"/>
+      <c r="P342" s="23"/>
     </row>
     <row r="343" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L343" s="24"/>
-      <c r="P343" s="24"/>
+      <c r="L343" s="23"/>
+      <c r="P343" s="23"/>
     </row>
     <row r="344" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L344" s="24"/>
-      <c r="P344" s="24"/>
+      <c r="L344" s="23"/>
+      <c r="P344" s="23"/>
     </row>
     <row r="345" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L345" s="24"/>
-      <c r="P345" s="24"/>
+      <c r="L345" s="23"/>
+      <c r="P345" s="23"/>
     </row>
     <row r="346" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L346" s="24"/>
-      <c r="P346" s="24"/>
+      <c r="L346" s="23"/>
+      <c r="P346" s="23"/>
     </row>
     <row r="347" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L347" s="24"/>
-      <c r="P347" s="24"/>
+      <c r="L347" s="23"/>
+      <c r="P347" s="23"/>
     </row>
     <row r="348" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L348" s="24"/>
-      <c r="P348" s="24"/>
+      <c r="L348" s="23"/>
+      <c r="P348" s="23"/>
     </row>
     <row r="349" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L349" s="24"/>
-      <c r="P349" s="24"/>
+      <c r="L349" s="23"/>
+      <c r="P349" s="23"/>
     </row>
     <row r="350" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L350" s="24"/>
-      <c r="P350" s="24"/>
+      <c r="L350" s="23"/>
+      <c r="P350" s="23"/>
     </row>
     <row r="351" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L351" s="24"/>
-      <c r="P351" s="24"/>
+      <c r="L351" s="23"/>
+      <c r="P351" s="23"/>
     </row>
     <row r="352" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L352" s="24"/>
-      <c r="P352" s="24"/>
+      <c r="L352" s="23"/>
+      <c r="P352" s="23"/>
     </row>
     <row r="353" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L353" s="24"/>
-      <c r="P353" s="24"/>
+      <c r="L353" s="23"/>
+      <c r="P353" s="23"/>
     </row>
     <row r="354" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L354" s="24"/>
-      <c r="P354" s="24"/>
+      <c r="L354" s="23"/>
+      <c r="P354" s="23"/>
     </row>
     <row r="355" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L355" s="24"/>
-      <c r="P355" s="24"/>
+      <c r="L355" s="23"/>
+      <c r="P355" s="23"/>
     </row>
     <row r="356" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L356" s="24"/>
-      <c r="P356" s="24"/>
+      <c r="L356" s="23"/>
+      <c r="P356" s="23"/>
     </row>
     <row r="357" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L357" s="24"/>
-      <c r="P357" s="24"/>
+      <c r="L357" s="23"/>
+      <c r="P357" s="23"/>
     </row>
     <row r="358" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L358" s="24"/>
-      <c r="P358" s="24"/>
+      <c r="L358" s="23"/>
+      <c r="P358" s="23"/>
     </row>
     <row r="359" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L359" s="24"/>
-      <c r="P359" s="24"/>
+      <c r="L359" s="23"/>
+      <c r="P359" s="23"/>
     </row>
     <row r="360" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L360" s="24"/>
-      <c r="P360" s="24"/>
+      <c r="L360" s="23"/>
+      <c r="P360" s="23"/>
     </row>
     <row r="361" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L361" s="24"/>
-      <c r="P361" s="24"/>
+      <c r="L361" s="23"/>
+      <c r="P361" s="23"/>
     </row>
     <row r="362" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L362" s="24"/>
-      <c r="P362" s="24"/>
+      <c r="L362" s="23"/>
+      <c r="P362" s="23"/>
     </row>
     <row r="363" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L363" s="24"/>
-      <c r="P363" s="24"/>
+      <c r="L363" s="23"/>
+      <c r="P363" s="23"/>
     </row>
     <row r="364" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L364" s="24"/>
-      <c r="P364" s="24"/>
+      <c r="L364" s="23"/>
+      <c r="P364" s="23"/>
     </row>
     <row r="365" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L365" s="24"/>
-      <c r="P365" s="24"/>
+      <c r="L365" s="23"/>
+      <c r="P365" s="23"/>
     </row>
     <row r="366" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L366" s="24"/>
-      <c r="P366" s="24"/>
+      <c r="L366" s="23"/>
+      <c r="P366" s="23"/>
     </row>
     <row r="367" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L367" s="24"/>
-      <c r="P367" s="24"/>
+      <c r="L367" s="23"/>
+      <c r="P367" s="23"/>
     </row>
     <row r="368" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L368" s="24"/>
-      <c r="P368" s="24"/>
+      <c r="L368" s="23"/>
+      <c r="P368" s="23"/>
     </row>
     <row r="369" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L369" s="24"/>
-      <c r="P369" s="24"/>
+      <c r="L369" s="23"/>
+      <c r="P369" s="23"/>
     </row>
     <row r="370" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L370" s="24"/>
-      <c r="P370" s="24"/>
+      <c r="L370" s="23"/>
+      <c r="P370" s="23"/>
     </row>
     <row r="371" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L371" s="24"/>
-      <c r="P371" s="24"/>
+      <c r="L371" s="23"/>
+      <c r="P371" s="23"/>
     </row>
     <row r="372" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L372" s="24"/>
-      <c r="P372" s="24"/>
+      <c r="L372" s="23"/>
+      <c r="P372" s="23"/>
     </row>
     <row r="373" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L373" s="24"/>
-      <c r="P373" s="24"/>
+      <c r="L373" s="23"/>
+      <c r="P373" s="23"/>
     </row>
     <row r="374" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L374" s="24"/>
-      <c r="P374" s="24"/>
+      <c r="L374" s="23"/>
+      <c r="P374" s="23"/>
     </row>
     <row r="375" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L375" s="24"/>
-      <c r="P375" s="24"/>
+      <c r="L375" s="23"/>
+      <c r="P375" s="23"/>
     </row>
     <row r="376" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L376" s="24"/>
-      <c r="P376" s="24"/>
+      <c r="L376" s="23"/>
+      <c r="P376" s="23"/>
     </row>
     <row r="377" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L377" s="24"/>
-      <c r="P377" s="24"/>
+      <c r="L377" s="23"/>
+      <c r="P377" s="23"/>
     </row>
     <row r="378" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L378" s="24"/>
-      <c r="P378" s="24"/>
+      <c r="L378" s="23"/>
+      <c r="P378" s="23"/>
     </row>
     <row r="379" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L379" s="24"/>
-      <c r="P379" s="24"/>
+      <c r="L379" s="23"/>
+      <c r="P379" s="23"/>
     </row>
     <row r="380" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L380" s="24"/>
-      <c r="P380" s="24"/>
+      <c r="L380" s="23"/>
+      <c r="P380" s="23"/>
     </row>
     <row r="381" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L381" s="24"/>
-      <c r="P381" s="24"/>
+      <c r="L381" s="23"/>
+      <c r="P381" s="23"/>
     </row>
     <row r="382" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L382" s="24"/>
-      <c r="P382" s="24"/>
+      <c r="L382" s="23"/>
+      <c r="P382" s="23"/>
     </row>
     <row r="383" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L383" s="24"/>
-      <c r="P383" s="24"/>
+      <c r="L383" s="23"/>
+      <c r="P383" s="23"/>
     </row>
     <row r="384" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L384" s="24"/>
-      <c r="P384" s="24"/>
+      <c r="L384" s="23"/>
+      <c r="P384" s="23"/>
     </row>
     <row r="385" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L385" s="24"/>
-      <c r="P385" s="24"/>
+      <c r="L385" s="23"/>
+      <c r="P385" s="23"/>
     </row>
     <row r="386" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L386" s="24"/>
-      <c r="P386" s="24"/>
+      <c r="L386" s="23"/>
+      <c r="P386" s="23"/>
     </row>
     <row r="387" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L387" s="24"/>
-      <c r="P387" s="24"/>
+      <c r="L387" s="23"/>
+      <c r="P387" s="23"/>
     </row>
     <row r="388" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L388" s="24"/>
-      <c r="P388" s="24"/>
+      <c r="L388" s="23"/>
+      <c r="P388" s="23"/>
     </row>
     <row r="389" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L389" s="24"/>
-      <c r="P389" s="24"/>
+      <c r="L389" s="23"/>
+      <c r="P389" s="23"/>
     </row>
     <row r="390" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L390" s="24"/>
-      <c r="P390" s="24"/>
+      <c r="L390" s="23"/>
+      <c r="P390" s="23"/>
     </row>
     <row r="391" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L391" s="24"/>
-      <c r="P391" s="24"/>
+      <c r="L391" s="23"/>
+      <c r="P391" s="23"/>
     </row>
     <row r="392" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L392" s="24"/>
-      <c r="P392" s="24"/>
+      <c r="L392" s="23"/>
+      <c r="P392" s="23"/>
     </row>
     <row r="393" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L393" s="24"/>
-      <c r="P393" s="24"/>
+      <c r="L393" s="23"/>
+      <c r="P393" s="23"/>
     </row>
     <row r="394" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L394" s="24"/>
-      <c r="P394" s="24"/>
+      <c r="L394" s="23"/>
+      <c r="P394" s="23"/>
     </row>
     <row r="395" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L395" s="24"/>
-      <c r="P395" s="24"/>
+      <c r="L395" s="23"/>
+      <c r="P395" s="23"/>
     </row>
     <row r="396" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L396" s="24"/>
-      <c r="P396" s="24"/>
+      <c r="L396" s="23"/>
+      <c r="P396" s="23"/>
     </row>
     <row r="397" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L397" s="24"/>
-      <c r="P397" s="24"/>
+      <c r="L397" s="23"/>
+      <c r="P397" s="23"/>
     </row>
     <row r="398" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L398" s="24"/>
-      <c r="P398" s="24"/>
+      <c r="L398" s="23"/>
+      <c r="P398" s="23"/>
     </row>
     <row r="399" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L399" s="24"/>
-      <c r="P399" s="24"/>
+      <c r="L399" s="23"/>
+      <c r="P399" s="23"/>
     </row>
     <row r="400" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L400" s="24"/>
-      <c r="P400" s="24"/>
+      <c r="L400" s="23"/>
+      <c r="P400" s="23"/>
     </row>
     <row r="401" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L401" s="24"/>
-      <c r="P401" s="24"/>
+      <c r="L401" s="23"/>
+      <c r="P401" s="23"/>
     </row>
     <row r="402" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L402" s="24"/>
-      <c r="P402" s="24"/>
+      <c r="L402" s="23"/>
+      <c r="P402" s="23"/>
     </row>
     <row r="403" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L403" s="24"/>
-      <c r="P403" s="24"/>
+      <c r="L403" s="23"/>
+      <c r="P403" s="23"/>
     </row>
     <row r="404" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L404" s="24"/>
-      <c r="P404" s="24"/>
+      <c r="L404" s="23"/>
+      <c r="P404" s="23"/>
     </row>
     <row r="405" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L405" s="24"/>
-      <c r="P405" s="24"/>
+      <c r="L405" s="23"/>
+      <c r="P405" s="23"/>
     </row>
     <row r="406" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L406" s="24"/>
-      <c r="P406" s="24"/>
+      <c r="L406" s="23"/>
+      <c r="P406" s="23"/>
     </row>
     <row r="407" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L407" s="24"/>
-      <c r="P407" s="24"/>
+      <c r="L407" s="23"/>
+      <c r="P407" s="23"/>
     </row>
     <row r="408" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L408" s="24"/>
-      <c r="P408" s="24"/>
+      <c r="L408" s="23"/>
+      <c r="P408" s="23"/>
     </row>
     <row r="409" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L409" s="24"/>
-      <c r="P409" s="24"/>
+      <c r="L409" s="23"/>
+      <c r="P409" s="23"/>
     </row>
     <row r="410" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L410" s="24"/>
-      <c r="P410" s="24"/>
+      <c r="L410" s="23"/>
+      <c r="P410" s="23"/>
     </row>
     <row r="411" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L411" s="24"/>
-      <c r="P411" s="24"/>
+      <c r="L411" s="23"/>
+      <c r="P411" s="23"/>
     </row>
     <row r="412" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L412" s="24"/>
-      <c r="P412" s="24"/>
+      <c r="L412" s="23"/>
+      <c r="P412" s="23"/>
     </row>
     <row r="413" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L413" s="24"/>
-      <c r="P413" s="24"/>
+      <c r="L413" s="23"/>
+      <c r="P413" s="23"/>
     </row>
     <row r="414" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L414" s="24"/>
-      <c r="P414" s="24"/>
+      <c r="L414" s="23"/>
+      <c r="P414" s="23"/>
     </row>
     <row r="415" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L415" s="24"/>
-      <c r="P415" s="24"/>
+      <c r="L415" s="23"/>
+      <c r="P415" s="23"/>
     </row>
     <row r="416" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L416" s="24"/>
-      <c r="P416" s="24"/>
+      <c r="L416" s="23"/>
+      <c r="P416" s="23"/>
     </row>
     <row r="417" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L417" s="24"/>
-      <c r="P417" s="24"/>
+      <c r="L417" s="23"/>
+      <c r="P417" s="23"/>
     </row>
     <row r="418" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L418" s="24"/>
-      <c r="P418" s="24"/>
+      <c r="L418" s="23"/>
+      <c r="P418" s="23"/>
     </row>
     <row r="419" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L419" s="24"/>
-      <c r="P419" s="24"/>
+      <c r="L419" s="23"/>
+      <c r="P419" s="23"/>
     </row>
     <row r="420" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L420" s="24"/>
-      <c r="P420" s="24"/>
+      <c r="L420" s="23"/>
+      <c r="P420" s="23"/>
     </row>
     <row r="421" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L421" s="24"/>
-      <c r="P421" s="24"/>
+      <c r="L421" s="23"/>
+      <c r="P421" s="23"/>
     </row>
     <row r="422" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L422" s="24"/>
-      <c r="P422" s="24"/>
+      <c r="L422" s="23"/>
+      <c r="P422" s="23"/>
     </row>
     <row r="423" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L423" s="24"/>
-      <c r="P423" s="24"/>
+      <c r="L423" s="23"/>
+      <c r="P423" s="23"/>
     </row>
     <row r="424" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L424" s="24"/>
-      <c r="P424" s="24"/>
+      <c r="L424" s="23"/>
+      <c r="P424" s="23"/>
     </row>
     <row r="425" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L425" s="24"/>
-      <c r="P425" s="24"/>
+      <c r="L425" s="23"/>
+      <c r="P425" s="23"/>
     </row>
     <row r="426" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L426" s="24"/>
-      <c r="P426" s="24"/>
+      <c r="L426" s="23"/>
+      <c r="P426" s="23"/>
     </row>
     <row r="427" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L427" s="24"/>
-      <c r="P427" s="24"/>
+      <c r="L427" s="23"/>
+      <c r="P427" s="23"/>
     </row>
     <row r="428" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L428" s="24"/>
-      <c r="P428" s="24"/>
+      <c r="L428" s="23"/>
+      <c r="P428" s="23"/>
     </row>
     <row r="429" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L429" s="24"/>
-      <c r="P429" s="24"/>
+      <c r="L429" s="23"/>
+      <c r="P429" s="23"/>
     </row>
     <row r="430" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L430" s="24"/>
-      <c r="P430" s="24"/>
+      <c r="L430" s="23"/>
+      <c r="P430" s="23"/>
     </row>
     <row r="431" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L431" s="24"/>
-      <c r="P431" s="24"/>
+      <c r="L431" s="23"/>
+      <c r="P431" s="23"/>
     </row>
     <row r="432" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L432" s="24"/>
-      <c r="P432" s="24"/>
+      <c r="L432" s="23"/>
+      <c r="P432" s="23"/>
     </row>
     <row r="433" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L433" s="24"/>
-      <c r="P433" s="24"/>
+      <c r="L433" s="23"/>
+      <c r="P433" s="23"/>
     </row>
     <row r="434" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L434" s="24"/>
-      <c r="P434" s="24"/>
+      <c r="L434" s="23"/>
+      <c r="P434" s="23"/>
     </row>
     <row r="435" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L435" s="24"/>
-      <c r="P435" s="24"/>
+      <c r="L435" s="23"/>
+      <c r="P435" s="23"/>
     </row>
     <row r="436" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L436" s="24"/>
-      <c r="P436" s="24"/>
+      <c r="L436" s="23"/>
+      <c r="P436" s="23"/>
     </row>
     <row r="437" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L437" s="24"/>
-      <c r="P437" s="24"/>
+      <c r="L437" s="23"/>
+      <c r="P437" s="23"/>
     </row>
     <row r="438" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L438" s="24"/>
-      <c r="P438" s="24"/>
+      <c r="L438" s="23"/>
+      <c r="P438" s="23"/>
     </row>
     <row r="439" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L439" s="24"/>
-      <c r="P439" s="24"/>
+      <c r="L439" s="23"/>
+      <c r="P439" s="23"/>
     </row>
     <row r="440" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L440" s="24"/>
-      <c r="P440" s="24"/>
+      <c r="L440" s="23"/>
+      <c r="P440" s="23"/>
     </row>
     <row r="441" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L441" s="24"/>
-      <c r="P441" s="24"/>
+      <c r="L441" s="23"/>
+      <c r="P441" s="23"/>
     </row>
     <row r="442" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L442" s="24"/>
-      <c r="P442" s="24"/>
+      <c r="L442" s="23"/>
+      <c r="P442" s="23"/>
     </row>
     <row r="443" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L443" s="24"/>
-      <c r="P443" s="24"/>
+      <c r="L443" s="23"/>
+      <c r="P443" s="23"/>
     </row>
     <row r="444" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L444" s="24"/>
-      <c r="P444" s="24"/>
+      <c r="L444" s="23"/>
+      <c r="P444" s="23"/>
     </row>
     <row r="445" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L445" s="24"/>
-      <c r="P445" s="24"/>
+      <c r="L445" s="23"/>
+      <c r="P445" s="23"/>
     </row>
     <row r="446" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L446" s="24"/>
-      <c r="P446" s="24"/>
+      <c r="L446" s="23"/>
+      <c r="P446" s="23"/>
     </row>
     <row r="447" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L447" s="24"/>
-      <c r="P447" s="24"/>
+      <c r="L447" s="23"/>
+      <c r="P447" s="23"/>
     </row>
     <row r="448" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L448" s="24"/>
-      <c r="P448" s="24"/>
+      <c r="L448" s="23"/>
+      <c r="P448" s="23"/>
     </row>
     <row r="449" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L449" s="24"/>
-      <c r="P449" s="24"/>
+      <c r="L449" s="23"/>
+      <c r="P449" s="23"/>
     </row>
     <row r="450" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L450" s="24"/>
-      <c r="P450" s="24"/>
+      <c r="L450" s="23"/>
+      <c r="P450" s="23"/>
     </row>
     <row r="451" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L451" s="24"/>
-      <c r="P451" s="24"/>
+      <c r="L451" s="23"/>
+      <c r="P451" s="23"/>
     </row>
     <row r="452" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L452" s="24"/>
-      <c r="P452" s="24"/>
+      <c r="L452" s="23"/>
+      <c r="P452" s="23"/>
     </row>
     <row r="453" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L453" s="24"/>
-      <c r="P453" s="24"/>
+      <c r="L453" s="23"/>
+      <c r="P453" s="23"/>
     </row>
     <row r="454" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L454" s="24"/>
-      <c r="P454" s="24"/>
+      <c r="L454" s="23"/>
+      <c r="P454" s="23"/>
     </row>
     <row r="455" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L455" s="24"/>
-      <c r="P455" s="24"/>
+      <c r="L455" s="23"/>
+      <c r="P455" s="23"/>
     </row>
     <row r="456" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L456" s="24"/>
-      <c r="P456" s="24"/>
+      <c r="L456" s="23"/>
+      <c r="P456" s="23"/>
     </row>
     <row r="457" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L457" s="24"/>
-      <c r="P457" s="24"/>
+      <c r="L457" s="23"/>
+      <c r="P457" s="23"/>
     </row>
     <row r="458" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L458" s="24"/>
-      <c r="P458" s="24"/>
+      <c r="L458" s="23"/>
+      <c r="P458" s="23"/>
     </row>
     <row r="459" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L459" s="24"/>
-      <c r="P459" s="24"/>
+      <c r="L459" s="23"/>
+      <c r="P459" s="23"/>
     </row>
     <row r="460" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L460" s="24"/>
-      <c r="P460" s="24"/>
+      <c r="L460" s="23"/>
+      <c r="P460" s="23"/>
     </row>
     <row r="461" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L461" s="24"/>
-      <c r="P461" s="24"/>
+      <c r="L461" s="23"/>
+      <c r="P461" s="23"/>
     </row>
     <row r="462" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L462" s="24"/>
-      <c r="P462" s="24"/>
+      <c r="L462" s="23"/>
+      <c r="P462" s="23"/>
     </row>
     <row r="463" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L463" s="24"/>
-      <c r="P463" s="24"/>
+      <c r="L463" s="23"/>
+      <c r="P463" s="23"/>
     </row>
     <row r="464" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L464" s="24"/>
-      <c r="P464" s="24"/>
+      <c r="L464" s="23"/>
+      <c r="P464" s="23"/>
     </row>
     <row r="465" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L465" s="24"/>
-      <c r="P465" s="24"/>
+      <c r="L465" s="23"/>
+      <c r="P465" s="23"/>
     </row>
     <row r="466" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L466" s="24"/>
-      <c r="P466" s="24"/>
+      <c r="L466" s="23"/>
+      <c r="P466" s="23"/>
     </row>
     <row r="467" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L467" s="24"/>
-      <c r="P467" s="24"/>
+      <c r="L467" s="23"/>
+      <c r="P467" s="23"/>
     </row>
     <row r="468" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L468" s="24"/>
-      <c r="P468" s="24"/>
+      <c r="L468" s="23"/>
+      <c r="P468" s="23"/>
     </row>
     <row r="469" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L469" s="24"/>
-      <c r="P469" s="24"/>
+      <c r="L469" s="23"/>
+      <c r="P469" s="23"/>
     </row>
     <row r="470" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L470" s="24"/>
-      <c r="P470" s="24"/>
+      <c r="L470" s="23"/>
+      <c r="P470" s="23"/>
     </row>
     <row r="471" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L471" s="24"/>
-      <c r="P471" s="24"/>
+      <c r="L471" s="23"/>
+      <c r="P471" s="23"/>
     </row>
     <row r="472" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L472" s="24"/>
-      <c r="P472" s="24"/>
+      <c r="L472" s="23"/>
+      <c r="P472" s="23"/>
     </row>
     <row r="473" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L473" s="24"/>
-      <c r="P473" s="24"/>
+      <c r="L473" s="23"/>
+      <c r="P473" s="23"/>
     </row>
     <row r="474" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L474" s="24"/>
-      <c r="P474" s="24"/>
+      <c r="L474" s="23"/>
+      <c r="P474" s="23"/>
     </row>
     <row r="475" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L475" s="24"/>
-      <c r="P475" s="24"/>
+      <c r="L475" s="23"/>
+      <c r="P475" s="23"/>
     </row>
     <row r="476" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L476" s="24"/>
-      <c r="P476" s="24"/>
+      <c r="L476" s="23"/>
+      <c r="P476" s="23"/>
     </row>
     <row r="477" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L477" s="24"/>
-      <c r="P477" s="24"/>
+      <c r="L477" s="23"/>
+      <c r="P477" s="23"/>
     </row>
     <row r="478" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L478" s="24"/>
-      <c r="P478" s="24"/>
+      <c r="L478" s="23"/>
+      <c r="P478" s="23"/>
     </row>
     <row r="479" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L479" s="24"/>
-      <c r="P479" s="24"/>
+      <c r="L479" s="23"/>
+      <c r="P479" s="23"/>
     </row>
     <row r="480" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L480" s="24"/>
-      <c r="P480" s="24"/>
+      <c r="L480" s="23"/>
+      <c r="P480" s="23"/>
     </row>
     <row r="481" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L481" s="24"/>
-      <c r="P481" s="24"/>
+      <c r="L481" s="23"/>
+      <c r="P481" s="23"/>
     </row>
     <row r="482" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L482" s="24"/>
-      <c r="P482" s="24"/>
+      <c r="L482" s="23"/>
+      <c r="P482" s="23"/>
     </row>
     <row r="483" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L483" s="24"/>
-      <c r="P483" s="24"/>
+      <c r="L483" s="23"/>
+      <c r="P483" s="23"/>
     </row>
     <row r="484" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L484" s="24"/>
-      <c r="P484" s="24"/>
+      <c r="L484" s="23"/>
+      <c r="P484" s="23"/>
     </row>
     <row r="485" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L485" s="24"/>
-      <c r="P485" s="24"/>
+      <c r="L485" s="23"/>
+      <c r="P485" s="23"/>
     </row>
     <row r="486" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L486" s="24"/>
-      <c r="P486" s="24"/>
+      <c r="L486" s="23"/>
+      <c r="P486" s="23"/>
     </row>
     <row r="487" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L487" s="24"/>
-      <c r="P487" s="24"/>
+      <c r="L487" s="23"/>
+      <c r="P487" s="23"/>
     </row>
     <row r="488" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L488" s="24"/>
-      <c r="P488" s="24"/>
+      <c r="L488" s="23"/>
+      <c r="P488" s="23"/>
     </row>
     <row r="489" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L489" s="24"/>
-      <c r="P489" s="24"/>
+      <c r="L489" s="23"/>
+      <c r="P489" s="23"/>
     </row>
     <row r="490" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L490" s="24"/>
-      <c r="P490" s="24"/>
+      <c r="L490" s="23"/>
+      <c r="P490" s="23"/>
     </row>
     <row r="491" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L491" s="24"/>
-      <c r="P491" s="24"/>
+      <c r="L491" s="23"/>
+      <c r="P491" s="23"/>
     </row>
     <row r="492" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L492" s="24"/>
-      <c r="P492" s="24"/>
+      <c r="L492" s="23"/>
+      <c r="P492" s="23"/>
     </row>
     <row r="493" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L493" s="24"/>
-      <c r="P493" s="24"/>
+      <c r="L493" s="23"/>
+      <c r="P493" s="23"/>
     </row>
     <row r="494" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L494" s="24"/>
-      <c r="P494" s="24"/>
+      <c r="L494" s="23"/>
+      <c r="P494" s="23"/>
     </row>
     <row r="495" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L495" s="24"/>
-      <c r="P495" s="24"/>
+      <c r="L495" s="23"/>
+      <c r="P495" s="23"/>
     </row>
     <row r="496" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L496" s="24"/>
-      <c r="P496" s="24"/>
+      <c r="L496" s="23"/>
+      <c r="P496" s="23"/>
     </row>
     <row r="497" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L497" s="24"/>
-      <c r="P497" s="24"/>
+      <c r="L497" s="23"/>
+      <c r="P497" s="23"/>
     </row>
     <row r="498" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L498" s="24"/>
-      <c r="P498" s="24"/>
+      <c r="L498" s="23"/>
+      <c r="P498" s="23"/>
     </row>
     <row r="499" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L499" s="24"/>
-      <c r="P499" s="24"/>
+      <c r="L499" s="23"/>
+      <c r="P499" s="23"/>
     </row>
     <row r="500" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L500" s="24"/>
-      <c r="P500" s="24"/>
+      <c r="L500" s="23"/>
+      <c r="P500" s="23"/>
     </row>
     <row r="501" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L501" s="24"/>
-      <c r="P501" s="24"/>
+      <c r="L501" s="23"/>
+      <c r="P501" s="23"/>
     </row>
     <row r="502" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L502" s="24"/>
-      <c r="P502" s="24"/>
+      <c r="L502" s="23"/>
+      <c r="P502" s="23"/>
     </row>
     <row r="503" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L503" s="24"/>
-      <c r="P503" s="24"/>
+      <c r="L503" s="23"/>
+      <c r="P503" s="23"/>
     </row>
     <row r="504" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L504" s="24"/>
-      <c r="P504" s="24"/>
+      <c r="L504" s="23"/>
+      <c r="P504" s="23"/>
     </row>
     <row r="505" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L505" s="24"/>
-      <c r="P505" s="24"/>
+      <c r="L505" s="23"/>
+      <c r="P505" s="23"/>
     </row>
     <row r="506" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L506" s="24"/>
-      <c r="P506" s="24"/>
+      <c r="L506" s="23"/>
+      <c r="P506" s="23"/>
     </row>
     <row r="507" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L507" s="24"/>
-      <c r="P507" s="24"/>
+      <c r="L507" s="23"/>
+      <c r="P507" s="23"/>
     </row>
     <row r="508" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L508" s="24"/>
-      <c r="P508" s="24"/>
+      <c r="L508" s="23"/>
+      <c r="P508" s="23"/>
     </row>
     <row r="509" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L509" s="24"/>
-      <c r="P509" s="24"/>
+      <c r="L509" s="23"/>
+      <c r="P509" s="23"/>
     </row>
     <row r="510" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L510" s="24"/>
-      <c r="P510" s="24"/>
+      <c r="L510" s="23"/>
+      <c r="P510" s="23"/>
     </row>
     <row r="511" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L511" s="24"/>
-      <c r="P511" s="24"/>
+      <c r="L511" s="23"/>
+      <c r="P511" s="23"/>
     </row>
     <row r="512" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L512" s="24"/>
-      <c r="P512" s="24"/>
+      <c r="L512" s="23"/>
+      <c r="P512" s="23"/>
     </row>
     <row r="513" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L513" s="24"/>
-      <c r="P513" s="24"/>
+      <c r="L513" s="23"/>
+      <c r="P513" s="23"/>
     </row>
     <row r="514" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L514" s="24"/>
-      <c r="P514" s="24"/>
+      <c r="L514" s="23"/>
+      <c r="P514" s="23"/>
     </row>
     <row r="515" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L515" s="24"/>
-      <c r="P515" s="24"/>
+      <c r="L515" s="23"/>
+      <c r="P515" s="23"/>
     </row>
     <row r="516" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L516" s="24"/>
-      <c r="P516" s="24"/>
+      <c r="L516" s="23"/>
+      <c r="P516" s="23"/>
     </row>
     <row r="517" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L517" s="24"/>
-      <c r="P517" s="24"/>
+      <c r="L517" s="23"/>
+      <c r="P517" s="23"/>
     </row>
     <row r="518" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L518" s="24"/>
-      <c r="P518" s="24"/>
+      <c r="L518" s="23"/>
+      <c r="P518" s="23"/>
     </row>
     <row r="519" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L519" s="24"/>
-      <c r="P519" s="24"/>
+      <c r="L519" s="23"/>
+      <c r="P519" s="23"/>
     </row>
     <row r="520" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L520" s="24"/>
-      <c r="P520" s="24"/>
+      <c r="L520" s="23"/>
+      <c r="P520" s="23"/>
     </row>
     <row r="521" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L521" s="24"/>
-      <c r="P521" s="24"/>
+      <c r="L521" s="23"/>
+      <c r="P521" s="23"/>
     </row>
     <row r="522" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L522" s="24"/>
-      <c r="P522" s="24"/>
+      <c r="L522" s="23"/>
+      <c r="P522" s="23"/>
     </row>
     <row r="523" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L523" s="24"/>
-      <c r="P523" s="24"/>
+      <c r="L523" s="23"/>
+      <c r="P523" s="23"/>
     </row>
     <row r="524" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L524" s="24"/>
-      <c r="P524" s="24"/>
+      <c r="L524" s="23"/>
+      <c r="P524" s="23"/>
     </row>
     <row r="525" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L525" s="24"/>
-      <c r="P525" s="24"/>
+      <c r="L525" s="23"/>
+      <c r="P525" s="23"/>
     </row>
     <row r="526" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L526" s="24"/>
-      <c r="P526" s="24"/>
+      <c r="L526" s="23"/>
+      <c r="P526" s="23"/>
     </row>
     <row r="527" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L527" s="24"/>
-      <c r="P527" s="24"/>
+      <c r="L527" s="23"/>
+      <c r="P527" s="23"/>
     </row>
     <row r="528" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L528" s="24"/>
-      <c r="P528" s="24"/>
+      <c r="L528" s="23"/>
+      <c r="P528" s="23"/>
     </row>
     <row r="529" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L529" s="24"/>
-      <c r="P529" s="24"/>
+      <c r="L529" s="23"/>
+      <c r="P529" s="23"/>
     </row>
     <row r="530" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L530" s="24"/>
-      <c r="P530" s="24"/>
+      <c r="L530" s="23"/>
+      <c r="P530" s="23"/>
     </row>
     <row r="531" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L531" s="24"/>
-      <c r="P531" s="24"/>
+      <c r="L531" s="23"/>
+      <c r="P531" s="23"/>
     </row>
     <row r="532" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L532" s="24"/>
-      <c r="P532" s="24"/>
+      <c r="L532" s="23"/>
+      <c r="P532" s="23"/>
     </row>
     <row r="533" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L533" s="24"/>
-      <c r="P533" s="24"/>
+      <c r="L533" s="23"/>
+      <c r="P533" s="23"/>
     </row>
     <row r="534" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L534" s="24"/>
-      <c r="P534" s="24"/>
+      <c r="L534" s="23"/>
+      <c r="P534" s="23"/>
     </row>
     <row r="535" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L535" s="24"/>
-      <c r="P535" s="24"/>
+      <c r="L535" s="23"/>
+      <c r="P535" s="23"/>
     </row>
     <row r="536" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L536" s="24"/>
-      <c r="P536" s="24"/>
+      <c r="L536" s="23"/>
+      <c r="P536" s="23"/>
     </row>
     <row r="537" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L537" s="24"/>
-      <c r="P537" s="24"/>
+      <c r="L537" s="23"/>
+      <c r="P537" s="23"/>
     </row>
     <row r="538" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L538" s="24"/>
-      <c r="P538" s="24"/>
+      <c r="L538" s="23"/>
+      <c r="P538" s="23"/>
     </row>
     <row r="539" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L539" s="24"/>
-      <c r="P539" s="24"/>
+      <c r="L539" s="23"/>
+      <c r="P539" s="23"/>
     </row>
     <row r="540" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L540" s="24"/>
-      <c r="P540" s="24"/>
+      <c r="L540" s="23"/>
+      <c r="P540" s="23"/>
     </row>
     <row r="541" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L541" s="24"/>
-      <c r="P541" s="24"/>
+      <c r="L541" s="23"/>
+      <c r="P541" s="23"/>
     </row>
     <row r="542" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L542" s="24"/>
-      <c r="P542" s="24"/>
+      <c r="L542" s="23"/>
+      <c r="P542" s="23"/>
     </row>
     <row r="543" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L543" s="24"/>
-      <c r="P543" s="24"/>
+      <c r="L543" s="23"/>
+      <c r="P543" s="23"/>
     </row>
     <row r="544" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L544" s="24"/>
-      <c r="P544" s="24"/>
+      <c r="L544" s="23"/>
+      <c r="P544" s="23"/>
     </row>
     <row r="545" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L545" s="24"/>
-      <c r="P545" s="24"/>
+      <c r="L545" s="23"/>
+      <c r="P545" s="23"/>
     </row>
     <row r="546" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L546" s="24"/>
-      <c r="P546" s="24"/>
+      <c r="L546" s="23"/>
+      <c r="P546" s="23"/>
     </row>
     <row r="547" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L547" s="24"/>
-      <c r="P547" s="24"/>
+      <c r="L547" s="23"/>
+      <c r="P547" s="23"/>
     </row>
     <row r="548" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L548" s="24"/>
-      <c r="P548" s="24"/>
+      <c r="L548" s="23"/>
+      <c r="P548" s="23"/>
     </row>
     <row r="549" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L549" s="24"/>
-      <c r="P549" s="24"/>
+      <c r="L549" s="23"/>
+      <c r="P549" s="23"/>
     </row>
     <row r="550" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L550" s="24"/>
-      <c r="P550" s="24"/>
+      <c r="L550" s="23"/>
+      <c r="P550" s="23"/>
     </row>
     <row r="551" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L551" s="24"/>
-      <c r="P551" s="24"/>
+      <c r="L551" s="23"/>
+      <c r="P551" s="23"/>
     </row>
     <row r="552" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L552" s="24"/>
-      <c r="P552" s="24"/>
+      <c r="L552" s="23"/>
+      <c r="P552" s="23"/>
     </row>
     <row r="553" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L553" s="24"/>
-      <c r="P553" s="24"/>
+      <c r="L553" s="23"/>
+      <c r="P553" s="23"/>
     </row>
     <row r="554" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L554" s="24"/>
-      <c r="P554" s="24"/>
+      <c r="L554" s="23"/>
+      <c r="P554" s="23"/>
     </row>
     <row r="555" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L555" s="24"/>
-      <c r="P555" s="24"/>
+      <c r="L555" s="23"/>
+      <c r="P555" s="23"/>
     </row>
     <row r="556" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L556" s="24"/>
-      <c r="P556" s="24"/>
+      <c r="L556" s="23"/>
+      <c r="P556" s="23"/>
     </row>
     <row r="557" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L557" s="24"/>
-      <c r="P557" s="24"/>
+      <c r="L557" s="23"/>
+      <c r="P557" s="23"/>
     </row>
     <row r="558" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L558" s="24"/>
-      <c r="P558" s="24"/>
+      <c r="L558" s="23"/>
+      <c r="P558" s="23"/>
     </row>
     <row r="559" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L559" s="24"/>
-      <c r="P559" s="24"/>
+      <c r="L559" s="23"/>
+      <c r="P559" s="23"/>
     </row>
     <row r="560" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L560" s="24"/>
-      <c r="P560" s="24"/>
+      <c r="L560" s="23"/>
+      <c r="P560" s="23"/>
     </row>
     <row r="561" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L561" s="24"/>
-      <c r="P561" s="24"/>
+      <c r="L561" s="23"/>
+      <c r="P561" s="23"/>
     </row>
     <row r="562" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L562" s="24"/>
-      <c r="P562" s="24"/>
+      <c r="L562" s="23"/>
+      <c r="P562" s="23"/>
     </row>
     <row r="563" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L563" s="24"/>
-      <c r="P563" s="24"/>
+      <c r="L563" s="23"/>
+      <c r="P563" s="23"/>
     </row>
     <row r="564" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L564" s="24"/>
-      <c r="P564" s="24"/>
+      <c r="L564" s="23"/>
+      <c r="P564" s="23"/>
     </row>
     <row r="565" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L565" s="24"/>
-      <c r="P565" s="24"/>
+      <c r="L565" s="23"/>
+      <c r="P565" s="23"/>
     </row>
     <row r="566" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L566" s="24"/>
-      <c r="P566" s="24"/>
+      <c r="L566" s="23"/>
+      <c r="P566" s="23"/>
     </row>
     <row r="567" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L567" s="24"/>
-      <c r="P567" s="24"/>
+      <c r="L567" s="23"/>
+      <c r="P567" s="23"/>
     </row>
     <row r="568" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L568" s="24"/>
-      <c r="P568" s="24"/>
+      <c r="L568" s="23"/>
+      <c r="P568" s="23"/>
     </row>
     <row r="569" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L569" s="24"/>
-      <c r="P569" s="24"/>
+      <c r="L569" s="23"/>
+      <c r="P569" s="23"/>
     </row>
     <row r="570" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L570" s="24"/>
-      <c r="P570" s="24"/>
+      <c r="L570" s="23"/>
+      <c r="P570" s="23"/>
     </row>
     <row r="571" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L571" s="24"/>
-      <c r="P571" s="24"/>
+      <c r="L571" s="23"/>
+      <c r="P571" s="23"/>
     </row>
     <row r="572" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L572" s="24"/>
-      <c r="P572" s="24"/>
+      <c r="L572" s="23"/>
+      <c r="P572" s="23"/>
     </row>
     <row r="573" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L573" s="24"/>
-      <c r="P573" s="24"/>
+      <c r="L573" s="23"/>
+      <c r="P573" s="23"/>
     </row>
     <row r="574" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L574" s="24"/>
-      <c r="P574" s="24"/>
+      <c r="L574" s="23"/>
+      <c r="P574" s="23"/>
     </row>
     <row r="575" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L575" s="24"/>
-      <c r="P575" s="24"/>
+      <c r="L575" s="23"/>
+      <c r="P575" s="23"/>
     </row>
     <row r="576" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L576" s="24"/>
-      <c r="P576" s="24"/>
+      <c r="L576" s="23"/>
+      <c r="P576" s="23"/>
     </row>
     <row r="577" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L577" s="24"/>
-      <c r="P577" s="24"/>
+      <c r="L577" s="23"/>
+      <c r="P577" s="23"/>
     </row>
     <row r="578" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L578" s="24"/>
-      <c r="P578" s="24"/>
+      <c r="L578" s="23"/>
+      <c r="P578" s="23"/>
     </row>
     <row r="579" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L579" s="24"/>
-      <c r="P579" s="24"/>
+      <c r="L579" s="23"/>
+      <c r="P579" s="23"/>
     </row>
     <row r="580" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L580" s="24"/>
-      <c r="P580" s="24"/>
+      <c r="L580" s="23"/>
+      <c r="P580" s="23"/>
     </row>
     <row r="581" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L581" s="24"/>
-      <c r="P581" s="24"/>
+      <c r="L581" s="23"/>
+      <c r="P581" s="23"/>
     </row>
     <row r="582" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L582" s="24"/>
-      <c r="P582" s="24"/>
+      <c r="L582" s="23"/>
+      <c r="P582" s="23"/>
     </row>
     <row r="583" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L583" s="24"/>
-      <c r="P583" s="24"/>
+      <c r="L583" s="23"/>
+      <c r="P583" s="23"/>
     </row>
     <row r="584" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L584" s="24"/>
-      <c r="P584" s="24"/>
+      <c r="L584" s="23"/>
+      <c r="P584" s="23"/>
     </row>
     <row r="585" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L585" s="24"/>
-      <c r="P585" s="24"/>
+      <c r="L585" s="23"/>
+      <c r="P585" s="23"/>
     </row>
     <row r="586" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L586" s="24"/>
-      <c r="P586" s="24"/>
+      <c r="L586" s="23"/>
+      <c r="P586" s="23"/>
     </row>
     <row r="587" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L587" s="24"/>
-      <c r="P587" s="24"/>
+      <c r="L587" s="23"/>
+      <c r="P587" s="23"/>
     </row>
     <row r="588" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L588" s="24"/>
-      <c r="P588" s="24"/>
+      <c r="L588" s="23"/>
+      <c r="P588" s="23"/>
     </row>
     <row r="589" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L589" s="24"/>
-      <c r="P589" s="24"/>
+      <c r="L589" s="23"/>
+      <c r="P589" s="23"/>
     </row>
     <row r="590" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L590" s="24"/>
-      <c r="P590" s="24"/>
+      <c r="L590" s="23"/>
+      <c r="P590" s="23"/>
     </row>
     <row r="591" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L591" s="24"/>
-      <c r="P591" s="24"/>
+      <c r="L591" s="23"/>
+      <c r="P591" s="23"/>
     </row>
     <row r="592" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L592" s="24"/>
-      <c r="P592" s="24"/>
+      <c r="L592" s="23"/>
+      <c r="P592" s="23"/>
     </row>
     <row r="593" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L593" s="24"/>
-      <c r="P593" s="24"/>
+      <c r="L593" s="23"/>
+      <c r="P593" s="23"/>
     </row>
     <row r="594" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L594" s="24"/>
-      <c r="P594" s="24"/>
+      <c r="L594" s="23"/>
+      <c r="P594" s="23"/>
     </row>
     <row r="595" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L595" s="24"/>
-      <c r="P595" s="24"/>
+      <c r="L595" s="23"/>
+      <c r="P595" s="23"/>
     </row>
     <row r="596" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L596" s="24"/>
-      <c r="P596" s="24"/>
+      <c r="L596" s="23"/>
+      <c r="P596" s="23"/>
     </row>
     <row r="597" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L597" s="24"/>
-      <c r="P597" s="24"/>
+      <c r="L597" s="23"/>
+      <c r="P597" s="23"/>
     </row>
     <row r="598" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L598" s="24"/>
-      <c r="P598" s="24"/>
+      <c r="L598" s="23"/>
+      <c r="P598" s="23"/>
     </row>
     <row r="599" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L599" s="24"/>
-      <c r="P599" s="24"/>
+      <c r="L599" s="23"/>
+      <c r="P599" s="23"/>
     </row>
     <row r="600" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L600" s="24"/>
-      <c r="P600" s="24"/>
+      <c r="L600" s="23"/>
+      <c r="P600" s="23"/>
     </row>
     <row r="601" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L601" s="24"/>
-      <c r="P601" s="24"/>
+      <c r="L601" s="23"/>
+      <c r="P601" s="23"/>
     </row>
     <row r="602" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L602" s="24"/>
-      <c r="P602" s="24"/>
+      <c r="L602" s="23"/>
+      <c r="P602" s="23"/>
     </row>
     <row r="603" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L603" s="24"/>
-      <c r="P603" s="24"/>
+      <c r="L603" s="23"/>
+      <c r="P603" s="23"/>
     </row>
     <row r="604" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L604" s="24"/>
-      <c r="P604" s="24"/>
+      <c r="L604" s="23"/>
+      <c r="P604" s="23"/>
     </row>
     <row r="605" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L605" s="24"/>
-      <c r="P605" s="24"/>
+      <c r="L605" s="23"/>
+      <c r="P605" s="23"/>
     </row>
     <row r="606" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L606" s="24"/>
-      <c r="P606" s="24"/>
+      <c r="L606" s="23"/>
+      <c r="P606" s="23"/>
     </row>
     <row r="607" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L607" s="24"/>
-      <c r="P607" s="24"/>
+      <c r="L607" s="23"/>
+      <c r="P607" s="23"/>
     </row>
     <row r="608" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L608" s="24"/>
-      <c r="P608" s="24"/>
+      <c r="L608" s="23"/>
+      <c r="P608" s="23"/>
     </row>
     <row r="609" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L609" s="24"/>
-      <c r="P609" s="24"/>
+      <c r="L609" s="23"/>
+      <c r="P609" s="23"/>
     </row>
     <row r="610" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L610" s="24"/>
-      <c r="P610" s="24"/>
+      <c r="L610" s="23"/>
+      <c r="P610" s="23"/>
     </row>
     <row r="611" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L611" s="24"/>
-      <c r="P611" s="24"/>
+      <c r="L611" s="23"/>
+      <c r="P611" s="23"/>
     </row>
     <row r="612" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L612" s="24"/>
-      <c r="P612" s="24"/>
+      <c r="L612" s="23"/>
+      <c r="P612" s="23"/>
     </row>
     <row r="613" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L613" s="24"/>
-      <c r="P613" s="24"/>
+      <c r="L613" s="23"/>
+      <c r="P613" s="23"/>
     </row>
     <row r="614" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L614" s="24"/>
-      <c r="P614" s="24"/>
+      <c r="L614" s="23"/>
+      <c r="P614" s="23"/>
     </row>
     <row r="615" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L615" s="24"/>
-      <c r="P615" s="24"/>
+      <c r="L615" s="23"/>
+      <c r="P615" s="23"/>
     </row>
     <row r="616" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L616" s="24"/>
-      <c r="P616" s="24"/>
+      <c r="L616" s="23"/>
+      <c r="P616" s="23"/>
     </row>
     <row r="617" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L617" s="24"/>
-      <c r="P617" s="24"/>
+      <c r="L617" s="23"/>
+      <c r="P617" s="23"/>
     </row>
     <row r="618" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L618" s="24"/>
-      <c r="P618" s="24"/>
+      <c r="L618" s="23"/>
+      <c r="P618" s="23"/>
     </row>
     <row r="619" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L619" s="24"/>
-      <c r="P619" s="24"/>
+      <c r="L619" s="23"/>
+      <c r="P619" s="23"/>
     </row>
     <row r="620" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L620" s="24"/>
-      <c r="P620" s="24"/>
+      <c r="L620" s="23"/>
+      <c r="P620" s="23"/>
     </row>
     <row r="621" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L621" s="24"/>
-      <c r="P621" s="24"/>
+      <c r="L621" s="23"/>
+      <c r="P621" s="23"/>
     </row>
     <row r="622" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L622" s="24"/>
-      <c r="P622" s="24"/>
+      <c r="L622" s="23"/>
+      <c r="P622" s="23"/>
     </row>
     <row r="623" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L623" s="24"/>
-      <c r="P623" s="24"/>
+      <c r="L623" s="23"/>
+      <c r="P623" s="23"/>
     </row>
     <row r="624" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L624" s="24"/>
-      <c r="P624" s="24"/>
+      <c r="L624" s="23"/>
+      <c r="P624" s="23"/>
     </row>
     <row r="625" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L625" s="24"/>
-      <c r="P625" s="24"/>
+      <c r="L625" s="23"/>
+      <c r="P625" s="23"/>
     </row>
     <row r="626" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L626" s="24"/>
-      <c r="P626" s="24"/>
+      <c r="L626" s="23"/>
+      <c r="P626" s="23"/>
     </row>
     <row r="627" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L627" s="24"/>
-      <c r="P627" s="24"/>
+      <c r="L627" s="23"/>
+      <c r="P627" s="23"/>
     </row>
     <row r="628" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L628" s="24"/>
-      <c r="P628" s="24"/>
+      <c r="L628" s="23"/>
+      <c r="P628" s="23"/>
     </row>
     <row r="629" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L629" s="24"/>
-      <c r="P629" s="24"/>
+      <c r="L629" s="23"/>
+      <c r="P629" s="23"/>
     </row>
     <row r="630" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L630" s="24"/>
-      <c r="P630" s="24"/>
+      <c r="L630" s="23"/>
+      <c r="P630" s="23"/>
     </row>
     <row r="631" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L631" s="24"/>
-      <c r="P631" s="24"/>
+      <c r="L631" s="23"/>
+      <c r="P631" s="23"/>
     </row>
     <row r="632" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L632" s="24"/>
-      <c r="P632" s="24"/>
+      <c r="L632" s="23"/>
+      <c r="P632" s="23"/>
     </row>
     <row r="633" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L633" s="24"/>
-      <c r="P633" s="24"/>
+      <c r="L633" s="23"/>
+      <c r="P633" s="23"/>
     </row>
     <row r="634" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L634" s="24"/>
-      <c r="P634" s="24"/>
+      <c r="L634" s="23"/>
+      <c r="P634" s="23"/>
     </row>
     <row r="635" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L635" s="24"/>
-      <c r="P635" s="24"/>
+      <c r="L635" s="23"/>
+      <c r="P635" s="23"/>
     </row>
     <row r="636" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L636" s="24"/>
-      <c r="P636" s="24"/>
+      <c r="L636" s="23"/>
+      <c r="P636" s="23"/>
     </row>
     <row r="637" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L637" s="24"/>
-      <c r="P637" s="24"/>
+      <c r="L637" s="23"/>
+      <c r="P637" s="23"/>
     </row>
     <row r="638" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L638" s="24"/>
-      <c r="P638" s="24"/>
+      <c r="L638" s="23"/>
+      <c r="P638" s="23"/>
     </row>
     <row r="639" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L639" s="24"/>
-      <c r="P639" s="24"/>
+      <c r="L639" s="23"/>
+      <c r="P639" s="23"/>
     </row>
     <row r="640" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L640" s="24"/>
-      <c r="P640" s="24"/>
+      <c r="L640" s="23"/>
+      <c r="P640" s="23"/>
     </row>
     <row r="641" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L641" s="24"/>
-      <c r="P641" s="24"/>
+      <c r="L641" s="23"/>
+      <c r="P641" s="23"/>
     </row>
     <row r="642" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L642" s="24"/>
-      <c r="P642" s="24"/>
+      <c r="L642" s="23"/>
+      <c r="P642" s="23"/>
     </row>
     <row r="643" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L643" s="24"/>
-      <c r="P643" s="24"/>
+      <c r="L643" s="23"/>
+      <c r="P643" s="23"/>
     </row>
     <row r="644" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L644" s="24"/>
-      <c r="P644" s="24"/>
+      <c r="L644" s="23"/>
+      <c r="P644" s="23"/>
     </row>
     <row r="645" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L645" s="24"/>
-      <c r="P645" s="24"/>
+      <c r="L645" s="23"/>
+      <c r="P645" s="23"/>
     </row>
     <row r="646" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L646" s="24"/>
-      <c r="P646" s="24"/>
+      <c r="L646" s="23"/>
+      <c r="P646" s="23"/>
     </row>
     <row r="647" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L647" s="24"/>
-      <c r="P647" s="24"/>
+      <c r="L647" s="23"/>
+      <c r="P647" s="23"/>
     </row>
     <row r="648" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L648" s="24"/>
-      <c r="P648" s="24"/>
+      <c r="L648" s="23"/>
+      <c r="P648" s="23"/>
     </row>
     <row r="649" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L649" s="24"/>
-      <c r="P649" s="24"/>
+      <c r="L649" s="23"/>
+      <c r="P649" s="23"/>
     </row>
     <row r="650" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L650" s="24"/>
-      <c r="P650" s="24"/>
+      <c r="L650" s="23"/>
+      <c r="P650" s="23"/>
     </row>
     <row r="651" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L651" s="24"/>
-      <c r="P651" s="24"/>
+      <c r="L651" s="23"/>
+      <c r="P651" s="23"/>
     </row>
     <row r="652" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L652" s="24"/>
-      <c r="P652" s="24"/>
+      <c r="L652" s="23"/>
+      <c r="P652" s="23"/>
     </row>
     <row r="653" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L653" s="24"/>
-      <c r="P653" s="24"/>
+      <c r="L653" s="23"/>
+      <c r="P653" s="23"/>
     </row>
     <row r="654" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L654" s="24"/>
-      <c r="P654" s="24"/>
+      <c r="L654" s="23"/>
+      <c r="P654" s="23"/>
     </row>
     <row r="655" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L655" s="24"/>
-      <c r="P655" s="24"/>
+      <c r="L655" s="23"/>
+      <c r="P655" s="23"/>
     </row>
     <row r="656" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L656" s="24"/>
-      <c r="P656" s="24"/>
+      <c r="L656" s="23"/>
+      <c r="P656" s="23"/>
     </row>
     <row r="657" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L657" s="24"/>
-      <c r="P657" s="24"/>
+      <c r="L657" s="23"/>
+      <c r="P657" s="23"/>
     </row>
     <row r="658" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L658" s="24"/>
-      <c r="P658" s="24"/>
+      <c r="L658" s="23"/>
+      <c r="P658" s="23"/>
     </row>
     <row r="659" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L659" s="24"/>
-      <c r="P659" s="24"/>
+      <c r="L659" s="23"/>
+      <c r="P659" s="23"/>
     </row>
     <row r="660" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L660" s="24"/>
-      <c r="P660" s="24"/>
+      <c r="L660" s="23"/>
+      <c r="P660" s="23"/>
     </row>
     <row r="661" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L661" s="24"/>
-      <c r="P661" s="24"/>
+      <c r="L661" s="23"/>
+      <c r="P661" s="23"/>
     </row>
     <row r="662" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L662" s="24"/>
-      <c r="P662" s="24"/>
+      <c r="L662" s="23"/>
+      <c r="P662" s="23"/>
     </row>
     <row r="663" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L663" s="24"/>
-      <c r="P663" s="24"/>
+      <c r="L663" s="23"/>
+      <c r="P663" s="23"/>
     </row>
     <row r="664" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L664" s="24"/>
-      <c r="P664" s="24"/>
+      <c r="L664" s="23"/>
+      <c r="P664" s="23"/>
     </row>
     <row r="665" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L665" s="24"/>
-      <c r="P665" s="24"/>
+      <c r="L665" s="23"/>
+      <c r="P665" s="23"/>
     </row>
     <row r="666" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L666" s="24"/>
-      <c r="P666" s="24"/>
+      <c r="L666" s="23"/>
+      <c r="P666" s="23"/>
     </row>
     <row r="667" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L667" s="24"/>
-      <c r="P667" s="24"/>
+      <c r="L667" s="23"/>
+      <c r="P667" s="23"/>
     </row>
     <row r="668" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L668" s="24"/>
-      <c r="P668" s="24"/>
+      <c r="L668" s="23"/>
+      <c r="P668" s="23"/>
     </row>
     <row r="669" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L669" s="24"/>
-      <c r="P669" s="24"/>
+      <c r="L669" s="23"/>
+      <c r="P669" s="23"/>
     </row>
     <row r="670" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L670" s="24"/>
-      <c r="P670" s="24"/>
+      <c r="L670" s="23"/>
+      <c r="P670" s="23"/>
     </row>
     <row r="671" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L671" s="24"/>
-      <c r="P671" s="24"/>
+      <c r="L671" s="23"/>
+      <c r="P671" s="23"/>
     </row>
     <row r="672" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L672" s="24"/>
-      <c r="P672" s="24"/>
+      <c r="L672" s="23"/>
+      <c r="P672" s="23"/>
     </row>
     <row r="673" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L673" s="24"/>
-      <c r="P673" s="24"/>
+      <c r="L673" s="23"/>
+      <c r="P673" s="23"/>
     </row>
     <row r="674" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L674" s="24"/>
-      <c r="P674" s="24"/>
+      <c r="L674" s="23"/>
+      <c r="P674" s="23"/>
     </row>
     <row r="675" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L675" s="24"/>
-      <c r="P675" s="24"/>
+      <c r="L675" s="23"/>
+      <c r="P675" s="23"/>
     </row>
     <row r="676" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L676" s="24"/>
-      <c r="P676" s="24"/>
+      <c r="L676" s="23"/>
+      <c r="P676" s="23"/>
     </row>
     <row r="677" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L677" s="24"/>
-      <c r="P677" s="24"/>
+      <c r="L677" s="23"/>
+      <c r="P677" s="23"/>
     </row>
     <row r="678" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L678" s="24"/>
-      <c r="P678" s="24"/>
+      <c r="L678" s="23"/>
+      <c r="P678" s="23"/>
     </row>
     <row r="679" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L679" s="24"/>
-      <c r="P679" s="24"/>
+      <c r="L679" s="23"/>
+      <c r="P679" s="23"/>
     </row>
     <row r="680" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L680" s="24"/>
-      <c r="P680" s="24"/>
+      <c r="L680" s="23"/>
+      <c r="P680" s="23"/>
     </row>
     <row r="681" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L681" s="24"/>
-      <c r="P681" s="24"/>
+      <c r="L681" s="23"/>
+      <c r="P681" s="23"/>
     </row>
     <row r="682" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L682" s="24"/>
-      <c r="P682" s="24"/>
+      <c r="L682" s="23"/>
+      <c r="P682" s="23"/>
     </row>
     <row r="683" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L683" s="24"/>
-      <c r="P683" s="24"/>
+      <c r="L683" s="23"/>
+      <c r="P683" s="23"/>
     </row>
     <row r="684" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L684" s="24"/>
-      <c r="P684" s="24"/>
+      <c r="L684" s="23"/>
+      <c r="P684" s="23"/>
     </row>
     <row r="685" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L685" s="24"/>
-      <c r="P685" s="24"/>
+      <c r="L685" s="23"/>
+      <c r="P685" s="23"/>
     </row>
     <row r="686" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L686" s="24"/>
-      <c r="P686" s="24"/>
+      <c r="L686" s="23"/>
+      <c r="P686" s="23"/>
     </row>
     <row r="687" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L687" s="24"/>
-      <c r="P687" s="24"/>
+      <c r="L687" s="23"/>
+      <c r="P687" s="23"/>
     </row>
     <row r="688" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L688" s="24"/>
-      <c r="P688" s="24"/>
+      <c r="L688" s="23"/>
+      <c r="P688" s="23"/>
     </row>
     <row r="689" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L689" s="24"/>
-      <c r="P689" s="24"/>
+      <c r="L689" s="23"/>
+      <c r="P689" s="23"/>
     </row>
     <row r="690" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L690" s="24"/>
-      <c r="P690" s="24"/>
+      <c r="L690" s="23"/>
+      <c r="P690" s="23"/>
     </row>
     <row r="691" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L691" s="24"/>
-      <c r="P691" s="24"/>
+      <c r="L691" s="23"/>
+      <c r="P691" s="23"/>
     </row>
     <row r="692" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L692" s="24"/>
-      <c r="P692" s="24"/>
+      <c r="L692" s="23"/>
+      <c r="P692" s="23"/>
     </row>
     <row r="693" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L693" s="24"/>
-      <c r="P693" s="24"/>
+      <c r="L693" s="23"/>
+      <c r="P693" s="23"/>
     </row>
     <row r="694" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L694" s="24"/>
-      <c r="P694" s="24"/>
+      <c r="L694" s="23"/>
+      <c r="P694" s="23"/>
     </row>
     <row r="695" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L695" s="24"/>
-      <c r="P695" s="24"/>
+      <c r="L695" s="23"/>
+      <c r="P695" s="23"/>
     </row>
     <row r="696" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L696" s="24"/>
-      <c r="P696" s="24"/>
+      <c r="L696" s="23"/>
+      <c r="P696" s="23"/>
     </row>
     <row r="697" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L697" s="24"/>
-      <c r="P697" s="24"/>
+      <c r="L697" s="23"/>
+      <c r="P697" s="23"/>
     </row>
     <row r="698" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L698" s="24"/>
-      <c r="P698" s="24"/>
+      <c r="L698" s="23"/>
+      <c r="P698" s="23"/>
     </row>
     <row r="699" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L699" s="24"/>
-      <c r="P699" s="24"/>
+      <c r="L699" s="23"/>
+      <c r="P699" s="23"/>
     </row>
     <row r="700" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L700" s="24"/>
-      <c r="P700" s="24"/>
+      <c r="L700" s="23"/>
+      <c r="P700" s="23"/>
     </row>
     <row r="701" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L701" s="24"/>
-      <c r="P701" s="24"/>
+      <c r="L701" s="23"/>
+      <c r="P701" s="23"/>
     </row>
     <row r="702" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L702" s="24"/>
-      <c r="P702" s="24"/>
+      <c r="L702" s="23"/>
+      <c r="P702" s="23"/>
     </row>
     <row r="703" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L703" s="24"/>
-      <c r="P703" s="24"/>
+      <c r="L703" s="23"/>
+      <c r="P703" s="23"/>
     </row>
     <row r="704" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L704" s="24"/>
-      <c r="P704" s="24"/>
+      <c r="L704" s="23"/>
+      <c r="P704" s="23"/>
     </row>
     <row r="705" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L705" s="24"/>
-      <c r="P705" s="24"/>
+      <c r="L705" s="23"/>
+      <c r="P705" s="23"/>
     </row>
     <row r="706" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L706" s="24"/>
-      <c r="P706" s="24"/>
+      <c r="L706" s="23"/>
+      <c r="P706" s="23"/>
     </row>
     <row r="707" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L707" s="24"/>
-      <c r="P707" s="24"/>
+      <c r="L707" s="23"/>
+      <c r="P707" s="23"/>
     </row>
     <row r="708" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L708" s="24"/>
-      <c r="P708" s="24"/>
+      <c r="L708" s="23"/>
+      <c r="P708" s="23"/>
     </row>
     <row r="709" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L709" s="24"/>
-      <c r="P709" s="24"/>
+      <c r="L709" s="23"/>
+      <c r="P709" s="23"/>
     </row>
     <row r="710" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L710" s="24"/>
-      <c r="P710" s="24"/>
+      <c r="L710" s="23"/>
+      <c r="P710" s="23"/>
     </row>
     <row r="711" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L711" s="24"/>
-      <c r="P711" s="24"/>
+      <c r="L711" s="23"/>
+      <c r="P711" s="23"/>
     </row>
     <row r="712" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L712" s="24"/>
-      <c r="P712" s="24"/>
+      <c r="L712" s="23"/>
+      <c r="P712" s="23"/>
     </row>
     <row r="713" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L713" s="24"/>
-      <c r="P713" s="24"/>
+      <c r="L713" s="23"/>
+      <c r="P713" s="23"/>
     </row>
     <row r="714" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L714" s="24"/>
-      <c r="P714" s="24"/>
+      <c r="L714" s="23"/>
+      <c r="P714" s="23"/>
     </row>
     <row r="715" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L715" s="24"/>
-      <c r="P715" s="24"/>
+      <c r="L715" s="23"/>
+      <c r="P715" s="23"/>
     </row>
     <row r="716" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L716" s="24"/>
-      <c r="P716" s="24"/>
+      <c r="L716" s="23"/>
+      <c r="P716" s="23"/>
     </row>
     <row r="717" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L717" s="24"/>
-      <c r="P717" s="24"/>
+      <c r="L717" s="23"/>
+      <c r="P717" s="23"/>
     </row>
     <row r="718" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L718" s="24"/>
-      <c r="P718" s="24"/>
+      <c r="L718" s="23"/>
+      <c r="P718" s="23"/>
     </row>
     <row r="719" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L719" s="24"/>
-      <c r="P719" s="24"/>
+      <c r="L719" s="23"/>
+      <c r="P719" s="23"/>
     </row>
     <row r="720" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L720" s="24"/>
-      <c r="P720" s="24"/>
+      <c r="L720" s="23"/>
+      <c r="P720" s="23"/>
     </row>
     <row r="721" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L721" s="24"/>
-      <c r="P721" s="24"/>
+      <c r="L721" s="23"/>
+      <c r="P721" s="23"/>
     </row>
     <row r="722" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L722" s="24"/>
-      <c r="P722" s="24"/>
+      <c r="L722" s="23"/>
+      <c r="P722" s="23"/>
     </row>
     <row r="723" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L723" s="24"/>
-      <c r="P723" s="24"/>
+      <c r="L723" s="23"/>
+      <c r="P723" s="23"/>
     </row>
     <row r="724" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L724" s="24"/>
-      <c r="P724" s="24"/>
+      <c r="L724" s="23"/>
+      <c r="P724" s="23"/>
     </row>
     <row r="725" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L725" s="24"/>
-      <c r="P725" s="24"/>
+      <c r="L725" s="23"/>
+      <c r="P725" s="23"/>
     </row>
     <row r="726" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L726" s="24"/>
-      <c r="P726" s="24"/>
+      <c r="L726" s="23"/>
+      <c r="P726" s="23"/>
     </row>
     <row r="727" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L727" s="24"/>
-      <c r="P727" s="24"/>
+      <c r="L727" s="23"/>
+      <c r="P727" s="23"/>
     </row>
     <row r="728" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L728" s="24"/>
-      <c r="P728" s="24"/>
+      <c r="L728" s="23"/>
+      <c r="P728" s="23"/>
     </row>
     <row r="729" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L729" s="24"/>
-      <c r="P729" s="24"/>
+      <c r="L729" s="23"/>
+      <c r="P729" s="23"/>
     </row>
     <row r="730" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L730" s="24"/>
-      <c r="P730" s="24"/>
+      <c r="L730" s="23"/>
+      <c r="P730" s="23"/>
     </row>
     <row r="731" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L731" s="24"/>
-      <c r="P731" s="24"/>
+      <c r="L731" s="23"/>
+      <c r="P731" s="23"/>
     </row>
     <row r="732" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L732" s="24"/>
-      <c r="P732" s="24"/>
+      <c r="L732" s="23"/>
+      <c r="P732" s="23"/>
     </row>
     <row r="733" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L733" s="24"/>
-      <c r="P733" s="24"/>
+      <c r="L733" s="23"/>
+      <c r="P733" s="23"/>
     </row>
     <row r="734" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L734" s="24"/>
-      <c r="P734" s="24"/>
+      <c r="L734" s="23"/>
+      <c r="P734" s="23"/>
     </row>
     <row r="735" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L735" s="24"/>
-      <c r="P735" s="24"/>
+      <c r="L735" s="23"/>
+      <c r="P735" s="23"/>
     </row>
     <row r="736" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L736" s="24"/>
-      <c r="P736" s="24"/>
+      <c r="L736" s="23"/>
+      <c r="P736" s="23"/>
     </row>
     <row r="737" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L737" s="24"/>
-      <c r="P737" s="24"/>
+      <c r="L737" s="23"/>
+      <c r="P737" s="23"/>
     </row>
     <row r="738" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L738" s="24"/>
-      <c r="P738" s="24"/>
+      <c r="L738" s="23"/>
+      <c r="P738" s="23"/>
     </row>
     <row r="739" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L739" s="24"/>
-      <c r="P739" s="24"/>
+      <c r="L739" s="23"/>
+      <c r="P739" s="23"/>
     </row>
     <row r="740" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L740" s="24"/>
-      <c r="P740" s="24"/>
+      <c r="L740" s="23"/>
+      <c r="P740" s="23"/>
     </row>
     <row r="741" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L741" s="24"/>
-      <c r="P741" s="24"/>
+      <c r="L741" s="23"/>
+      <c r="P741" s="23"/>
     </row>
     <row r="742" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L742" s="24"/>
-      <c r="P742" s="24"/>
+      <c r="L742" s="23"/>
+      <c r="P742" s="23"/>
     </row>
     <row r="743" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L743" s="24"/>
-      <c r="P743" s="24"/>
+      <c r="L743" s="23"/>
+      <c r="P743" s="23"/>
     </row>
     <row r="744" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L744" s="24"/>
-      <c r="P744" s="24"/>
+      <c r="L744" s="23"/>
+      <c r="P744" s="23"/>
     </row>
     <row r="745" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L745" s="24"/>
-      <c r="P745" s="24"/>
+      <c r="L745" s="23"/>
+      <c r="P745" s="23"/>
     </row>
     <row r="746" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L746" s="24"/>
-      <c r="P746" s="24"/>
+      <c r="L746" s="23"/>
+      <c r="P746" s="23"/>
     </row>
     <row r="747" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L747" s="24"/>
-      <c r="P747" s="24"/>
+      <c r="L747" s="23"/>
+      <c r="P747" s="23"/>
     </row>
     <row r="748" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L748" s="24"/>
-      <c r="P748" s="24"/>
+      <c r="L748" s="23"/>
+      <c r="P748" s="23"/>
     </row>
     <row r="749" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L749" s="24"/>
-      <c r="P749" s="24"/>
+      <c r="L749" s="23"/>
+      <c r="P749" s="23"/>
     </row>
     <row r="750" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L750" s="24"/>
-      <c r="P750" s="24"/>
+      <c r="L750" s="23"/>
+      <c r="P750" s="23"/>
     </row>
     <row r="751" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L751" s="24"/>
-      <c r="P751" s="24"/>
+      <c r="L751" s="23"/>
+      <c r="P751" s="23"/>
     </row>
     <row r="752" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L752" s="24"/>
-      <c r="P752" s="24"/>
+      <c r="L752" s="23"/>
+      <c r="P752" s="23"/>
     </row>
     <row r="753" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L753" s="24"/>
-      <c r="P753" s="24"/>
+      <c r="L753" s="23"/>
+      <c r="P753" s="23"/>
     </row>
     <row r="754" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L754" s="24"/>
-      <c r="P754" s="24"/>
+      <c r="L754" s="23"/>
+      <c r="P754" s="23"/>
     </row>
     <row r="755" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L755" s="24"/>
-      <c r="P755" s="24"/>
+      <c r="L755" s="23"/>
+      <c r="P755" s="23"/>
     </row>
     <row r="756" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L756" s="24"/>
-      <c r="P756" s="24"/>
+      <c r="L756" s="23"/>
+      <c r="P756" s="23"/>
     </row>
     <row r="757" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L757" s="24"/>
-      <c r="P757" s="24"/>
+      <c r="L757" s="23"/>
+      <c r="P757" s="23"/>
     </row>
     <row r="758" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L758" s="24"/>
-      <c r="P758" s="24"/>
+      <c r="L758" s="23"/>
+      <c r="P758" s="23"/>
     </row>
     <row r="759" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L759" s="24"/>
-      <c r="P759" s="24"/>
+      <c r="L759" s="23"/>
+      <c r="P759" s="23"/>
     </row>
     <row r="760" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L760" s="24"/>
-      <c r="P760" s="24"/>
+      <c r="L760" s="23"/>
+      <c r="P760" s="23"/>
     </row>
     <row r="761" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L761" s="24"/>
-      <c r="P761" s="24"/>
+      <c r="L761" s="23"/>
+      <c r="P761" s="23"/>
     </row>
     <row r="762" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L762" s="24"/>
-      <c r="P762" s="24"/>
+      <c r="L762" s="23"/>
+      <c r="P762" s="23"/>
     </row>
     <row r="763" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L763" s="24"/>
-      <c r="P763" s="24"/>
+      <c r="L763" s="23"/>
+      <c r="P763" s="23"/>
     </row>
     <row r="764" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L764" s="24"/>
-      <c r="P764" s="24"/>
+      <c r="L764" s="23"/>
+      <c r="P764" s="23"/>
     </row>
     <row r="765" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L765" s="24"/>
-      <c r="P765" s="24"/>
+      <c r="L765" s="23"/>
+      <c r="P765" s="23"/>
     </row>
     <row r="766" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L766" s="24"/>
-      <c r="P766" s="24"/>
+      <c r="L766" s="23"/>
+      <c r="P766" s="23"/>
     </row>
     <row r="767" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L767" s="24"/>
-      <c r="P767" s="24"/>
+      <c r="L767" s="23"/>
+      <c r="P767" s="23"/>
     </row>
     <row r="768" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L768" s="24"/>
-      <c r="P768" s="24"/>
+      <c r="L768" s="23"/>
+      <c r="P768" s="23"/>
     </row>
     <row r="769" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L769" s="24"/>
-      <c r="P769" s="24"/>
+      <c r="L769" s="23"/>
+      <c r="P769" s="23"/>
     </row>
     <row r="770" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L770" s="24"/>
-      <c r="P770" s="24"/>
+      <c r="L770" s="23"/>
+      <c r="P770" s="23"/>
     </row>
     <row r="771" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L771" s="24"/>
-      <c r="P771" s="24"/>
+      <c r="L771" s="23"/>
+      <c r="P771" s="23"/>
     </row>
     <row r="772" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L772" s="24"/>
-      <c r="P772" s="24"/>
+      <c r="L772" s="23"/>
+      <c r="P772" s="23"/>
     </row>
     <row r="773" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L773" s="24"/>
-      <c r="P773" s="24"/>
+      <c r="L773" s="23"/>
+      <c r="P773" s="23"/>
     </row>
     <row r="774" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L774" s="24"/>
-      <c r="P774" s="24"/>
+      <c r="L774" s="23"/>
+      <c r="P774" s="23"/>
     </row>
     <row r="775" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L775" s="24"/>
-      <c r="P775" s="24"/>
+      <c r="L775" s="23"/>
+      <c r="P775" s="23"/>
     </row>
     <row r="776" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L776" s="24"/>
-      <c r="P776" s="24"/>
+      <c r="L776" s="23"/>
+      <c r="P776" s="23"/>
     </row>
     <row r="777" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L777" s="24"/>
-      <c r="P777" s="24"/>
+      <c r="L777" s="23"/>
+      <c r="P777" s="23"/>
     </row>
     <row r="778" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L778" s="24"/>
-      <c r="P778" s="24"/>
+      <c r="L778" s="23"/>
+      <c r="P778" s="23"/>
     </row>
     <row r="779" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L779" s="24"/>
-      <c r="P779" s="24"/>
+      <c r="L779" s="23"/>
+      <c r="P779" s="23"/>
     </row>
     <row r="780" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L780" s="24"/>
-      <c r="P780" s="24"/>
+      <c r="L780" s="23"/>
+      <c r="P780" s="23"/>
     </row>
     <row r="781" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L781" s="24"/>
-      <c r="P781" s="24"/>
+      <c r="L781" s="23"/>
+      <c r="P781" s="23"/>
     </row>
     <row r="782" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L782" s="24"/>
-      <c r="P782" s="24"/>
+      <c r="L782" s="23"/>
+      <c r="P782" s="23"/>
     </row>
     <row r="783" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L783" s="24"/>
-      <c r="P783" s="24"/>
+      <c r="L783" s="23"/>
+      <c r="P783" s="23"/>
     </row>
     <row r="784" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L784" s="24"/>
-      <c r="P784" s="24"/>
+      <c r="L784" s="23"/>
+      <c r="P784" s="23"/>
     </row>
     <row r="785" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L785" s="24"/>
-      <c r="P785" s="24"/>
+      <c r="L785" s="23"/>
+      <c r="P785" s="23"/>
     </row>
     <row r="786" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L786" s="24"/>
-      <c r="P786" s="24"/>
+      <c r="L786" s="23"/>
+      <c r="P786" s="23"/>
     </row>
     <row r="787" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L787" s="24"/>
-      <c r="P787" s="24"/>
+      <c r="L787" s="23"/>
+      <c r="P787" s="23"/>
     </row>
     <row r="788" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L788" s="24"/>
-      <c r="P788" s="24"/>
+      <c r="L788" s="23"/>
+      <c r="P788" s="23"/>
     </row>
     <row r="789" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L789" s="24"/>
-      <c r="P789" s="24"/>
+      <c r="L789" s="23"/>
+      <c r="P789" s="23"/>
     </row>
     <row r="790" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L790" s="24"/>
-      <c r="P790" s="24"/>
+      <c r="L790" s="23"/>
+      <c r="P790" s="23"/>
     </row>
     <row r="791" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L791" s="24"/>
-      <c r="P791" s="24"/>
+      <c r="L791" s="23"/>
+      <c r="P791" s="23"/>
     </row>
     <row r="792" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L792" s="24"/>
-      <c r="P792" s="24"/>
+      <c r="L792" s="23"/>
+      <c r="P792" s="23"/>
     </row>
     <row r="793" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L793" s="24"/>
-      <c r="P793" s="24"/>
+      <c r="L793" s="23"/>
+      <c r="P793" s="23"/>
     </row>
     <row r="794" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L794" s="24"/>
-      <c r="P794" s="24"/>
+      <c r="L794" s="23"/>
+      <c r="P794" s="23"/>
     </row>
     <row r="795" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L795" s="24"/>
-      <c r="P795" s="24"/>
+      <c r="L795" s="23"/>
+      <c r="P795" s="23"/>
     </row>
     <row r="796" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L796" s="24"/>
-      <c r="P796" s="24"/>
+      <c r="L796" s="23"/>
+      <c r="P796" s="23"/>
     </row>
     <row r="797" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L797" s="24"/>
-      <c r="P797" s="24"/>
+      <c r="L797" s="23"/>
+      <c r="P797" s="23"/>
     </row>
     <row r="798" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L798" s="24"/>
-      <c r="P798" s="24"/>
+      <c r="L798" s="23"/>
+      <c r="P798" s="23"/>
     </row>
     <row r="799" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L799" s="24"/>
-      <c r="P799" s="24"/>
+      <c r="L799" s="23"/>
+      <c r="P799" s="23"/>
     </row>
     <row r="800" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L800" s="24"/>
-      <c r="P800" s="24"/>
+      <c r="L800" s="23"/>
+      <c r="P800" s="23"/>
     </row>
     <row r="801" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L801" s="24"/>
-      <c r="P801" s="24"/>
+      <c r="L801" s="23"/>
+      <c r="P801" s="23"/>
     </row>
     <row r="802" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L802" s="24"/>
-      <c r="P802" s="24"/>
+      <c r="L802" s="23"/>
+      <c r="P802" s="23"/>
     </row>
     <row r="803" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L803" s="24"/>
-      <c r="P803" s="24"/>
+      <c r="L803" s="23"/>
+      <c r="P803" s="23"/>
     </row>
     <row r="804" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L804" s="24"/>
-      <c r="P804" s="24"/>
+      <c r="L804" s="23"/>
+      <c r="P804" s="23"/>
     </row>
     <row r="805" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L805" s="24"/>
-      <c r="P805" s="24"/>
+      <c r="L805" s="23"/>
+      <c r="P805" s="23"/>
     </row>
     <row r="806" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L806" s="24"/>
-      <c r="P806" s="24"/>
+      <c r="L806" s="23"/>
+      <c r="P806" s="23"/>
     </row>
     <row r="807" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L807" s="24"/>
-      <c r="P807" s="24"/>
+      <c r="L807" s="23"/>
+      <c r="P807" s="23"/>
     </row>
     <row r="808" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L808" s="24"/>
-      <c r="P808" s="24"/>
+      <c r="L808" s="23"/>
+      <c r="P808" s="23"/>
     </row>
     <row r="809" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L809" s="24"/>
-      <c r="P809" s="24"/>
+      <c r="L809" s="23"/>
+      <c r="P809" s="23"/>
     </row>
     <row r="810" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L810" s="24"/>
-      <c r="P810" s="24"/>
+      <c r="L810" s="23"/>
+      <c r="P810" s="23"/>
     </row>
     <row r="811" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L811" s="24"/>
-      <c r="P811" s="24"/>
+      <c r="L811" s="23"/>
+      <c r="P811" s="23"/>
     </row>
     <row r="812" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L812" s="24"/>
-      <c r="P812" s="24"/>
+      <c r="L812" s="23"/>
+      <c r="P812" s="23"/>
     </row>
     <row r="813" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L813" s="24"/>
-      <c r="P813" s="24"/>
+      <c r="L813" s="23"/>
+      <c r="P813" s="23"/>
     </row>
     <row r="814" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L814" s="24"/>
-      <c r="P814" s="24"/>
+      <c r="L814" s="23"/>
+      <c r="P814" s="23"/>
     </row>
     <row r="815" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L815" s="24"/>
-      <c r="P815" s="24"/>
+      <c r="L815" s="23"/>
+      <c r="P815" s="23"/>
     </row>
     <row r="816" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L816" s="24"/>
-      <c r="P816" s="24"/>
+      <c r="L816" s="23"/>
+      <c r="P816" s="23"/>
     </row>
     <row r="817" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L817" s="24"/>
-      <c r="P817" s="24"/>
+      <c r="L817" s="23"/>
+      <c r="P817" s="23"/>
     </row>
     <row r="818" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L818" s="24"/>
-      <c r="P818" s="24"/>
+      <c r="L818" s="23"/>
+      <c r="P818" s="23"/>
     </row>
     <row r="819" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L819" s="24"/>
-      <c r="P819" s="24"/>
+      <c r="L819" s="23"/>
+      <c r="P819" s="23"/>
     </row>
     <row r="820" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L820" s="24"/>
-      <c r="P820" s="24"/>
+      <c r="L820" s="23"/>
+      <c r="P820" s="23"/>
     </row>
     <row r="821" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L821" s="24"/>
-      <c r="P821" s="24"/>
+      <c r="L821" s="23"/>
+      <c r="P821" s="23"/>
     </row>
     <row r="822" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L822" s="24"/>
-      <c r="P822" s="24"/>
+      <c r="L822" s="23"/>
+      <c r="P822" s="23"/>
     </row>
     <row r="823" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L823" s="24"/>
-      <c r="P823" s="24"/>
+      <c r="L823" s="23"/>
+      <c r="P823" s="23"/>
     </row>
     <row r="824" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L824" s="24"/>
-      <c r="P824" s="24"/>
+      <c r="L824" s="23"/>
+      <c r="P824" s="23"/>
     </row>
     <row r="825" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L825" s="24"/>
-      <c r="P825" s="24"/>
+      <c r="L825" s="23"/>
+      <c r="P825" s="23"/>
     </row>
     <row r="826" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L826" s="24"/>
-      <c r="P826" s="24"/>
+      <c r="L826" s="23"/>
+      <c r="P826" s="23"/>
     </row>
     <row r="827" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L827" s="24"/>
-      <c r="P827" s="24"/>
+      <c r="L827" s="23"/>
+      <c r="P827" s="23"/>
     </row>
     <row r="828" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L828" s="24"/>
-      <c r="P828" s="24"/>
+      <c r="L828" s="23"/>
+      <c r="P828" s="23"/>
     </row>
     <row r="829" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L829" s="24"/>
-      <c r="P829" s="24"/>
+      <c r="L829" s="23"/>
+      <c r="P829" s="23"/>
     </row>
     <row r="830" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L830" s="24"/>
-      <c r="P830" s="24"/>
+      <c r="L830" s="23"/>
+      <c r="P830" s="23"/>
     </row>
     <row r="831" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L831" s="24"/>
-      <c r="P831" s="24"/>
+      <c r="L831" s="23"/>
+      <c r="P831" s="23"/>
     </row>
     <row r="832" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L832" s="24"/>
-      <c r="P832" s="24"/>
+      <c r="L832" s="23"/>
+      <c r="P832" s="23"/>
     </row>
     <row r="833" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L833" s="24"/>
-      <c r="P833" s="24"/>
+      <c r="L833" s="23"/>
+      <c r="P833" s="23"/>
     </row>
     <row r="834" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L834" s="24"/>
-      <c r="P834" s="24"/>
+      <c r="L834" s="23"/>
+      <c r="P834" s="23"/>
     </row>
     <row r="835" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L835" s="24"/>
-      <c r="P835" s="24"/>
+      <c r="L835" s="23"/>
+      <c r="P835" s="23"/>
     </row>
     <row r="836" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L836" s="24"/>
-      <c r="P836" s="24"/>
+      <c r="L836" s="23"/>
+      <c r="P836" s="23"/>
     </row>
     <row r="837" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L837" s="24"/>
-      <c r="P837" s="24"/>
+      <c r="L837" s="23"/>
+      <c r="P837" s="23"/>
     </row>
     <row r="838" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L838" s="24"/>
-      <c r="P838" s="24"/>
+      <c r="L838" s="23"/>
+      <c r="P838" s="23"/>
     </row>
     <row r="839" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L839" s="24"/>
-      <c r="P839" s="24"/>
+      <c r="L839" s="23"/>
+      <c r="P839" s="23"/>
     </row>
     <row r="840" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L840" s="24"/>
-      <c r="P840" s="24"/>
+      <c r="L840" s="23"/>
+      <c r="P840" s="23"/>
     </row>
     <row r="841" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L841" s="24"/>
-      <c r="P841" s="24"/>
+      <c r="L841" s="23"/>
+      <c r="P841" s="23"/>
     </row>
     <row r="842" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L842" s="24"/>
-      <c r="P842" s="24"/>
+      <c r="L842" s="23"/>
+      <c r="P842" s="23"/>
     </row>
     <row r="843" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L843" s="24"/>
-      <c r="P843" s="24"/>
+      <c r="L843" s="23"/>
+      <c r="P843" s="23"/>
     </row>
     <row r="844" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L844" s="24"/>
-      <c r="P844" s="24"/>
+      <c r="L844" s="23"/>
+      <c r="P844" s="23"/>
     </row>
     <row r="845" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L845" s="24"/>
-      <c r="P845" s="24"/>
+      <c r="L845" s="23"/>
+      <c r="P845" s="23"/>
     </row>
     <row r="846" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L846" s="24"/>
-      <c r="P846" s="24"/>
+      <c r="L846" s="23"/>
+      <c r="P846" s="23"/>
     </row>
     <row r="847" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L847" s="24"/>
-      <c r="P847" s="24"/>
+      <c r="L847" s="23"/>
+      <c r="P847" s="23"/>
     </row>
     <row r="848" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L848" s="24"/>
-      <c r="P848" s="24"/>
+      <c r="L848" s="23"/>
+      <c r="P848" s="23"/>
     </row>
     <row r="849" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L849" s="24"/>
-      <c r="P849" s="24"/>
+      <c r="L849" s="23"/>
+      <c r="P849" s="23"/>
     </row>
     <row r="850" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L850" s="24"/>
-      <c r="P850" s="24"/>
+      <c r="L850" s="23"/>
+      <c r="P850" s="23"/>
     </row>
     <row r="851" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L851" s="24"/>
-      <c r="P851" s="24"/>
+      <c r="L851" s="23"/>
+      <c r="P851" s="23"/>
     </row>
     <row r="852" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L852" s="24"/>
-      <c r="P852" s="24"/>
+      <c r="L852" s="23"/>
+      <c r="P852" s="23"/>
     </row>
     <row r="853" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L853" s="24"/>
-      <c r="P853" s="24"/>
+      <c r="L853" s="23"/>
+      <c r="P853" s="23"/>
     </row>
     <row r="854" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L854" s="24"/>
-      <c r="P854" s="24"/>
+      <c r="L854" s="23"/>
+      <c r="P854" s="23"/>
     </row>
     <row r="855" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L855" s="24"/>
-      <c r="P855" s="24"/>
+      <c r="L855" s="23"/>
+      <c r="P855" s="23"/>
     </row>
     <row r="856" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L856" s="24"/>
-      <c r="P856" s="24"/>
+      <c r="L856" s="23"/>
+      <c r="P856" s="23"/>
     </row>
     <row r="857" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L857" s="24"/>
-      <c r="P857" s="24"/>
+      <c r="L857" s="23"/>
+      <c r="P857" s="23"/>
     </row>
     <row r="858" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L858" s="24"/>
-      <c r="P858" s="24"/>
+      <c r="L858" s="23"/>
+      <c r="P858" s="23"/>
     </row>
     <row r="859" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L859" s="24"/>
-      <c r="P859" s="24"/>
+      <c r="L859" s="23"/>
+      <c r="P859" s="23"/>
     </row>
     <row r="860" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L860" s="24"/>
-      <c r="P860" s="24"/>
+      <c r="L860" s="23"/>
+      <c r="P860" s="23"/>
     </row>
     <row r="861" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L861" s="24"/>
-      <c r="P861" s="24"/>
+      <c r="L861" s="23"/>
+      <c r="P861" s="23"/>
     </row>
     <row r="862" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L862" s="24"/>
-      <c r="P862" s="24"/>
+      <c r="L862" s="23"/>
+      <c r="P862" s="23"/>
     </row>
     <row r="863" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L863" s="24"/>
-      <c r="P863" s="24"/>
+      <c r="L863" s="23"/>
+      <c r="P863" s="23"/>
     </row>
     <row r="864" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L864" s="24"/>
-      <c r="P864" s="24"/>
+      <c r="L864" s="23"/>
+      <c r="P864" s="23"/>
     </row>
     <row r="865" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L865" s="24"/>
-      <c r="P865" s="24"/>
+      <c r="L865" s="23"/>
+      <c r="P865" s="23"/>
     </row>
     <row r="866" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L866" s="24"/>
-      <c r="P866" s="24"/>
+      <c r="L866" s="23"/>
+      <c r="P866" s="23"/>
     </row>
     <row r="867" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L867" s="24"/>
-      <c r="P867" s="24"/>
+      <c r="L867" s="23"/>
+      <c r="P867" s="23"/>
     </row>
     <row r="868" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L868" s="24"/>
-      <c r="P868" s="24"/>
+      <c r="L868" s="23"/>
+      <c r="P868" s="23"/>
     </row>
     <row r="869" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L869" s="24"/>
-      <c r="P869" s="24"/>
+      <c r="L869" s="23"/>
+      <c r="P869" s="23"/>
     </row>
     <row r="870" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L870" s="24"/>
-      <c r="P870" s="24"/>
+      <c r="L870" s="23"/>
+      <c r="P870" s="23"/>
     </row>
     <row r="871" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L871" s="24"/>
-      <c r="P871" s="24"/>
+      <c r="L871" s="23"/>
+      <c r="P871" s="23"/>
     </row>
     <row r="872" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L872" s="24"/>
-      <c r="P872" s="24"/>
+      <c r="L872" s="23"/>
+      <c r="P872" s="23"/>
     </row>
     <row r="873" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L873" s="24"/>
-      <c r="P873" s="24"/>
+      <c r="L873" s="23"/>
+      <c r="P873" s="23"/>
     </row>
     <row r="874" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L874" s="24"/>
-      <c r="P874" s="24"/>
+      <c r="L874" s="23"/>
+      <c r="P874" s="23"/>
     </row>
     <row r="875" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L875" s="24"/>
-      <c r="P875" s="24"/>
+      <c r="L875" s="23"/>
+      <c r="P875" s="23"/>
     </row>
     <row r="876" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L876" s="24"/>
-      <c r="P876" s="24"/>
+      <c r="L876" s="23"/>
+      <c r="P876" s="23"/>
     </row>
     <row r="877" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L877" s="24"/>
-      <c r="P877" s="24"/>
+      <c r="L877" s="23"/>
+      <c r="P877" s="23"/>
     </row>
     <row r="878" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L878" s="24"/>
-      <c r="P878" s="24"/>
+      <c r="L878" s="23"/>
+      <c r="P878" s="23"/>
     </row>
     <row r="879" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L879" s="24"/>
-      <c r="P879" s="24"/>
+      <c r="L879" s="23"/>
+      <c r="P879" s="23"/>
     </row>
     <row r="880" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L880" s="24"/>
-      <c r="P880" s="24"/>
+      <c r="L880" s="23"/>
+      <c r="P880" s="23"/>
     </row>
     <row r="881" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L881" s="24"/>
-      <c r="P881" s="24"/>
+      <c r="L881" s="23"/>
+      <c r="P881" s="23"/>
     </row>
     <row r="882" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L882" s="24"/>
-      <c r="P882" s="24"/>
+      <c r="L882" s="23"/>
+      <c r="P882" s="23"/>
     </row>
     <row r="883" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L883" s="24"/>
-      <c r="P883" s="24"/>
+      <c r="L883" s="23"/>
+      <c r="P883" s="23"/>
     </row>
     <row r="884" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L884" s="24"/>
-      <c r="P884" s="24"/>
+      <c r="L884" s="23"/>
+      <c r="P884" s="23"/>
     </row>
     <row r="885" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L885" s="24"/>
-      <c r="P885" s="24"/>
+      <c r="L885" s="23"/>
+      <c r="P885" s="23"/>
     </row>
     <row r="886" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L886" s="24"/>
-      <c r="P886" s="24"/>
+      <c r="L886" s="23"/>
+      <c r="P886" s="23"/>
     </row>
     <row r="887" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L887" s="24"/>
-      <c r="P887" s="24"/>
+      <c r="L887" s="23"/>
+      <c r="P887" s="23"/>
     </row>
     <row r="888" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L888" s="24"/>
-      <c r="P888" s="24"/>
+      <c r="L888" s="23"/>
+      <c r="P888" s="23"/>
     </row>
     <row r="889" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L889" s="24"/>
-      <c r="P889" s="24"/>
+      <c r="L889" s="23"/>
+      <c r="P889" s="23"/>
     </row>
     <row r="890" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L890" s="24"/>
-      <c r="P890" s="24"/>
+      <c r="L890" s="23"/>
+      <c r="P890" s="23"/>
     </row>
     <row r="891" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L891" s="24"/>
-      <c r="P891" s="24"/>
+      <c r="L891" s="23"/>
+      <c r="P891" s="23"/>
     </row>
     <row r="892" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L892" s="24"/>
-      <c r="P892" s="24"/>
+      <c r="L892" s="23"/>
+      <c r="P892" s="23"/>
     </row>
     <row r="893" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L893" s="24"/>
-      <c r="P893" s="24"/>
+      <c r="L893" s="23"/>
+      <c r="P893" s="23"/>
     </row>
     <row r="894" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L894" s="24"/>
-      <c r="P894" s="24"/>
+      <c r="L894" s="23"/>
+      <c r="P894" s="23"/>
     </row>
     <row r="895" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L895" s="24"/>
-      <c r="P895" s="24"/>
+      <c r="L895" s="23"/>
+      <c r="P895" s="23"/>
     </row>
     <row r="896" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L896" s="24"/>
-      <c r="P896" s="24"/>
+      <c r="L896" s="23"/>
+      <c r="P896" s="23"/>
     </row>
     <row r="897" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L897" s="24"/>
-      <c r="P897" s="24"/>
+      <c r="L897" s="23"/>
+      <c r="P897" s="23"/>
     </row>
     <row r="898" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L898" s="24"/>
-      <c r="P898" s="24"/>
+      <c r="L898" s="23"/>
+      <c r="P898" s="23"/>
     </row>
     <row r="899" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L899" s="24"/>
-      <c r="P899" s="24"/>
+      <c r="L899" s="23"/>
+      <c r="P899" s="23"/>
     </row>
     <row r="900" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L900" s="24"/>
-      <c r="P900" s="24"/>
+      <c r="L900" s="23"/>
+      <c r="P900" s="23"/>
     </row>
     <row r="901" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L901" s="24"/>
-      <c r="P901" s="24"/>
+      <c r="L901" s="23"/>
+      <c r="P901" s="23"/>
     </row>
     <row r="902" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L902" s="24"/>
-      <c r="P902" s="24"/>
+      <c r="L902" s="23"/>
+      <c r="P902" s="23"/>
     </row>
     <row r="903" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L903" s="24"/>
-      <c r="P903" s="24"/>
+      <c r="L903" s="23"/>
+      <c r="P903" s="23"/>
     </row>
     <row r="904" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L904" s="24"/>
-      <c r="P904" s="24"/>
+      <c r="L904" s="23"/>
+      <c r="P904" s="23"/>
     </row>
     <row r="905" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L905" s="24"/>
-      <c r="P905" s="24"/>
+      <c r="L905" s="23"/>
+      <c r="P905" s="23"/>
     </row>
     <row r="906" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L906" s="24"/>
-      <c r="P906" s="24"/>
+      <c r="L906" s="23"/>
+      <c r="P906" s="23"/>
     </row>
     <row r="907" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L907" s="24"/>
-      <c r="P907" s="24"/>
+      <c r="L907" s="23"/>
+      <c r="P907" s="23"/>
     </row>
     <row r="908" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L908" s="24"/>
-      <c r="P908" s="24"/>
+      <c r="L908" s="23"/>
+      <c r="P908" s="23"/>
     </row>
     <row r="909" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L909" s="24"/>
-      <c r="P909" s="24"/>
+      <c r="L909" s="23"/>
+      <c r="P909" s="23"/>
     </row>
     <row r="910" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L910" s="24"/>
-      <c r="P910" s="24"/>
+      <c r="L910" s="23"/>
+      <c r="P910" s="23"/>
     </row>
     <row r="911" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L911" s="24"/>
-      <c r="P911" s="24"/>
+      <c r="L911" s="23"/>
+      <c r="P911" s="23"/>
     </row>
     <row r="912" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L912" s="24"/>
-      <c r="P912" s="24"/>
+      <c r="L912" s="23"/>
+      <c r="P912" s="23"/>
     </row>
     <row r="913" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L913" s="24"/>
-      <c r="P913" s="24"/>
+      <c r="L913" s="23"/>
+      <c r="P913" s="23"/>
     </row>
     <row r="914" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L914" s="24"/>
-      <c r="P914" s="24"/>
+      <c r="L914" s="23"/>
+      <c r="P914" s="23"/>
     </row>
     <row r="915" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L915" s="24"/>
-      <c r="P915" s="24"/>
+      <c r="L915" s="23"/>
+      <c r="P915" s="23"/>
     </row>
     <row r="916" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L916" s="24"/>
-      <c r="P916" s="24"/>
+      <c r="L916" s="23"/>
+      <c r="P916" s="23"/>
     </row>
     <row r="917" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L917" s="24"/>
-      <c r="P917" s="24"/>
+      <c r="L917" s="23"/>
+      <c r="P917" s="23"/>
     </row>
     <row r="918" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L918" s="24"/>
-      <c r="P918" s="24"/>
+      <c r="L918" s="23"/>
+      <c r="P918" s="23"/>
     </row>
     <row r="919" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L919" s="24"/>
-      <c r="P919" s="24"/>
+      <c r="L919" s="23"/>
+      <c r="P919" s="23"/>
     </row>
     <row r="920" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L920" s="24"/>
-      <c r="P920" s="24"/>
+      <c r="L920" s="23"/>
+      <c r="P920" s="23"/>
     </row>
     <row r="921" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L921" s="24"/>
-      <c r="P921" s="24"/>
+      <c r="L921" s="23"/>
+      <c r="P921" s="23"/>
     </row>
     <row r="922" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L922" s="24"/>
-      <c r="P922" s="24"/>
+      <c r="L922" s="23"/>
+      <c r="P922" s="23"/>
     </row>
     <row r="923" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L923" s="24"/>
-      <c r="P923" s="24"/>
+      <c r="L923" s="23"/>
+      <c r="P923" s="23"/>
     </row>
     <row r="924" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L924" s="24"/>
-      <c r="P924" s="24"/>
+      <c r="L924" s="23"/>
+      <c r="P924" s="23"/>
     </row>
     <row r="925" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L925" s="24"/>
-      <c r="P925" s="24"/>
+      <c r="L925" s="23"/>
+      <c r="P925" s="23"/>
     </row>
     <row r="926" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L926" s="24"/>
-      <c r="P926" s="24"/>
+      <c r="L926" s="23"/>
+      <c r="P926" s="23"/>
     </row>
     <row r="927" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L927" s="24"/>
-      <c r="P927" s="24"/>
+      <c r="L927" s="23"/>
+      <c r="P927" s="23"/>
     </row>
     <row r="928" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L928" s="24"/>
-      <c r="P928" s="24"/>
+      <c r="L928" s="23"/>
+      <c r="P928" s="23"/>
     </row>
     <row r="929" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L929" s="24"/>
-      <c r="P929" s="24"/>
+      <c r="L929" s="23"/>
+      <c r="P929" s="23"/>
     </row>
     <row r="930" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L930" s="24"/>
-      <c r="P930" s="24"/>
+      <c r="L930" s="23"/>
+      <c r="P930" s="23"/>
     </row>
     <row r="931" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L931" s="24"/>
-      <c r="P931" s="24"/>
+      <c r="L931" s="23"/>
+      <c r="P931" s="23"/>
     </row>
     <row r="932" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L932" s="24"/>
-      <c r="P932" s="24"/>
+      <c r="L932" s="23"/>
+      <c r="P932" s="23"/>
     </row>
     <row r="933" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L933" s="24"/>
-      <c r="P933" s="24"/>
+      <c r="L933" s="23"/>
+      <c r="P933" s="23"/>
     </row>
     <row r="934" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L934" s="24"/>
-      <c r="P934" s="24"/>
+      <c r="L934" s="23"/>
+      <c r="P934" s="23"/>
     </row>
     <row r="935" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L935" s="24"/>
-      <c r="P935" s="24"/>
+      <c r="L935" s="23"/>
+      <c r="P935" s="23"/>
     </row>
     <row r="936" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L936" s="24"/>
-      <c r="P936" s="24"/>
+      <c r="L936" s="23"/>
+      <c r="P936" s="23"/>
     </row>
     <row r="937" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L937" s="24"/>
-      <c r="P937" s="24"/>
+      <c r="L937" s="23"/>
+      <c r="P937" s="23"/>
     </row>
     <row r="938" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L938" s="24"/>
-      <c r="P938" s="24"/>
+      <c r="L938" s="23"/>
+      <c r="P938" s="23"/>
     </row>
     <row r="939" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L939" s="24"/>
-      <c r="P939" s="24"/>
+      <c r="L939" s="23"/>
+      <c r="P939" s="23"/>
     </row>
     <row r="940" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L940" s="24"/>
-      <c r="P940" s="24"/>
+      <c r="L940" s="23"/>
+      <c r="P940" s="23"/>
     </row>
     <row r="941" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L941" s="24"/>
-      <c r="P941" s="24"/>
+      <c r="L941" s="23"/>
+      <c r="P941" s="23"/>
     </row>
     <row r="942" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L942" s="24"/>
-      <c r="P942" s="24"/>
+      <c r="L942" s="23"/>
+      <c r="P942" s="23"/>
     </row>
     <row r="943" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L943" s="24"/>
-      <c r="P943" s="24"/>
+      <c r="L943" s="23"/>
+      <c r="P943" s="23"/>
     </row>
     <row r="944" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L944" s="24"/>
-      <c r="P944" s="24"/>
+      <c r="L944" s="23"/>
+      <c r="P944" s="23"/>
     </row>
     <row r="945" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L945" s="24"/>
-      <c r="P945" s="24"/>
+      <c r="L945" s="23"/>
+      <c r="P945" s="23"/>
     </row>
     <row r="946" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L946" s="24"/>
-      <c r="P946" s="24"/>
+      <c r="L946" s="23"/>
+      <c r="P946" s="23"/>
     </row>
     <row r="947" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L947" s="24"/>
-      <c r="P947" s="24"/>
+      <c r="L947" s="23"/>
+      <c r="P947" s="23"/>
     </row>
     <row r="948" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L948" s="24"/>
-      <c r="P948" s="24"/>
+      <c r="L948" s="23"/>
+      <c r="P948" s="23"/>
     </row>
     <row r="949" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L949" s="24"/>
-      <c r="P949" s="24"/>
+      <c r="L949" s="23"/>
+      <c r="P949" s="23"/>
     </row>
     <row r="950" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L950" s="24"/>
-      <c r="P950" s="24"/>
+      <c r="L950" s="23"/>
+      <c r="P950" s="23"/>
     </row>
     <row r="951" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L951" s="24"/>
-      <c r="P951" s="24"/>
+      <c r="L951" s="23"/>
+      <c r="P951" s="23"/>
     </row>
     <row r="952" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L952" s="24"/>
-      <c r="P952" s="24"/>
+      <c r="L952" s="23"/>
+      <c r="P952" s="23"/>
     </row>
     <row r="953" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L953" s="24"/>
-      <c r="P953" s="24"/>
+      <c r="L953" s="23"/>
+      <c r="P953" s="23"/>
     </row>
     <row r="954" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L954" s="24"/>
-      <c r="P954" s="24"/>
+      <c r="L954" s="23"/>
+      <c r="P954" s="23"/>
     </row>
     <row r="955" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L955" s="24"/>
-      <c r="P955" s="24"/>
+      <c r="L955" s="23"/>
+      <c r="P955" s="23"/>
     </row>
     <row r="956" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L956" s="24"/>
-      <c r="P956" s="24"/>
+      <c r="L956" s="23"/>
+      <c r="P956" s="23"/>
     </row>
     <row r="957" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L957" s="24"/>
-      <c r="P957" s="24"/>
+      <c r="L957" s="23"/>
+      <c r="P957" s="23"/>
     </row>
     <row r="958" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L958" s="24"/>
-      <c r="P958" s="24"/>
+      <c r="L958" s="23"/>
+      <c r="P958" s="23"/>
     </row>
     <row r="959" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L959" s="24"/>
-      <c r="P959" s="24"/>
+      <c r="L959" s="23"/>
+      <c r="P959" s="23"/>
     </row>
     <row r="960" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L960" s="24"/>
-      <c r="P960" s="24"/>
+      <c r="L960" s="23"/>
+      <c r="P960" s="23"/>
     </row>
     <row r="961" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L961" s="24"/>
-      <c r="P961" s="24"/>
+      <c r="L961" s="23"/>
+      <c r="P961" s="23"/>
     </row>
     <row r="962" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L962" s="24"/>
-      <c r="P962" s="24"/>
+      <c r="L962" s="23"/>
+      <c r="P962" s="23"/>
     </row>
     <row r="963" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L963" s="24"/>
-      <c r="P963" s="24"/>
+      <c r="L963" s="23"/>
+      <c r="P963" s="23"/>
     </row>
     <row r="964" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L964" s="24"/>
-      <c r="P964" s="24"/>
+      <c r="L964" s="23"/>
+      <c r="P964" s="23"/>
     </row>
     <row r="965" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L965" s="24"/>
-      <c r="P965" s="24"/>
+      <c r="L965" s="23"/>
+      <c r="P965" s="23"/>
     </row>
     <row r="966" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L966" s="24"/>
-      <c r="P966" s="24"/>
+      <c r="L966" s="23"/>
+      <c r="P966" s="23"/>
     </row>
     <row r="967" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L967" s="24"/>
-      <c r="P967" s="24"/>
+      <c r="L967" s="23"/>
+      <c r="P967" s="23"/>
     </row>
     <row r="968" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L968" s="24"/>
-      <c r="P968" s="24"/>
+      <c r="L968" s="23"/>
+      <c r="P968" s="23"/>
     </row>
     <row r="969" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L969" s="24"/>
-      <c r="P969" s="24"/>
+      <c r="L969" s="23"/>
+      <c r="P969" s="23"/>
     </row>
     <row r="970" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L970" s="24"/>
-      <c r="P970" s="24"/>
+      <c r="L970" s="23"/>
+      <c r="P970" s="23"/>
     </row>
     <row r="971" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L971" s="24"/>
-      <c r="P971" s="24"/>
+      <c r="L971" s="23"/>
+      <c r="P971" s="23"/>
     </row>
     <row r="972" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L972" s="24"/>
-      <c r="P972" s="24"/>
+      <c r="L972" s="23"/>
+      <c r="P972" s="23"/>
     </row>
     <row r="973" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L973" s="24"/>
-      <c r="P973" s="24"/>
+      <c r="L973" s="23"/>
+      <c r="P973" s="23"/>
     </row>
     <row r="974" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L974" s="24"/>
-      <c r="P974" s="24"/>
+      <c r="L974" s="23"/>
+      <c r="P974" s="23"/>
     </row>
     <row r="975" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L975" s="24"/>
-      <c r="P975" s="24"/>
+      <c r="L975" s="23"/>
+      <c r="P975" s="23"/>
     </row>
     <row r="976" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L976" s="24"/>
-      <c r="P976" s="24"/>
+      <c r="L976" s="23"/>
+      <c r="P976" s="23"/>
     </row>
     <row r="977" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L977" s="24"/>
-      <c r="P977" s="24"/>
+      <c r="L977" s="23"/>
+      <c r="P977" s="23"/>
     </row>
     <row r="978" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L978" s="24"/>
-      <c r="P978" s="24"/>
+      <c r="L978" s="23"/>
+      <c r="P978" s="23"/>
     </row>
     <row r="979" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L979" s="24"/>
-      <c r="P979" s="24"/>
+      <c r="L979" s="23"/>
+      <c r="P979" s="23"/>
     </row>
     <row r="980" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L980" s="24"/>
-      <c r="P980" s="24"/>
+      <c r="L980" s="23"/>
+      <c r="P980" s="23"/>
     </row>
     <row r="981" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L981" s="24"/>
-      <c r="P981" s="24"/>
+      <c r="L981" s="23"/>
+      <c r="P981" s="23"/>
     </row>
     <row r="982" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L982" s="24"/>
-      <c r="P982" s="24"/>
+      <c r="L982" s="23"/>
+      <c r="P982" s="23"/>
     </row>
     <row r="983" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L983" s="24"/>
-      <c r="P983" s="24"/>
+      <c r="L983" s="23"/>
+      <c r="P983" s="23"/>
     </row>
     <row r="984" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L984" s="24"/>
-      <c r="P984" s="24"/>
+      <c r="L984" s="23"/>
+      <c r="P984" s="23"/>
     </row>
     <row r="985" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L985" s="24"/>
-      <c r="P985" s="24"/>
+      <c r="L985" s="23"/>
+      <c r="P985" s="23"/>
     </row>
     <row r="986" spans="12:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="L986" s="24"/>
-      <c r="P986" s="24"/>
+      <c r="L986" s="23"/>
+      <c r="P986" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
